--- a/resources/excels/UG.xlsx
+++ b/resources/excels/UG.xlsx
@@ -1,16 +1,15 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="11012"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/a13221514/IdeaProjects/cs-portal-automation_selenium/resources/excels/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\2394650\IdeaProjects\cs-portal-automation_selenium1\resources\excels\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5218DE8F-0F88-BB40-B42D-1EB048134D35}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2820" yWindow="1520" windowWidth="31080" windowHeight="10040" firstSheet="6" activeTab="15" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="2820" yWindow="1515" windowWidth="31080" windowHeight="10035" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="LoginCredentials" sheetId="1" r:id="rId1"/>
@@ -41,7 +40,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2679" uniqueCount="1034">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2696" uniqueCount="1046">
   <si>
     <t>loginAuuid</t>
   </si>
@@ -3147,13 +3146,49 @@
   </si>
   <si>
     <t>cs-am-service/v1/profile.result.wallet[0].balance</t>
+  </si>
+  <si>
+    <t>UC-UT Offer</t>
+  </si>
+  <si>
+    <t>Offer ID</t>
+  </si>
+  <si>
+    <t>Offer Name</t>
+  </si>
+  <si>
+    <t>Product ID</t>
+  </si>
+  <si>
+    <t>PAM Service ID</t>
+  </si>
+  <si>
+    <t>Offer Type</t>
+  </si>
+  <si>
+    <t>Offer State</t>
+  </si>
+  <si>
+    <t>No. Of DAs</t>
+  </si>
+  <si>
+    <t>Friends and Family</t>
+  </si>
+  <si>
+    <t>FnF Number</t>
+  </si>
+  <si>
+    <t>Owner</t>
+  </si>
+  <si>
+    <t>FnF Indicator</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="18">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <fonts count="18" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -3635,11 +3670,11 @@
   </cellXfs>
   <cellStyles count="6">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
-    <cellStyle name="Normal 2" xfId="2" xr:uid="{00000000-0005-0000-0000-000001000000}"/>
-    <cellStyle name="Normal 3" xfId="3" xr:uid="{00000000-0005-0000-0000-000002000000}"/>
-    <cellStyle name="Normal 4" xfId="4" xr:uid="{00000000-0005-0000-0000-000003000000}"/>
-    <cellStyle name="Normal 5" xfId="1" xr:uid="{00000000-0005-0000-0000-000004000000}"/>
-    <cellStyle name="Normal 6" xfId="5" xr:uid="{00000000-0005-0000-0000-000005000000}"/>
+    <cellStyle name="Normal 2" xfId="2"/>
+    <cellStyle name="Normal 3" xfId="3"/>
+    <cellStyle name="Normal 4" xfId="4"/>
+    <cellStyle name="Normal 5" xfId="1"/>
+    <cellStyle name="Normal 6" xfId="5"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -3674,7 +3709,7 @@
         <xdr:cNvPr id="3" name="AutoShape 1">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{954E16FB-6A94-A343-90CA-E894AD77BEF0}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{954E16FB-6A94-A343-90CA-E894AD77BEF0}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -3722,7 +3757,7 @@
         <xdr:cNvPr id="4" name="AutoShape 1">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{E6BAE7BF-D860-F04B-AB9A-0BDAB5A1CB11}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{E6BAE7BF-D860-F04B-AB9A-0BDAB5A1CB11}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -3765,7 +3800,7 @@
         <xdr:cNvPr id="5" name="AutoShape 1">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{264FD7A5-25EF-0C45-807C-96677620EE21}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{264FD7A5-25EF-0C45-807C-96677620EE21}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -3808,7 +3843,7 @@
         <xdr:cNvPr id="6" name="AutoShape 1">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{99FB0A8E-E6EC-634C-8ACB-28EA8E91B51D}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{99FB0A8E-E6EC-634C-8ACB-28EA8E91B51D}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -3851,7 +3886,7 @@
         <xdr:cNvPr id="7" name="AutoShape 1">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{A6579E01-5254-8540-8119-4FE586399E3E}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{A6579E01-5254-8540-8119-4FE586399E3E}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -3894,7 +3929,7 @@
         <xdr:cNvPr id="8" name="AutoShape 1">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{25ECB8F3-2D73-EA46-A7CA-5A0E91B3A8F0}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{25ECB8F3-2D73-EA46-A7CA-5A0E91B3A8F0}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -4189,19 +4224,19 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:Q5"/>
   <sheetViews>
     <sheetView topLeftCell="D1" workbookViewId="0">
       <selection activeCell="P11" sqref="P11"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15"/>
+  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="4" max="4" width="19.1640625" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="4" max="4" width="19.140625" bestFit="1" customWidth="1" collapsed="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:17" ht="16">
+    <row r="1" spans="1:17" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -4254,7 +4289,7 @@
         <v>949</v>
       </c>
     </row>
-    <row r="2" spans="1:17" ht="17">
+    <row r="2" spans="1:17" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A2">
         <v>23103239</v>
       </c>
@@ -4274,7 +4309,7 @@
         <v>951</v>
       </c>
     </row>
-    <row r="3" spans="1:17" ht="17">
+    <row r="3" spans="1:17" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A3">
         <v>23101480</v>
       </c>
@@ -4292,7 +4327,7 @@
       </c>
       <c r="Q3" s="10"/>
     </row>
-    <row r="4" spans="1:17" ht="17">
+    <row r="4" spans="1:17" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A4">
         <v>2394650</v>
       </c>
@@ -4310,7 +4345,7 @@
       </c>
       <c r="Q4" s="10"/>
     </row>
-    <row r="5" spans="1:17" ht="17">
+    <row r="5" spans="1:17" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A5">
         <v>23103239</v>
       </c>
@@ -4334,16 +4369,16 @@
 </file>
 
 <file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0900-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:C6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="L9" sqref="L9"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15"/>
+  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="1" spans="1:3" ht="16">
+    <row r="1" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A1" s="23" t="s">
         <v>63</v>
       </c>
@@ -4354,7 +4389,7 @@
         <v>65</v>
       </c>
     </row>
-    <row r="2" spans="1:3" ht="16">
+    <row r="2" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A2" s="20" t="s">
         <v>66</v>
       </c>
@@ -4363,7 +4398,7 @@
       </c>
       <c r="C2" s="18"/>
     </row>
-    <row r="3" spans="1:3" ht="16">
+    <row r="3" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A3" s="21" t="s">
         <v>67</v>
       </c>
@@ -4372,7 +4407,7 @@
       </c>
       <c r="C3" s="17"/>
     </row>
-    <row r="4" spans="1:3" ht="16">
+    <row r="4" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A4" s="21" t="s">
         <v>69</v>
       </c>
@@ -4381,7 +4416,7 @@
       </c>
       <c r="C4" s="17"/>
     </row>
-    <row r="5" spans="1:3" ht="16">
+    <row r="5" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A5" s="21" t="s">
         <v>70</v>
       </c>
@@ -4390,7 +4425,7 @@
       </c>
       <c r="C5" s="17"/>
     </row>
-    <row r="6" spans="1:3" ht="16">
+    <row r="6" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A6" s="21" t="s">
         <v>71</v>
       </c>
@@ -4407,20 +4442,20 @@
 </file>
 
 <file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0A00-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:B7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="E5" sqref="E5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15"/>
+  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="36.5" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="2" max="2" width="10.5" customWidth="1" collapsed="1"/>
+    <col min="1" max="1" width="36.42578125" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="2" max="2" width="10.42578125" customWidth="1" collapsed="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" ht="16">
+    <row r="1" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A1" s="25" t="s">
         <v>72</v>
       </c>
@@ -4428,7 +4463,7 @@
         <v>73</v>
       </c>
     </row>
-    <row r="2" spans="1:2" ht="16">
+    <row r="2" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A2" s="24" t="s">
         <v>74</v>
       </c>
@@ -4436,7 +4471,7 @@
         <v>75</v>
       </c>
     </row>
-    <row r="3" spans="1:2" ht="16">
+    <row r="3" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A3" s="24" t="s">
         <v>76</v>
       </c>
@@ -4444,7 +4479,7 @@
         <v>77</v>
       </c>
     </row>
-    <row r="4" spans="1:2" ht="16">
+    <row r="4" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A4" s="24" t="s">
         <v>78</v>
       </c>
@@ -4452,19 +4487,19 @@
         <v>79</v>
       </c>
     </row>
-    <row r="5" spans="1:2" ht="16">
+    <row r="5" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A5" s="24" t="s">
         <v>80</v>
       </c>
       <c r="B5" s="24"/>
     </row>
-    <row r="6" spans="1:2" ht="16">
+    <row r="6" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A6" s="24" t="s">
         <v>81</v>
       </c>
       <c r="B6" s="24"/>
     </row>
-    <row r="7" spans="1:2" ht="16">
+    <row r="7" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A7" s="24" t="s">
         <v>82</v>
       </c>
@@ -4476,16 +4511,16 @@
 </file>
 
 <file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0B00-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:E1"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection sqref="A1:E1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15"/>
+  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="1" spans="1:5" ht="16">
+    <row r="1" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A1" s="26" t="s">
         <v>83</v>
       </c>
@@ -4508,16 +4543,16 @@
 </file>
 
 <file path=xl/worksheets/sheet13.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0C00-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:M2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="G4" sqref="G4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15"/>
+  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="1" spans="1:13" ht="34">
+    <row r="1" spans="1:13" ht="31.5" x14ac:dyDescent="0.25">
       <c r="A1" s="27" t="s">
         <v>88</v>
       </c>
@@ -4558,7 +4593,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="2" spans="1:13" ht="56">
+    <row r="2" spans="1:13" ht="51" x14ac:dyDescent="0.25">
       <c r="A2" s="22" t="s">
         <v>101</v>
       </c>
@@ -4593,16 +4628,16 @@
 </file>
 
 <file path=xl/worksheets/sheet14.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0D00-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:K13"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="H11" sqref="H11"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15"/>
+  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="1" spans="1:11" ht="16">
+    <row r="1" spans="1:11" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A1" s="90" t="s">
         <v>108</v>
       </c>
@@ -4635,7 +4670,7 @@
       </c>
       <c r="K1" s="90"/>
     </row>
-    <row r="2" spans="1:11" ht="16">
+    <row r="2" spans="1:11" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A2" s="66" t="s">
         <v>885</v>
       </c>
@@ -4656,7 +4691,7 @@
       </c>
       <c r="K2" s="15"/>
     </row>
-    <row r="3" spans="1:11">
+    <row r="3" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A3" s="90" t="s">
         <v>981</v>
       </c>
@@ -4677,7 +4712,7 @@
       </c>
       <c r="K3" s="15"/>
     </row>
-    <row r="4" spans="1:11">
+    <row r="4" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A4" s="90" t="s">
         <v>983</v>
       </c>
@@ -4694,7 +4729,7 @@
       </c>
       <c r="K4" s="15"/>
     </row>
-    <row r="5" spans="1:11">
+    <row r="5" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A5" s="90" t="s">
         <v>984</v>
       </c>
@@ -4711,7 +4746,7 @@
       </c>
       <c r="K5" s="15"/>
     </row>
-    <row r="6" spans="1:11">
+    <row r="6" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A6" s="90" t="s">
         <v>985</v>
       </c>
@@ -4728,7 +4763,7 @@
       </c>
       <c r="K6" s="15"/>
     </row>
-    <row r="7" spans="1:11">
+    <row r="7" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A7" s="90" t="s">
         <v>986</v>
       </c>
@@ -4745,7 +4780,7 @@
       </c>
       <c r="K7" s="15"/>
     </row>
-    <row r="8" spans="1:11">
+    <row r="8" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A8" s="90" t="s">
         <v>987</v>
       </c>
@@ -4762,7 +4797,7 @@
       </c>
       <c r="K8" s="15"/>
     </row>
-    <row r="9" spans="1:11">
+    <row r="9" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A9" s="90" t="s">
         <v>988</v>
       </c>
@@ -4779,7 +4814,7 @@
       </c>
       <c r="K9" s="15"/>
     </row>
-    <row r="10" spans="1:11">
+    <row r="10" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A10" s="90" t="s">
         <v>989</v>
       </c>
@@ -4796,7 +4831,7 @@
       </c>
       <c r="K10" s="15"/>
     </row>
-    <row r="11" spans="1:11">
+    <row r="11" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A11" s="90" t="s">
         <v>990</v>
       </c>
@@ -4813,7 +4848,7 @@
       </c>
       <c r="K11" s="15"/>
     </row>
-    <row r="12" spans="1:11">
+    <row r="12" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A12" s="90" t="s">
         <v>991</v>
       </c>
@@ -4830,7 +4865,7 @@
       </c>
       <c r="K12" s="15"/>
     </row>
-    <row r="13" spans="1:11">
+    <row r="13" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A13" s="90" t="s">
         <v>992</v>
       </c>
@@ -4853,16 +4888,16 @@
 </file>
 
 <file path=xl/worksheets/sheet15.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{ED91C072-8716-FE4E-A497-A44F14AFE7CA}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:C3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="B5" sqref="B5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15"/>
+  <sheetFormatPr defaultColWidth="11.42578125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="1" spans="1:3" ht="16">
+    <row r="1" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A1" s="66" t="s">
         <v>86</v>
       </c>
@@ -4873,7 +4908,7 @@
         <v>993</v>
       </c>
     </row>
-    <row r="2" spans="1:3" ht="16">
+    <row r="2" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A2" s="6" t="s">
         <v>44</v>
       </c>
@@ -4884,7 +4919,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="3" spans="1:3" ht="16">
+    <row r="3" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A3" s="6" t="s">
         <v>45</v>
       </c>
@@ -4901,22 +4936,22 @@
 </file>
 
 <file path=xl/worksheets/sheet16.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{113C4DD8-CBC4-6E49-850D-BA90CBE21A26}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:C15"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="E7" sqref="E7"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15"/>
+  <sheetFormatPr defaultColWidth="10.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="21.1640625" style="93" customWidth="1"/>
-    <col min="2" max="2" width="35.5" style="93" customWidth="1"/>
-    <col min="3" max="3" width="51.1640625" style="93" customWidth="1"/>
-    <col min="4" max="16384" width="10.83203125" style="93"/>
+    <col min="1" max="1" width="21.140625" style="93" customWidth="1"/>
+    <col min="2" max="2" width="35.42578125" style="93" customWidth="1"/>
+    <col min="3" max="3" width="51.140625" style="93" customWidth="1"/>
+    <col min="4" max="16384" width="10.85546875" style="93"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" ht="17">
+    <row r="1" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A1" s="8" t="s">
         <v>994</v>
       </c>
@@ -4927,7 +4962,7 @@
         <v>996</v>
       </c>
     </row>
-    <row r="2" spans="1:3" ht="17">
+    <row r="2" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A2" s="8" t="s">
         <v>997</v>
       </c>
@@ -4938,7 +4973,7 @@
         <v>999</v>
       </c>
     </row>
-    <row r="3" spans="1:3" ht="51">
+    <row r="3" spans="1:3" ht="47.25" x14ac:dyDescent="0.25">
       <c r="A3" s="8" t="s">
         <v>106</v>
       </c>
@@ -4949,7 +4984,7 @@
         <v>1001</v>
       </c>
     </row>
-    <row r="4" spans="1:3" ht="17">
+    <row r="4" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A4" s="8" t="s">
         <v>1002</v>
       </c>
@@ -4960,7 +4995,7 @@
         <v>1004</v>
       </c>
     </row>
-    <row r="5" spans="1:3" ht="17">
+    <row r="5" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A5" s="8" t="s">
         <v>1005</v>
       </c>
@@ -4971,7 +5006,7 @@
         <v>1007</v>
       </c>
     </row>
-    <row r="6" spans="1:3" ht="34">
+    <row r="6" spans="1:3" ht="31.5" x14ac:dyDescent="0.25">
       <c r="A6" s="8" t="s">
         <v>1008</v>
       </c>
@@ -4980,7 +5015,7 @@
       </c>
       <c r="C6" s="94"/>
     </row>
-    <row r="7" spans="1:3" ht="17">
+    <row r="7" spans="1:3" ht="31.5" x14ac:dyDescent="0.25">
       <c r="A7" s="8" t="s">
         <v>105</v>
       </c>
@@ -4991,7 +5026,7 @@
         <v>1011</v>
       </c>
     </row>
-    <row r="8" spans="1:3" ht="17">
+    <row r="8" spans="1:3" ht="31.5" x14ac:dyDescent="0.25">
       <c r="A8" s="8" t="s">
         <v>1012</v>
       </c>
@@ -5002,7 +5037,7 @@
         <v>1014</v>
       </c>
     </row>
-    <row r="9" spans="1:3" ht="34">
+    <row r="9" spans="1:3" ht="31.5" x14ac:dyDescent="0.25">
       <c r="A9" s="8" t="s">
         <v>1015</v>
       </c>
@@ -5013,7 +5048,7 @@
         <v>1017</v>
       </c>
     </row>
-    <row r="10" spans="1:3" ht="34">
+    <row r="10" spans="1:3" ht="47.25" x14ac:dyDescent="0.25">
       <c r="A10" s="8" t="s">
         <v>1018</v>
       </c>
@@ -5024,7 +5059,7 @@
         <v>1020</v>
       </c>
     </row>
-    <row r="11" spans="1:3" ht="17">
+    <row r="11" spans="1:3" ht="31.5" x14ac:dyDescent="0.25">
       <c r="A11" s="8" t="s">
         <v>1021</v>
       </c>
@@ -5035,7 +5070,7 @@
         <v>1023</v>
       </c>
     </row>
-    <row r="12" spans="1:3" ht="17">
+    <row r="12" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A12" s="8" t="s">
         <v>1024</v>
       </c>
@@ -5046,7 +5081,7 @@
         <v>1026</v>
       </c>
     </row>
-    <row r="13" spans="1:3" ht="17">
+    <row r="13" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A13" s="8" t="s">
         <v>1027</v>
       </c>
@@ -5055,7 +5090,7 @@
       </c>
       <c r="C13" s="94"/>
     </row>
-    <row r="14" spans="1:3" ht="34">
+    <row r="14" spans="1:3" ht="31.5" x14ac:dyDescent="0.25">
       <c r="A14" s="8" t="s">
         <v>1029</v>
       </c>
@@ -5064,7 +5099,7 @@
       </c>
       <c r="C14" s="94"/>
     </row>
-    <row r="15" spans="1:3" ht="17">
+    <row r="15" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A15" s="8" t="s">
         <v>1031</v>
       </c>
@@ -5081,19 +5116,19 @@
 </file>
 
 <file path=xl/worksheets/sheet17.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0E00-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:K11"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="I18" sqref="I18"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15"/>
+  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="32.5" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="1" max="1" width="32.42578125" bestFit="1" customWidth="1" collapsed="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:11">
+    <row r="1" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A1" s="67" t="s">
         <v>115</v>
       </c>
@@ -5128,7 +5163,7 @@
         <v>125</v>
       </c>
     </row>
-    <row r="2" spans="1:11" ht="16">
+    <row r="2" spans="1:11" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A2" s="15" t="s">
         <v>44</v>
       </c>
@@ -5149,7 +5184,7 @@
       <c r="J2" s="15"/>
       <c r="K2" s="15"/>
     </row>
-    <row r="3" spans="1:11" ht="16">
+    <row r="3" spans="1:11" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A3" s="15" t="s">
         <v>45</v>
       </c>
@@ -5170,7 +5205,7 @@
       <c r="J3" s="15"/>
       <c r="K3" s="15"/>
     </row>
-    <row r="4" spans="1:11" ht="16">
+    <row r="4" spans="1:11" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A4" s="15" t="s">
         <v>888</v>
       </c>
@@ -5191,7 +5226,7 @@
       <c r="J4" s="15"/>
       <c r="K4" s="15"/>
     </row>
-    <row r="5" spans="1:11" ht="16">
+    <row r="5" spans="1:11" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A5" s="15" t="s">
         <v>47</v>
       </c>
@@ -5212,7 +5247,7 @@
       <c r="J5" s="15"/>
       <c r="K5" s="15"/>
     </row>
-    <row r="6" spans="1:11" ht="16">
+    <row r="6" spans="1:11" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A6" s="15" t="s">
         <v>48</v>
       </c>
@@ -5233,7 +5268,7 @@
       <c r="J6" s="15"/>
       <c r="K6" s="15"/>
     </row>
-    <row r="7" spans="1:11" ht="16">
+    <row r="7" spans="1:11" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A7" s="15" t="s">
         <v>39</v>
       </c>
@@ -5254,7 +5289,7 @@
       <c r="J7" s="15"/>
       <c r="K7" s="15"/>
     </row>
-    <row r="8" spans="1:11" ht="16">
+    <row r="8" spans="1:11" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A8" s="15" t="s">
         <v>42</v>
       </c>
@@ -5275,7 +5310,7 @@
       <c r="J8" s="15"/>
       <c r="K8" s="15"/>
     </row>
-    <row r="9" spans="1:11" ht="16">
+    <row r="9" spans="1:11" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A9" s="15" t="s">
         <v>49</v>
       </c>
@@ -5296,7 +5331,7 @@
       <c r="J9" s="15"/>
       <c r="K9" s="15"/>
     </row>
-    <row r="10" spans="1:11" ht="16">
+    <row r="10" spans="1:11" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A10" s="15" t="s">
         <v>50</v>
       </c>
@@ -5317,7 +5352,7 @@
       <c r="J10" s="15"/>
       <c r="K10" s="15"/>
     </row>
-    <row r="11" spans="1:11" ht="16">
+    <row r="11" spans="1:11" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A11" s="15" t="s">
         <v>43</v>
       </c>
@@ -5344,46 +5379,46 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:A7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="F7" sqref="F7"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15"/>
+  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="1" spans="1:1" ht="16">
+    <row r="1" spans="1:1" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A1" s="3" t="s">
         <v>19</v>
       </c>
     </row>
-    <row r="2" spans="1:1" ht="16">
+    <row r="2" spans="1:1" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A2" s="4" t="s">
         <v>20</v>
       </c>
     </row>
-    <row r="3" spans="1:1" ht="16">
+    <row r="3" spans="1:1" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A3" s="4" t="s">
         <v>21</v>
       </c>
     </row>
-    <row r="4" spans="1:1" ht="16">
+    <row r="4" spans="1:1" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A4" s="4" t="s">
         <v>22</v>
       </c>
     </row>
-    <row r="5" spans="1:1" ht="16">
+    <row r="5" spans="1:1" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A5" s="4" t="s">
         <v>23</v>
       </c>
     </row>
-    <row r="6" spans="1:1" ht="16">
+    <row r="6" spans="1:1" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A6" s="4" t="s">
         <v>24</v>
       </c>
     </row>
-    <row r="7" spans="1:1" ht="16">
+    <row r="7" spans="1:1" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A7" s="4" t="s">
         <v>25</v>
       </c>
@@ -5394,29 +5429,29 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
-  <dimension ref="A1:M20"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:M22"/>
   <sheetViews>
-    <sheetView topLeftCell="A10" workbookViewId="0">
-      <selection activeCell="E19" sqref="E19"/>
+    <sheetView tabSelected="1" topLeftCell="A10" workbookViewId="0">
+      <selection activeCell="E24" sqref="E24"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15"/>
+  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="33.1640625" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="14.1640625" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="3" max="3" width="17.6640625" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="4" max="4" width="20.5" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="5" max="5" width="24.5" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="6" max="6" width="25.5" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="7" max="7" width="11.33203125" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="8" max="8" width="14.1640625" customWidth="1" collapsed="1"/>
-    <col min="9" max="9" width="18.33203125" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="10" max="10" width="15.6640625" customWidth="1"/>
+    <col min="1" max="1" width="33.140625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="14.140625" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="3" max="3" width="17.7109375" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="4" max="4" width="20.42578125" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="5" max="5" width="24.42578125" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="6" max="6" width="25.42578125" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="7" max="7" width="11.28515625" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="8" max="8" width="14.140625" customWidth="1" collapsed="1"/>
+    <col min="9" max="9" width="18.28515625" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="10" max="10" width="15.7109375" customWidth="1"/>
     <col min="11" max="11" width="11" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:13">
+    <row r="1" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A1" s="15" t="s">
         <v>847</v>
       </c>
@@ -5457,7 +5492,7 @@
         <v>953</v>
       </c>
     </row>
-    <row r="2" spans="1:13" ht="16">
+    <row r="2" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A2" s="15" t="s">
         <v>154</v>
       </c>
@@ -5484,7 +5519,7 @@
       <c r="L2" s="15"/>
       <c r="M2" s="15"/>
     </row>
-    <row r="3" spans="1:13">
+    <row r="3" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A3" s="15" t="s">
         <v>860</v>
       </c>
@@ -5511,7 +5546,7 @@
       <c r="L3" s="15"/>
       <c r="M3" s="15"/>
     </row>
-    <row r="4" spans="1:13" ht="16">
+    <row r="4" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A4" s="15" t="s">
         <v>864</v>
       </c>
@@ -5538,7 +5573,7 @@
       <c r="L4" s="15"/>
       <c r="M4" s="15"/>
     </row>
-    <row r="5" spans="1:13">
+    <row r="5" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A5" s="15" t="s">
         <v>866</v>
       </c>
@@ -5571,7 +5606,7 @@
       <c r="L5" s="15"/>
       <c r="M5" s="15"/>
     </row>
-    <row r="6" spans="1:13">
+    <row r="6" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A6" s="15" t="s">
         <v>872</v>
       </c>
@@ -5596,7 +5631,7 @@
       <c r="L6" s="15"/>
       <c r="M6" s="15"/>
     </row>
-    <row r="7" spans="1:13">
+    <row r="7" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A7" s="15" t="s">
         <v>874</v>
       </c>
@@ -5621,7 +5656,7 @@
       <c r="L7" s="15"/>
       <c r="M7" s="15"/>
     </row>
-    <row r="8" spans="1:13">
+    <row r="8" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A8" s="15" t="s">
         <v>876</v>
       </c>
@@ -5648,7 +5683,7 @@
       <c r="L8" s="15"/>
       <c r="M8" s="15"/>
     </row>
-    <row r="9" spans="1:13">
+    <row r="9" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A9" s="15" t="s">
         <v>879</v>
       </c>
@@ -5675,7 +5710,7 @@
       <c r="L9" s="15"/>
       <c r="M9" s="15"/>
     </row>
-    <row r="10" spans="1:13">
+    <row r="10" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A10" s="84" t="s">
         <v>902</v>
       </c>
@@ -5702,7 +5737,7 @@
       <c r="L10" s="15"/>
       <c r="M10" s="15"/>
     </row>
-    <row r="11" spans="1:13">
+    <row r="11" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A11" s="84" t="s">
         <v>907</v>
       </c>
@@ -5729,7 +5764,7 @@
       <c r="L11" s="15"/>
       <c r="M11" s="15"/>
     </row>
-    <row r="12" spans="1:13">
+    <row r="12" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A12" s="84" t="s">
         <v>913</v>
       </c>
@@ -5760,7 +5795,7 @@
       <c r="L12" s="15"/>
       <c r="M12" s="15"/>
     </row>
-    <row r="13" spans="1:13">
+    <row r="13" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A13" s="15" t="s">
         <v>921</v>
       </c>
@@ -5785,7 +5820,7 @@
       <c r="L13" s="15"/>
       <c r="M13" s="15"/>
     </row>
-    <row r="14" spans="1:13" ht="16">
+    <row r="14" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A14" s="84" t="s">
         <v>926</v>
       </c>
@@ -5822,7 +5857,7 @@
       <c r="L14" s="15"/>
       <c r="M14" s="15"/>
     </row>
-    <row r="15" spans="1:13">
+    <row r="15" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A15" s="84" t="s">
         <v>931</v>
       </c>
@@ -5853,7 +5888,7 @@
       <c r="L15" s="15"/>
       <c r="M15" s="15"/>
     </row>
-    <row r="16" spans="1:13">
+    <row r="16" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A16" s="84" t="s">
         <v>935</v>
       </c>
@@ -5878,7 +5913,7 @@
       <c r="L16" s="15"/>
       <c r="M16" s="15"/>
     </row>
-    <row r="17" spans="1:13" s="10" customFormat="1">
+    <row r="17" spans="1:13" s="10" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A17" s="84" t="s">
         <v>942</v>
       </c>
@@ -5903,7 +5938,7 @@
       <c r="L17" s="15"/>
       <c r="M17" s="15"/>
     </row>
-    <row r="18" spans="1:13">
+    <row r="18" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A18" s="84" t="s">
         <v>956</v>
       </c>
@@ -5930,7 +5965,7 @@
       <c r="L18" s="15"/>
       <c r="M18" s="15"/>
     </row>
-    <row r="19" spans="1:13" ht="32">
+    <row r="19" spans="1:13" ht="45" x14ac:dyDescent="0.25">
       <c r="A19" s="84" t="s">
         <v>961</v>
       </c>
@@ -5971,7 +6006,7 @@
         <v>970</v>
       </c>
     </row>
-    <row r="20" spans="1:13">
+    <row r="20" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A20" s="84" t="s">
         <v>971</v>
       </c>
@@ -5999,6 +6034,70 @@
       <c r="K20" s="15"/>
       <c r="L20" s="15"/>
       <c r="M20" s="15"/>
+    </row>
+    <row r="21" spans="1:13" s="10" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A21" s="15" t="s">
+        <v>1034</v>
+      </c>
+      <c r="B21" s="15" t="s">
+        <v>1035</v>
+      </c>
+      <c r="C21" s="15" t="s">
+        <v>1036</v>
+      </c>
+      <c r="D21" s="15" t="s">
+        <v>1037</v>
+      </c>
+      <c r="E21" s="15" t="s">
+        <v>945</v>
+      </c>
+      <c r="F21" s="15" t="s">
+        <v>884</v>
+      </c>
+      <c r="G21" s="15" t="s">
+        <v>1038</v>
+      </c>
+      <c r="H21" s="15" t="s">
+        <v>1039</v>
+      </c>
+      <c r="I21" s="15" t="s">
+        <v>1040</v>
+      </c>
+      <c r="J21" s="15" t="s">
+        <v>1041</v>
+      </c>
+      <c r="K21" s="15"/>
+      <c r="L21" s="15"/>
+      <c r="M21" s="15"/>
+    </row>
+    <row r="22" spans="1:13" s="10" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A22" s="15" t="s">
+        <v>1042</v>
+      </c>
+      <c r="B22" s="15" t="s">
+        <v>1043</v>
+      </c>
+      <c r="C22" s="15" t="s">
+        <v>1044</v>
+      </c>
+      <c r="D22" s="15" t="s">
+        <v>945</v>
+      </c>
+      <c r="E22" s="15" t="s">
+        <v>884</v>
+      </c>
+      <c r="F22" s="15" t="s">
+        <v>1045</v>
+      </c>
+      <c r="G22" s="15" t="s">
+        <v>108</v>
+      </c>
+      <c r="H22" s="15"/>
+      <c r="I22" s="15"/>
+      <c r="J22" s="15"/>
+      <c r="K22" s="15"/>
+      <c r="L22" s="15"/>
+      <c r="M22" s="15"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -6007,16 +6106,16 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:AL2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="D11" sqref="D11"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15"/>
+  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="1" spans="1:38" ht="16">
+    <row r="1" spans="1:38" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A1" s="82" t="s">
         <v>126</v>
       </c>
@@ -6132,7 +6231,7 @@
         <v>629</v>
       </c>
     </row>
-    <row r="2" spans="1:38" s="10" customFormat="1" ht="31">
+    <row r="2" spans="1:38" s="10" customFormat="1" ht="33" x14ac:dyDescent="0.3">
       <c r="A2" s="74" t="s">
         <v>136</v>
       </c>
@@ -6195,16 +6294,16 @@
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0400-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:F2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="D10" sqref="D10"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15"/>
+  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="1" spans="1:6" ht="16">
+    <row r="1" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A1" s="41" t="s">
         <v>126</v>
       </c>
@@ -6224,7 +6323,7 @@
         <v>131</v>
       </c>
     </row>
-    <row r="2" spans="1:6">
+    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A2" s="32" t="s">
         <v>132</v>
       </c>
@@ -6248,16 +6347,16 @@
 </file>
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0500-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:AL96"/>
   <sheetViews>
     <sheetView topLeftCell="G1" workbookViewId="0">
       <selection activeCell="A2" sqref="A2:XFD3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15"/>
+  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="1" spans="1:38" ht="16">
+    <row r="1" spans="1:38" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A1" s="44" t="s">
         <v>126</v>
       </c>
@@ -6373,7 +6472,7 @@
         <v>629</v>
       </c>
     </row>
-    <row r="2" spans="1:38" ht="31">
+    <row r="2" spans="1:38" ht="33" x14ac:dyDescent="0.3">
       <c r="A2" s="47" t="s">
         <v>136</v>
       </c>
@@ -6433,7 +6532,7 @@
         <v>895</v>
       </c>
     </row>
-    <row r="3" spans="1:38" ht="31">
+    <row r="3" spans="1:38" ht="33" x14ac:dyDescent="0.3">
       <c r="A3" s="47" t="s">
         <v>132</v>
       </c>
@@ -6493,7 +6592,7 @@
         <v>896</v>
       </c>
     </row>
-    <row r="4" spans="1:38" ht="31">
+    <row r="4" spans="1:38" ht="33" x14ac:dyDescent="0.3">
       <c r="A4" s="47" t="s">
         <v>132</v>
       </c>
@@ -6553,7 +6652,7 @@
         <v>897</v>
       </c>
     </row>
-    <row r="5" spans="1:38" ht="31">
+    <row r="5" spans="1:38" ht="33" x14ac:dyDescent="0.3">
       <c r="A5" s="47" t="s">
         <v>132</v>
       </c>
@@ -6613,7 +6712,7 @@
         <v>898</v>
       </c>
     </row>
-    <row r="6" spans="1:38" ht="31">
+    <row r="6" spans="1:38" ht="33" x14ac:dyDescent="0.3">
       <c r="A6" s="47" t="s">
         <v>132</v>
       </c>
@@ -6673,7 +6772,7 @@
         <v>899</v>
       </c>
     </row>
-    <row r="7" spans="1:38" ht="31">
+    <row r="7" spans="1:38" ht="33" x14ac:dyDescent="0.3">
       <c r="A7" s="47" t="s">
         <v>132</v>
       </c>
@@ -6733,7 +6832,7 @@
         <v>900</v>
       </c>
     </row>
-    <row r="8" spans="1:38" ht="31">
+    <row r="8" spans="1:38" ht="33" x14ac:dyDescent="0.3">
       <c r="A8" s="47" t="s">
         <v>132</v>
       </c>
@@ -6793,7 +6892,7 @@
         <v>901</v>
       </c>
     </row>
-    <row r="9" spans="1:38" ht="31">
+    <row r="9" spans="1:38" ht="33" x14ac:dyDescent="0.3">
       <c r="A9" s="47" t="s">
         <v>132</v>
       </c>
@@ -6850,7 +6949,7 @@
         <v>889</v>
       </c>
     </row>
-    <row r="10" spans="1:38" ht="31">
+    <row r="10" spans="1:38" ht="33" x14ac:dyDescent="0.3">
       <c r="A10" s="47" t="s">
         <v>136</v>
       </c>
@@ -6907,7 +7006,7 @@
         <v>889</v>
       </c>
     </row>
-    <row r="11" spans="1:38" ht="31">
+    <row r="11" spans="1:38" ht="33" x14ac:dyDescent="0.3">
       <c r="A11" s="47" t="s">
         <v>136</v>
       </c>
@@ -6964,7 +7063,7 @@
         <v>889</v>
       </c>
     </row>
-    <row r="12" spans="1:38" ht="31">
+    <row r="12" spans="1:38" ht="33" x14ac:dyDescent="0.3">
       <c r="A12" s="47" t="s">
         <v>210</v>
       </c>
@@ -7004,7 +7103,7 @@
       <c r="AD12" s="63"/>
       <c r="AI12" s="10"/>
     </row>
-    <row r="13" spans="1:38" ht="31">
+    <row r="13" spans="1:38" ht="33" x14ac:dyDescent="0.3">
       <c r="A13" s="47" t="s">
         <v>132</v>
       </c>
@@ -7061,7 +7160,7 @@
         <v>889</v>
       </c>
     </row>
-    <row r="14" spans="1:38" ht="31">
+    <row r="14" spans="1:38" ht="33" x14ac:dyDescent="0.3">
       <c r="A14" s="49" t="s">
         <v>654</v>
       </c>
@@ -7118,7 +7217,7 @@
         <v>889</v>
       </c>
     </row>
-    <row r="15" spans="1:38" ht="31">
+    <row r="15" spans="1:38" ht="33" x14ac:dyDescent="0.3">
       <c r="A15" s="49" t="s">
         <v>654</v>
       </c>
@@ -7175,7 +7274,7 @@
         <v>889</v>
       </c>
     </row>
-    <row r="16" spans="1:38" ht="31">
+    <row r="16" spans="1:38" ht="33" x14ac:dyDescent="0.3">
       <c r="A16" s="49" t="s">
         <v>654</v>
       </c>
@@ -7232,7 +7331,7 @@
         <v>889</v>
       </c>
     </row>
-    <row r="17" spans="1:37" ht="31">
+    <row r="17" spans="1:37" ht="33" x14ac:dyDescent="0.3">
       <c r="A17" s="49" t="s">
         <v>654</v>
       </c>
@@ -7289,7 +7388,7 @@
         <v>889</v>
       </c>
     </row>
-    <row r="18" spans="1:37" ht="31">
+    <row r="18" spans="1:37" ht="33" x14ac:dyDescent="0.3">
       <c r="A18" s="49" t="s">
         <v>654</v>
       </c>
@@ -7346,7 +7445,7 @@
         <v>889</v>
       </c>
     </row>
-    <row r="19" spans="1:37" ht="31">
+    <row r="19" spans="1:37" ht="33" x14ac:dyDescent="0.3">
       <c r="A19" s="49" t="s">
         <v>654</v>
       </c>
@@ -7403,7 +7502,7 @@
         <v>889</v>
       </c>
     </row>
-    <row r="20" spans="1:37" ht="31">
+    <row r="20" spans="1:37" ht="33" x14ac:dyDescent="0.3">
       <c r="A20" s="49" t="s">
         <v>654</v>
       </c>
@@ -7460,7 +7559,7 @@
         <v>889</v>
       </c>
     </row>
-    <row r="21" spans="1:37" ht="31">
+    <row r="21" spans="1:37" ht="33" x14ac:dyDescent="0.3">
       <c r="A21" s="49" t="s">
         <v>654</v>
       </c>
@@ -7517,7 +7616,7 @@
         <v>889</v>
       </c>
     </row>
-    <row r="22" spans="1:37" ht="31">
+    <row r="22" spans="1:37" ht="33" x14ac:dyDescent="0.3">
       <c r="A22" s="47" t="s">
         <v>136</v>
       </c>
@@ -7574,7 +7673,7 @@
         <v>889</v>
       </c>
     </row>
-    <row r="23" spans="1:37" ht="31">
+    <row r="23" spans="1:37" ht="33" x14ac:dyDescent="0.3">
       <c r="A23" s="51" t="s">
         <v>132</v>
       </c>
@@ -7614,7 +7713,7 @@
       <c r="AD23" s="64"/>
       <c r="AI23" s="10"/>
     </row>
-    <row r="24" spans="1:37" ht="31">
+    <row r="24" spans="1:37" ht="33" x14ac:dyDescent="0.3">
       <c r="A24" s="47" t="s">
         <v>132</v>
       </c>
@@ -7671,7 +7770,7 @@
         <v>889</v>
       </c>
     </row>
-    <row r="25" spans="1:37" ht="31">
+    <row r="25" spans="1:37" ht="33" x14ac:dyDescent="0.3">
       <c r="A25" s="47" t="s">
         <v>132</v>
       </c>
@@ -7728,7 +7827,7 @@
         <v>889</v>
       </c>
     </row>
-    <row r="26" spans="1:37" ht="31">
+    <row r="26" spans="1:37" ht="33" x14ac:dyDescent="0.3">
       <c r="A26" s="47" t="s">
         <v>132</v>
       </c>
@@ -7785,7 +7884,7 @@
         <v>889</v>
       </c>
     </row>
-    <row r="27" spans="1:37" ht="31">
+    <row r="27" spans="1:37" ht="33" x14ac:dyDescent="0.3">
       <c r="A27" s="46" t="s">
         <v>132</v>
       </c>
@@ -7842,7 +7941,7 @@
         <v>889</v>
       </c>
     </row>
-    <row r="28" spans="1:37" ht="31">
+    <row r="28" spans="1:37" ht="33" x14ac:dyDescent="0.3">
       <c r="A28" s="47" t="s">
         <v>136</v>
       </c>
@@ -7899,7 +7998,7 @@
         <v>889</v>
       </c>
     </row>
-    <row r="29" spans="1:37" ht="31">
+    <row r="29" spans="1:37" ht="33" x14ac:dyDescent="0.3">
       <c r="A29" s="47" t="s">
         <v>132</v>
       </c>
@@ -7956,7 +8055,7 @@
         <v>889</v>
       </c>
     </row>
-    <row r="30" spans="1:37" ht="31">
+    <row r="30" spans="1:37" ht="33" x14ac:dyDescent="0.3">
       <c r="A30" s="47" t="s">
         <v>132</v>
       </c>
@@ -8013,7 +8112,7 @@
         <v>889</v>
       </c>
     </row>
-    <row r="31" spans="1:37" ht="46">
+    <row r="31" spans="1:37" ht="49.5" x14ac:dyDescent="0.3">
       <c r="A31" s="51" t="s">
         <v>132</v>
       </c>
@@ -8088,7 +8187,7 @@
         <v>889</v>
       </c>
     </row>
-    <row r="32" spans="1:37" ht="46">
+    <row r="32" spans="1:37" ht="49.5" x14ac:dyDescent="0.3">
       <c r="A32" s="47" t="s">
         <v>132</v>
       </c>
@@ -8163,7 +8262,7 @@
         <v>889</v>
       </c>
     </row>
-    <row r="33" spans="1:37" ht="46">
+    <row r="33" spans="1:37" ht="49.5" x14ac:dyDescent="0.3">
       <c r="A33" s="46" t="s">
         <v>132</v>
       </c>
@@ -8238,7 +8337,7 @@
         <v>889</v>
       </c>
     </row>
-    <row r="34" spans="1:37" ht="46">
+    <row r="34" spans="1:37" ht="49.5" x14ac:dyDescent="0.3">
       <c r="A34" s="47" t="s">
         <v>132</v>
       </c>
@@ -8313,7 +8412,7 @@
         <v>889</v>
       </c>
     </row>
-    <row r="35" spans="1:37" ht="46">
+    <row r="35" spans="1:37" ht="49.5" x14ac:dyDescent="0.3">
       <c r="A35" s="47" t="s">
         <v>132</v>
       </c>
@@ -8388,7 +8487,7 @@
         <v>889</v>
       </c>
     </row>
-    <row r="36" spans="1:37" ht="46">
+    <row r="36" spans="1:37" ht="49.5" x14ac:dyDescent="0.3">
       <c r="A36" s="47" t="s">
         <v>132</v>
       </c>
@@ -8463,7 +8562,7 @@
         <v>889</v>
       </c>
     </row>
-    <row r="37" spans="1:37" ht="46">
+    <row r="37" spans="1:37" ht="49.5" x14ac:dyDescent="0.3">
       <c r="A37" s="51" t="s">
         <v>132</v>
       </c>
@@ -8538,7 +8637,7 @@
         <v>889</v>
       </c>
     </row>
-    <row r="38" spans="1:37" ht="46">
+    <row r="38" spans="1:37" ht="49.5" x14ac:dyDescent="0.3">
       <c r="A38" s="46" t="s">
         <v>132</v>
       </c>
@@ -8613,7 +8712,7 @@
         <v>889</v>
       </c>
     </row>
-    <row r="39" spans="1:37" ht="31">
+    <row r="39" spans="1:37" ht="33" x14ac:dyDescent="0.3">
       <c r="A39" s="47" t="s">
         <v>136</v>
       </c>
@@ -8670,7 +8769,7 @@
         <v>889</v>
       </c>
     </row>
-    <row r="40" spans="1:37" ht="31">
+    <row r="40" spans="1:37" ht="33" x14ac:dyDescent="0.3">
       <c r="A40" s="47" t="s">
         <v>132</v>
       </c>
@@ -8727,7 +8826,7 @@
         <v>889</v>
       </c>
     </row>
-    <row r="41" spans="1:37" ht="31">
+    <row r="41" spans="1:37" ht="33" x14ac:dyDescent="0.3">
       <c r="A41" s="47" t="s">
         <v>132</v>
       </c>
@@ -8784,7 +8883,7 @@
         <v>889</v>
       </c>
     </row>
-    <row r="42" spans="1:37" ht="31">
+    <row r="42" spans="1:37" ht="33" x14ac:dyDescent="0.3">
       <c r="A42" s="47" t="s">
         <v>136</v>
       </c>
@@ -8841,7 +8940,7 @@
         <v>889</v>
       </c>
     </row>
-    <row r="43" spans="1:37" ht="31">
+    <row r="43" spans="1:37" ht="33" x14ac:dyDescent="0.3">
       <c r="A43" s="51" t="s">
         <v>136</v>
       </c>
@@ -8898,7 +8997,7 @@
         <v>889</v>
       </c>
     </row>
-    <row r="44" spans="1:37" ht="31">
+    <row r="44" spans="1:37" ht="33" x14ac:dyDescent="0.3">
       <c r="A44" s="47" t="s">
         <v>132</v>
       </c>
@@ -8955,7 +9054,7 @@
         <v>889</v>
       </c>
     </row>
-    <row r="45" spans="1:37" ht="31">
+    <row r="45" spans="1:37" ht="33" x14ac:dyDescent="0.3">
       <c r="A45" s="47" t="s">
         <v>136</v>
       </c>
@@ -9012,7 +9111,7 @@
         <v>889</v>
       </c>
     </row>
-    <row r="46" spans="1:37" ht="31">
+    <row r="46" spans="1:37" ht="33" x14ac:dyDescent="0.3">
       <c r="A46" s="47" t="s">
         <v>132</v>
       </c>
@@ -9069,7 +9168,7 @@
         <v>889</v>
       </c>
     </row>
-    <row r="47" spans="1:37" ht="31">
+    <row r="47" spans="1:37" ht="33" x14ac:dyDescent="0.3">
       <c r="A47" s="47" t="s">
         <v>132</v>
       </c>
@@ -9126,7 +9225,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="48" spans="1:37" ht="31">
+    <row r="48" spans="1:37" ht="33" x14ac:dyDescent="0.3">
       <c r="A48" s="47" t="s">
         <v>136</v>
       </c>
@@ -9183,7 +9282,7 @@
         <v>889</v>
       </c>
     </row>
-    <row r="49" spans="1:37" ht="31">
+    <row r="49" spans="1:37" ht="33" x14ac:dyDescent="0.3">
       <c r="A49" s="47" t="s">
         <v>132</v>
       </c>
@@ -9240,7 +9339,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="50" spans="1:37" ht="31">
+    <row r="50" spans="1:37" ht="33" x14ac:dyDescent="0.3">
       <c r="A50" s="47" t="s">
         <v>132</v>
       </c>
@@ -9297,7 +9396,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="51" spans="1:37" ht="31">
+    <row r="51" spans="1:37" ht="33" x14ac:dyDescent="0.3">
       <c r="A51" s="47" t="s">
         <v>132</v>
       </c>
@@ -9354,7 +9453,7 @@
         <v>889</v>
       </c>
     </row>
-    <row r="52" spans="1:37" ht="31">
+    <row r="52" spans="1:37" ht="33" x14ac:dyDescent="0.3">
       <c r="A52" s="47" t="s">
         <v>132</v>
       </c>
@@ -9411,7 +9510,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="53" spans="1:37" ht="31">
+    <row r="53" spans="1:37" ht="33" x14ac:dyDescent="0.3">
       <c r="A53" s="47" t="s">
         <v>132</v>
       </c>
@@ -9468,7 +9567,7 @@
         <v>889</v>
       </c>
     </row>
-    <row r="54" spans="1:37" ht="31">
+    <row r="54" spans="1:37" ht="33" x14ac:dyDescent="0.3">
       <c r="A54" s="47" t="s">
         <v>136</v>
       </c>
@@ -9525,7 +9624,7 @@
         <v>889</v>
       </c>
     </row>
-    <row r="55" spans="1:37" ht="31">
+    <row r="55" spans="1:37" ht="33" x14ac:dyDescent="0.3">
       <c r="A55" s="47" t="s">
         <v>136</v>
       </c>
@@ -9582,7 +9681,7 @@
         <v>889</v>
       </c>
     </row>
-    <row r="56" spans="1:37" ht="31">
+    <row r="56" spans="1:37" ht="33" x14ac:dyDescent="0.3">
       <c r="A56" s="47" t="s">
         <v>136</v>
       </c>
@@ -9639,7 +9738,7 @@
         <v>889</v>
       </c>
     </row>
-    <row r="57" spans="1:37" ht="31">
+    <row r="57" spans="1:37" ht="33" x14ac:dyDescent="0.3">
       <c r="A57" s="47" t="s">
         <v>136</v>
       </c>
@@ -9696,7 +9795,7 @@
         <v>889</v>
       </c>
     </row>
-    <row r="58" spans="1:37" ht="31">
+    <row r="58" spans="1:37" ht="33" x14ac:dyDescent="0.3">
       <c r="A58" s="47" t="s">
         <v>136</v>
       </c>
@@ -9753,7 +9852,7 @@
         <v>889</v>
       </c>
     </row>
-    <row r="59" spans="1:37" ht="31">
+    <row r="59" spans="1:37" ht="33" x14ac:dyDescent="0.3">
       <c r="A59" s="47" t="s">
         <v>136</v>
       </c>
@@ -9810,7 +9909,7 @@
         <v>889</v>
       </c>
     </row>
-    <row r="60" spans="1:37" ht="31">
+    <row r="60" spans="1:37" ht="33" x14ac:dyDescent="0.3">
       <c r="A60" s="47" t="s">
         <v>136</v>
       </c>
@@ -9867,7 +9966,7 @@
         <v>889</v>
       </c>
     </row>
-    <row r="61" spans="1:37" ht="31">
+    <row r="61" spans="1:37" ht="33" x14ac:dyDescent="0.3">
       <c r="A61" s="47" t="s">
         <v>136</v>
       </c>
@@ -9924,7 +10023,7 @@
         <v>889</v>
       </c>
     </row>
-    <row r="62" spans="1:37" ht="31">
+    <row r="62" spans="1:37" ht="33" x14ac:dyDescent="0.3">
       <c r="A62" s="47" t="s">
         <v>136</v>
       </c>
@@ -9981,7 +10080,7 @@
         <v>889</v>
       </c>
     </row>
-    <row r="63" spans="1:37" ht="31">
+    <row r="63" spans="1:37" ht="33" x14ac:dyDescent="0.3">
       <c r="A63" s="47" t="s">
         <v>136</v>
       </c>
@@ -10038,7 +10137,7 @@
         <v>889</v>
       </c>
     </row>
-    <row r="64" spans="1:37" ht="31">
+    <row r="64" spans="1:37" ht="33" x14ac:dyDescent="0.3">
       <c r="A64" s="47" t="s">
         <v>136</v>
       </c>
@@ -10095,7 +10194,7 @@
         <v>889</v>
       </c>
     </row>
-    <row r="65" spans="1:37" ht="31">
+    <row r="65" spans="1:37" ht="33" x14ac:dyDescent="0.3">
       <c r="A65" s="47" t="s">
         <v>136</v>
       </c>
@@ -10152,7 +10251,7 @@
         <v>889</v>
       </c>
     </row>
-    <row r="66" spans="1:37" ht="31">
+    <row r="66" spans="1:37" ht="33" x14ac:dyDescent="0.3">
       <c r="A66" s="47" t="s">
         <v>136</v>
       </c>
@@ -10209,7 +10308,7 @@
         <v>889</v>
       </c>
     </row>
-    <row r="67" spans="1:37" ht="31">
+    <row r="67" spans="1:37" ht="33" x14ac:dyDescent="0.3">
       <c r="A67" s="47" t="s">
         <v>136</v>
       </c>
@@ -10266,7 +10365,7 @@
         <v>889</v>
       </c>
     </row>
-    <row r="68" spans="1:37" ht="31">
+    <row r="68" spans="1:37" ht="33" x14ac:dyDescent="0.3">
       <c r="A68" s="47" t="s">
         <v>136</v>
       </c>
@@ -10323,7 +10422,7 @@
         <v>889</v>
       </c>
     </row>
-    <row r="69" spans="1:37" ht="31">
+    <row r="69" spans="1:37" ht="33" x14ac:dyDescent="0.3">
       <c r="A69" s="47" t="s">
         <v>136</v>
       </c>
@@ -10380,7 +10479,7 @@
         <v>889</v>
       </c>
     </row>
-    <row r="70" spans="1:37" ht="31">
+    <row r="70" spans="1:37" ht="33" x14ac:dyDescent="0.3">
       <c r="A70" s="47" t="s">
         <v>136</v>
       </c>
@@ -10437,7 +10536,7 @@
         <v>889</v>
       </c>
     </row>
-    <row r="71" spans="1:37" ht="31">
+    <row r="71" spans="1:37" ht="33" x14ac:dyDescent="0.3">
       <c r="A71" s="47" t="s">
         <v>136</v>
       </c>
@@ -10494,7 +10593,7 @@
         <v>889</v>
       </c>
     </row>
-    <row r="72" spans="1:37" ht="31">
+    <row r="72" spans="1:37" ht="33" x14ac:dyDescent="0.3">
       <c r="A72" s="47" t="s">
         <v>136</v>
       </c>
@@ -10551,7 +10650,7 @@
         <v>889</v>
       </c>
     </row>
-    <row r="73" spans="1:37" ht="31">
+    <row r="73" spans="1:37" ht="33" x14ac:dyDescent="0.3">
       <c r="A73" s="47" t="s">
         <v>136</v>
       </c>
@@ -10608,7 +10707,7 @@
         <v>889</v>
       </c>
     </row>
-    <row r="74" spans="1:37" ht="31">
+    <row r="74" spans="1:37" ht="33" x14ac:dyDescent="0.3">
       <c r="A74" s="47" t="s">
         <v>136</v>
       </c>
@@ -10665,7 +10764,7 @@
         <v>889</v>
       </c>
     </row>
-    <row r="75" spans="1:37" ht="31">
+    <row r="75" spans="1:37" ht="33" x14ac:dyDescent="0.3">
       <c r="A75" s="46" t="s">
         <v>136</v>
       </c>
@@ -10722,7 +10821,7 @@
         <v>889</v>
       </c>
     </row>
-    <row r="76" spans="1:37" ht="31">
+    <row r="76" spans="1:37" ht="33" x14ac:dyDescent="0.3">
       <c r="A76" s="47" t="s">
         <v>132</v>
       </c>
@@ -10779,7 +10878,7 @@
         <v>889</v>
       </c>
     </row>
-    <row r="77" spans="1:37" ht="31">
+    <row r="77" spans="1:37" ht="33" x14ac:dyDescent="0.3">
       <c r="A77" s="47" t="s">
         <v>136</v>
       </c>
@@ -10836,7 +10935,7 @@
         <v>889</v>
       </c>
     </row>
-    <row r="78" spans="1:37" ht="31">
+    <row r="78" spans="1:37" ht="33" x14ac:dyDescent="0.3">
       <c r="A78" s="51" t="s">
         <v>136</v>
       </c>
@@ -10893,7 +10992,7 @@
         <v>889</v>
       </c>
     </row>
-    <row r="79" spans="1:37" ht="31">
+    <row r="79" spans="1:37" ht="33" x14ac:dyDescent="0.3">
       <c r="A79" s="47" t="s">
         <v>136</v>
       </c>
@@ -10950,7 +11049,7 @@
         <v>889</v>
       </c>
     </row>
-    <row r="80" spans="1:37" ht="31">
+    <row r="80" spans="1:37" ht="33" x14ac:dyDescent="0.3">
       <c r="A80" s="47" t="s">
         <v>136</v>
       </c>
@@ -11007,7 +11106,7 @@
         <v>889</v>
       </c>
     </row>
-    <row r="81" spans="1:37" ht="31">
+    <row r="81" spans="1:37" ht="33" x14ac:dyDescent="0.3">
       <c r="A81" s="54" t="s">
         <v>136</v>
       </c>
@@ -11064,7 +11163,7 @@
         <v>889</v>
       </c>
     </row>
-    <row r="82" spans="1:37" ht="31">
+    <row r="82" spans="1:37" ht="33" x14ac:dyDescent="0.3">
       <c r="A82" s="47" t="s">
         <v>136</v>
       </c>
@@ -11121,7 +11220,7 @@
         <v>889</v>
       </c>
     </row>
-    <row r="83" spans="1:37" ht="31">
+    <row r="83" spans="1:37" ht="33" x14ac:dyDescent="0.3">
       <c r="A83" s="47" t="s">
         <v>136</v>
       </c>
@@ -11178,7 +11277,7 @@
         <v>889</v>
       </c>
     </row>
-    <row r="84" spans="1:37" ht="31">
+    <row r="84" spans="1:37" ht="33" x14ac:dyDescent="0.3">
       <c r="A84" s="47" t="s">
         <v>136</v>
       </c>
@@ -11235,7 +11334,7 @@
         <v>889</v>
       </c>
     </row>
-    <row r="85" spans="1:37" ht="31">
+    <row r="85" spans="1:37" ht="33" x14ac:dyDescent="0.3">
       <c r="A85" s="46" t="s">
         <v>132</v>
       </c>
@@ -11292,7 +11391,7 @@
         <v>889</v>
       </c>
     </row>
-    <row r="86" spans="1:37" ht="31">
+    <row r="86" spans="1:37" ht="33" x14ac:dyDescent="0.3">
       <c r="A86" s="47" t="s">
         <v>132</v>
       </c>
@@ -11349,7 +11448,7 @@
         <v>889</v>
       </c>
     </row>
-    <row r="87" spans="1:37" ht="31">
+    <row r="87" spans="1:37" ht="33" x14ac:dyDescent="0.3">
       <c r="A87" s="47" t="s">
         <v>136</v>
       </c>
@@ -11406,7 +11505,7 @@
         <v>889</v>
       </c>
     </row>
-    <row r="88" spans="1:37" ht="31">
+    <row r="88" spans="1:37" ht="33" x14ac:dyDescent="0.3">
       <c r="A88" s="47" t="s">
         <v>136</v>
       </c>
@@ -11463,7 +11562,7 @@
         <v>889</v>
       </c>
     </row>
-    <row r="89" spans="1:37" ht="31">
+    <row r="89" spans="1:37" ht="33" x14ac:dyDescent="0.3">
       <c r="A89" s="47" t="s">
         <v>132</v>
       </c>
@@ -11520,7 +11619,7 @@
         <v>889</v>
       </c>
     </row>
-    <row r="90" spans="1:37" ht="31">
+    <row r="90" spans="1:37" ht="33" x14ac:dyDescent="0.3">
       <c r="A90" s="47" t="s">
         <v>132</v>
       </c>
@@ -11577,7 +11676,7 @@
         <v>889</v>
       </c>
     </row>
-    <row r="91" spans="1:37" ht="31">
+    <row r="91" spans="1:37" ht="33" x14ac:dyDescent="0.3">
       <c r="A91" s="51" t="s">
         <v>136</v>
       </c>
@@ -11634,7 +11733,7 @@
         <v>889</v>
       </c>
     </row>
-    <row r="92" spans="1:37" ht="31">
+    <row r="92" spans="1:37" ht="33" x14ac:dyDescent="0.3">
       <c r="A92" s="47" t="s">
         <v>132</v>
       </c>
@@ -11691,7 +11790,7 @@
         <v>889</v>
       </c>
     </row>
-    <row r="93" spans="1:37" ht="31">
+    <row r="93" spans="1:37" ht="33" x14ac:dyDescent="0.3">
       <c r="A93" s="47" t="s">
         <v>132</v>
       </c>
@@ -11748,7 +11847,7 @@
         <v>889</v>
       </c>
     </row>
-    <row r="94" spans="1:37" ht="31">
+    <row r="94" spans="1:37" ht="33" x14ac:dyDescent="0.3">
       <c r="A94" s="47" t="s">
         <v>132</v>
       </c>
@@ -11805,7 +11904,7 @@
         <v>889</v>
       </c>
     </row>
-    <row r="95" spans="1:37" ht="31">
+    <row r="95" spans="1:37" ht="33" x14ac:dyDescent="0.3">
       <c r="A95" s="47" t="s">
         <v>136</v>
       </c>
@@ -11862,7 +11961,7 @@
         <v>889</v>
       </c>
     </row>
-    <row r="96" spans="1:37" ht="31">
+    <row r="96" spans="1:37" ht="33" x14ac:dyDescent="0.3">
       <c r="A96" s="47" t="s">
         <v>132</v>
       </c>
@@ -11925,16 +12024,16 @@
 </file>
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0600-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:F194"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A2" sqref="A2:F3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15"/>
+  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="1" spans="1:6" ht="16">
+    <row r="1" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A1" s="31" t="s">
         <v>126</v>
       </c>
@@ -11954,7 +12053,7 @@
         <v>131</v>
       </c>
     </row>
-    <row r="2" spans="1:6">
+    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A2" s="32" t="s">
         <v>132</v>
       </c>
@@ -11972,7 +12071,7 @@
       </c>
       <c r="F2" s="15"/>
     </row>
-    <row r="3" spans="1:6">
+    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A3" s="33" t="s">
         <v>136</v>
       </c>
@@ -11990,7 +12089,7 @@
       </c>
       <c r="F3" s="15"/>
     </row>
-    <row r="4" spans="1:6">
+    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A4" s="33" t="s">
         <v>139</v>
       </c>
@@ -12008,7 +12107,7 @@
       </c>
       <c r="F4" s="15"/>
     </row>
-    <row r="5" spans="1:6">
+    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A5" s="33" t="s">
         <v>139</v>
       </c>
@@ -12026,7 +12125,7 @@
       </c>
       <c r="F5" s="15"/>
     </row>
-    <row r="6" spans="1:6">
+    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A6" s="33" t="s">
         <v>145</v>
       </c>
@@ -12044,7 +12143,7 @@
       </c>
       <c r="F6" s="15"/>
     </row>
-    <row r="7" spans="1:6">
+    <row r="7" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A7" s="33" t="s">
         <v>139</v>
       </c>
@@ -12062,7 +12161,7 @@
       </c>
       <c r="F7" s="15"/>
     </row>
-    <row r="8" spans="1:6">
+    <row r="8" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A8" s="33" t="s">
         <v>139</v>
       </c>
@@ -12080,7 +12179,7 @@
       </c>
       <c r="F8" s="15"/>
     </row>
-    <row r="9" spans="1:6">
+    <row r="9" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A9" s="33" t="s">
         <v>139</v>
       </c>
@@ -12098,7 +12197,7 @@
       </c>
       <c r="F9" s="15"/>
     </row>
-    <row r="10" spans="1:6">
+    <row r="10" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A10" s="33" t="s">
         <v>132</v>
       </c>
@@ -12116,7 +12215,7 @@
       </c>
       <c r="F10" s="15"/>
     </row>
-    <row r="11" spans="1:6">
+    <row r="11" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A11" s="33" t="s">
         <v>132</v>
       </c>
@@ -12134,7 +12233,7 @@
       </c>
       <c r="F11" s="15"/>
     </row>
-    <row r="12" spans="1:6">
+    <row r="12" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A12" s="33" t="s">
         <v>132</v>
       </c>
@@ -12152,7 +12251,7 @@
       </c>
       <c r="F12" s="15"/>
     </row>
-    <row r="13" spans="1:6">
+    <row r="13" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A13" s="33" t="s">
         <v>136</v>
       </c>
@@ -12170,7 +12269,7 @@
       </c>
       <c r="F13" s="15"/>
     </row>
-    <row r="14" spans="1:6">
+    <row r="14" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A14" s="33" t="s">
         <v>136</v>
       </c>
@@ -12188,7 +12287,7 @@
       </c>
       <c r="F14" s="15"/>
     </row>
-    <row r="15" spans="1:6">
+    <row r="15" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A15" s="33" t="s">
         <v>145</v>
       </c>
@@ -12206,7 +12305,7 @@
       </c>
       <c r="F15" s="15"/>
     </row>
-    <row r="16" spans="1:6">
+    <row r="16" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A16" s="33" t="s">
         <v>139</v>
       </c>
@@ -12224,7 +12323,7 @@
       </c>
       <c r="F16" s="15"/>
     </row>
-    <row r="17" spans="1:6">
+    <row r="17" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A17" s="33" t="s">
         <v>139</v>
       </c>
@@ -12242,7 +12341,7 @@
       </c>
       <c r="F17" s="15"/>
     </row>
-    <row r="18" spans="1:6">
+    <row r="18" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A18" s="33" t="s">
         <v>175</v>
       </c>
@@ -12260,7 +12359,7 @@
       </c>
       <c r="F18" s="15"/>
     </row>
-    <row r="19" spans="1:6">
+    <row r="19" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A19" s="33" t="s">
         <v>145</v>
       </c>
@@ -12278,7 +12377,7 @@
       </c>
       <c r="F19" s="15"/>
     </row>
-    <row r="20" spans="1:6">
+    <row r="20" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A20" s="33" t="s">
         <v>132</v>
       </c>
@@ -12296,7 +12395,7 @@
       </c>
       <c r="F20" s="15"/>
     </row>
-    <row r="21" spans="1:6">
+    <row r="21" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A21" s="33" t="s">
         <v>139</v>
       </c>
@@ -12314,7 +12413,7 @@
       </c>
       <c r="F21" s="15"/>
     </row>
-    <row r="22" spans="1:6">
+    <row r="22" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A22" s="33" t="s">
         <v>132</v>
       </c>
@@ -12332,7 +12431,7 @@
       </c>
       <c r="F22" s="15"/>
     </row>
-    <row r="23" spans="1:6">
+    <row r="23" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A23" s="33" t="s">
         <v>175</v>
       </c>
@@ -12350,7 +12449,7 @@
       </c>
       <c r="F23" s="15"/>
     </row>
-    <row r="24" spans="1:6">
+    <row r="24" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A24" s="33" t="s">
         <v>139</v>
       </c>
@@ -12368,7 +12467,7 @@
       </c>
       <c r="F24" s="15"/>
     </row>
-    <row r="25" spans="1:6">
+    <row r="25" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A25" s="33" t="s">
         <v>145</v>
       </c>
@@ -12386,7 +12485,7 @@
       </c>
       <c r="F25" s="15"/>
     </row>
-    <row r="26" spans="1:6">
+    <row r="26" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A26" s="33" t="s">
         <v>139</v>
       </c>
@@ -12404,7 +12503,7 @@
       </c>
       <c r="F26" s="15"/>
     </row>
-    <row r="27" spans="1:6">
+    <row r="27" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A27" s="33" t="s">
         <v>145</v>
       </c>
@@ -12422,7 +12521,7 @@
       </c>
       <c r="F27" s="15"/>
     </row>
-    <row r="28" spans="1:6">
+    <row r="28" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A28" s="32" t="s">
         <v>145</v>
       </c>
@@ -12440,7 +12539,7 @@
       </c>
       <c r="F28" s="15"/>
     </row>
-    <row r="29" spans="1:6">
+    <row r="29" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A29" s="33" t="s">
         <v>145</v>
       </c>
@@ -12458,7 +12557,7 @@
       </c>
       <c r="F29" s="15"/>
     </row>
-    <row r="30" spans="1:6">
+    <row r="30" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A30" s="33" t="s">
         <v>139</v>
       </c>
@@ -12476,7 +12575,7 @@
       </c>
       <c r="F30" s="15"/>
     </row>
-    <row r="31" spans="1:6">
+    <row r="31" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A31" s="33" t="s">
         <v>210</v>
       </c>
@@ -12494,7 +12593,7 @@
       </c>
       <c r="F31" s="15"/>
     </row>
-    <row r="32" spans="1:6">
+    <row r="32" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A32" s="33" t="s">
         <v>145</v>
       </c>
@@ -12512,7 +12611,7 @@
       </c>
       <c r="F32" s="15"/>
     </row>
-    <row r="33" spans="1:6">
+    <row r="33" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A33" s="33" t="s">
         <v>210</v>
       </c>
@@ -12530,7 +12629,7 @@
       </c>
       <c r="F33" s="15"/>
     </row>
-    <row r="34" spans="1:6">
+    <row r="34" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A34" s="33" t="s">
         <v>139</v>
       </c>
@@ -12548,7 +12647,7 @@
       </c>
       <c r="F34" s="15"/>
     </row>
-    <row r="35" spans="1:6">
+    <row r="35" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A35" s="33" t="s">
         <v>139</v>
       </c>
@@ -12566,7 +12665,7 @@
       </c>
       <c r="F35" s="15"/>
     </row>
-    <row r="36" spans="1:6">
+    <row r="36" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A36" s="33" t="s">
         <v>145</v>
       </c>
@@ -12584,7 +12683,7 @@
       </c>
       <c r="F36" s="15"/>
     </row>
-    <row r="37" spans="1:6">
+    <row r="37" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A37" s="33" t="s">
         <v>210</v>
       </c>
@@ -12602,7 +12701,7 @@
       </c>
       <c r="F37" s="15"/>
     </row>
-    <row r="38" spans="1:6">
+    <row r="38" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A38" s="33" t="s">
         <v>139</v>
       </c>
@@ -12620,7 +12719,7 @@
       </c>
       <c r="F38" s="15"/>
     </row>
-    <row r="39" spans="1:6">
+    <row r="39" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A39" s="36" t="s">
         <v>139</v>
       </c>
@@ -12638,7 +12737,7 @@
       </c>
       <c r="F39" s="15"/>
     </row>
-    <row r="40" spans="1:6">
+    <row r="40" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A40" s="33" t="s">
         <v>139</v>
       </c>
@@ -12656,7 +12755,7 @@
       </c>
       <c r="F40" s="15"/>
     </row>
-    <row r="41" spans="1:6">
+    <row r="41" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A41" s="33" t="s">
         <v>139</v>
       </c>
@@ -12674,7 +12773,7 @@
       </c>
       <c r="F41" s="15"/>
     </row>
-    <row r="42" spans="1:6">
+    <row r="42" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A42" s="39" t="s">
         <v>132</v>
       </c>
@@ -12692,7 +12791,7 @@
       </c>
       <c r="F42" s="15"/>
     </row>
-    <row r="43" spans="1:6">
+    <row r="43" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A43" s="33" t="s">
         <v>139</v>
       </c>
@@ -12710,7 +12809,7 @@
       </c>
       <c r="F43" s="15"/>
     </row>
-    <row r="44" spans="1:6">
+    <row r="44" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A44" s="33" t="s">
         <v>139</v>
       </c>
@@ -12728,7 +12827,7 @@
       </c>
       <c r="F44" s="15"/>
     </row>
-    <row r="45" spans="1:6">
+    <row r="45" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A45" s="33" t="s">
         <v>139</v>
       </c>
@@ -12746,7 +12845,7 @@
       </c>
       <c r="F45" s="15"/>
     </row>
-    <row r="46" spans="1:6">
+    <row r="46" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A46" s="36" t="s">
         <v>139</v>
       </c>
@@ -12764,7 +12863,7 @@
       </c>
       <c r="F46" s="15"/>
     </row>
-    <row r="47" spans="1:6">
+    <row r="47" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A47" s="32" t="s">
         <v>145</v>
       </c>
@@ -12782,7 +12881,7 @@
       </c>
       <c r="F47" s="15"/>
     </row>
-    <row r="48" spans="1:6">
+    <row r="48" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A48" s="33" t="s">
         <v>145</v>
       </c>
@@ -12800,7 +12899,7 @@
       </c>
       <c r="F48" s="15"/>
     </row>
-    <row r="49" spans="1:6">
+    <row r="49" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A49" s="33" t="s">
         <v>139</v>
       </c>
@@ -12818,7 +12917,7 @@
       </c>
       <c r="F49" s="15"/>
     </row>
-    <row r="50" spans="1:6">
+    <row r="50" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A50" s="33" t="s">
         <v>145</v>
       </c>
@@ -12836,7 +12935,7 @@
       </c>
       <c r="F50" s="15"/>
     </row>
-    <row r="51" spans="1:6">
+    <row r="51" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A51" s="36" t="s">
         <v>139</v>
       </c>
@@ -12854,7 +12953,7 @@
       </c>
       <c r="F51" s="15"/>
     </row>
-    <row r="52" spans="1:6">
+    <row r="52" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A52" s="33" t="s">
         <v>145</v>
       </c>
@@ -12872,7 +12971,7 @@
       </c>
       <c r="F52" s="15"/>
     </row>
-    <row r="53" spans="1:6">
+    <row r="53" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A53" s="33" t="s">
         <v>145</v>
       </c>
@@ -12890,7 +12989,7 @@
       </c>
       <c r="F53" s="15"/>
     </row>
-    <row r="54" spans="1:6">
+    <row r="54" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A54" s="33" t="s">
         <v>139</v>
       </c>
@@ -12908,7 +13007,7 @@
       </c>
       <c r="F54" s="15"/>
     </row>
-    <row r="55" spans="1:6">
+    <row r="55" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A55" s="33" t="s">
         <v>139</v>
       </c>
@@ -12926,7 +13025,7 @@
       </c>
       <c r="F55" s="15"/>
     </row>
-    <row r="56" spans="1:6">
+    <row r="56" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A56" s="39" t="s">
         <v>139</v>
       </c>
@@ -12944,7 +13043,7 @@
       </c>
       <c r="F56" s="15"/>
     </row>
-    <row r="57" spans="1:6">
+    <row r="57" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A57" s="33" t="s">
         <v>139</v>
       </c>
@@ -12962,7 +13061,7 @@
       </c>
       <c r="F57" s="15"/>
     </row>
-    <row r="58" spans="1:6">
+    <row r="58" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A58" s="33" t="s">
         <v>139</v>
       </c>
@@ -12980,7 +13079,7 @@
       </c>
       <c r="F58" s="15"/>
     </row>
-    <row r="59" spans="1:6">
+    <row r="59" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A59" s="33" t="s">
         <v>132</v>
       </c>
@@ -12998,7 +13097,7 @@
       </c>
       <c r="F59" s="15"/>
     </row>
-    <row r="60" spans="1:6">
+    <row r="60" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A60" s="33" t="s">
         <v>139</v>
       </c>
@@ -13016,7 +13115,7 @@
       </c>
       <c r="F60" s="15"/>
     </row>
-    <row r="61" spans="1:6">
+    <row r="61" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A61" s="33" t="s">
         <v>145</v>
       </c>
@@ -13034,7 +13133,7 @@
       </c>
       <c r="F61" s="15"/>
     </row>
-    <row r="62" spans="1:6">
+    <row r="62" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A62" s="39" t="s">
         <v>139</v>
       </c>
@@ -13052,7 +13151,7 @@
       </c>
       <c r="F62" s="15"/>
     </row>
-    <row r="63" spans="1:6">
+    <row r="63" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A63" s="33" t="s">
         <v>145</v>
       </c>
@@ -13070,7 +13169,7 @@
       </c>
       <c r="F63" s="15"/>
     </row>
-    <row r="64" spans="1:6">
+    <row r="64" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A64" s="39" t="s">
         <v>145</v>
       </c>
@@ -13088,7 +13187,7 @@
       </c>
       <c r="F64" s="15"/>
     </row>
-    <row r="65" spans="1:6">
+    <row r="65" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A65" s="33" t="s">
         <v>210</v>
       </c>
@@ -13106,7 +13205,7 @@
       </c>
       <c r="F65" s="15"/>
     </row>
-    <row r="66" spans="1:6">
+    <row r="66" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A66" s="33" t="s">
         <v>139</v>
       </c>
@@ -13124,7 +13223,7 @@
       </c>
       <c r="F66" s="15"/>
     </row>
-    <row r="67" spans="1:6">
+    <row r="67" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A67" s="32" t="s">
         <v>139</v>
       </c>
@@ -13142,7 +13241,7 @@
       </c>
       <c r="F67" s="15"/>
     </row>
-    <row r="68" spans="1:6">
+    <row r="68" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A68" s="33" t="s">
         <v>145</v>
       </c>
@@ -13160,7 +13259,7 @@
       </c>
       <c r="F68" s="15"/>
     </row>
-    <row r="69" spans="1:6">
+    <row r="69" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A69" s="33" t="s">
         <v>139</v>
       </c>
@@ -13178,7 +13277,7 @@
       </c>
       <c r="F69" s="15"/>
     </row>
-    <row r="70" spans="1:6">
+    <row r="70" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A70" s="33" t="s">
         <v>139</v>
       </c>
@@ -13196,7 +13295,7 @@
       </c>
       <c r="F70" s="15"/>
     </row>
-    <row r="71" spans="1:6">
+    <row r="71" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A71" s="33" t="s">
         <v>210</v>
       </c>
@@ -13214,7 +13313,7 @@
       </c>
       <c r="F71" s="15"/>
     </row>
-    <row r="72" spans="1:6">
+    <row r="72" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A72" s="36" t="s">
         <v>132</v>
       </c>
@@ -13232,7 +13331,7 @@
       </c>
       <c r="F72" s="15"/>
     </row>
-    <row r="73" spans="1:6">
+    <row r="73" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A73" s="33" t="s">
         <v>139</v>
       </c>
@@ -13250,7 +13349,7 @@
       </c>
       <c r="F73" s="15"/>
     </row>
-    <row r="74" spans="1:6">
+    <row r="74" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A74" s="32" t="s">
         <v>139</v>
       </c>
@@ -13268,7 +13367,7 @@
       </c>
       <c r="F74" s="15"/>
     </row>
-    <row r="75" spans="1:6">
+    <row r="75" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A75" s="33" t="s">
         <v>210</v>
       </c>
@@ -13286,7 +13385,7 @@
       </c>
       <c r="F75" s="15"/>
     </row>
-    <row r="76" spans="1:6">
+    <row r="76" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A76" s="33" t="s">
         <v>132</v>
       </c>
@@ -13304,7 +13403,7 @@
       </c>
       <c r="F76" s="15"/>
     </row>
-    <row r="77" spans="1:6">
+    <row r="77" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A77" s="33" t="s">
         <v>145</v>
       </c>
@@ -13322,7 +13421,7 @@
       </c>
       <c r="F77" s="15"/>
     </row>
-    <row r="78" spans="1:6">
+    <row r="78" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A78" s="36" t="s">
         <v>132</v>
       </c>
@@ -13340,7 +13439,7 @@
       </c>
       <c r="F78" s="15"/>
     </row>
-    <row r="79" spans="1:6">
+    <row r="79" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A79" s="33" t="s">
         <v>139</v>
       </c>
@@ -13358,7 +13457,7 @@
       </c>
       <c r="F79" s="15"/>
     </row>
-    <row r="80" spans="1:6">
+    <row r="80" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A80" s="33" t="s">
         <v>139</v>
       </c>
@@ -13376,7 +13475,7 @@
       </c>
       <c r="F80" s="15"/>
     </row>
-    <row r="81" spans="1:6">
+    <row r="81" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A81" s="32" t="s">
         <v>145</v>
       </c>
@@ -13394,7 +13493,7 @@
       </c>
       <c r="F81" s="15"/>
     </row>
-    <row r="82" spans="1:6">
+    <row r="82" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A82" s="33" t="s">
         <v>139</v>
       </c>
@@ -13412,7 +13511,7 @@
       </c>
       <c r="F82" s="15"/>
     </row>
-    <row r="83" spans="1:6">
+    <row r="83" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A83" s="33" t="s">
         <v>139</v>
       </c>
@@ -13430,7 +13529,7 @@
       </c>
       <c r="F83" s="15"/>
     </row>
-    <row r="84" spans="1:6">
+    <row r="84" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A84" s="36" t="s">
         <v>139</v>
       </c>
@@ -13448,7 +13547,7 @@
       </c>
       <c r="F84" s="15"/>
     </row>
-    <row r="85" spans="1:6">
+    <row r="85" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A85" s="33" t="s">
         <v>139</v>
       </c>
@@ -13464,7 +13563,7 @@
       </c>
       <c r="F85" s="15"/>
     </row>
-    <row r="86" spans="1:6">
+    <row r="86" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A86" s="32" t="s">
         <v>139</v>
       </c>
@@ -13482,7 +13581,7 @@
       </c>
       <c r="F86" s="15"/>
     </row>
-    <row r="87" spans="1:6">
+    <row r="87" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A87" s="33" t="s">
         <v>132</v>
       </c>
@@ -13500,7 +13599,7 @@
       </c>
       <c r="F87" s="15"/>
     </row>
-    <row r="88" spans="1:6">
+    <row r="88" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A88" s="33" t="s">
         <v>139</v>
       </c>
@@ -13518,7 +13617,7 @@
       </c>
       <c r="F88" s="15"/>
     </row>
-    <row r="89" spans="1:6">
+    <row r="89" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A89" s="33" t="s">
         <v>139</v>
       </c>
@@ -13536,7 +13635,7 @@
       </c>
       <c r="F89" s="15"/>
     </row>
-    <row r="90" spans="1:6">
+    <row r="90" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A90" s="33" t="s">
         <v>139</v>
       </c>
@@ -13554,7 +13653,7 @@
       </c>
       <c r="F90" s="15"/>
     </row>
-    <row r="91" spans="1:6">
+    <row r="91" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A91" s="33" t="s">
         <v>132</v>
       </c>
@@ -13572,7 +13671,7 @@
       </c>
       <c r="F91" s="15"/>
     </row>
-    <row r="92" spans="1:6">
+    <row r="92" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A92" s="33" t="s">
         <v>139</v>
       </c>
@@ -13590,7 +13689,7 @@
       </c>
       <c r="F92" s="15"/>
     </row>
-    <row r="93" spans="1:6">
+    <row r="93" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A93" s="33" t="s">
         <v>139</v>
       </c>
@@ -13608,7 +13707,7 @@
       </c>
       <c r="F93" s="15"/>
     </row>
-    <row r="94" spans="1:6">
+    <row r="94" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A94" s="33" t="s">
         <v>139</v>
       </c>
@@ -13626,7 +13725,7 @@
       </c>
       <c r="F94" s="15"/>
     </row>
-    <row r="95" spans="1:6">
+    <row r="95" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A95" s="32" t="s">
         <v>139</v>
       </c>
@@ -13644,7 +13743,7 @@
       </c>
       <c r="F95" s="15"/>
     </row>
-    <row r="96" spans="1:6">
+    <row r="96" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A96" s="33" t="s">
         <v>210</v>
       </c>
@@ -13662,7 +13761,7 @@
       </c>
       <c r="F96" s="15"/>
     </row>
-    <row r="97" spans="1:6">
+    <row r="97" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A97" s="33" t="s">
         <v>210</v>
       </c>
@@ -13680,7 +13779,7 @@
       </c>
       <c r="F97" s="15"/>
     </row>
-    <row r="98" spans="1:6">
+    <row r="98" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A98" s="33" t="s">
         <v>210</v>
       </c>
@@ -13698,7 +13797,7 @@
       </c>
       <c r="F98" s="15"/>
     </row>
-    <row r="99" spans="1:6">
+    <row r="99" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A99" s="33" t="s">
         <v>136</v>
       </c>
@@ -13716,7 +13815,7 @@
       </c>
       <c r="F99" s="15"/>
     </row>
-    <row r="100" spans="1:6">
+    <row r="100" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A100" s="33" t="s">
         <v>145</v>
       </c>
@@ -13734,7 +13833,7 @@
       </c>
       <c r="F100" s="15"/>
     </row>
-    <row r="101" spans="1:6">
+    <row r="101" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A101" s="36" t="s">
         <v>139</v>
       </c>
@@ -13752,7 +13851,7 @@
       </c>
       <c r="F101" s="15"/>
     </row>
-    <row r="102" spans="1:6">
+    <row r="102" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A102" s="33" t="s">
         <v>139</v>
       </c>
@@ -13770,7 +13869,7 @@
       </c>
       <c r="F102" s="15"/>
     </row>
-    <row r="103" spans="1:6">
+    <row r="103" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A103" s="33" t="s">
         <v>132</v>
       </c>
@@ -13788,7 +13887,7 @@
       </c>
       <c r="F103" s="15"/>
     </row>
-    <row r="104" spans="1:6">
+    <row r="104" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A104" s="32" t="s">
         <v>139</v>
       </c>
@@ -13806,7 +13905,7 @@
       </c>
       <c r="F104" s="15"/>
     </row>
-    <row r="105" spans="1:6">
+    <row r="105" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A105" s="36" t="s">
         <v>145</v>
       </c>
@@ -13824,7 +13923,7 @@
       </c>
       <c r="F105" s="15"/>
     </row>
-    <row r="106" spans="1:6">
+    <row r="106" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A106" s="33" t="s">
         <v>139</v>
       </c>
@@ -13842,7 +13941,7 @@
       </c>
       <c r="F106" s="15"/>
     </row>
-    <row r="107" spans="1:6">
+    <row r="107" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A107" s="33" t="s">
         <v>132</v>
       </c>
@@ -13860,7 +13959,7 @@
       </c>
       <c r="F107" s="15"/>
     </row>
-    <row r="108" spans="1:6">
+    <row r="108" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A108" s="33" t="s">
         <v>139</v>
       </c>
@@ -13878,7 +13977,7 @@
       </c>
       <c r="F108" s="15"/>
     </row>
-    <row r="109" spans="1:6">
+    <row r="109" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A109" s="33" t="s">
         <v>132</v>
       </c>
@@ -13896,7 +13995,7 @@
       </c>
       <c r="F109" s="15"/>
     </row>
-    <row r="110" spans="1:6">
+    <row r="110" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A110" s="33" t="s">
         <v>139</v>
       </c>
@@ -13914,7 +14013,7 @@
       </c>
       <c r="F110" s="15"/>
     </row>
-    <row r="111" spans="1:6">
+    <row r="111" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A111" s="32" t="s">
         <v>132</v>
       </c>
@@ -13932,7 +14031,7 @@
       </c>
       <c r="F111" s="15"/>
     </row>
-    <row r="112" spans="1:6">
+    <row r="112" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A112" s="36" t="s">
         <v>139</v>
       </c>
@@ -13950,7 +14049,7 @@
       </c>
       <c r="F112" s="15"/>
     </row>
-    <row r="113" spans="1:6">
+    <row r="113" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A113" s="33" t="s">
         <v>136</v>
       </c>
@@ -13968,7 +14067,7 @@
       </c>
       <c r="F113" s="15"/>
     </row>
-    <row r="114" spans="1:6">
+    <row r="114" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A114" s="33" t="s">
         <v>139</v>
       </c>
@@ -13986,7 +14085,7 @@
       </c>
       <c r="F114" s="15"/>
     </row>
-    <row r="115" spans="1:6">
+    <row r="115" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A115" s="32" t="s">
         <v>139</v>
       </c>
@@ -14004,7 +14103,7 @@
       </c>
       <c r="F115" s="15"/>
     </row>
-    <row r="116" spans="1:6">
+    <row r="116" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A116" s="36" t="s">
         <v>145</v>
       </c>
@@ -14022,7 +14121,7 @@
       </c>
       <c r="F116" s="15"/>
     </row>
-    <row r="117" spans="1:6">
+    <row r="117" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A117" s="33" t="s">
         <v>145</v>
       </c>
@@ -14040,7 +14139,7 @@
       </c>
       <c r="F117" s="15"/>
     </row>
-    <row r="118" spans="1:6">
+    <row r="118" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A118" s="32" t="s">
         <v>145</v>
       </c>
@@ -14058,7 +14157,7 @@
       </c>
       <c r="F118" s="15"/>
     </row>
-    <row r="119" spans="1:6">
+    <row r="119" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A119" s="33" t="s">
         <v>139</v>
       </c>
@@ -14076,7 +14175,7 @@
       </c>
       <c r="F119" s="15"/>
     </row>
-    <row r="120" spans="1:6">
+    <row r="120" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A120" s="33" t="s">
         <v>145</v>
       </c>
@@ -14094,7 +14193,7 @@
       </c>
       <c r="F120" s="15"/>
     </row>
-    <row r="121" spans="1:6">
+    <row r="121" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A121" s="33" t="s">
         <v>145</v>
       </c>
@@ -14112,7 +14211,7 @@
       </c>
       <c r="F121" s="15"/>
     </row>
-    <row r="122" spans="1:6">
+    <row r="122" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A122" s="33" t="s">
         <v>145</v>
       </c>
@@ -14130,7 +14229,7 @@
       </c>
       <c r="F122" s="15"/>
     </row>
-    <row r="123" spans="1:6">
+    <row r="123" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A123" s="33" t="s">
         <v>139</v>
       </c>
@@ -14148,7 +14247,7 @@
       </c>
       <c r="F123" s="15"/>
     </row>
-    <row r="124" spans="1:6">
+    <row r="124" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A124" s="36" t="s">
         <v>132</v>
       </c>
@@ -14166,7 +14265,7 @@
       </c>
       <c r="F124" s="15"/>
     </row>
-    <row r="125" spans="1:6">
+    <row r="125" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A125" s="33" t="s">
         <v>139</v>
       </c>
@@ -14184,7 +14283,7 @@
       </c>
       <c r="F125" s="15"/>
     </row>
-    <row r="126" spans="1:6">
+    <row r="126" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A126" s="33" t="s">
         <v>139</v>
       </c>
@@ -14202,7 +14301,7 @@
       </c>
       <c r="F126" s="15"/>
     </row>
-    <row r="127" spans="1:6">
+    <row r="127" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A127" s="33" t="s">
         <v>139</v>
       </c>
@@ -14220,7 +14319,7 @@
       </c>
       <c r="F127" s="15"/>
     </row>
-    <row r="128" spans="1:6">
+    <row r="128" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A128" s="33" t="s">
         <v>132</v>
       </c>
@@ -14238,7 +14337,7 @@
       </c>
       <c r="F128" s="15"/>
     </row>
-    <row r="129" spans="1:6">
+    <row r="129" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A129" s="32" t="s">
         <v>139</v>
       </c>
@@ -14256,7 +14355,7 @@
       </c>
       <c r="F129" s="15"/>
     </row>
-    <row r="130" spans="1:6">
+    <row r="130" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A130" s="33" t="s">
         <v>145</v>
       </c>
@@ -14274,7 +14373,7 @@
       </c>
       <c r="F130" s="15"/>
     </row>
-    <row r="131" spans="1:6">
+    <row r="131" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A131" s="33" t="s">
         <v>145</v>
       </c>
@@ -14292,7 +14391,7 @@
       </c>
       <c r="F131" s="15"/>
     </row>
-    <row r="132" spans="1:6">
+    <row r="132" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A132" s="33" t="s">
         <v>145</v>
       </c>
@@ -14310,7 +14409,7 @@
       </c>
       <c r="F132" s="15"/>
     </row>
-    <row r="133" spans="1:6">
+    <row r="133" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A133" s="33" t="s">
         <v>145</v>
       </c>
@@ -14328,7 +14427,7 @@
       </c>
       <c r="F133" s="15"/>
     </row>
-    <row r="134" spans="1:6">
+    <row r="134" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A134" s="33" t="s">
         <v>145</v>
       </c>
@@ -14346,7 +14445,7 @@
       </c>
       <c r="F134" s="15"/>
     </row>
-    <row r="135" spans="1:6">
+    <row r="135" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A135" s="33" t="s">
         <v>145</v>
       </c>
@@ -14364,7 +14463,7 @@
       </c>
       <c r="F135" s="15"/>
     </row>
-    <row r="136" spans="1:6">
+    <row r="136" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A136" s="33" t="s">
         <v>145</v>
       </c>
@@ -14382,7 +14481,7 @@
       </c>
       <c r="F136" s="15"/>
     </row>
-    <row r="137" spans="1:6">
+    <row r="137" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A137" s="33" t="s">
         <v>145</v>
       </c>
@@ -14400,7 +14499,7 @@
       </c>
       <c r="F137" s="15"/>
     </row>
-    <row r="138" spans="1:6">
+    <row r="138" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A138" s="33" t="s">
         <v>145</v>
       </c>
@@ -14418,7 +14517,7 @@
       </c>
       <c r="F138" s="15"/>
     </row>
-    <row r="139" spans="1:6">
+    <row r="139" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A139" s="33" t="s">
         <v>145</v>
       </c>
@@ -14436,7 +14535,7 @@
       </c>
       <c r="F139" s="15"/>
     </row>
-    <row r="140" spans="1:6">
+    <row r="140" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A140" s="33" t="s">
         <v>145</v>
       </c>
@@ -14454,7 +14553,7 @@
       </c>
       <c r="F140" s="15"/>
     </row>
-    <row r="141" spans="1:6">
+    <row r="141" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A141" s="33" t="s">
         <v>145</v>
       </c>
@@ -14472,7 +14571,7 @@
       </c>
       <c r="F141" s="15"/>
     </row>
-    <row r="142" spans="1:6">
+    <row r="142" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A142" s="33" t="s">
         <v>145</v>
       </c>
@@ -14490,7 +14589,7 @@
       </c>
       <c r="F142" s="15"/>
     </row>
-    <row r="143" spans="1:6">
+    <row r="143" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A143" s="33" t="s">
         <v>145</v>
       </c>
@@ -14508,7 +14607,7 @@
       </c>
       <c r="F143" s="15"/>
     </row>
-    <row r="144" spans="1:6">
+    <row r="144" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A144" s="33" t="s">
         <v>145</v>
       </c>
@@ -14526,7 +14625,7 @@
       </c>
       <c r="F144" s="15"/>
     </row>
-    <row r="145" spans="1:6">
+    <row r="145" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A145" s="33" t="s">
         <v>145</v>
       </c>
@@ -14544,7 +14643,7 @@
       </c>
       <c r="F145" s="15"/>
     </row>
-    <row r="146" spans="1:6">
+    <row r="146" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A146" s="33" t="s">
         <v>145</v>
       </c>
@@ -14562,7 +14661,7 @@
       </c>
       <c r="F146" s="15"/>
     </row>
-    <row r="147" spans="1:6">
+    <row r="147" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A147" s="33" t="s">
         <v>145</v>
       </c>
@@ -14580,7 +14679,7 @@
       </c>
       <c r="F147" s="15"/>
     </row>
-    <row r="148" spans="1:6">
+    <row r="148" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A148" s="33" t="s">
         <v>145</v>
       </c>
@@ -14598,7 +14697,7 @@
       </c>
       <c r="F148" s="15"/>
     </row>
-    <row r="149" spans="1:6">
+    <row r="149" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A149" s="33" t="s">
         <v>145</v>
       </c>
@@ -14616,7 +14715,7 @@
       </c>
       <c r="F149" s="15"/>
     </row>
-    <row r="150" spans="1:6">
+    <row r="150" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A150" s="33" t="s">
         <v>145</v>
       </c>
@@ -14634,7 +14733,7 @@
       </c>
       <c r="F150" s="15"/>
     </row>
-    <row r="151" spans="1:6">
+    <row r="151" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A151" s="33" t="s">
         <v>132</v>
       </c>
@@ -14652,7 +14751,7 @@
       </c>
       <c r="F151" s="15"/>
     </row>
-    <row r="152" spans="1:6">
+    <row r="152" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A152" s="33" t="s">
         <v>139</v>
       </c>
@@ -14670,7 +14769,7 @@
       </c>
       <c r="F152" s="15"/>
     </row>
-    <row r="153" spans="1:6">
+    <row r="153" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A153" s="33" t="s">
         <v>145</v>
       </c>
@@ -14688,7 +14787,7 @@
       </c>
       <c r="F153" s="15"/>
     </row>
-    <row r="154" spans="1:6">
+    <row r="154" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A154" s="33" t="s">
         <v>139</v>
       </c>
@@ -14706,7 +14805,7 @@
       </c>
       <c r="F154" s="15"/>
     </row>
-    <row r="155" spans="1:6">
+    <row r="155" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A155" s="33" t="s">
         <v>145</v>
       </c>
@@ -14724,7 +14823,7 @@
       </c>
       <c r="F155" s="15"/>
     </row>
-    <row r="156" spans="1:6">
+    <row r="156" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A156" s="33" t="s">
         <v>139</v>
       </c>
@@ -14742,7 +14841,7 @@
       </c>
       <c r="F156" s="15"/>
     </row>
-    <row r="157" spans="1:6">
+    <row r="157" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A157" s="33" t="s">
         <v>139</v>
       </c>
@@ -14760,7 +14859,7 @@
       </c>
       <c r="F157" s="15"/>
     </row>
-    <row r="158" spans="1:6">
+    <row r="158" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A158" s="33" t="s">
         <v>132</v>
       </c>
@@ -14778,7 +14877,7 @@
       </c>
       <c r="F158" s="15"/>
     </row>
-    <row r="159" spans="1:6">
+    <row r="159" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A159" s="33" t="s">
         <v>210</v>
       </c>
@@ -14796,7 +14895,7 @@
       </c>
       <c r="F159" s="15"/>
     </row>
-    <row r="160" spans="1:6">
+    <row r="160" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A160" s="33" t="s">
         <v>139</v>
       </c>
@@ -14814,7 +14913,7 @@
       </c>
       <c r="F160" s="15"/>
     </row>
-    <row r="161" spans="1:6">
+    <row r="161" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A161" s="33" t="s">
         <v>210</v>
       </c>
@@ -14832,7 +14931,7 @@
       </c>
       <c r="F161" s="15"/>
     </row>
-    <row r="162" spans="1:6">
+    <row r="162" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A162" s="33" t="s">
         <v>145</v>
       </c>
@@ -14850,7 +14949,7 @@
       </c>
       <c r="F162" s="15"/>
     </row>
-    <row r="163" spans="1:6">
+    <row r="163" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A163" s="33" t="s">
         <v>139</v>
       </c>
@@ -14868,7 +14967,7 @@
       </c>
       <c r="F163" s="15"/>
     </row>
-    <row r="164" spans="1:6">
+    <row r="164" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A164" s="33" t="s">
         <v>139</v>
       </c>
@@ -14886,7 +14985,7 @@
       </c>
       <c r="F164" s="15"/>
     </row>
-    <row r="165" spans="1:6">
+    <row r="165" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A165" s="33" t="s">
         <v>145</v>
       </c>
@@ -14904,7 +15003,7 @@
       </c>
       <c r="F165" s="15"/>
     </row>
-    <row r="166" spans="1:6">
+    <row r="166" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A166" s="33" t="s">
         <v>139</v>
       </c>
@@ -14922,7 +15021,7 @@
       </c>
       <c r="F166" s="15"/>
     </row>
-    <row r="167" spans="1:6">
+    <row r="167" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A167" s="33" t="s">
         <v>139</v>
       </c>
@@ -14940,7 +15039,7 @@
       </c>
       <c r="F167" s="15"/>
     </row>
-    <row r="168" spans="1:6">
+    <row r="168" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A168" s="36" t="s">
         <v>139</v>
       </c>
@@ -14958,7 +15057,7 @@
       </c>
       <c r="F168" s="15"/>
     </row>
-    <row r="169" spans="1:6">
+    <row r="169" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A169" s="33" t="s">
         <v>132</v>
       </c>
@@ -14976,7 +15075,7 @@
       </c>
       <c r="F169" s="15"/>
     </row>
-    <row r="170" spans="1:6">
+    <row r="170" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A170" s="32" t="s">
         <v>139</v>
       </c>
@@ -14994,7 +15093,7 @@
       </c>
       <c r="F170" s="15"/>
     </row>
-    <row r="171" spans="1:6">
+    <row r="171" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A171" s="36" t="s">
         <v>139</v>
       </c>
@@ -15012,7 +15111,7 @@
       </c>
       <c r="F171" s="15"/>
     </row>
-    <row r="172" spans="1:6">
+    <row r="172" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A172" s="33" t="s">
         <v>139</v>
       </c>
@@ -15030,7 +15129,7 @@
       </c>
       <c r="F172" s="15"/>
     </row>
-    <row r="173" spans="1:6">
+    <row r="173" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A173" s="32" t="s">
         <v>139</v>
       </c>
@@ -15048,7 +15147,7 @@
       </c>
       <c r="F173" s="15"/>
     </row>
-    <row r="174" spans="1:6">
+    <row r="174" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A174" s="33" t="s">
         <v>145</v>
       </c>
@@ -15066,7 +15165,7 @@
       </c>
       <c r="F174" s="15"/>
     </row>
-    <row r="175" spans="1:6">
+    <row r="175" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A175" s="33" t="s">
         <v>139</v>
       </c>
@@ -15084,7 +15183,7 @@
       </c>
       <c r="F175" s="15"/>
     </row>
-    <row r="176" spans="1:6">
+    <row r="176" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A176" s="33" t="s">
         <v>139</v>
       </c>
@@ -15102,7 +15201,7 @@
       </c>
       <c r="F176" s="15"/>
     </row>
-    <row r="177" spans="1:6">
+    <row r="177" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A177" s="33" t="s">
         <v>145</v>
       </c>
@@ -15120,7 +15219,7 @@
       </c>
       <c r="F177" s="15"/>
     </row>
-    <row r="178" spans="1:6">
+    <row r="178" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A178" s="33" t="s">
         <v>139</v>
       </c>
@@ -15138,7 +15237,7 @@
       </c>
       <c r="F178" s="15"/>
     </row>
-    <row r="179" spans="1:6">
+    <row r="179" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A179" s="33" t="s">
         <v>210</v>
       </c>
@@ -15156,7 +15255,7 @@
       </c>
       <c r="F179" s="15"/>
     </row>
-    <row r="180" spans="1:6">
+    <row r="180" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A180" s="33" t="s">
         <v>210</v>
       </c>
@@ -15174,7 +15273,7 @@
       </c>
       <c r="F180" s="15"/>
     </row>
-    <row r="181" spans="1:6">
+    <row r="181" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A181" s="36" t="s">
         <v>210</v>
       </c>
@@ -15192,7 +15291,7 @@
       </c>
       <c r="F181" s="15"/>
     </row>
-    <row r="182" spans="1:6">
+    <row r="182" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A182" s="33" t="s">
         <v>139</v>
       </c>
@@ -15210,7 +15309,7 @@
       </c>
       <c r="F182" s="15"/>
     </row>
-    <row r="183" spans="1:6">
+    <row r="183" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A183" s="32" t="s">
         <v>139</v>
       </c>
@@ -15228,7 +15327,7 @@
       </c>
       <c r="F183" s="15"/>
     </row>
-    <row r="184" spans="1:6">
+    <row r="184" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A184" s="33" t="s">
         <v>139</v>
       </c>
@@ -15246,7 +15345,7 @@
       </c>
       <c r="F184" s="15"/>
     </row>
-    <row r="185" spans="1:6">
+    <row r="185" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A185" s="33" t="s">
         <v>139</v>
       </c>
@@ -15264,7 +15363,7 @@
       </c>
       <c r="F185" s="15"/>
     </row>
-    <row r="186" spans="1:6">
+    <row r="186" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A186" s="36" t="s">
         <v>139</v>
       </c>
@@ -15282,7 +15381,7 @@
       </c>
       <c r="F186" s="15"/>
     </row>
-    <row r="187" spans="1:6">
+    <row r="187" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A187" s="33" t="s">
         <v>139</v>
       </c>
@@ -15300,7 +15399,7 @@
       </c>
       <c r="F187" s="15"/>
     </row>
-    <row r="188" spans="1:6">
+    <row r="188" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A188" s="33" t="s">
         <v>145</v>
       </c>
@@ -15318,7 +15417,7 @@
       </c>
       <c r="F188" s="15"/>
     </row>
-    <row r="189" spans="1:6">
+    <row r="189" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A189" s="33" t="s">
         <v>139</v>
       </c>
@@ -15336,7 +15435,7 @@
       </c>
       <c r="F189" s="15"/>
     </row>
-    <row r="190" spans="1:6">
+    <row r="190" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A190" s="33" t="s">
         <v>139</v>
       </c>
@@ -15354,7 +15453,7 @@
       </c>
       <c r="F190" s="15"/>
     </row>
-    <row r="191" spans="1:6">
+    <row r="191" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A191" s="33" t="s">
         <v>139</v>
       </c>
@@ -15372,7 +15471,7 @@
       </c>
       <c r="F191" s="15"/>
     </row>
-    <row r="192" spans="1:6">
+    <row r="192" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A192" s="33" t="s">
         <v>139</v>
       </c>
@@ -15390,7 +15489,7 @@
       </c>
       <c r="F192" s="15"/>
     </row>
-    <row r="193" spans="1:6">
+    <row r="193" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A193" s="33" t="s">
         <v>139</v>
       </c>
@@ -15408,7 +15507,7 @@
       </c>
       <c r="F193" s="15"/>
     </row>
-    <row r="194" spans="1:6">
+    <row r="194" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A194" s="33" t="s">
         <v>139</v>
       </c>
@@ -15432,21 +15531,21 @@
 </file>
 
 <file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0700-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:C11"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="G8" sqref="G8"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15"/>
+  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="20.5" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="2" max="2" width="11.6640625" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="1" max="1" width="20.42578125" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="2" max="2" width="11.7109375" bestFit="1" customWidth="1" collapsed="1"/>
     <col min="3" max="3" width="28" bestFit="1" customWidth="1" collapsed="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" ht="16">
+    <row r="1" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A1" s="5" t="s">
         <v>26</v>
       </c>
@@ -15457,7 +15556,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="2" spans="1:3">
+    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A2" s="7" t="s">
         <v>29</v>
       </c>
@@ -15468,7 +15567,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="3" spans="1:3">
+    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A3" s="7" t="s">
         <v>30</v>
       </c>
@@ -15479,7 +15578,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="4" spans="1:3">
+    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A4" s="7" t="s">
         <v>31</v>
       </c>
@@ -15490,7 +15589,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="5" spans="1:3">
+    <row r="5" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A5" s="7" t="s">
         <v>32</v>
       </c>
@@ -15501,7 +15600,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="6" spans="1:3">
+    <row r="6" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A6" s="7" t="s">
         <v>33</v>
       </c>
@@ -15512,7 +15611,7 @@
         <v>48</v>
       </c>
     </row>
-    <row r="7" spans="1:3">
+    <row r="7" spans="1:3" x14ac:dyDescent="0.25">
       <c r="B7" s="7" t="s">
         <v>39</v>
       </c>
@@ -15520,7 +15619,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="8" spans="1:3">
+    <row r="8" spans="1:3" x14ac:dyDescent="0.25">
       <c r="B8" s="7" t="s">
         <v>42</v>
       </c>
@@ -15528,7 +15627,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="9" spans="1:3">
+    <row r="9" spans="1:3" x14ac:dyDescent="0.25">
       <c r="B9" s="7" t="s">
         <v>36</v>
       </c>
@@ -15536,7 +15635,7 @@
         <v>49</v>
       </c>
     </row>
-    <row r="10" spans="1:3">
+    <row r="10" spans="1:3" x14ac:dyDescent="0.25">
       <c r="B10" s="7" t="s">
         <v>38</v>
       </c>
@@ -15544,7 +15643,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="11" spans="1:3">
+    <row r="11" spans="1:3" x14ac:dyDescent="0.25">
       <c r="B11" s="7" t="s">
         <v>51</v>
       </c>
@@ -15558,19 +15657,19 @@
 </file>
 
 <file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0800-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:E4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="H9" sqref="H9"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15"/>
+  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="4" max="4" width="14" bestFit="1" customWidth="1" collapsed="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" ht="16">
+    <row r="1" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A1" s="9" t="s">
         <v>52</v>
       </c>
@@ -15587,7 +15686,7 @@
         <v>977</v>
       </c>
     </row>
-    <row r="2" spans="1:5" ht="16">
+    <row r="2" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A2" s="14" t="s">
         <v>56</v>
       </c>
@@ -15604,7 +15703,7 @@
         <v>950</v>
       </c>
     </row>
-    <row r="3" spans="1:5" ht="16">
+    <row r="3" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A3" s="14" t="s">
         <v>57</v>
       </c>
@@ -15621,7 +15720,7 @@
         <v>950</v>
       </c>
     </row>
-    <row r="4" spans="1:5" ht="16">
+    <row r="4" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A4" s="14" t="s">
         <v>58</v>
       </c>

--- a/resources/excels/UG.xlsx
+++ b/resources/excels/UG.xlsx
@@ -1,15 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
-  <workbookPr defaultThemeVersion="153222"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="11012"/>
+  <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\23127836\IdeaProjects\cs-portal-automation_selenium\resources\excels\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/a13400947/Projects/cs-portal-automation_selenium/resources/excels/"/>
     </mc:Choice>
   </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{56455F70-29F7-C848-81C6-EFE550921962}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2820" yWindow="1500" windowWidth="31080" windowHeight="10035" firstSheet="3" activeTab="12"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="35840" windowHeight="22400" firstSheet="5" activeTab="13" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="LoginCredentials" sheetId="1" r:id="rId1"/>
@@ -25,12 +26,13 @@
     <sheet name="TemplateManagement" sheetId="11" r:id="rId11"/>
     <sheet name="Ticket Transfer Rules" sheetId="12" r:id="rId12"/>
     <sheet name="Authentication Policy" sheetId="13" r:id="rId13"/>
-    <sheet name="Action Tagging" sheetId="14" r:id="rId14"/>
-    <sheet name="Transfer To Queue" sheetId="16" r:id="rId15"/>
-    <sheet name="QuestionAnswerKey" sheetId="17" r:id="rId16"/>
-    <sheet name="State Queue Mapping" sheetId="15" r:id="rId17"/>
+    <sheet name="OpenAPILoginSheet" sheetId="18" r:id="rId14"/>
+    <sheet name="Action Tagging" sheetId="14" r:id="rId15"/>
+    <sheet name="Transfer To Queue" sheetId="16" r:id="rId16"/>
+    <sheet name="QuestionAnswerKey" sheetId="17" r:id="rId17"/>
+    <sheet name="State Queue Mapping" sheetId="15" r:id="rId18"/>
   </sheets>
-  <calcPr calcId="162913"/>
+  <calcPr calcId="181029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -40,7 +42,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2697" uniqueCount="1048">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2704" uniqueCount="1055">
   <si>
     <t>loginAuuid</t>
   </si>
@@ -3188,13 +3190,34 @@
   </si>
   <si>
     <t>Last Recharge Date(For Prepaid)</t>
+  </si>
+  <si>
+    <t>Token</t>
+  </si>
+  <si>
+    <t>API Type</t>
+  </si>
+  <si>
+    <t>Rest API</t>
+  </si>
+  <si>
+    <t>WKMh2WXamTTQtIrnkrC5/l9fCYOHhSa1hOgpKvmn5xZhNHkdTo8g7gpsGKiMXb/w3AjioDsIHk34HzJaReuqYUcHmN0KtpzrDoIHQ0cD0obcoZSykDm5lk55QPMbd20Vn3ZBFMDN4F9BYfxy98fwZXs+aUvM7wF6m2qunUhETMXh6NdTHBuJKtUMH7IE46UYg9h8k7UmWW8KkVjoyNuMii7OQUy6vMr+Y8CA4XGdqvFJ7ro9d9G87RjRl2YU0JG45DWmhKrb+fz7znkk7Q3o5ON5BZMEp+CXZ3cj8FJB4N6EO5ZAt4mEHUqrT/EbzZbjOVRnkrYtjRtudTn2/lJGxLSGoSUIVwxVkOCeJIHQusqWsb5R+Jf85rTmsKp+F//RZ8VzDxhL318YW4mF+fJGFeH29eGKFcqbwSBeAjizIpjxK3O1qcayBK+W7aVcsVU/UAFui5pdaE5loXhJ3rtuPQ==</t>
+  </si>
+  <si>
+    <t>OpenAPIValidToken</t>
+  </si>
+  <si>
+    <t>WKMh2WXamTTQtIrnkrC5/l9fCYOHhSa1hOgpKvmn5xZhNHkdTo8g7gpsGKiMXb/w3AjioDsIHk34HzJaReuqYUcHmN0KtpzrDoIHQ0cD0obcoZSykDm5lk55QPMbd20Vn3ZBFMDN4F9BYfxy98fwZXs+aUvM7wF6m2qunUhETMXh6NdTHBuJKtUMH7IE46UYg9h8k7UmWW8KkVjoyNuMii7OQUy6vMr+Y8CA4XGdqvFJ7ro9d9G87RjRl2YU0JG45DWmhKrb+fz7znkk7Q3o5ON5BZMEp+CXZ3cj8FJB4N6EO5ZAt4mEHUqrT/EbzZbjOVRnkrYtjRtudTn2/lJGxLSGoSUIVwxVkOCeJIHQusqWsb5R+Jf85rTmsKp+F//RZ8VzDxhL318YW4mF+fJGFeH29eGKFcqbwSBeAjizIpjxK3O1qcayBK+W7aVcsVU/UAFui5pdaE5loXhJ3rtu</t>
+  </si>
+  <si>
+    <t>OpenApiInvalidToken</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <fonts count="19" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <fonts count="20">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -3317,6 +3340,13 @@
       <name val="Calibri Light"/>
       <family val="2"/>
       <scheme val="major"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <color rgb="FF000000"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
     </font>
   </fonts>
   <fills count="9">
@@ -3498,7 +3528,7 @@
       <alignment vertical="top" wrapText="1"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="96">
+  <cellXfs count="97">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="2"/>
@@ -3683,14 +3713,17 @@
     <xf numFmtId="0" fontId="18" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
   </cellXfs>
   <cellStyles count="6">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
-    <cellStyle name="Normal 2" xfId="2"/>
-    <cellStyle name="Normal 3" xfId="3"/>
-    <cellStyle name="Normal 4" xfId="4"/>
-    <cellStyle name="Normal 5" xfId="1"/>
-    <cellStyle name="Normal 6" xfId="5"/>
+    <cellStyle name="Normal 2" xfId="2" xr:uid="{00000000-0005-0000-0000-000001000000}"/>
+    <cellStyle name="Normal 3" xfId="3" xr:uid="{00000000-0005-0000-0000-000002000000}"/>
+    <cellStyle name="Normal 4" xfId="4" xr:uid="{00000000-0005-0000-0000-000003000000}"/>
+    <cellStyle name="Normal 5" xfId="1" xr:uid="{00000000-0005-0000-0000-000004000000}"/>
+    <cellStyle name="Normal 6" xfId="5" xr:uid="{00000000-0005-0000-0000-000005000000}"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -4240,19 +4273,19 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:Q5"/>
   <sheetViews>
     <sheetView topLeftCell="D1" workbookViewId="0">
       <selection activeCell="P11" sqref="P11"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15"/>
   <cols>
-    <col min="4" max="4" width="19.140625" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="4" max="4" width="19.1640625" bestFit="1" customWidth="1" collapsed="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:17" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:17" ht="16">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -4305,7 +4338,7 @@
         <v>946</v>
       </c>
     </row>
-    <row r="2" spans="1:17" ht="16.5" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:17" ht="17">
       <c r="A2">
         <v>23103239</v>
       </c>
@@ -4325,7 +4358,7 @@
         <v>948</v>
       </c>
     </row>
-    <row r="3" spans="1:17" ht="16.5" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:17" ht="17">
       <c r="A3">
         <v>23101480</v>
       </c>
@@ -4343,7 +4376,7 @@
       </c>
       <c r="Q3" s="10"/>
     </row>
-    <row r="4" spans="1:17" ht="16.5" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:17" ht="17">
       <c r="A4">
         <v>2394650</v>
       </c>
@@ -4361,7 +4394,7 @@
       </c>
       <c r="Q4" s="10"/>
     </row>
-    <row r="5" spans="1:17" ht="16.5" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:17" ht="17">
       <c r="A5">
         <v>23103239</v>
       </c>
@@ -4385,16 +4418,16 @@
 </file>
 
 <file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0900-000000000000}">
   <dimension ref="A1:C6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="L9" sqref="L9"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:3" ht="16">
       <c r="A1" s="23" t="s">
         <v>63</v>
       </c>
@@ -4405,7 +4438,7 @@
         <v>65</v>
       </c>
     </row>
-    <row r="2" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:3" ht="16">
       <c r="A2" s="20" t="s">
         <v>66</v>
       </c>
@@ -4414,7 +4447,7 @@
       </c>
       <c r="C2" s="18"/>
     </row>
-    <row r="3" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:3" ht="16">
       <c r="A3" s="21" t="s">
         <v>67</v>
       </c>
@@ -4423,7 +4456,7 @@
       </c>
       <c r="C3" s="17"/>
     </row>
-    <row r="4" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:3" ht="16">
       <c r="A4" s="21" t="s">
         <v>69</v>
       </c>
@@ -4432,7 +4465,7 @@
       </c>
       <c r="C4" s="17"/>
     </row>
-    <row r="5" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:3" ht="16">
       <c r="A5" s="21" t="s">
         <v>70</v>
       </c>
@@ -4441,7 +4474,7 @@
       </c>
       <c r="C5" s="17"/>
     </row>
-    <row r="6" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:3" ht="16">
       <c r="A6" s="21" t="s">
         <v>71</v>
       </c>
@@ -4458,20 +4491,20 @@
 </file>
 
 <file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0A00-000000000000}">
   <dimension ref="A1:B7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="E5" sqref="E5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="36.42578125" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="2" max="2" width="10.42578125" customWidth="1" collapsed="1"/>
+    <col min="1" max="1" width="36.5" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="2" max="2" width="10.5" customWidth="1" collapsed="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:2" ht="16">
       <c r="A1" s="25" t="s">
         <v>72</v>
       </c>
@@ -4479,7 +4512,7 @@
         <v>73</v>
       </c>
     </row>
-    <row r="2" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:2" ht="16">
       <c r="A2" s="24" t="s">
         <v>74</v>
       </c>
@@ -4487,7 +4520,7 @@
         <v>75</v>
       </c>
     </row>
-    <row r="3" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:2" ht="16">
       <c r="A3" s="24" t="s">
         <v>76</v>
       </c>
@@ -4495,7 +4528,7 @@
         <v>77</v>
       </c>
     </row>
-    <row r="4" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:2" ht="16">
       <c r="A4" s="24" t="s">
         <v>78</v>
       </c>
@@ -4503,19 +4536,19 @@
         <v>79</v>
       </c>
     </row>
-    <row r="5" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:2" ht="16">
       <c r="A5" s="24" t="s">
         <v>80</v>
       </c>
       <c r="B5" s="24"/>
     </row>
-    <row r="6" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:2" ht="16">
       <c r="A6" s="24" t="s">
         <v>81</v>
       </c>
       <c r="B6" s="24"/>
     </row>
-    <row r="7" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:2" ht="16">
       <c r="A7" s="24" t="s">
         <v>82</v>
       </c>
@@ -4527,16 +4560,16 @@
 </file>
 
 <file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0B00-000000000000}">
   <dimension ref="A1:E1"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection sqref="A1:E1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:5" ht="16">
       <c r="A1" s="26" t="s">
         <v>83</v>
       </c>
@@ -4559,16 +4592,16 @@
 </file>
 
 <file path=xl/worksheets/sheet13.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0C00-000000000000}">
   <dimension ref="A1:M2"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="I4" sqref="I4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:13" ht="31.5" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:13" ht="34">
       <c r="A1" s="27" t="s">
         <v>88</v>
       </c>
@@ -4609,7 +4642,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="2" spans="1:13" ht="115.5" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:13" ht="120">
       <c r="A2" s="22" t="s">
         <v>1043</v>
       </c>
@@ -4647,16 +4680,65 @@
 </file>
 
 <file path=xl/worksheets/sheet14.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{29143E3D-41F6-804D-9324-49B7F522E738}">
+  <dimension ref="A1:B4"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection sqref="A1:B4"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15"/>
+  <cols>
+    <col min="1" max="1" width="57.6640625" customWidth="1"/>
+    <col min="2" max="2" width="27.33203125" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:2" ht="17">
+      <c r="A1" s="96" t="s">
+        <v>1048</v>
+      </c>
+      <c r="B1" s="96" t="s">
+        <v>1049</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2" ht="17">
+      <c r="A2" s="96"/>
+      <c r="B2" s="96" t="s">
+        <v>1050</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2" ht="409.6">
+      <c r="A3" s="96" t="s">
+        <v>1051</v>
+      </c>
+      <c r="B3" s="96" t="s">
+        <v>1052</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2" ht="409.6">
+      <c r="A4" s="96" t="s">
+        <v>1053</v>
+      </c>
+      <c r="B4" s="96" t="s">
+        <v>1054</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet15.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0D00-000000000000}">
   <dimension ref="A1:K13"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="H11" sqref="H11"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:11" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:11" ht="16">
       <c r="A1" s="89" t="s">
         <v>105</v>
       </c>
@@ -4689,7 +4771,7 @@
       </c>
       <c r="K1" s="89"/>
     </row>
-    <row r="2" spans="1:11" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:11" ht="16">
       <c r="A2" s="65" t="s">
         <v>882</v>
       </c>
@@ -4710,7 +4792,7 @@
       </c>
       <c r="K2" s="15"/>
     </row>
-    <row r="3" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:11">
       <c r="A3" s="89" t="s">
         <v>978</v>
       </c>
@@ -4731,7 +4813,7 @@
       </c>
       <c r="K3" s="15"/>
     </row>
-    <row r="4" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:11">
       <c r="A4" s="89" t="s">
         <v>980</v>
       </c>
@@ -4748,7 +4830,7 @@
       </c>
       <c r="K4" s="15"/>
     </row>
-    <row r="5" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:11">
       <c r="A5" s="89" t="s">
         <v>981</v>
       </c>
@@ -4765,7 +4847,7 @@
       </c>
       <c r="K5" s="15"/>
     </row>
-    <row r="6" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:11">
       <c r="A6" s="89" t="s">
         <v>982</v>
       </c>
@@ -4782,7 +4864,7 @@
       </c>
       <c r="K6" s="15"/>
     </row>
-    <row r="7" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:11">
       <c r="A7" s="89" t="s">
         <v>983</v>
       </c>
@@ -4799,7 +4881,7 @@
       </c>
       <c r="K7" s="15"/>
     </row>
-    <row r="8" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:11">
       <c r="A8" s="89" t="s">
         <v>984</v>
       </c>
@@ -4816,7 +4898,7 @@
       </c>
       <c r="K8" s="15"/>
     </row>
-    <row r="9" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:11">
       <c r="A9" s="89" t="s">
         <v>985</v>
       </c>
@@ -4833,7 +4915,7 @@
       </c>
       <c r="K9" s="15"/>
     </row>
-    <row r="10" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:11">
       <c r="A10" s="89" t="s">
         <v>986</v>
       </c>
@@ -4850,7 +4932,7 @@
       </c>
       <c r="K10" s="15"/>
     </row>
-    <row r="11" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:11">
       <c r="A11" s="89" t="s">
         <v>987</v>
       </c>
@@ -4867,7 +4949,7 @@
       </c>
       <c r="K11" s="15"/>
     </row>
-    <row r="12" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:11">
       <c r="A12" s="89" t="s">
         <v>988</v>
       </c>
@@ -4884,7 +4966,7 @@
       </c>
       <c r="K12" s="15"/>
     </row>
-    <row r="13" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:11">
       <c r="A13" s="89" t="s">
         <v>989</v>
       </c>
@@ -4906,17 +4988,17 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet15.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<file path=xl/worksheets/sheet16.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0E00-000000000000}">
   <dimension ref="A1:C3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="B5" sqref="B5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.42578125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="11.5" defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:3" ht="16">
       <c r="A1" s="65" t="s">
         <v>86</v>
       </c>
@@ -4927,7 +5009,7 @@
         <v>990</v>
       </c>
     </row>
-    <row r="2" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:3" ht="16">
       <c r="A2" s="6" t="s">
         <v>44</v>
       </c>
@@ -4938,7 +5020,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="3" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:3" ht="16">
       <c r="A3" s="6" t="s">
         <v>45</v>
       </c>
@@ -4954,23 +5036,23 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet16.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<file path=xl/worksheets/sheet17.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0F00-000000000000}">
   <dimension ref="A1:C15"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="E7" sqref="E7"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="10.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="10.83203125" defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="21.140625" style="92" customWidth="1"/>
-    <col min="2" max="2" width="35.42578125" style="92" customWidth="1"/>
-    <col min="3" max="3" width="51.140625" style="92" customWidth="1"/>
-    <col min="4" max="16384" width="10.85546875" style="92"/>
+    <col min="1" max="1" width="21.1640625" style="92" customWidth="1"/>
+    <col min="2" max="2" width="35.5" style="92" customWidth="1"/>
+    <col min="3" max="3" width="51.1640625" style="92" customWidth="1"/>
+    <col min="4" max="16384" width="10.83203125" style="92"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:3" ht="17">
       <c r="A1" s="8" t="s">
         <v>991</v>
       </c>
@@ -4981,7 +5063,7 @@
         <v>993</v>
       </c>
     </row>
-    <row r="2" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:3" ht="17">
       <c r="A2" s="8" t="s">
         <v>994</v>
       </c>
@@ -4992,7 +5074,7 @@
         <v>996</v>
       </c>
     </row>
-    <row r="3" spans="1:3" ht="47.25" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:3" ht="51">
       <c r="A3" s="8" t="s">
         <v>104</v>
       </c>
@@ -5003,7 +5085,7 @@
         <v>998</v>
       </c>
     </row>
-    <row r="4" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:3" ht="17">
       <c r="A4" s="8" t="s">
         <v>999</v>
       </c>
@@ -5014,7 +5096,7 @@
         <v>1001</v>
       </c>
     </row>
-    <row r="5" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:3" ht="17">
       <c r="A5" s="8" t="s">
         <v>1002</v>
       </c>
@@ -5025,7 +5107,7 @@
         <v>1004</v>
       </c>
     </row>
-    <row r="6" spans="1:3" ht="31.5" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:3" ht="34">
       <c r="A6" s="8" t="s">
         <v>1005</v>
       </c>
@@ -5034,7 +5116,7 @@
       </c>
       <c r="C6" s="93"/>
     </row>
-    <row r="7" spans="1:3" ht="31.5" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:3" ht="17">
       <c r="A7" s="8" t="s">
         <v>103</v>
       </c>
@@ -5045,7 +5127,7 @@
         <v>1008</v>
       </c>
     </row>
-    <row r="8" spans="1:3" ht="31.5" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:3" ht="17">
       <c r="A8" s="8" t="s">
         <v>1009</v>
       </c>
@@ -5056,7 +5138,7 @@
         <v>1011</v>
       </c>
     </row>
-    <row r="9" spans="1:3" ht="31.5" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:3" ht="34">
       <c r="A9" s="8" t="s">
         <v>1012</v>
       </c>
@@ -5067,7 +5149,7 @@
         <v>1014</v>
       </c>
     </row>
-    <row r="10" spans="1:3" ht="47.25" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:3" ht="34">
       <c r="A10" s="8" t="s">
         <v>1015</v>
       </c>
@@ -5078,7 +5160,7 @@
         <v>1017</v>
       </c>
     </row>
-    <row r="11" spans="1:3" ht="31.5" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:3" ht="17">
       <c r="A11" s="8" t="s">
         <v>1018</v>
       </c>
@@ -5089,7 +5171,7 @@
         <v>1020</v>
       </c>
     </row>
-    <row r="12" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:3" ht="17">
       <c r="A12" s="8" t="s">
         <v>1021</v>
       </c>
@@ -5100,7 +5182,7 @@
         <v>1023</v>
       </c>
     </row>
-    <row r="13" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:3" ht="17">
       <c r="A13" s="8" t="s">
         <v>1024</v>
       </c>
@@ -5109,7 +5191,7 @@
       </c>
       <c r="C13" s="93"/>
     </row>
-    <row r="14" spans="1:3" ht="31.5" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:3" ht="34">
       <c r="A14" s="8" t="s">
         <v>1026</v>
       </c>
@@ -5118,7 +5200,7 @@
       </c>
       <c r="C14" s="93"/>
     </row>
-    <row r="15" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:3" ht="17">
       <c r="A15" s="8" t="s">
         <v>1028</v>
       </c>
@@ -5134,20 +5216,20 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet17.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<file path=xl/worksheets/sheet18.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-1000-000000000000}">
   <dimension ref="A1:K11"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="I18" sqref="I18"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="32.42578125" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="1" max="1" width="32.5" bestFit="1" customWidth="1" collapsed="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:11">
       <c r="A1" s="66" t="s">
         <v>112</v>
       </c>
@@ -5182,7 +5264,7 @@
         <v>122</v>
       </c>
     </row>
-    <row r="2" spans="1:11" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:11" ht="16">
       <c r="A2" s="15" t="s">
         <v>44</v>
       </c>
@@ -5203,7 +5285,7 @@
       <c r="J2" s="15"/>
       <c r="K2" s="15"/>
     </row>
-    <row r="3" spans="1:11" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:11" ht="16">
       <c r="A3" s="15" t="s">
         <v>45</v>
       </c>
@@ -5224,7 +5306,7 @@
       <c r="J3" s="15"/>
       <c r="K3" s="15"/>
     </row>
-    <row r="4" spans="1:11" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:11" ht="16">
       <c r="A4" s="15" t="s">
         <v>885</v>
       </c>
@@ -5245,7 +5327,7 @@
       <c r="J4" s="15"/>
       <c r="K4" s="15"/>
     </row>
-    <row r="5" spans="1:11" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:11" ht="16">
       <c r="A5" s="15" t="s">
         <v>47</v>
       </c>
@@ -5266,7 +5348,7 @@
       <c r="J5" s="15"/>
       <c r="K5" s="15"/>
     </row>
-    <row r="6" spans="1:11" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:11" ht="16">
       <c r="A6" s="15" t="s">
         <v>48</v>
       </c>
@@ -5287,7 +5369,7 @@
       <c r="J6" s="15"/>
       <c r="K6" s="15"/>
     </row>
-    <row r="7" spans="1:11" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:11" ht="16">
       <c r="A7" s="15" t="s">
         <v>39</v>
       </c>
@@ -5308,7 +5390,7 @@
       <c r="J7" s="15"/>
       <c r="K7" s="15"/>
     </row>
-    <row r="8" spans="1:11" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:11" ht="16">
       <c r="A8" s="15" t="s">
         <v>42</v>
       </c>
@@ -5329,7 +5411,7 @@
       <c r="J8" s="15"/>
       <c r="K8" s="15"/>
     </row>
-    <row r="9" spans="1:11" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:11" ht="16">
       <c r="A9" s="15" t="s">
         <v>49</v>
       </c>
@@ -5350,7 +5432,7 @@
       <c r="J9" s="15"/>
       <c r="K9" s="15"/>
     </row>
-    <row r="10" spans="1:11" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:11" ht="16">
       <c r="A10" s="15" t="s">
         <v>50</v>
       </c>
@@ -5371,7 +5453,7 @@
       <c r="J10" s="15"/>
       <c r="K10" s="15"/>
     </row>
-    <row r="11" spans="1:11" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:11" ht="16">
       <c r="A11" s="15" t="s">
         <v>43</v>
       </c>
@@ -5398,46 +5480,46 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:A7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="F7" sqref="F7"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:1" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:1" ht="16">
       <c r="A1" s="3" t="s">
         <v>19</v>
       </c>
     </row>
-    <row r="2" spans="1:1" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:1" ht="16">
       <c r="A2" s="4" t="s">
         <v>20</v>
       </c>
     </row>
-    <row r="3" spans="1:1" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:1" ht="16">
       <c r="A3" s="4" t="s">
         <v>21</v>
       </c>
     </row>
-    <row r="4" spans="1:1" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:1" ht="16">
       <c r="A4" s="4" t="s">
         <v>22</v>
       </c>
     </row>
-    <row r="5" spans="1:1" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:1" ht="16">
       <c r="A5" s="4" t="s">
         <v>23</v>
       </c>
     </row>
-    <row r="6" spans="1:1" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:1" ht="16">
       <c r="A6" s="4" t="s">
         <v>24</v>
       </c>
     </row>
-    <row r="7" spans="1:1" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:1" ht="16">
       <c r="A7" s="4" t="s">
         <v>25</v>
       </c>
@@ -5448,29 +5530,29 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="A1:M22"/>
   <sheetViews>
     <sheetView topLeftCell="A10" workbookViewId="0">
       <selection activeCell="E24" sqref="E24"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="33.140625" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="14.140625" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="3" max="3" width="17.7109375" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="4" max="4" width="20.42578125" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="5" max="5" width="24.42578125" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="6" max="6" width="25.42578125" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="7" max="7" width="11.28515625" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="8" max="8" width="14.140625" customWidth="1" collapsed="1"/>
-    <col min="9" max="9" width="18.28515625" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="10" max="10" width="15.7109375" customWidth="1"/>
+    <col min="1" max="1" width="33.1640625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="14.1640625" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="3" max="3" width="17.6640625" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="4" max="4" width="20.5" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="5" max="5" width="24.5" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="6" max="6" width="25.5" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="7" max="7" width="11.33203125" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="8" max="8" width="14.1640625" customWidth="1" collapsed="1"/>
+    <col min="9" max="9" width="18.33203125" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="10" max="10" width="15.6640625" customWidth="1"/>
     <col min="11" max="11" width="11" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:13">
       <c r="A1" s="15" t="s">
         <v>844</v>
       </c>
@@ -5511,7 +5593,7 @@
         <v>950</v>
       </c>
     </row>
-    <row r="2" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:13" ht="16">
       <c r="A2" s="15" t="s">
         <v>151</v>
       </c>
@@ -5538,7 +5620,7 @@
       <c r="L2" s="15"/>
       <c r="M2" s="15"/>
     </row>
-    <row r="3" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:13">
       <c r="A3" s="15" t="s">
         <v>857</v>
       </c>
@@ -5565,7 +5647,7 @@
       <c r="L3" s="15"/>
       <c r="M3" s="15"/>
     </row>
-    <row r="4" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:13" ht="16">
       <c r="A4" s="15" t="s">
         <v>861</v>
       </c>
@@ -5592,7 +5674,7 @@
       <c r="L4" s="15"/>
       <c r="M4" s="15"/>
     </row>
-    <row r="5" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:13">
       <c r="A5" s="15" t="s">
         <v>863</v>
       </c>
@@ -5625,7 +5707,7 @@
       <c r="L5" s="15"/>
       <c r="M5" s="15"/>
     </row>
-    <row r="6" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:13">
       <c r="A6" s="15" t="s">
         <v>869</v>
       </c>
@@ -5650,7 +5732,7 @@
       <c r="L6" s="15"/>
       <c r="M6" s="15"/>
     </row>
-    <row r="7" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:13">
       <c r="A7" s="15" t="s">
         <v>871</v>
       </c>
@@ -5675,7 +5757,7 @@
       <c r="L7" s="15"/>
       <c r="M7" s="15"/>
     </row>
-    <row r="8" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:13">
       <c r="A8" s="15" t="s">
         <v>873</v>
       </c>
@@ -5702,7 +5784,7 @@
       <c r="L8" s="15"/>
       <c r="M8" s="15"/>
     </row>
-    <row r="9" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:13">
       <c r="A9" s="15" t="s">
         <v>876</v>
       </c>
@@ -5729,7 +5811,7 @@
       <c r="L9" s="15"/>
       <c r="M9" s="15"/>
     </row>
-    <row r="10" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:13">
       <c r="A10" s="83" t="s">
         <v>899</v>
       </c>
@@ -5756,7 +5838,7 @@
       <c r="L10" s="15"/>
       <c r="M10" s="15"/>
     </row>
-    <row r="11" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:13">
       <c r="A11" s="83" t="s">
         <v>904</v>
       </c>
@@ -5783,7 +5865,7 @@
       <c r="L11" s="15"/>
       <c r="M11" s="15"/>
     </row>
-    <row r="12" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:13">
       <c r="A12" s="83" t="s">
         <v>910</v>
       </c>
@@ -5814,7 +5896,7 @@
       <c r="L12" s="15"/>
       <c r="M12" s="15"/>
     </row>
-    <row r="13" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:13">
       <c r="A13" s="15" t="s">
         <v>918</v>
       </c>
@@ -5839,7 +5921,7 @@
       <c r="L13" s="15"/>
       <c r="M13" s="15"/>
     </row>
-    <row r="14" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:13" ht="16">
       <c r="A14" s="83" t="s">
         <v>923</v>
       </c>
@@ -5876,7 +5958,7 @@
       <c r="L14" s="15"/>
       <c r="M14" s="15"/>
     </row>
-    <row r="15" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:13">
       <c r="A15" s="83" t="s">
         <v>928</v>
       </c>
@@ -5907,7 +5989,7 @@
       <c r="L15" s="15"/>
       <c r="M15" s="15"/>
     </row>
-    <row r="16" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:13">
       <c r="A16" s="83" t="s">
         <v>932</v>
       </c>
@@ -5932,7 +6014,7 @@
       <c r="L16" s="15"/>
       <c r="M16" s="15"/>
     </row>
-    <row r="17" spans="1:13" s="10" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:13" s="10" customFormat="1">
       <c r="A17" s="83" t="s">
         <v>939</v>
       </c>
@@ -5957,7 +6039,7 @@
       <c r="L17" s="15"/>
       <c r="M17" s="15"/>
     </row>
-    <row r="18" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:13">
       <c r="A18" s="83" t="s">
         <v>953</v>
       </c>
@@ -5984,7 +6066,7 @@
       <c r="L18" s="15"/>
       <c r="M18" s="15"/>
     </row>
-    <row r="19" spans="1:13" ht="45" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:13" ht="32">
       <c r="A19" s="83" t="s">
         <v>958</v>
       </c>
@@ -6025,7 +6107,7 @@
         <v>967</v>
       </c>
     </row>
-    <row r="20" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:13">
       <c r="A20" s="83" t="s">
         <v>968</v>
       </c>
@@ -6054,7 +6136,7 @@
       <c r="L20" s="15"/>
       <c r="M20" s="15"/>
     </row>
-    <row r="21" spans="1:13" s="10" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:13" s="10" customFormat="1">
       <c r="A21" s="15" t="s">
         <v>1031</v>
       </c>
@@ -6089,7 +6171,7 @@
       <c r="L21" s="15"/>
       <c r="M21" s="15"/>
     </row>
-    <row r="22" spans="1:13" s="10" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:13" s="10" customFormat="1">
       <c r="A22" s="15" t="s">
         <v>1039</v>
       </c>
@@ -6125,16 +6207,16 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
   <dimension ref="A1:AL2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="D11" sqref="D11"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:38" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:38" ht="16">
       <c r="A1" s="81" t="s">
         <v>123</v>
       </c>
@@ -6250,7 +6332,7 @@
         <v>626</v>
       </c>
     </row>
-    <row r="2" spans="1:38" s="10" customFormat="1" ht="33" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:38" s="10" customFormat="1" ht="31">
       <c r="A2" s="73" t="s">
         <v>133</v>
       </c>
@@ -6313,16 +6395,16 @@
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0400-000000000000}">
   <dimension ref="A1:F2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="D10" sqref="D10"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:6" ht="16">
       <c r="A1" s="40" t="s">
         <v>123</v>
       </c>
@@ -6342,7 +6424,7 @@
         <v>128</v>
       </c>
     </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:6">
       <c r="A2" s="31" t="s">
         <v>129</v>
       </c>
@@ -6366,16 +6448,16 @@
 </file>
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0500-000000000000}">
   <dimension ref="A1:AL96"/>
   <sheetViews>
     <sheetView topLeftCell="G1" workbookViewId="0">
       <selection activeCell="A2" sqref="A2:XFD3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:38" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:38" ht="16">
       <c r="A1" s="43" t="s">
         <v>123</v>
       </c>
@@ -6491,7 +6573,7 @@
         <v>626</v>
       </c>
     </row>
-    <row r="2" spans="1:38" ht="33" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:38" ht="31">
       <c r="A2" s="46" t="s">
         <v>133</v>
       </c>
@@ -6551,7 +6633,7 @@
         <v>892</v>
       </c>
     </row>
-    <row r="3" spans="1:38" ht="33" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:38" ht="31">
       <c r="A3" s="46" t="s">
         <v>129</v>
       </c>
@@ -6611,7 +6693,7 @@
         <v>893</v>
       </c>
     </row>
-    <row r="4" spans="1:38" ht="33" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:38" ht="31">
       <c r="A4" s="46" t="s">
         <v>129</v>
       </c>
@@ -6671,7 +6753,7 @@
         <v>894</v>
       </c>
     </row>
-    <row r="5" spans="1:38" ht="33" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:38" ht="31">
       <c r="A5" s="46" t="s">
         <v>129</v>
       </c>
@@ -6731,7 +6813,7 @@
         <v>895</v>
       </c>
     </row>
-    <row r="6" spans="1:38" ht="33" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:38" ht="31">
       <c r="A6" s="46" t="s">
         <v>129</v>
       </c>
@@ -6791,7 +6873,7 @@
         <v>896</v>
       </c>
     </row>
-    <row r="7" spans="1:38" ht="33" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:38" ht="31">
       <c r="A7" s="46" t="s">
         <v>129</v>
       </c>
@@ -6851,7 +6933,7 @@
         <v>897</v>
       </c>
     </row>
-    <row r="8" spans="1:38" ht="33" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:38" ht="31">
       <c r="A8" s="46" t="s">
         <v>129</v>
       </c>
@@ -6911,7 +6993,7 @@
         <v>898</v>
       </c>
     </row>
-    <row r="9" spans="1:38" ht="33" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:38" ht="31">
       <c r="A9" s="46" t="s">
         <v>129</v>
       </c>
@@ -6968,7 +7050,7 @@
         <v>886</v>
       </c>
     </row>
-    <row r="10" spans="1:38" ht="33" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:38" ht="31">
       <c r="A10" s="46" t="s">
         <v>133</v>
       </c>
@@ -7025,7 +7107,7 @@
         <v>886</v>
       </c>
     </row>
-    <row r="11" spans="1:38" ht="33" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:38" ht="31">
       <c r="A11" s="46" t="s">
         <v>133</v>
       </c>
@@ -7082,7 +7164,7 @@
         <v>886</v>
       </c>
     </row>
-    <row r="12" spans="1:38" ht="33" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:38" ht="31">
       <c r="A12" s="46" t="s">
         <v>207</v>
       </c>
@@ -7122,7 +7204,7 @@
       <c r="AD12" s="62"/>
       <c r="AI12" s="10"/>
     </row>
-    <row r="13" spans="1:38" ht="33" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:38" ht="31">
       <c r="A13" s="46" t="s">
         <v>129</v>
       </c>
@@ -7179,7 +7261,7 @@
         <v>886</v>
       </c>
     </row>
-    <row r="14" spans="1:38" ht="33" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:38" ht="31">
       <c r="A14" s="48" t="s">
         <v>651</v>
       </c>
@@ -7236,7 +7318,7 @@
         <v>886</v>
       </c>
     </row>
-    <row r="15" spans="1:38" ht="33" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:38" ht="31">
       <c r="A15" s="48" t="s">
         <v>651</v>
       </c>
@@ -7293,7 +7375,7 @@
         <v>886</v>
       </c>
     </row>
-    <row r="16" spans="1:38" ht="33" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:38" ht="31">
       <c r="A16" s="48" t="s">
         <v>651</v>
       </c>
@@ -7350,7 +7432,7 @@
         <v>886</v>
       </c>
     </row>
-    <row r="17" spans="1:37" ht="33" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:37" ht="31">
       <c r="A17" s="48" t="s">
         <v>651</v>
       </c>
@@ -7407,7 +7489,7 @@
         <v>886</v>
       </c>
     </row>
-    <row r="18" spans="1:37" ht="33" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:37" ht="31">
       <c r="A18" s="48" t="s">
         <v>651</v>
       </c>
@@ -7464,7 +7546,7 @@
         <v>886</v>
       </c>
     </row>
-    <row r="19" spans="1:37" ht="33" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:37" ht="31">
       <c r="A19" s="48" t="s">
         <v>651</v>
       </c>
@@ -7521,7 +7603,7 @@
         <v>886</v>
       </c>
     </row>
-    <row r="20" spans="1:37" ht="33" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:37" ht="31">
       <c r="A20" s="48" t="s">
         <v>651</v>
       </c>
@@ -7578,7 +7660,7 @@
         <v>886</v>
       </c>
     </row>
-    <row r="21" spans="1:37" ht="33" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:37" ht="31">
       <c r="A21" s="48" t="s">
         <v>651</v>
       </c>
@@ -7635,7 +7717,7 @@
         <v>886</v>
       </c>
     </row>
-    <row r="22" spans="1:37" ht="33" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:37" ht="31">
       <c r="A22" s="46" t="s">
         <v>133</v>
       </c>
@@ -7692,7 +7774,7 @@
         <v>886</v>
       </c>
     </row>
-    <row r="23" spans="1:37" ht="33" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:37" ht="31">
       <c r="A23" s="50" t="s">
         <v>129</v>
       </c>
@@ -7732,7 +7814,7 @@
       <c r="AD23" s="63"/>
       <c r="AI23" s="10"/>
     </row>
-    <row r="24" spans="1:37" ht="33" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:37" ht="31">
       <c r="A24" s="46" t="s">
         <v>129</v>
       </c>
@@ -7789,7 +7871,7 @@
         <v>886</v>
       </c>
     </row>
-    <row r="25" spans="1:37" ht="33" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:37" ht="31">
       <c r="A25" s="46" t="s">
         <v>129</v>
       </c>
@@ -7846,7 +7928,7 @@
         <v>886</v>
       </c>
     </row>
-    <row r="26" spans="1:37" ht="33" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:37" ht="31">
       <c r="A26" s="46" t="s">
         <v>129</v>
       </c>
@@ -7903,7 +7985,7 @@
         <v>886</v>
       </c>
     </row>
-    <row r="27" spans="1:37" ht="33" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:37" ht="31">
       <c r="A27" s="45" t="s">
         <v>129</v>
       </c>
@@ -7960,7 +8042,7 @@
         <v>886</v>
       </c>
     </row>
-    <row r="28" spans="1:37" ht="33" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:37" ht="31">
       <c r="A28" s="46" t="s">
         <v>133</v>
       </c>
@@ -8017,7 +8099,7 @@
         <v>886</v>
       </c>
     </row>
-    <row r="29" spans="1:37" ht="33" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:37" ht="31">
       <c r="A29" s="46" t="s">
         <v>129</v>
       </c>
@@ -8074,7 +8156,7 @@
         <v>886</v>
       </c>
     </row>
-    <row r="30" spans="1:37" ht="33" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:37" ht="31">
       <c r="A30" s="46" t="s">
         <v>129</v>
       </c>
@@ -8131,7 +8213,7 @@
         <v>886</v>
       </c>
     </row>
-    <row r="31" spans="1:37" ht="49.5" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:37" ht="46">
       <c r="A31" s="50" t="s">
         <v>129</v>
       </c>
@@ -8206,7 +8288,7 @@
         <v>886</v>
       </c>
     </row>
-    <row r="32" spans="1:37" ht="49.5" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:37" ht="46">
       <c r="A32" s="46" t="s">
         <v>129</v>
       </c>
@@ -8281,7 +8363,7 @@
         <v>886</v>
       </c>
     </row>
-    <row r="33" spans="1:37" ht="49.5" x14ac:dyDescent="0.3">
+    <row r="33" spans="1:37" ht="46">
       <c r="A33" s="45" t="s">
         <v>129</v>
       </c>
@@ -8356,7 +8438,7 @@
         <v>886</v>
       </c>
     </row>
-    <row r="34" spans="1:37" ht="49.5" x14ac:dyDescent="0.3">
+    <row r="34" spans="1:37" ht="46">
       <c r="A34" s="46" t="s">
         <v>129</v>
       </c>
@@ -8431,7 +8513,7 @@
         <v>886</v>
       </c>
     </row>
-    <row r="35" spans="1:37" ht="49.5" x14ac:dyDescent="0.3">
+    <row r="35" spans="1:37" ht="46">
       <c r="A35" s="46" t="s">
         <v>129</v>
       </c>
@@ -8506,7 +8588,7 @@
         <v>886</v>
       </c>
     </row>
-    <row r="36" spans="1:37" ht="49.5" x14ac:dyDescent="0.3">
+    <row r="36" spans="1:37" ht="46">
       <c r="A36" s="46" t="s">
         <v>129</v>
       </c>
@@ -8581,7 +8663,7 @@
         <v>886</v>
       </c>
     </row>
-    <row r="37" spans="1:37" ht="49.5" x14ac:dyDescent="0.3">
+    <row r="37" spans="1:37" ht="46">
       <c r="A37" s="50" t="s">
         <v>129</v>
       </c>
@@ -8656,7 +8738,7 @@
         <v>886</v>
       </c>
     </row>
-    <row r="38" spans="1:37" ht="49.5" x14ac:dyDescent="0.3">
+    <row r="38" spans="1:37" ht="46">
       <c r="A38" s="45" t="s">
         <v>129</v>
       </c>
@@ -8731,7 +8813,7 @@
         <v>886</v>
       </c>
     </row>
-    <row r="39" spans="1:37" ht="33" x14ac:dyDescent="0.3">
+    <row r="39" spans="1:37" ht="31">
       <c r="A39" s="46" t="s">
         <v>133</v>
       </c>
@@ -8788,7 +8870,7 @@
         <v>886</v>
       </c>
     </row>
-    <row r="40" spans="1:37" ht="33" x14ac:dyDescent="0.3">
+    <row r="40" spans="1:37" ht="31">
       <c r="A40" s="46" t="s">
         <v>129</v>
       </c>
@@ -8845,7 +8927,7 @@
         <v>886</v>
       </c>
     </row>
-    <row r="41" spans="1:37" ht="33" x14ac:dyDescent="0.3">
+    <row r="41" spans="1:37" ht="31">
       <c r="A41" s="46" t="s">
         <v>129</v>
       </c>
@@ -8902,7 +8984,7 @@
         <v>886</v>
       </c>
     </row>
-    <row r="42" spans="1:37" ht="33" x14ac:dyDescent="0.3">
+    <row r="42" spans="1:37" ht="31">
       <c r="A42" s="46" t="s">
         <v>133</v>
       </c>
@@ -8959,7 +9041,7 @@
         <v>886</v>
       </c>
     </row>
-    <row r="43" spans="1:37" ht="33" x14ac:dyDescent="0.3">
+    <row r="43" spans="1:37" ht="31">
       <c r="A43" s="50" t="s">
         <v>133</v>
       </c>
@@ -9016,7 +9098,7 @@
         <v>886</v>
       </c>
     </row>
-    <row r="44" spans="1:37" ht="33" x14ac:dyDescent="0.3">
+    <row r="44" spans="1:37" ht="31">
       <c r="A44" s="46" t="s">
         <v>129</v>
       </c>
@@ -9073,7 +9155,7 @@
         <v>886</v>
       </c>
     </row>
-    <row r="45" spans="1:37" ht="33" x14ac:dyDescent="0.3">
+    <row r="45" spans="1:37" ht="31">
       <c r="A45" s="46" t="s">
         <v>133</v>
       </c>
@@ -9130,7 +9212,7 @@
         <v>886</v>
       </c>
     </row>
-    <row r="46" spans="1:37" ht="33" x14ac:dyDescent="0.3">
+    <row r="46" spans="1:37" ht="31">
       <c r="A46" s="46" t="s">
         <v>129</v>
       </c>
@@ -9187,7 +9269,7 @@
         <v>886</v>
       </c>
     </row>
-    <row r="47" spans="1:37" ht="33" x14ac:dyDescent="0.3">
+    <row r="47" spans="1:37" ht="31">
       <c r="A47" s="46" t="s">
         <v>129</v>
       </c>
@@ -9244,7 +9326,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="48" spans="1:37" ht="33" x14ac:dyDescent="0.3">
+    <row r="48" spans="1:37" ht="31">
       <c r="A48" s="46" t="s">
         <v>133</v>
       </c>
@@ -9301,7 +9383,7 @@
         <v>886</v>
       </c>
     </row>
-    <row r="49" spans="1:37" ht="33" x14ac:dyDescent="0.3">
+    <row r="49" spans="1:37" ht="31">
       <c r="A49" s="46" t="s">
         <v>129</v>
       </c>
@@ -9358,7 +9440,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="50" spans="1:37" ht="33" x14ac:dyDescent="0.3">
+    <row r="50" spans="1:37" ht="31">
       <c r="A50" s="46" t="s">
         <v>129</v>
       </c>
@@ -9415,7 +9497,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="51" spans="1:37" ht="33" x14ac:dyDescent="0.3">
+    <row r="51" spans="1:37" ht="31">
       <c r="A51" s="46" t="s">
         <v>129</v>
       </c>
@@ -9472,7 +9554,7 @@
         <v>886</v>
       </c>
     </row>
-    <row r="52" spans="1:37" ht="33" x14ac:dyDescent="0.3">
+    <row r="52" spans="1:37" ht="31">
       <c r="A52" s="46" t="s">
         <v>129</v>
       </c>
@@ -9529,7 +9611,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="53" spans="1:37" ht="33" x14ac:dyDescent="0.3">
+    <row r="53" spans="1:37" ht="31">
       <c r="A53" s="46" t="s">
         <v>129</v>
       </c>
@@ -9586,7 +9668,7 @@
         <v>886</v>
       </c>
     </row>
-    <row r="54" spans="1:37" ht="33" x14ac:dyDescent="0.3">
+    <row r="54" spans="1:37" ht="31">
       <c r="A54" s="46" t="s">
         <v>133</v>
       </c>
@@ -9643,7 +9725,7 @@
         <v>886</v>
       </c>
     </row>
-    <row r="55" spans="1:37" ht="33" x14ac:dyDescent="0.3">
+    <row r="55" spans="1:37" ht="31">
       <c r="A55" s="46" t="s">
         <v>133</v>
       </c>
@@ -9700,7 +9782,7 @@
         <v>886</v>
       </c>
     </row>
-    <row r="56" spans="1:37" ht="33" x14ac:dyDescent="0.3">
+    <row r="56" spans="1:37" ht="31">
       <c r="A56" s="46" t="s">
         <v>133</v>
       </c>
@@ -9757,7 +9839,7 @@
         <v>886</v>
       </c>
     </row>
-    <row r="57" spans="1:37" ht="33" x14ac:dyDescent="0.3">
+    <row r="57" spans="1:37" ht="31">
       <c r="A57" s="46" t="s">
         <v>133</v>
       </c>
@@ -9814,7 +9896,7 @@
         <v>886</v>
       </c>
     </row>
-    <row r="58" spans="1:37" ht="33" x14ac:dyDescent="0.3">
+    <row r="58" spans="1:37" ht="31">
       <c r="A58" s="46" t="s">
         <v>133</v>
       </c>
@@ -9871,7 +9953,7 @@
         <v>886</v>
       </c>
     </row>
-    <row r="59" spans="1:37" ht="33" x14ac:dyDescent="0.3">
+    <row r="59" spans="1:37" ht="31">
       <c r="A59" s="46" t="s">
         <v>133</v>
       </c>
@@ -9928,7 +10010,7 @@
         <v>886</v>
       </c>
     </row>
-    <row r="60" spans="1:37" ht="33" x14ac:dyDescent="0.3">
+    <row r="60" spans="1:37" ht="31">
       <c r="A60" s="46" t="s">
         <v>133</v>
       </c>
@@ -9985,7 +10067,7 @@
         <v>886</v>
       </c>
     </row>
-    <row r="61" spans="1:37" ht="33" x14ac:dyDescent="0.3">
+    <row r="61" spans="1:37" ht="31">
       <c r="A61" s="46" t="s">
         <v>133</v>
       </c>
@@ -10042,7 +10124,7 @@
         <v>886</v>
       </c>
     </row>
-    <row r="62" spans="1:37" ht="33" x14ac:dyDescent="0.3">
+    <row r="62" spans="1:37" ht="31">
       <c r="A62" s="46" t="s">
         <v>133</v>
       </c>
@@ -10099,7 +10181,7 @@
         <v>886</v>
       </c>
     </row>
-    <row r="63" spans="1:37" ht="33" x14ac:dyDescent="0.3">
+    <row r="63" spans="1:37" ht="31">
       <c r="A63" s="46" t="s">
         <v>133</v>
       </c>
@@ -10156,7 +10238,7 @@
         <v>886</v>
       </c>
     </row>
-    <row r="64" spans="1:37" ht="33" x14ac:dyDescent="0.3">
+    <row r="64" spans="1:37" ht="31">
       <c r="A64" s="46" t="s">
         <v>133</v>
       </c>
@@ -10213,7 +10295,7 @@
         <v>886</v>
       </c>
     </row>
-    <row r="65" spans="1:37" ht="33" x14ac:dyDescent="0.3">
+    <row r="65" spans="1:37" ht="31">
       <c r="A65" s="46" t="s">
         <v>133</v>
       </c>
@@ -10270,7 +10352,7 @@
         <v>886</v>
       </c>
     </row>
-    <row r="66" spans="1:37" ht="33" x14ac:dyDescent="0.3">
+    <row r="66" spans="1:37" ht="31">
       <c r="A66" s="46" t="s">
         <v>133</v>
       </c>
@@ -10327,7 +10409,7 @@
         <v>886</v>
       </c>
     </row>
-    <row r="67" spans="1:37" ht="33" x14ac:dyDescent="0.3">
+    <row r="67" spans="1:37" ht="31">
       <c r="A67" s="46" t="s">
         <v>133</v>
       </c>
@@ -10384,7 +10466,7 @@
         <v>886</v>
       </c>
     </row>
-    <row r="68" spans="1:37" ht="33" x14ac:dyDescent="0.3">
+    <row r="68" spans="1:37" ht="31">
       <c r="A68" s="46" t="s">
         <v>133</v>
       </c>
@@ -10441,7 +10523,7 @@
         <v>886</v>
       </c>
     </row>
-    <row r="69" spans="1:37" ht="33" x14ac:dyDescent="0.3">
+    <row r="69" spans="1:37" ht="31">
       <c r="A69" s="46" t="s">
         <v>133</v>
       </c>
@@ -10498,7 +10580,7 @@
         <v>886</v>
       </c>
     </row>
-    <row r="70" spans="1:37" ht="33" x14ac:dyDescent="0.3">
+    <row r="70" spans="1:37" ht="31">
       <c r="A70" s="46" t="s">
         <v>133</v>
       </c>
@@ -10555,7 +10637,7 @@
         <v>886</v>
       </c>
     </row>
-    <row r="71" spans="1:37" ht="33" x14ac:dyDescent="0.3">
+    <row r="71" spans="1:37" ht="31">
       <c r="A71" s="46" t="s">
         <v>133</v>
       </c>
@@ -10612,7 +10694,7 @@
         <v>886</v>
       </c>
     </row>
-    <row r="72" spans="1:37" ht="33" x14ac:dyDescent="0.3">
+    <row r="72" spans="1:37" ht="31">
       <c r="A72" s="46" t="s">
         <v>133</v>
       </c>
@@ -10669,7 +10751,7 @@
         <v>886</v>
       </c>
     </row>
-    <row r="73" spans="1:37" ht="33" x14ac:dyDescent="0.3">
+    <row r="73" spans="1:37" ht="31">
       <c r="A73" s="46" t="s">
         <v>133</v>
       </c>
@@ -10726,7 +10808,7 @@
         <v>886</v>
       </c>
     </row>
-    <row r="74" spans="1:37" ht="33" x14ac:dyDescent="0.3">
+    <row r="74" spans="1:37" ht="31">
       <c r="A74" s="46" t="s">
         <v>133</v>
       </c>
@@ -10783,7 +10865,7 @@
         <v>886</v>
       </c>
     </row>
-    <row r="75" spans="1:37" ht="33" x14ac:dyDescent="0.3">
+    <row r="75" spans="1:37" ht="31">
       <c r="A75" s="45" t="s">
         <v>133</v>
       </c>
@@ -10840,7 +10922,7 @@
         <v>886</v>
       </c>
     </row>
-    <row r="76" spans="1:37" ht="33" x14ac:dyDescent="0.3">
+    <row r="76" spans="1:37" ht="31">
       <c r="A76" s="46" t="s">
         <v>129</v>
       </c>
@@ -10897,7 +10979,7 @@
         <v>886</v>
       </c>
     </row>
-    <row r="77" spans="1:37" ht="33" x14ac:dyDescent="0.3">
+    <row r="77" spans="1:37" ht="31">
       <c r="A77" s="46" t="s">
         <v>133</v>
       </c>
@@ -10954,7 +11036,7 @@
         <v>886</v>
       </c>
     </row>
-    <row r="78" spans="1:37" ht="33" x14ac:dyDescent="0.3">
+    <row r="78" spans="1:37" ht="31">
       <c r="A78" s="50" t="s">
         <v>133</v>
       </c>
@@ -11011,7 +11093,7 @@
         <v>886</v>
       </c>
     </row>
-    <row r="79" spans="1:37" ht="33" x14ac:dyDescent="0.3">
+    <row r="79" spans="1:37" ht="31">
       <c r="A79" s="46" t="s">
         <v>133</v>
       </c>
@@ -11068,7 +11150,7 @@
         <v>886</v>
       </c>
     </row>
-    <row r="80" spans="1:37" ht="33" x14ac:dyDescent="0.3">
+    <row r="80" spans="1:37" ht="31">
       <c r="A80" s="46" t="s">
         <v>133</v>
       </c>
@@ -11125,7 +11207,7 @@
         <v>886</v>
       </c>
     </row>
-    <row r="81" spans="1:37" ht="33" x14ac:dyDescent="0.3">
+    <row r="81" spans="1:37" ht="31">
       <c r="A81" s="53" t="s">
         <v>133</v>
       </c>
@@ -11182,7 +11264,7 @@
         <v>886</v>
       </c>
     </row>
-    <row r="82" spans="1:37" ht="33" x14ac:dyDescent="0.3">
+    <row r="82" spans="1:37" ht="31">
       <c r="A82" s="46" t="s">
         <v>133</v>
       </c>
@@ -11239,7 +11321,7 @@
         <v>886</v>
       </c>
     </row>
-    <row r="83" spans="1:37" ht="33" x14ac:dyDescent="0.3">
+    <row r="83" spans="1:37" ht="31">
       <c r="A83" s="46" t="s">
         <v>133</v>
       </c>
@@ -11296,7 +11378,7 @@
         <v>886</v>
       </c>
     </row>
-    <row r="84" spans="1:37" ht="33" x14ac:dyDescent="0.3">
+    <row r="84" spans="1:37" ht="31">
       <c r="A84" s="46" t="s">
         <v>133</v>
       </c>
@@ -11353,7 +11435,7 @@
         <v>886</v>
       </c>
     </row>
-    <row r="85" spans="1:37" ht="33" x14ac:dyDescent="0.3">
+    <row r="85" spans="1:37" ht="31">
       <c r="A85" s="45" t="s">
         <v>129</v>
       </c>
@@ -11410,7 +11492,7 @@
         <v>886</v>
       </c>
     </row>
-    <row r="86" spans="1:37" ht="33" x14ac:dyDescent="0.3">
+    <row r="86" spans="1:37" ht="31">
       <c r="A86" s="46" t="s">
         <v>129</v>
       </c>
@@ -11467,7 +11549,7 @@
         <v>886</v>
       </c>
     </row>
-    <row r="87" spans="1:37" ht="33" x14ac:dyDescent="0.3">
+    <row r="87" spans="1:37" ht="31">
       <c r="A87" s="46" t="s">
         <v>133</v>
       </c>
@@ -11524,7 +11606,7 @@
         <v>886</v>
       </c>
     </row>
-    <row r="88" spans="1:37" ht="33" x14ac:dyDescent="0.3">
+    <row r="88" spans="1:37" ht="31">
       <c r="A88" s="46" t="s">
         <v>133</v>
       </c>
@@ -11581,7 +11663,7 @@
         <v>886</v>
       </c>
     </row>
-    <row r="89" spans="1:37" ht="33" x14ac:dyDescent="0.3">
+    <row r="89" spans="1:37" ht="31">
       <c r="A89" s="46" t="s">
         <v>129</v>
       </c>
@@ -11638,7 +11720,7 @@
         <v>886</v>
       </c>
     </row>
-    <row r="90" spans="1:37" ht="33" x14ac:dyDescent="0.3">
+    <row r="90" spans="1:37" ht="31">
       <c r="A90" s="46" t="s">
         <v>129</v>
       </c>
@@ -11695,7 +11777,7 @@
         <v>886</v>
       </c>
     </row>
-    <row r="91" spans="1:37" ht="33" x14ac:dyDescent="0.3">
+    <row r="91" spans="1:37" ht="31">
       <c r="A91" s="50" t="s">
         <v>133</v>
       </c>
@@ -11752,7 +11834,7 @@
         <v>886</v>
       </c>
     </row>
-    <row r="92" spans="1:37" ht="33" x14ac:dyDescent="0.3">
+    <row r="92" spans="1:37" ht="31">
       <c r="A92" s="46" t="s">
         <v>129</v>
       </c>
@@ -11809,7 +11891,7 @@
         <v>886</v>
       </c>
     </row>
-    <row r="93" spans="1:37" ht="33" x14ac:dyDescent="0.3">
+    <row r="93" spans="1:37" ht="31">
       <c r="A93" s="46" t="s">
         <v>129</v>
       </c>
@@ -11866,7 +11948,7 @@
         <v>886</v>
       </c>
     </row>
-    <row r="94" spans="1:37" ht="33" x14ac:dyDescent="0.3">
+    <row r="94" spans="1:37" ht="31">
       <c r="A94" s="46" t="s">
         <v>129</v>
       </c>
@@ -11923,7 +12005,7 @@
         <v>886</v>
       </c>
     </row>
-    <row r="95" spans="1:37" ht="33" x14ac:dyDescent="0.3">
+    <row r="95" spans="1:37" ht="31">
       <c r="A95" s="46" t="s">
         <v>133</v>
       </c>
@@ -11980,7 +12062,7 @@
         <v>886</v>
       </c>
     </row>
-    <row r="96" spans="1:37" ht="33" x14ac:dyDescent="0.3">
+    <row r="96" spans="1:37" ht="31">
       <c r="A96" s="46" t="s">
         <v>129</v>
       </c>
@@ -12043,16 +12125,16 @@
 </file>
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0600-000000000000}">
   <dimension ref="A1:F194"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A2" sqref="A2:F3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:6" ht="16">
       <c r="A1" s="30" t="s">
         <v>123</v>
       </c>
@@ -12072,7 +12154,7 @@
         <v>128</v>
       </c>
     </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:6">
       <c r="A2" s="31" t="s">
         <v>129</v>
       </c>
@@ -12090,7 +12172,7 @@
       </c>
       <c r="F2" s="15"/>
     </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:6">
       <c r="A3" s="32" t="s">
         <v>133</v>
       </c>
@@ -12108,7 +12190,7 @@
       </c>
       <c r="F3" s="15"/>
     </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:6">
       <c r="A4" s="32" t="s">
         <v>136</v>
       </c>
@@ -12126,7 +12208,7 @@
       </c>
       <c r="F4" s="15"/>
     </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:6">
       <c r="A5" s="32" t="s">
         <v>136</v>
       </c>
@@ -12144,7 +12226,7 @@
       </c>
       <c r="F5" s="15"/>
     </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:6">
       <c r="A6" s="32" t="s">
         <v>142</v>
       </c>
@@ -12162,7 +12244,7 @@
       </c>
       <c r="F6" s="15"/>
     </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:6">
       <c r="A7" s="32" t="s">
         <v>136</v>
       </c>
@@ -12180,7 +12262,7 @@
       </c>
       <c r="F7" s="15"/>
     </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:6">
       <c r="A8" s="32" t="s">
         <v>136</v>
       </c>
@@ -12198,7 +12280,7 @@
       </c>
       <c r="F8" s="15"/>
     </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:6">
       <c r="A9" s="32" t="s">
         <v>136</v>
       </c>
@@ -12216,7 +12298,7 @@
       </c>
       <c r="F9" s="15"/>
     </row>
-    <row r="10" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:6">
       <c r="A10" s="32" t="s">
         <v>129</v>
       </c>
@@ -12234,7 +12316,7 @@
       </c>
       <c r="F10" s="15"/>
     </row>
-    <row r="11" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:6">
       <c r="A11" s="32" t="s">
         <v>129</v>
       </c>
@@ -12252,7 +12334,7 @@
       </c>
       <c r="F11" s="15"/>
     </row>
-    <row r="12" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:6">
       <c r="A12" s="32" t="s">
         <v>129</v>
       </c>
@@ -12270,7 +12352,7 @@
       </c>
       <c r="F12" s="15"/>
     </row>
-    <row r="13" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:6">
       <c r="A13" s="32" t="s">
         <v>133</v>
       </c>
@@ -12288,7 +12370,7 @@
       </c>
       <c r="F13" s="15"/>
     </row>
-    <row r="14" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:6">
       <c r="A14" s="32" t="s">
         <v>133</v>
       </c>
@@ -12306,7 +12388,7 @@
       </c>
       <c r="F14" s="15"/>
     </row>
-    <row r="15" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:6">
       <c r="A15" s="32" t="s">
         <v>142</v>
       </c>
@@ -12324,7 +12406,7 @@
       </c>
       <c r="F15" s="15"/>
     </row>
-    <row r="16" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:6">
       <c r="A16" s="32" t="s">
         <v>136</v>
       </c>
@@ -12342,7 +12424,7 @@
       </c>
       <c r="F16" s="15"/>
     </row>
-    <row r="17" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:6">
       <c r="A17" s="32" t="s">
         <v>136</v>
       </c>
@@ -12360,7 +12442,7 @@
       </c>
       <c r="F17" s="15"/>
     </row>
-    <row r="18" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:6">
       <c r="A18" s="32" t="s">
         <v>172</v>
       </c>
@@ -12378,7 +12460,7 @@
       </c>
       <c r="F18" s="15"/>
     </row>
-    <row r="19" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:6">
       <c r="A19" s="32" t="s">
         <v>142</v>
       </c>
@@ -12396,7 +12478,7 @@
       </c>
       <c r="F19" s="15"/>
     </row>
-    <row r="20" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:6">
       <c r="A20" s="32" t="s">
         <v>129</v>
       </c>
@@ -12414,7 +12496,7 @@
       </c>
       <c r="F20" s="15"/>
     </row>
-    <row r="21" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:6">
       <c r="A21" s="32" t="s">
         <v>136</v>
       </c>
@@ -12432,7 +12514,7 @@
       </c>
       <c r="F21" s="15"/>
     </row>
-    <row r="22" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:6">
       <c r="A22" s="32" t="s">
         <v>129</v>
       </c>
@@ -12450,7 +12532,7 @@
       </c>
       <c r="F22" s="15"/>
     </row>
-    <row r="23" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:6">
       <c r="A23" s="32" t="s">
         <v>172</v>
       </c>
@@ -12468,7 +12550,7 @@
       </c>
       <c r="F23" s="15"/>
     </row>
-    <row r="24" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:6">
       <c r="A24" s="32" t="s">
         <v>136</v>
       </c>
@@ -12486,7 +12568,7 @@
       </c>
       <c r="F24" s="15"/>
     </row>
-    <row r="25" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:6">
       <c r="A25" s="32" t="s">
         <v>142</v>
       </c>
@@ -12504,7 +12586,7 @@
       </c>
       <c r="F25" s="15"/>
     </row>
-    <row r="26" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:6">
       <c r="A26" s="32" t="s">
         <v>136</v>
       </c>
@@ -12522,7 +12604,7 @@
       </c>
       <c r="F26" s="15"/>
     </row>
-    <row r="27" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:6">
       <c r="A27" s="32" t="s">
         <v>142</v>
       </c>
@@ -12540,7 +12622,7 @@
       </c>
       <c r="F27" s="15"/>
     </row>
-    <row r="28" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:6">
       <c r="A28" s="31" t="s">
         <v>142</v>
       </c>
@@ -12558,7 +12640,7 @@
       </c>
       <c r="F28" s="15"/>
     </row>
-    <row r="29" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:6">
       <c r="A29" s="32" t="s">
         <v>142</v>
       </c>
@@ -12576,7 +12658,7 @@
       </c>
       <c r="F29" s="15"/>
     </row>
-    <row r="30" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:6">
       <c r="A30" s="32" t="s">
         <v>136</v>
       </c>
@@ -12594,7 +12676,7 @@
       </c>
       <c r="F30" s="15"/>
     </row>
-    <row r="31" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:6">
       <c r="A31" s="32" t="s">
         <v>207</v>
       </c>
@@ -12612,7 +12694,7 @@
       </c>
       <c r="F31" s="15"/>
     </row>
-    <row r="32" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:6">
       <c r="A32" s="32" t="s">
         <v>142</v>
       </c>
@@ -12630,7 +12712,7 @@
       </c>
       <c r="F32" s="15"/>
     </row>
-    <row r="33" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:6">
       <c r="A33" s="32" t="s">
         <v>207</v>
       </c>
@@ -12648,7 +12730,7 @@
       </c>
       <c r="F33" s="15"/>
     </row>
-    <row r="34" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:6">
       <c r="A34" s="32" t="s">
         <v>136</v>
       </c>
@@ -12666,7 +12748,7 @@
       </c>
       <c r="F34" s="15"/>
     </row>
-    <row r="35" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:6">
       <c r="A35" s="32" t="s">
         <v>136</v>
       </c>
@@ -12684,7 +12766,7 @@
       </c>
       <c r="F35" s="15"/>
     </row>
-    <row r="36" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:6">
       <c r="A36" s="32" t="s">
         <v>142</v>
       </c>
@@ -12702,7 +12784,7 @@
       </c>
       <c r="F36" s="15"/>
     </row>
-    <row r="37" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:6">
       <c r="A37" s="32" t="s">
         <v>207</v>
       </c>
@@ -12720,7 +12802,7 @@
       </c>
       <c r="F37" s="15"/>
     </row>
-    <row r="38" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:6">
       <c r="A38" s="32" t="s">
         <v>136</v>
       </c>
@@ -12738,7 +12820,7 @@
       </c>
       <c r="F38" s="15"/>
     </row>
-    <row r="39" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:6">
       <c r="A39" s="35" t="s">
         <v>136</v>
       </c>
@@ -12756,7 +12838,7 @@
       </c>
       <c r="F39" s="15"/>
     </row>
-    <row r="40" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:6">
       <c r="A40" s="32" t="s">
         <v>136</v>
       </c>
@@ -12774,7 +12856,7 @@
       </c>
       <c r="F40" s="15"/>
     </row>
-    <row r="41" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:6">
       <c r="A41" s="32" t="s">
         <v>136</v>
       </c>
@@ -12792,7 +12874,7 @@
       </c>
       <c r="F41" s="15"/>
     </row>
-    <row r="42" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:6">
       <c r="A42" s="38" t="s">
         <v>129</v>
       </c>
@@ -12810,7 +12892,7 @@
       </c>
       <c r="F42" s="15"/>
     </row>
-    <row r="43" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:6">
       <c r="A43" s="32" t="s">
         <v>136</v>
       </c>
@@ -12828,7 +12910,7 @@
       </c>
       <c r="F43" s="15"/>
     </row>
-    <row r="44" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:6">
       <c r="A44" s="32" t="s">
         <v>136</v>
       </c>
@@ -12846,7 +12928,7 @@
       </c>
       <c r="F44" s="15"/>
     </row>
-    <row r="45" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:6">
       <c r="A45" s="32" t="s">
         <v>136</v>
       </c>
@@ -12864,7 +12946,7 @@
       </c>
       <c r="F45" s="15"/>
     </row>
-    <row r="46" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:6">
       <c r="A46" s="35" t="s">
         <v>136</v>
       </c>
@@ -12882,7 +12964,7 @@
       </c>
       <c r="F46" s="15"/>
     </row>
-    <row r="47" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:6">
       <c r="A47" s="31" t="s">
         <v>142</v>
       </c>
@@ -12900,7 +12982,7 @@
       </c>
       <c r="F47" s="15"/>
     </row>
-    <row r="48" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:6">
       <c r="A48" s="32" t="s">
         <v>142</v>
       </c>
@@ -12918,7 +13000,7 @@
       </c>
       <c r="F48" s="15"/>
     </row>
-    <row r="49" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:6">
       <c r="A49" s="32" t="s">
         <v>136</v>
       </c>
@@ -12936,7 +13018,7 @@
       </c>
       <c r="F49" s="15"/>
     </row>
-    <row r="50" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:6">
       <c r="A50" s="32" t="s">
         <v>142</v>
       </c>
@@ -12954,7 +13036,7 @@
       </c>
       <c r="F50" s="15"/>
     </row>
-    <row r="51" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:6">
       <c r="A51" s="35" t="s">
         <v>136</v>
       </c>
@@ -12972,7 +13054,7 @@
       </c>
       <c r="F51" s="15"/>
     </row>
-    <row r="52" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:6">
       <c r="A52" s="32" t="s">
         <v>142</v>
       </c>
@@ -12990,7 +13072,7 @@
       </c>
       <c r="F52" s="15"/>
     </row>
-    <row r="53" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:6">
       <c r="A53" s="32" t="s">
         <v>142</v>
       </c>
@@ -13008,7 +13090,7 @@
       </c>
       <c r="F53" s="15"/>
     </row>
-    <row r="54" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:6">
       <c r="A54" s="32" t="s">
         <v>136</v>
       </c>
@@ -13026,7 +13108,7 @@
       </c>
       <c r="F54" s="15"/>
     </row>
-    <row r="55" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:6">
       <c r="A55" s="32" t="s">
         <v>136</v>
       </c>
@@ -13044,7 +13126,7 @@
       </c>
       <c r="F55" s="15"/>
     </row>
-    <row r="56" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="56" spans="1:6">
       <c r="A56" s="38" t="s">
         <v>136</v>
       </c>
@@ -13062,7 +13144,7 @@
       </c>
       <c r="F56" s="15"/>
     </row>
-    <row r="57" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="57" spans="1:6">
       <c r="A57" s="32" t="s">
         <v>136</v>
       </c>
@@ -13080,7 +13162,7 @@
       </c>
       <c r="F57" s="15"/>
     </row>
-    <row r="58" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="58" spans="1:6">
       <c r="A58" s="32" t="s">
         <v>136</v>
       </c>
@@ -13098,7 +13180,7 @@
       </c>
       <c r="F58" s="15"/>
     </row>
-    <row r="59" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="59" spans="1:6">
       <c r="A59" s="32" t="s">
         <v>129</v>
       </c>
@@ -13116,7 +13198,7 @@
       </c>
       <c r="F59" s="15"/>
     </row>
-    <row r="60" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="60" spans="1:6">
       <c r="A60" s="32" t="s">
         <v>136</v>
       </c>
@@ -13134,7 +13216,7 @@
       </c>
       <c r="F60" s="15"/>
     </row>
-    <row r="61" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="61" spans="1:6">
       <c r="A61" s="32" t="s">
         <v>142</v>
       </c>
@@ -13152,7 +13234,7 @@
       </c>
       <c r="F61" s="15"/>
     </row>
-    <row r="62" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="62" spans="1:6">
       <c r="A62" s="38" t="s">
         <v>136</v>
       </c>
@@ -13170,7 +13252,7 @@
       </c>
       <c r="F62" s="15"/>
     </row>
-    <row r="63" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="63" spans="1:6">
       <c r="A63" s="32" t="s">
         <v>142</v>
       </c>
@@ -13188,7 +13270,7 @@
       </c>
       <c r="F63" s="15"/>
     </row>
-    <row r="64" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="64" spans="1:6">
       <c r="A64" s="38" t="s">
         <v>142</v>
       </c>
@@ -13206,7 +13288,7 @@
       </c>
       <c r="F64" s="15"/>
     </row>
-    <row r="65" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="65" spans="1:6">
       <c r="A65" s="32" t="s">
         <v>207</v>
       </c>
@@ -13224,7 +13306,7 @@
       </c>
       <c r="F65" s="15"/>
     </row>
-    <row r="66" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="66" spans="1:6">
       <c r="A66" s="32" t="s">
         <v>136</v>
       </c>
@@ -13242,7 +13324,7 @@
       </c>
       <c r="F66" s="15"/>
     </row>
-    <row r="67" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="67" spans="1:6">
       <c r="A67" s="31" t="s">
         <v>136</v>
       </c>
@@ -13260,7 +13342,7 @@
       </c>
       <c r="F67" s="15"/>
     </row>
-    <row r="68" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="68" spans="1:6">
       <c r="A68" s="32" t="s">
         <v>142</v>
       </c>
@@ -13278,7 +13360,7 @@
       </c>
       <c r="F68" s="15"/>
     </row>
-    <row r="69" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="69" spans="1:6">
       <c r="A69" s="32" t="s">
         <v>136</v>
       </c>
@@ -13296,7 +13378,7 @@
       </c>
       <c r="F69" s="15"/>
     </row>
-    <row r="70" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="70" spans="1:6">
       <c r="A70" s="32" t="s">
         <v>136</v>
       </c>
@@ -13314,7 +13396,7 @@
       </c>
       <c r="F70" s="15"/>
     </row>
-    <row r="71" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="71" spans="1:6">
       <c r="A71" s="32" t="s">
         <v>207</v>
       </c>
@@ -13332,7 +13414,7 @@
       </c>
       <c r="F71" s="15"/>
     </row>
-    <row r="72" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="72" spans="1:6">
       <c r="A72" s="35" t="s">
         <v>129</v>
       </c>
@@ -13350,7 +13432,7 @@
       </c>
       <c r="F72" s="15"/>
     </row>
-    <row r="73" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="73" spans="1:6">
       <c r="A73" s="32" t="s">
         <v>136</v>
       </c>
@@ -13368,7 +13450,7 @@
       </c>
       <c r="F73" s="15"/>
     </row>
-    <row r="74" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="74" spans="1:6">
       <c r="A74" s="31" t="s">
         <v>136</v>
       </c>
@@ -13386,7 +13468,7 @@
       </c>
       <c r="F74" s="15"/>
     </row>
-    <row r="75" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="75" spans="1:6">
       <c r="A75" s="32" t="s">
         <v>207</v>
       </c>
@@ -13404,7 +13486,7 @@
       </c>
       <c r="F75" s="15"/>
     </row>
-    <row r="76" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="76" spans="1:6">
       <c r="A76" s="32" t="s">
         <v>129</v>
       </c>
@@ -13422,7 +13504,7 @@
       </c>
       <c r="F76" s="15"/>
     </row>
-    <row r="77" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="77" spans="1:6">
       <c r="A77" s="32" t="s">
         <v>142</v>
       </c>
@@ -13440,7 +13522,7 @@
       </c>
       <c r="F77" s="15"/>
     </row>
-    <row r="78" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="78" spans="1:6">
       <c r="A78" s="35" t="s">
         <v>129</v>
       </c>
@@ -13458,7 +13540,7 @@
       </c>
       <c r="F78" s="15"/>
     </row>
-    <row r="79" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="79" spans="1:6">
       <c r="A79" s="32" t="s">
         <v>136</v>
       </c>
@@ -13476,7 +13558,7 @@
       </c>
       <c r="F79" s="15"/>
     </row>
-    <row r="80" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="80" spans="1:6">
       <c r="A80" s="32" t="s">
         <v>136</v>
       </c>
@@ -13494,7 +13576,7 @@
       </c>
       <c r="F80" s="15"/>
     </row>
-    <row r="81" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="81" spans="1:6">
       <c r="A81" s="31" t="s">
         <v>142</v>
       </c>
@@ -13512,7 +13594,7 @@
       </c>
       <c r="F81" s="15"/>
     </row>
-    <row r="82" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="82" spans="1:6">
       <c r="A82" s="32" t="s">
         <v>136</v>
       </c>
@@ -13530,7 +13612,7 @@
       </c>
       <c r="F82" s="15"/>
     </row>
-    <row r="83" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="83" spans="1:6">
       <c r="A83" s="32" t="s">
         <v>136</v>
       </c>
@@ -13548,7 +13630,7 @@
       </c>
       <c r="F83" s="15"/>
     </row>
-    <row r="84" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="84" spans="1:6">
       <c r="A84" s="35" t="s">
         <v>136</v>
       </c>
@@ -13566,7 +13648,7 @@
       </c>
       <c r="F84" s="15"/>
     </row>
-    <row r="85" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="85" spans="1:6">
       <c r="A85" s="32" t="s">
         <v>136</v>
       </c>
@@ -13582,7 +13664,7 @@
       </c>
       <c r="F85" s="15"/>
     </row>
-    <row r="86" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="86" spans="1:6">
       <c r="A86" s="31" t="s">
         <v>136</v>
       </c>
@@ -13600,7 +13682,7 @@
       </c>
       <c r="F86" s="15"/>
     </row>
-    <row r="87" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="87" spans="1:6">
       <c r="A87" s="32" t="s">
         <v>129</v>
       </c>
@@ -13618,7 +13700,7 @@
       </c>
       <c r="F87" s="15"/>
     </row>
-    <row r="88" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="88" spans="1:6">
       <c r="A88" s="32" t="s">
         <v>136</v>
       </c>
@@ -13636,7 +13718,7 @@
       </c>
       <c r="F88" s="15"/>
     </row>
-    <row r="89" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="89" spans="1:6">
       <c r="A89" s="32" t="s">
         <v>136</v>
       </c>
@@ -13654,7 +13736,7 @@
       </c>
       <c r="F89" s="15"/>
     </row>
-    <row r="90" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="90" spans="1:6">
       <c r="A90" s="32" t="s">
         <v>136</v>
       </c>
@@ -13672,7 +13754,7 @@
       </c>
       <c r="F90" s="15"/>
     </row>
-    <row r="91" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="91" spans="1:6">
       <c r="A91" s="32" t="s">
         <v>129</v>
       </c>
@@ -13690,7 +13772,7 @@
       </c>
       <c r="F91" s="15"/>
     </row>
-    <row r="92" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="92" spans="1:6">
       <c r="A92" s="32" t="s">
         <v>136</v>
       </c>
@@ -13708,7 +13790,7 @@
       </c>
       <c r="F92" s="15"/>
     </row>
-    <row r="93" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="93" spans="1:6">
       <c r="A93" s="32" t="s">
         <v>136</v>
       </c>
@@ -13726,7 +13808,7 @@
       </c>
       <c r="F93" s="15"/>
     </row>
-    <row r="94" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="94" spans="1:6">
       <c r="A94" s="32" t="s">
         <v>136</v>
       </c>
@@ -13744,7 +13826,7 @@
       </c>
       <c r="F94" s="15"/>
     </row>
-    <row r="95" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="95" spans="1:6">
       <c r="A95" s="31" t="s">
         <v>136</v>
       </c>
@@ -13762,7 +13844,7 @@
       </c>
       <c r="F95" s="15"/>
     </row>
-    <row r="96" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="96" spans="1:6">
       <c r="A96" s="32" t="s">
         <v>207</v>
       </c>
@@ -13780,7 +13862,7 @@
       </c>
       <c r="F96" s="15"/>
     </row>
-    <row r="97" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="97" spans="1:6">
       <c r="A97" s="32" t="s">
         <v>207</v>
       </c>
@@ -13798,7 +13880,7 @@
       </c>
       <c r="F97" s="15"/>
     </row>
-    <row r="98" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="98" spans="1:6">
       <c r="A98" s="32" t="s">
         <v>207</v>
       </c>
@@ -13816,7 +13898,7 @@
       </c>
       <c r="F98" s="15"/>
     </row>
-    <row r="99" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="99" spans="1:6">
       <c r="A99" s="32" t="s">
         <v>133</v>
       </c>
@@ -13834,7 +13916,7 @@
       </c>
       <c r="F99" s="15"/>
     </row>
-    <row r="100" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="100" spans="1:6">
       <c r="A100" s="32" t="s">
         <v>142</v>
       </c>
@@ -13852,7 +13934,7 @@
       </c>
       <c r="F100" s="15"/>
     </row>
-    <row r="101" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="101" spans="1:6">
       <c r="A101" s="35" t="s">
         <v>136</v>
       </c>
@@ -13870,7 +13952,7 @@
       </c>
       <c r="F101" s="15"/>
     </row>
-    <row r="102" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="102" spans="1:6">
       <c r="A102" s="32" t="s">
         <v>136</v>
       </c>
@@ -13888,7 +13970,7 @@
       </c>
       <c r="F102" s="15"/>
     </row>
-    <row r="103" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="103" spans="1:6">
       <c r="A103" s="32" t="s">
         <v>129</v>
       </c>
@@ -13906,7 +13988,7 @@
       </c>
       <c r="F103" s="15"/>
     </row>
-    <row r="104" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="104" spans="1:6">
       <c r="A104" s="31" t="s">
         <v>136</v>
       </c>
@@ -13924,7 +14006,7 @@
       </c>
       <c r="F104" s="15"/>
     </row>
-    <row r="105" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="105" spans="1:6">
       <c r="A105" s="35" t="s">
         <v>142</v>
       </c>
@@ -13942,7 +14024,7 @@
       </c>
       <c r="F105" s="15"/>
     </row>
-    <row r="106" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="106" spans="1:6">
       <c r="A106" s="32" t="s">
         <v>136</v>
       </c>
@@ -13960,7 +14042,7 @@
       </c>
       <c r="F106" s="15"/>
     </row>
-    <row r="107" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="107" spans="1:6">
       <c r="A107" s="32" t="s">
         <v>129</v>
       </c>
@@ -13978,7 +14060,7 @@
       </c>
       <c r="F107" s="15"/>
     </row>
-    <row r="108" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="108" spans="1:6">
       <c r="A108" s="32" t="s">
         <v>136</v>
       </c>
@@ -13996,7 +14078,7 @@
       </c>
       <c r="F108" s="15"/>
     </row>
-    <row r="109" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="109" spans="1:6">
       <c r="A109" s="32" t="s">
         <v>129</v>
       </c>
@@ -14014,7 +14096,7 @@
       </c>
       <c r="F109" s="15"/>
     </row>
-    <row r="110" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="110" spans="1:6">
       <c r="A110" s="32" t="s">
         <v>136</v>
       </c>
@@ -14032,7 +14114,7 @@
       </c>
       <c r="F110" s="15"/>
     </row>
-    <row r="111" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="111" spans="1:6">
       <c r="A111" s="31" t="s">
         <v>129</v>
       </c>
@@ -14050,7 +14132,7 @@
       </c>
       <c r="F111" s="15"/>
     </row>
-    <row r="112" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="112" spans="1:6">
       <c r="A112" s="35" t="s">
         <v>136</v>
       </c>
@@ -14068,7 +14150,7 @@
       </c>
       <c r="F112" s="15"/>
     </row>
-    <row r="113" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="113" spans="1:6">
       <c r="A113" s="32" t="s">
         <v>133</v>
       </c>
@@ -14086,7 +14168,7 @@
       </c>
       <c r="F113" s="15"/>
     </row>
-    <row r="114" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="114" spans="1:6">
       <c r="A114" s="32" t="s">
         <v>136</v>
       </c>
@@ -14104,7 +14186,7 @@
       </c>
       <c r="F114" s="15"/>
     </row>
-    <row r="115" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="115" spans="1:6">
       <c r="A115" s="31" t="s">
         <v>136</v>
       </c>
@@ -14122,7 +14204,7 @@
       </c>
       <c r="F115" s="15"/>
     </row>
-    <row r="116" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="116" spans="1:6">
       <c r="A116" s="35" t="s">
         <v>142</v>
       </c>
@@ -14140,7 +14222,7 @@
       </c>
       <c r="F116" s="15"/>
     </row>
-    <row r="117" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="117" spans="1:6">
       <c r="A117" s="32" t="s">
         <v>142</v>
       </c>
@@ -14158,7 +14240,7 @@
       </c>
       <c r="F117" s="15"/>
     </row>
-    <row r="118" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="118" spans="1:6">
       <c r="A118" s="31" t="s">
         <v>142</v>
       </c>
@@ -14176,7 +14258,7 @@
       </c>
       <c r="F118" s="15"/>
     </row>
-    <row r="119" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="119" spans="1:6">
       <c r="A119" s="32" t="s">
         <v>136</v>
       </c>
@@ -14194,7 +14276,7 @@
       </c>
       <c r="F119" s="15"/>
     </row>
-    <row r="120" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="120" spans="1:6">
       <c r="A120" s="32" t="s">
         <v>142</v>
       </c>
@@ -14212,7 +14294,7 @@
       </c>
       <c r="F120" s="15"/>
     </row>
-    <row r="121" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="121" spans="1:6">
       <c r="A121" s="32" t="s">
         <v>142</v>
       </c>
@@ -14230,7 +14312,7 @@
       </c>
       <c r="F121" s="15"/>
     </row>
-    <row r="122" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="122" spans="1:6">
       <c r="A122" s="32" t="s">
         <v>142</v>
       </c>
@@ -14248,7 +14330,7 @@
       </c>
       <c r="F122" s="15"/>
     </row>
-    <row r="123" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="123" spans="1:6">
       <c r="A123" s="32" t="s">
         <v>136</v>
       </c>
@@ -14266,7 +14348,7 @@
       </c>
       <c r="F123" s="15"/>
     </row>
-    <row r="124" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="124" spans="1:6">
       <c r="A124" s="35" t="s">
         <v>129</v>
       </c>
@@ -14284,7 +14366,7 @@
       </c>
       <c r="F124" s="15"/>
     </row>
-    <row r="125" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="125" spans="1:6">
       <c r="A125" s="32" t="s">
         <v>136</v>
       </c>
@@ -14302,7 +14384,7 @@
       </c>
       <c r="F125" s="15"/>
     </row>
-    <row r="126" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="126" spans="1:6">
       <c r="A126" s="32" t="s">
         <v>136</v>
       </c>
@@ -14320,7 +14402,7 @@
       </c>
       <c r="F126" s="15"/>
     </row>
-    <row r="127" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="127" spans="1:6">
       <c r="A127" s="32" t="s">
         <v>136</v>
       </c>
@@ -14338,7 +14420,7 @@
       </c>
       <c r="F127" s="15"/>
     </row>
-    <row r="128" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="128" spans="1:6">
       <c r="A128" s="32" t="s">
         <v>129</v>
       </c>
@@ -14356,7 +14438,7 @@
       </c>
       <c r="F128" s="15"/>
     </row>
-    <row r="129" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="129" spans="1:6">
       <c r="A129" s="31" t="s">
         <v>136</v>
       </c>
@@ -14374,7 +14456,7 @@
       </c>
       <c r="F129" s="15"/>
     </row>
-    <row r="130" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="130" spans="1:6">
       <c r="A130" s="32" t="s">
         <v>142</v>
       </c>
@@ -14392,7 +14474,7 @@
       </c>
       <c r="F130" s="15"/>
     </row>
-    <row r="131" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="131" spans="1:6">
       <c r="A131" s="32" t="s">
         <v>142</v>
       </c>
@@ -14410,7 +14492,7 @@
       </c>
       <c r="F131" s="15"/>
     </row>
-    <row r="132" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="132" spans="1:6">
       <c r="A132" s="32" t="s">
         <v>142</v>
       </c>
@@ -14428,7 +14510,7 @@
       </c>
       <c r="F132" s="15"/>
     </row>
-    <row r="133" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="133" spans="1:6">
       <c r="A133" s="32" t="s">
         <v>142</v>
       </c>
@@ -14446,7 +14528,7 @@
       </c>
       <c r="F133" s="15"/>
     </row>
-    <row r="134" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="134" spans="1:6">
       <c r="A134" s="32" t="s">
         <v>142</v>
       </c>
@@ -14464,7 +14546,7 @@
       </c>
       <c r="F134" s="15"/>
     </row>
-    <row r="135" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="135" spans="1:6">
       <c r="A135" s="32" t="s">
         <v>142</v>
       </c>
@@ -14482,7 +14564,7 @@
       </c>
       <c r="F135" s="15"/>
     </row>
-    <row r="136" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="136" spans="1:6">
       <c r="A136" s="32" t="s">
         <v>142</v>
       </c>
@@ -14500,7 +14582,7 @@
       </c>
       <c r="F136" s="15"/>
     </row>
-    <row r="137" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="137" spans="1:6">
       <c r="A137" s="32" t="s">
         <v>142</v>
       </c>
@@ -14518,7 +14600,7 @@
       </c>
       <c r="F137" s="15"/>
     </row>
-    <row r="138" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="138" spans="1:6">
       <c r="A138" s="32" t="s">
         <v>142</v>
       </c>
@@ -14536,7 +14618,7 @@
       </c>
       <c r="F138" s="15"/>
     </row>
-    <row r="139" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="139" spans="1:6">
       <c r="A139" s="32" t="s">
         <v>142</v>
       </c>
@@ -14554,7 +14636,7 @@
       </c>
       <c r="F139" s="15"/>
     </row>
-    <row r="140" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="140" spans="1:6">
       <c r="A140" s="32" t="s">
         <v>142</v>
       </c>
@@ -14572,7 +14654,7 @@
       </c>
       <c r="F140" s="15"/>
     </row>
-    <row r="141" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="141" spans="1:6">
       <c r="A141" s="32" t="s">
         <v>142</v>
       </c>
@@ -14590,7 +14672,7 @@
       </c>
       <c r="F141" s="15"/>
     </row>
-    <row r="142" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="142" spans="1:6">
       <c r="A142" s="32" t="s">
         <v>142</v>
       </c>
@@ -14608,7 +14690,7 @@
       </c>
       <c r="F142" s="15"/>
     </row>
-    <row r="143" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="143" spans="1:6">
       <c r="A143" s="32" t="s">
         <v>142</v>
       </c>
@@ -14626,7 +14708,7 @@
       </c>
       <c r="F143" s="15"/>
     </row>
-    <row r="144" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="144" spans="1:6">
       <c r="A144" s="32" t="s">
         <v>142</v>
       </c>
@@ -14644,7 +14726,7 @@
       </c>
       <c r="F144" s="15"/>
     </row>
-    <row r="145" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="145" spans="1:6">
       <c r="A145" s="32" t="s">
         <v>142</v>
       </c>
@@ -14662,7 +14744,7 @@
       </c>
       <c r="F145" s="15"/>
     </row>
-    <row r="146" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="146" spans="1:6">
       <c r="A146" s="32" t="s">
         <v>142</v>
       </c>
@@ -14680,7 +14762,7 @@
       </c>
       <c r="F146" s="15"/>
     </row>
-    <row r="147" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="147" spans="1:6">
       <c r="A147" s="32" t="s">
         <v>142</v>
       </c>
@@ -14698,7 +14780,7 @@
       </c>
       <c r="F147" s="15"/>
     </row>
-    <row r="148" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="148" spans="1:6">
       <c r="A148" s="32" t="s">
         <v>142</v>
       </c>
@@ -14716,7 +14798,7 @@
       </c>
       <c r="F148" s="15"/>
     </row>
-    <row r="149" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="149" spans="1:6">
       <c r="A149" s="32" t="s">
         <v>142</v>
       </c>
@@ -14734,7 +14816,7 @@
       </c>
       <c r="F149" s="15"/>
     </row>
-    <row r="150" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="150" spans="1:6">
       <c r="A150" s="32" t="s">
         <v>142</v>
       </c>
@@ -14752,7 +14834,7 @@
       </c>
       <c r="F150" s="15"/>
     </row>
-    <row r="151" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="151" spans="1:6">
       <c r="A151" s="32" t="s">
         <v>129</v>
       </c>
@@ -14770,7 +14852,7 @@
       </c>
       <c r="F151" s="15"/>
     </row>
-    <row r="152" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="152" spans="1:6">
       <c r="A152" s="32" t="s">
         <v>136</v>
       </c>
@@ -14788,7 +14870,7 @@
       </c>
       <c r="F152" s="15"/>
     </row>
-    <row r="153" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="153" spans="1:6">
       <c r="A153" s="32" t="s">
         <v>142</v>
       </c>
@@ -14806,7 +14888,7 @@
       </c>
       <c r="F153" s="15"/>
     </row>
-    <row r="154" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="154" spans="1:6">
       <c r="A154" s="32" t="s">
         <v>136</v>
       </c>
@@ -14824,7 +14906,7 @@
       </c>
       <c r="F154" s="15"/>
     </row>
-    <row r="155" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="155" spans="1:6">
       <c r="A155" s="32" t="s">
         <v>142</v>
       </c>
@@ -14842,7 +14924,7 @@
       </c>
       <c r="F155" s="15"/>
     </row>
-    <row r="156" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="156" spans="1:6">
       <c r="A156" s="32" t="s">
         <v>136</v>
       </c>
@@ -14860,7 +14942,7 @@
       </c>
       <c r="F156" s="15"/>
     </row>
-    <row r="157" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="157" spans="1:6">
       <c r="A157" s="32" t="s">
         <v>136</v>
       </c>
@@ -14878,7 +14960,7 @@
       </c>
       <c r="F157" s="15"/>
     </row>
-    <row r="158" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="158" spans="1:6">
       <c r="A158" s="32" t="s">
         <v>129</v>
       </c>
@@ -14896,7 +14978,7 @@
       </c>
       <c r="F158" s="15"/>
     </row>
-    <row r="159" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="159" spans="1:6">
       <c r="A159" s="32" t="s">
         <v>207</v>
       </c>
@@ -14914,7 +14996,7 @@
       </c>
       <c r="F159" s="15"/>
     </row>
-    <row r="160" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="160" spans="1:6">
       <c r="A160" s="32" t="s">
         <v>136</v>
       </c>
@@ -14932,7 +15014,7 @@
       </c>
       <c r="F160" s="15"/>
     </row>
-    <row r="161" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="161" spans="1:6">
       <c r="A161" s="32" t="s">
         <v>207</v>
       </c>
@@ -14950,7 +15032,7 @@
       </c>
       <c r="F161" s="15"/>
     </row>
-    <row r="162" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="162" spans="1:6">
       <c r="A162" s="32" t="s">
         <v>142</v>
       </c>
@@ -14968,7 +15050,7 @@
       </c>
       <c r="F162" s="15"/>
     </row>
-    <row r="163" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="163" spans="1:6">
       <c r="A163" s="32" t="s">
         <v>136</v>
       </c>
@@ -14986,7 +15068,7 @@
       </c>
       <c r="F163" s="15"/>
     </row>
-    <row r="164" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="164" spans="1:6">
       <c r="A164" s="32" t="s">
         <v>136</v>
       </c>
@@ -15004,7 +15086,7 @@
       </c>
       <c r="F164" s="15"/>
     </row>
-    <row r="165" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="165" spans="1:6">
       <c r="A165" s="32" t="s">
         <v>142</v>
       </c>
@@ -15022,7 +15104,7 @@
       </c>
       <c r="F165" s="15"/>
     </row>
-    <row r="166" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="166" spans="1:6">
       <c r="A166" s="32" t="s">
         <v>136</v>
       </c>
@@ -15040,7 +15122,7 @@
       </c>
       <c r="F166" s="15"/>
     </row>
-    <row r="167" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="167" spans="1:6">
       <c r="A167" s="32" t="s">
         <v>136</v>
       </c>
@@ -15058,7 +15140,7 @@
       </c>
       <c r="F167" s="15"/>
     </row>
-    <row r="168" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="168" spans="1:6">
       <c r="A168" s="35" t="s">
         <v>136</v>
       </c>
@@ -15076,7 +15158,7 @@
       </c>
       <c r="F168" s="15"/>
     </row>
-    <row r="169" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="169" spans="1:6">
       <c r="A169" s="32" t="s">
         <v>129</v>
       </c>
@@ -15094,7 +15176,7 @@
       </c>
       <c r="F169" s="15"/>
     </row>
-    <row r="170" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="170" spans="1:6">
       <c r="A170" s="31" t="s">
         <v>136</v>
       </c>
@@ -15112,7 +15194,7 @@
       </c>
       <c r="F170" s="15"/>
     </row>
-    <row r="171" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="171" spans="1:6">
       <c r="A171" s="35" t="s">
         <v>136</v>
       </c>
@@ -15130,7 +15212,7 @@
       </c>
       <c r="F171" s="15"/>
     </row>
-    <row r="172" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="172" spans="1:6">
       <c r="A172" s="32" t="s">
         <v>136</v>
       </c>
@@ -15148,7 +15230,7 @@
       </c>
       <c r="F172" s="15"/>
     </row>
-    <row r="173" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="173" spans="1:6">
       <c r="A173" s="31" t="s">
         <v>136</v>
       </c>
@@ -15166,7 +15248,7 @@
       </c>
       <c r="F173" s="15"/>
     </row>
-    <row r="174" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="174" spans="1:6">
       <c r="A174" s="32" t="s">
         <v>142</v>
       </c>
@@ -15184,7 +15266,7 @@
       </c>
       <c r="F174" s="15"/>
     </row>
-    <row r="175" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="175" spans="1:6">
       <c r="A175" s="32" t="s">
         <v>136</v>
       </c>
@@ -15202,7 +15284,7 @@
       </c>
       <c r="F175" s="15"/>
     </row>
-    <row r="176" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="176" spans="1:6">
       <c r="A176" s="32" t="s">
         <v>136</v>
       </c>
@@ -15220,7 +15302,7 @@
       </c>
       <c r="F176" s="15"/>
     </row>
-    <row r="177" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="177" spans="1:6">
       <c r="A177" s="32" t="s">
         <v>142</v>
       </c>
@@ -15238,7 +15320,7 @@
       </c>
       <c r="F177" s="15"/>
     </row>
-    <row r="178" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="178" spans="1:6">
       <c r="A178" s="32" t="s">
         <v>136</v>
       </c>
@@ -15256,7 +15338,7 @@
       </c>
       <c r="F178" s="15"/>
     </row>
-    <row r="179" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="179" spans="1:6">
       <c r="A179" s="32" t="s">
         <v>207</v>
       </c>
@@ -15274,7 +15356,7 @@
       </c>
       <c r="F179" s="15"/>
     </row>
-    <row r="180" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="180" spans="1:6">
       <c r="A180" s="32" t="s">
         <v>207</v>
       </c>
@@ -15292,7 +15374,7 @@
       </c>
       <c r="F180" s="15"/>
     </row>
-    <row r="181" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="181" spans="1:6">
       <c r="A181" s="35" t="s">
         <v>207</v>
       </c>
@@ -15310,7 +15392,7 @@
       </c>
       <c r="F181" s="15"/>
     </row>
-    <row r="182" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="182" spans="1:6">
       <c r="A182" s="32" t="s">
         <v>136</v>
       </c>
@@ -15328,7 +15410,7 @@
       </c>
       <c r="F182" s="15"/>
     </row>
-    <row r="183" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="183" spans="1:6">
       <c r="A183" s="31" t="s">
         <v>136</v>
       </c>
@@ -15346,7 +15428,7 @@
       </c>
       <c r="F183" s="15"/>
     </row>
-    <row r="184" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="184" spans="1:6">
       <c r="A184" s="32" t="s">
         <v>136</v>
       </c>
@@ -15364,7 +15446,7 @@
       </c>
       <c r="F184" s="15"/>
     </row>
-    <row r="185" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="185" spans="1:6">
       <c r="A185" s="32" t="s">
         <v>136</v>
       </c>
@@ -15382,7 +15464,7 @@
       </c>
       <c r="F185" s="15"/>
     </row>
-    <row r="186" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="186" spans="1:6">
       <c r="A186" s="35" t="s">
         <v>136</v>
       </c>
@@ -15400,7 +15482,7 @@
       </c>
       <c r="F186" s="15"/>
     </row>
-    <row r="187" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="187" spans="1:6">
       <c r="A187" s="32" t="s">
         <v>136</v>
       </c>
@@ -15418,7 +15500,7 @@
       </c>
       <c r="F187" s="15"/>
     </row>
-    <row r="188" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="188" spans="1:6">
       <c r="A188" s="32" t="s">
         <v>142</v>
       </c>
@@ -15436,7 +15518,7 @@
       </c>
       <c r="F188" s="15"/>
     </row>
-    <row r="189" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="189" spans="1:6">
       <c r="A189" s="32" t="s">
         <v>136</v>
       </c>
@@ -15454,7 +15536,7 @@
       </c>
       <c r="F189" s="15"/>
     </row>
-    <row r="190" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="190" spans="1:6">
       <c r="A190" s="32" t="s">
         <v>136</v>
       </c>
@@ -15472,7 +15554,7 @@
       </c>
       <c r="F190" s="15"/>
     </row>
-    <row r="191" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="191" spans="1:6">
       <c r="A191" s="32" t="s">
         <v>136</v>
       </c>
@@ -15490,7 +15572,7 @@
       </c>
       <c r="F191" s="15"/>
     </row>
-    <row r="192" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="192" spans="1:6">
       <c r="A192" s="32" t="s">
         <v>136</v>
       </c>
@@ -15508,7 +15590,7 @@
       </c>
       <c r="F192" s="15"/>
     </row>
-    <row r="193" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="193" spans="1:6">
       <c r="A193" s="32" t="s">
         <v>136</v>
       </c>
@@ -15526,7 +15608,7 @@
       </c>
       <c r="F193" s="15"/>
     </row>
-    <row r="194" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="194" spans="1:6">
       <c r="A194" s="32" t="s">
         <v>136</v>
       </c>
@@ -15550,21 +15632,21 @@
 </file>
 
 <file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0700-000000000000}">
   <dimension ref="A1:C11"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="G8" sqref="G8"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="20.42578125" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="2" max="2" width="11.7109375" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="1" max="1" width="20.5" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="2" max="2" width="11.6640625" bestFit="1" customWidth="1" collapsed="1"/>
     <col min="3" max="3" width="28" bestFit="1" customWidth="1" collapsed="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:3" ht="16">
       <c r="A1" s="5" t="s">
         <v>26</v>
       </c>
@@ -15575,7 +15657,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:3">
       <c r="A2" s="7" t="s">
         <v>29</v>
       </c>
@@ -15586,7 +15668,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:3">
       <c r="A3" s="7" t="s">
         <v>30</v>
       </c>
@@ -15597,7 +15679,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:3">
       <c r="A4" s="7" t="s">
         <v>31</v>
       </c>
@@ -15608,7 +15690,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:3">
       <c r="A5" s="7" t="s">
         <v>32</v>
       </c>
@@ -15619,7 +15701,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:3">
       <c r="A6" s="7" t="s">
         <v>33</v>
       </c>
@@ -15630,7 +15712,7 @@
         <v>48</v>
       </c>
     </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:3">
       <c r="B7" s="7" t="s">
         <v>39</v>
       </c>
@@ -15638,7 +15720,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="8" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:3">
       <c r="B8" s="7" t="s">
         <v>42</v>
       </c>
@@ -15646,7 +15728,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="9" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:3">
       <c r="B9" s="7" t="s">
         <v>36</v>
       </c>
@@ -15654,7 +15736,7 @@
         <v>49</v>
       </c>
     </row>
-    <row r="10" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:3">
       <c r="B10" s="7" t="s">
         <v>38</v>
       </c>
@@ -15662,7 +15744,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="11" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:3">
       <c r="B11" s="7" t="s">
         <v>51</v>
       </c>
@@ -15676,19 +15758,19 @@
 </file>
 
 <file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0800-000000000000}">
   <dimension ref="A1:E4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="H9" sqref="H9"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15"/>
   <cols>
     <col min="4" max="4" width="14" bestFit="1" customWidth="1" collapsed="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:5" ht="16">
       <c r="A1" s="9" t="s">
         <v>52</v>
       </c>
@@ -15705,7 +15787,7 @@
         <v>974</v>
       </c>
     </row>
-    <row r="2" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:5" ht="16">
       <c r="A2" s="14" t="s">
         <v>56</v>
       </c>
@@ -15722,7 +15804,7 @@
         <v>947</v>
       </c>
     </row>
-    <row r="3" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:5" ht="16">
       <c r="A3" s="14" t="s">
         <v>57</v>
       </c>
@@ -15739,7 +15821,7 @@
         <v>947</v>
       </c>
     </row>
-    <row r="4" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:5" ht="16">
       <c r="A4" s="14" t="s">
         <v>58</v>
       </c>

--- a/resources/excels/UG.xlsx
+++ b/resources/excels/UG.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/a13400947/Projects/cs-portal-automation_selenium/resources/excels/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{56455F70-29F7-C848-81C6-EFE550921962}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{45000A98-FAD9-344D-9B8E-0323AB28FC72}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="35840" windowHeight="22400" firstSheet="5" activeTab="13" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="35840" windowHeight="21040" firstSheet="6" activeTab="15" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="LoginCredentials" sheetId="1" r:id="rId1"/>
@@ -27,10 +27,12 @@
     <sheet name="Ticket Transfer Rules" sheetId="12" r:id="rId12"/>
     <sheet name="Authentication Policy" sheetId="13" r:id="rId13"/>
     <sheet name="OpenAPILoginSheet" sheetId="18" r:id="rId14"/>
-    <sheet name="Action Tagging" sheetId="14" r:id="rId15"/>
-    <sheet name="Transfer To Queue" sheetId="16" r:id="rId16"/>
-    <sheet name="QuestionAnswerKey" sheetId="17" r:id="rId17"/>
-    <sheet name="State Queue Mapping" sheetId="15" r:id="rId18"/>
+    <sheet name="OpenAPIClientConfig" sheetId="19" r:id="rId15"/>
+    <sheet name="ClientConfig" sheetId="20" r:id="rId16"/>
+    <sheet name="Action Tagging" sheetId="14" r:id="rId17"/>
+    <sheet name="Transfer To Queue" sheetId="16" r:id="rId18"/>
+    <sheet name="QuestionAnswerKey" sheetId="17" r:id="rId19"/>
+    <sheet name="State Queue Mapping" sheetId="15" r:id="rId20"/>
   </sheets>
   <calcPr calcId="181029"/>
   <extLst>
@@ -42,7 +44,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2704" uniqueCount="1055">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2711" uniqueCount="1059">
   <si>
     <t>loginAuuid</t>
   </si>
@@ -3211,6 +3213,18 @@
   </si>
   <si>
     <t>OpenApiInvalidToken</t>
+  </si>
+  <si>
+    <t>Field Name</t>
+  </si>
+  <si>
+    <t>customerMsisdn</t>
+  </si>
+  <si>
+    <t>First Category Level</t>
+  </si>
+  <si>
+    <t>Last Category Level</t>
   </si>
 </sst>
 </file>
@@ -3528,7 +3542,7 @@
       <alignment vertical="top" wrapText="1"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="97">
+  <cellXfs count="98">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="2"/>
@@ -3716,6 +3730,7 @@
     <xf numFmtId="0" fontId="19" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="6">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -4683,7 +4698,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{29143E3D-41F6-804D-9324-49B7F522E738}">
   <dimension ref="A1:B4"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection sqref="A1:B4"/>
     </sheetView>
   </sheetViews>
@@ -4707,7 +4722,7 @@
         <v>1050</v>
       </c>
     </row>
-    <row r="3" spans="1:2" ht="409.6">
+    <row r="3" spans="1:2" ht="153">
       <c r="A3" s="96" t="s">
         <v>1051</v>
       </c>
@@ -4715,7 +4730,7 @@
         <v>1052</v>
       </c>
     </row>
-    <row r="4" spans="1:2" ht="409.6">
+    <row r="4" spans="1:2" ht="153">
       <c r="A4" s="96" t="s">
         <v>1053</v>
       </c>
@@ -4729,6 +4744,82 @@
 </file>
 
 <file path=xl/worksheets/sheet15.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{AC1E60ED-D2EF-B546-B48B-FB35544D51BB}">
+  <dimension ref="A1:B3"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection sqref="A1:B3"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15"/>
+  <cols>
+    <col min="2" max="2" width="17.1640625" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:2">
+      <c r="A1" t="s">
+        <v>941</v>
+      </c>
+      <c r="B1" t="s">
+        <v>1055</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2">
+      <c r="A3">
+        <v>767240995</v>
+      </c>
+      <c r="B3" t="s">
+        <v>1056</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet16.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{53D2134C-A59B-B54F-AA2F-D96ED37F031C}">
+  <dimension ref="A1:C2"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection sqref="A1:C2"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15"/>
+  <cols>
+    <col min="1" max="1" width="17.83203125" customWidth="1"/>
+    <col min="2" max="2" width="18.1640625" customWidth="1"/>
+    <col min="3" max="3" width="16.83203125" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:3" ht="16">
+      <c r="A1" s="97" t="s">
+        <v>1057</v>
+      </c>
+      <c r="B1" s="97" t="s">
+        <v>1058</v>
+      </c>
+      <c r="C1" s="97" t="s">
+        <v>1055</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3" ht="16">
+      <c r="A2" s="97">
+        <v>1</v>
+      </c>
+      <c r="B2" s="97">
+        <v>5</v>
+      </c>
+      <c r="C2" s="97" t="s">
+        <v>129</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet17.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0D00-000000000000}">
   <dimension ref="A1:K13"/>
   <sheetViews>
@@ -4988,7 +5079,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet16.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet18.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0E00-000000000000}">
   <dimension ref="A1:C3"/>
   <sheetViews>
@@ -5036,7 +5127,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet17.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet19.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0F00-000000000000}">
   <dimension ref="A1:C15"/>
   <sheetViews>
@@ -5216,7 +5307,57 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet18.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
+  <dimension ref="A1:A7"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="F7" sqref="F7"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1" spans="1:1" ht="16">
+      <c r="A1" s="3" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="2" spans="1:1" ht="16">
+      <c r="A2" s="4" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="3" spans="1:1" ht="16">
+      <c r="A3" s="4" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="4" spans="1:1" ht="16">
+      <c r="A4" s="4" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="5" spans="1:1" ht="16">
+      <c r="A5" s="4" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="6" spans="1:1" ht="16">
+      <c r="A6" s="4" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="7" spans="1:1" ht="16">
+      <c r="A7" s="4" t="s">
+        <v>25</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet20.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-1000-000000000000}">
   <dimension ref="A1:K11"/>
   <sheetViews>
@@ -5473,56 +5614,6 @@
       <c r="I11" s="15"/>
       <c r="J11" s="15"/>
       <c r="K11" s="15"/>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
-  <dimension ref="A1:A7"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="F7" sqref="F7"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15"/>
-  <sheetData>
-    <row r="1" spans="1:1" ht="16">
-      <c r="A1" s="3" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="2" spans="1:1" ht="16">
-      <c r="A2" s="4" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="3" spans="1:1" ht="16">
-      <c r="A3" s="4" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="4" spans="1:1" ht="16">
-      <c r="A4" s="4" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="5" spans="1:1" ht="16">
-      <c r="A5" s="4" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="6" spans="1:1" ht="16">
-      <c r="A6" s="4" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="7" spans="1:1" ht="16">
-      <c r="A7" s="4" t="s">
-        <v>25</v>
-      </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/resources/excels/UG.xlsx
+++ b/resources/excels/UG.xlsx
@@ -5,12 +5,12 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/a13400947/Projects/cs-portal-automation_selenium/resources/excels/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/a13400017/AirTel Project/cs-portal-automation_selenium/resources/excels/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{45000A98-FAD9-344D-9B8E-0323AB28FC72}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5FBAF227-98D2-8A4A-820C-92146D22AA22}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="35840" windowHeight="21040" firstSheet="6" activeTab="15" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="460" windowWidth="30720" windowHeight="17520" firstSheet="7" activeTab="16" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="LoginCredentials" sheetId="1" r:id="rId1"/>
@@ -29,10 +29,11 @@
     <sheet name="OpenAPILoginSheet" sheetId="18" r:id="rId14"/>
     <sheet name="OpenAPIClientConfig" sheetId="19" r:id="rId15"/>
     <sheet name="ClientConfig" sheetId="20" r:id="rId16"/>
-    <sheet name="Action Tagging" sheetId="14" r:id="rId17"/>
-    <sheet name="Transfer To Queue" sheetId="16" r:id="rId18"/>
-    <sheet name="QuestionAnswerKey" sheetId="17" r:id="rId19"/>
-    <sheet name="State Queue Mapping" sheetId="15" r:id="rId20"/>
+    <sheet name="AgentDetails" sheetId="21" r:id="rId17"/>
+    <sheet name="Action Tagging" sheetId="14" r:id="rId18"/>
+    <sheet name="Transfer To Queue" sheetId="16" r:id="rId19"/>
+    <sheet name="QuestionAnswerKey" sheetId="17" r:id="rId20"/>
+    <sheet name="State Queue Mapping" sheetId="15" r:id="rId21"/>
   </sheets>
   <calcPr calcId="181029"/>
   <extLst>
@@ -44,7 +45,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2711" uniqueCount="1059">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2715" uniqueCount="1063">
   <si>
     <t>loginAuuid</t>
   </si>
@@ -3225,15 +3226,34 @@
   </si>
   <si>
     <t>Last Category Level</t>
+  </si>
+  <si>
+    <t>AgentId</t>
+  </si>
+  <si>
+    <t>AgentAuuid</t>
+  </si>
+  <si>
+    <t>AgentName</t>
+  </si>
+  <si>
+    <t>Ashwani Rao</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="20">
+  <fonts count="21">
     <font>
       <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="12"/>
       <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
@@ -3532,205 +3552,206 @@
   </borders>
   <cellStyleXfs count="6">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyProtection="0">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyProtection="0">
       <alignment vertical="top" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyProtection="0">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
   </cellStyleXfs>
-  <cellXfs count="98">
+  <cellXfs count="99">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="2"/>
-    <xf numFmtId="0" fontId="3" fillId="6" borderId="5" xfId="5" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="1" xfId="5" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="2" fillId="5" borderId="1" xfId="2" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="1" xfId="5" applyFont="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="1" xfId="5" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="2" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="2"/>
+    <xf numFmtId="0" fontId="4" fillId="6" borderId="5" xfId="5" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="1" xfId="5" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="3" fillId="5" borderId="1" xfId="2" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="1" xfId="5" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="1" xfId="5" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="2" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="2" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="2" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="2" applyBorder="1"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="8" xfId="5" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="2" applyBorder="1"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="8" xfId="5" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="5" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="5" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="1" xfId="5" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="1" xfId="5" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="1" fontId="3" fillId="0" borderId="3" xfId="5" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="1" fontId="3" fillId="0" borderId="4" xfId="5" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="3" xfId="5" applyFont="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="4" xfId="5" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="3" xfId="5" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="1" xfId="5" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="1" fontId="4" fillId="0" borderId="3" xfId="5" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="1" fontId="4" fillId="0" borderId="4" xfId="5" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="3" xfId="5" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="4" xfId="5" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="3" xfId="5" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="1" xfId="5" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="2"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="2" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="5" borderId="1" xfId="2" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="2" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="2" applyBorder="1"/>
-    <xf numFmtId="0" fontId="15" fillId="4" borderId="1" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="2"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="2" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="5" borderId="1" xfId="2" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="2" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="2" applyBorder="1"/>
+    <xf numFmtId="0" fontId="16" fillId="4" borderId="1" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="4" borderId="1" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="2" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="8" xfId="5" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="16" fillId="4" borderId="1" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="1" xfId="2" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="8" xfId="5" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="5" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="5" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="8" xfId="5" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="8" xfId="5" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="5" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="5" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="2" xfId="5" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="2" xfId="5" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="2" xfId="5" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="2" xfId="5" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="7" xfId="5" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="7" xfId="5" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="6" xfId="5" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="6" xfId="5" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="6" xfId="5" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="6" xfId="5" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="2"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="2"/>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="2" xfId="2" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="2" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="0" xfId="2" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="8" xfId="5" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="2"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="2"/>
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="2" xfId="2" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="2" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="0" xfId="2" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="8" xfId="5" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="5" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="5" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="8" xfId="5" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="8" xfId="5" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="5" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="1" xfId="5" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="2" xfId="5" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="2" xfId="5" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="7" xfId="5" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="6" xfId="5" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="6" xfId="5" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="5" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="14" fillId="0" borderId="1" xfId="5" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="2" xfId="5" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="2" xfId="5" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="7" xfId="5" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="6" xfId="5" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="6" xfId="5" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="1" xfId="5" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="1" xfId="5" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="1" xfId="5" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="1" xfId="5" applyFont="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="1" xfId="5" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="1" xfId="5" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="1" xfId="5" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="1" xfId="5" applyFont="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="1" xfId="5" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="1" xfId="5" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="1" xfId="5" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="1" xfId="5" applyFont="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="5" fillId="7" borderId="1" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="1" xfId="5" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="6" fillId="7" borderId="1" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="7" borderId="2" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="7" borderId="2" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="5" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="2" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="4" applyBorder="1"/>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="1" xfId="5" applyFont="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="6" fillId="4" borderId="1" xfId="5" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="5" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="2" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="4" applyBorder="1"/>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="1" xfId="5" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="7" fillId="4" borderId="1" xfId="5" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="1" xfId="5" applyFont="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="6" fillId="4" borderId="1" xfId="5" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="1" xfId="5" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="7" fillId="4" borderId="1" xfId="5" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="1" xfId="5" applyFont="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="6" fillId="4" borderId="1" xfId="5" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="1" xfId="5" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="7" fillId="4" borderId="1" xfId="5" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="5" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="5" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="1" xfId="5" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="1" xfId="5" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="1" xfId="5" applyFont="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="1" xfId="5" applyFont="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="6" fillId="4" borderId="1" xfId="5" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="1" xfId="5" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="1" xfId="5" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="7" fillId="4" borderId="1" xfId="5" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="8" borderId="1" xfId="5" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="2"/>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="2" xfId="2" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="2" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="0" xfId="2" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="11" fillId="8" borderId="1" xfId="5" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="2"/>
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="2" xfId="2" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="2" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="0" xfId="2" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="6" xfId="2" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="6" xfId="2" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="2" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="2" applyFill="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="1" xfId="2" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="1" xfId="2" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="1" xfId="5" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="1" xfId="5" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="19" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="6">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -4781,7 +4802,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{53D2134C-A59B-B54F-AA2F-D96ED37F031C}">
   <dimension ref="A1:C2"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection sqref="A1:C2"/>
     </sheetView>
   </sheetViews>
@@ -4820,6 +4841,41 @@
 </file>
 
 <file path=xl/worksheets/sheet17.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B319BF67-B9F6-1D4E-BEFA-47B168E0151B}">
+  <dimension ref="A1:C2"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="T31" sqref="T31"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1" spans="1:3" ht="16">
+      <c r="A1" s="98" t="s">
+        <v>1059</v>
+      </c>
+      <c r="B1" s="98" t="s">
+        <v>1060</v>
+      </c>
+      <c r="C1" s="98" t="s">
+        <v>1061</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3" ht="16">
+      <c r="A2" s="98"/>
+      <c r="B2" s="98">
+        <v>13221514</v>
+      </c>
+      <c r="C2" s="98" t="s">
+        <v>1062</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet18.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0D00-000000000000}">
   <dimension ref="A1:K13"/>
   <sheetViews>
@@ -5079,7 +5135,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet18.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet19.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0E00-000000000000}">
   <dimension ref="A1:C3"/>
   <sheetViews>
@@ -5127,7 +5183,57 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet19.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
+  <dimension ref="A1:A7"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="F7" sqref="F7"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1" spans="1:1" ht="16">
+      <c r="A1" s="3" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="2" spans="1:1" ht="16">
+      <c r="A2" s="4" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="3" spans="1:1" ht="16">
+      <c r="A3" s="4" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="4" spans="1:1" ht="16">
+      <c r="A4" s="4" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="5" spans="1:1" ht="16">
+      <c r="A5" s="4" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="6" spans="1:1" ht="16">
+      <c r="A6" s="4" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="7" spans="1:1" ht="16">
+      <c r="A7" s="4" t="s">
+        <v>25</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet20.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0F00-000000000000}">
   <dimension ref="A1:C15"/>
   <sheetViews>
@@ -5307,57 +5413,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
-  <dimension ref="A1:A7"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="F7" sqref="F7"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15"/>
-  <sheetData>
-    <row r="1" spans="1:1" ht="16">
-      <c r="A1" s="3" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="2" spans="1:1" ht="16">
-      <c r="A2" s="4" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="3" spans="1:1" ht="16">
-      <c r="A3" s="4" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="4" spans="1:1" ht="16">
-      <c r="A4" s="4" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="5" spans="1:1" ht="16">
-      <c r="A5" s="4" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="6" spans="1:1" ht="16">
-      <c r="A6" s="4" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="7" spans="1:1" ht="16">
-      <c r="A7" s="4" t="s">
-        <v>25</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet20.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet21.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-1000-000000000000}">
   <dimension ref="A1:K11"/>
   <sheetViews>

--- a/resources/excels/UG.xlsx
+++ b/resources/excels/UG.xlsx
@@ -5,12 +5,12 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/a13400017/AirTel Project/cs-portal-automation_selenium/resources/excels/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/a13401002/IdeaProjects/cs-portal-automation_selenium/resources/excels/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5FBAF227-98D2-8A4A-820C-92146D22AA22}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DD33DE71-A580-4745-BF37-14D60FFB69DA}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="460" windowWidth="30720" windowHeight="17520" firstSheet="7" activeTab="16" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="500" windowWidth="30720" windowHeight="17520" firstSheet="11" activeTab="17" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="LoginCredentials" sheetId="1" r:id="rId1"/>
@@ -4844,7 +4844,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B319BF67-B9F6-1D4E-BEFA-47B168E0151B}">
   <dimension ref="A1:C2"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="T31" sqref="T31"/>
     </sheetView>
   </sheetViews>
@@ -4879,8 +4879,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0D00-000000000000}">
   <dimension ref="A1:K13"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="H11" sqref="H11"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="M32" sqref="M32"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15"/>

--- a/resources/excels/UG.xlsx
+++ b/resources/excels/UG.xlsx
@@ -5,12 +5,12 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/a13401002/IdeaProjects/cs-portal-automation_selenium/resources/excels/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/a13401405/IdeaProjects/cs-portal-automation_selenium/resources/excels/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DD33DE71-A580-4745-BF37-14D60FFB69DA}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9587D8F2-70F2-B74A-8FF4-B250B4226629}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="500" windowWidth="30720" windowHeight="17520" firstSheet="11" activeTab="17" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="500" windowWidth="30720" windowHeight="17520" firstSheet="11" activeTab="19" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="LoginCredentials" sheetId="1" r:id="rId1"/>
@@ -45,7 +45,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2715" uniqueCount="1063">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2718" uniqueCount="1066">
   <si>
     <t>loginAuuid</t>
   </si>
@@ -3238,13 +3238,22 @@
   </si>
   <si>
     <t>Ashwani Rao</t>
+  </si>
+  <si>
+    <t>Last Data Bundle Recharge Amount in 2 months (Mandatory)</t>
+  </si>
+  <si>
+    <t>Last Data Bundle Recharge Amount in 2 months</t>
+  </si>
+  <si>
+    <t>LAST_DATA_BUNDLE_RECHARGE_AMOUNT</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="21">
+  <fonts count="23">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -3381,6 +3390,19 @@
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF000000"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <color theme="1"/>
+      <name val="Helvetica Neue"/>
+      <family val="2"/>
     </font>
   </fonts>
   <fills count="9">
@@ -3562,7 +3584,7 @@
       <alignment vertical="top" wrapText="1"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="99">
+  <cellXfs count="102">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="2"/>
@@ -3752,6 +3774,15 @@
     </xf>
     <xf numFmtId="0" fontId="20" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="6" xfId="5" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
   </cellXfs>
   <cellStyles count="6">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -4632,7 +4663,7 @@
   <dimension ref="A1:M2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="I4" sqref="I4"/>
+      <selection activeCell="J2" sqref="J2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15"/>
@@ -4678,7 +4709,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="2" spans="1:13" ht="120">
+    <row r="2" spans="1:13" ht="128">
       <c r="A2" s="22" t="s">
         <v>1043</v>
       </c>
@@ -4705,6 +4736,9 @@
       </c>
       <c r="I2" s="94" t="s">
         <v>1046</v>
+      </c>
+      <c r="J2" s="99" t="s">
+        <v>1063</v>
       </c>
       <c r="K2" s="84"/>
       <c r="L2" s="84"/>
@@ -4879,7 +4913,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0D00-000000000000}">
   <dimension ref="A1:K13"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="M32" sqref="M32"/>
     </sheetView>
   </sheetViews>
@@ -5235,10 +5269,10 @@
 
 <file path=xl/worksheets/sheet20.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0F00-000000000000}">
-  <dimension ref="A1:C15"/>
+  <dimension ref="A1:C16"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="E7" sqref="E7"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C16" sqref="C16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="10.83203125" defaultRowHeight="15"/>
@@ -5407,6 +5441,15 @@
       <c r="C15" s="8" t="s">
         <v>1030</v>
       </c>
+    </row>
+    <row r="16" spans="1:3" ht="51">
+      <c r="A16" s="100" t="s">
+        <v>1064</v>
+      </c>
+      <c r="B16" s="100" t="s">
+        <v>1065</v>
+      </c>
+      <c r="C16" s="101"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/resources/excels/UG.xlsx
+++ b/resources/excels/UG.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/a13401405/IdeaProjects/cs-portal-automation_selenium/resources/excels/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9587D8F2-70F2-B74A-8FF4-B250B4226629}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7E94305D-79C3-8247-B5D4-6C32495D29FD}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="500" windowWidth="30720" windowHeight="17520" firstSheet="11" activeTab="19" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="500" windowWidth="30720" windowHeight="17520" firstSheet="1" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="LoginCredentials" sheetId="1" r:id="rId1"/>
@@ -45,7 +45,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2718" uniqueCount="1066">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2719" uniqueCount="1067">
   <si>
     <t>loginAuuid</t>
   </si>
@@ -2762,19 +2762,7 @@
     <t>Loan Details</t>
   </si>
   <si>
-    <t>Total Loan Eligibility</t>
-  </si>
-  <si>
-    <t>Number of Loan Taken</t>
-  </si>
-  <si>
     <t>Total Loan Amount</t>
-  </si>
-  <si>
-    <t>Total Loan Paid</t>
-  </si>
-  <si>
-    <t>Total Current Outstanding</t>
   </si>
   <si>
     <t>Loan History</t>
@@ -3247,6 +3235,21 @@
   </si>
   <si>
     <t>LAST_DATA_BUNDLE_RECHARGE_AMOUNT</t>
+  </si>
+  <si>
+    <t>Loan ID</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Total Loan Eligibility </t>
+  </si>
+  <si>
+    <t>Count Of Events</t>
+  </si>
+  <si>
+    <t>Loan Paid</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Remaining Balance </t>
   </si>
 </sst>
 </file>
@@ -3584,7 +3587,7 @@
       <alignment vertical="top" wrapText="1"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="102">
+  <cellXfs count="105">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="2"/>
@@ -3783,6 +3786,9 @@
     <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="6">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -4399,10 +4405,10 @@
         <v>14</v>
       </c>
       <c r="P1" s="15" t="s">
-        <v>945</v>
+        <v>941</v>
       </c>
       <c r="Q1" s="15" t="s">
-        <v>946</v>
+        <v>942</v>
       </c>
     </row>
     <row r="2" spans="1:17" ht="17">
@@ -4419,10 +4425,10 @@
         <v>754894607</v>
       </c>
       <c r="P2" s="85" t="s">
-        <v>947</v>
+        <v>943</v>
       </c>
       <c r="Q2" s="86" t="s">
-        <v>948</v>
+        <v>944</v>
       </c>
     </row>
     <row r="3" spans="1:17" ht="17">
@@ -4439,7 +4445,7 @@
         <v>754894607</v>
       </c>
       <c r="P3" s="85" t="s">
-        <v>947</v>
+        <v>943</v>
       </c>
       <c r="Q3" s="10"/>
     </row>
@@ -4448,7 +4454,7 @@
         <v>2394650</v>
       </c>
       <c r="B4" s="10" t="s">
-        <v>944</v>
+        <v>940</v>
       </c>
       <c r="C4" s="2" t="s">
         <v>17</v>
@@ -4457,7 +4463,7 @@
         <v>754894607</v>
       </c>
       <c r="P4" s="85" t="s">
-        <v>947</v>
+        <v>943</v>
       </c>
       <c r="Q4" s="10"/>
     </row>
@@ -4475,7 +4481,7 @@
         <v>754894607</v>
       </c>
       <c r="P5" s="85" t="s">
-        <v>947</v>
+        <v>943</v>
       </c>
       <c r="Q5" s="10"/>
     </row>
@@ -4711,10 +4717,10 @@
     </row>
     <row r="2" spans="1:13" ht="128">
       <c r="A2" s="22" t="s">
-        <v>1043</v>
+        <v>1039</v>
       </c>
       <c r="B2" s="16" t="s">
-        <v>1044</v>
+        <v>1040</v>
       </c>
       <c r="C2" s="92">
         <v>3</v>
@@ -4726,19 +4732,19 @@
         <v>102</v>
       </c>
       <c r="F2" s="95" t="s">
-        <v>1045</v>
+        <v>1041</v>
       </c>
       <c r="G2" s="94" t="s">
-        <v>1047</v>
+        <v>1043</v>
       </c>
       <c r="H2" s="94" t="s">
         <v>104</v>
       </c>
       <c r="I2" s="94" t="s">
-        <v>1046</v>
+        <v>1042</v>
       </c>
       <c r="J2" s="99" t="s">
-        <v>1063</v>
+        <v>1059</v>
       </c>
       <c r="K2" s="84"/>
       <c r="L2" s="84"/>
@@ -4765,32 +4771,32 @@
   <sheetData>
     <row r="1" spans="1:2" ht="17">
       <c r="A1" s="96" t="s">
-        <v>1048</v>
+        <v>1044</v>
       </c>
       <c r="B1" s="96" t="s">
-        <v>1049</v>
+        <v>1045</v>
       </c>
     </row>
     <row r="2" spans="1:2" ht="17">
       <c r="A2" s="96"/>
       <c r="B2" s="96" t="s">
-        <v>1050</v>
+        <v>1046</v>
       </c>
     </row>
     <row r="3" spans="1:2" ht="153">
       <c r="A3" s="96" t="s">
-        <v>1051</v>
+        <v>1047</v>
       </c>
       <c r="B3" s="96" t="s">
-        <v>1052</v>
+        <v>1048</v>
       </c>
     </row>
     <row r="4" spans="1:2" ht="153">
       <c r="A4" s="96" t="s">
-        <v>1053</v>
+        <v>1049</v>
       </c>
       <c r="B4" s="96" t="s">
-        <v>1054</v>
+        <v>1050</v>
       </c>
     </row>
   </sheetData>
@@ -4813,10 +4819,10 @@
   <sheetData>
     <row r="1" spans="1:2">
       <c r="A1" t="s">
-        <v>941</v>
+        <v>937</v>
       </c>
       <c r="B1" t="s">
-        <v>1055</v>
+        <v>1051</v>
       </c>
     </row>
     <row r="3" spans="1:2">
@@ -4824,7 +4830,7 @@
         <v>767240995</v>
       </c>
       <c r="B3" t="s">
-        <v>1056</v>
+        <v>1052</v>
       </c>
     </row>
   </sheetData>
@@ -4849,13 +4855,13 @@
   <sheetData>
     <row r="1" spans="1:3" ht="16">
       <c r="A1" s="97" t="s">
-        <v>1057</v>
+        <v>1053</v>
       </c>
       <c r="B1" s="97" t="s">
-        <v>1058</v>
+        <v>1054</v>
       </c>
       <c r="C1" s="97" t="s">
-        <v>1055</v>
+        <v>1051</v>
       </c>
     </row>
     <row r="2" spans="1:3" ht="16">
@@ -4886,13 +4892,13 @@
   <sheetData>
     <row r="1" spans="1:3" ht="16">
       <c r="A1" s="98" t="s">
-        <v>1059</v>
+        <v>1055</v>
       </c>
       <c r="B1" s="98" t="s">
-        <v>1060</v>
+        <v>1056</v>
       </c>
       <c r="C1" s="98" t="s">
-        <v>1061</v>
+        <v>1057</v>
       </c>
     </row>
     <row r="2" spans="1:3" ht="16">
@@ -4901,7 +4907,7 @@
         <v>13221514</v>
       </c>
       <c r="C2" s="98" t="s">
-        <v>1062</v>
+        <v>1058</v>
       </c>
     </row>
   </sheetData>
@@ -4942,13 +4948,13 @@
         <v>111</v>
       </c>
       <c r="H1" s="90" t="s">
-        <v>975</v>
+        <v>971</v>
       </c>
       <c r="I1" s="90" t="s">
-        <v>976</v>
+        <v>972</v>
       </c>
       <c r="J1" s="91" t="s">
-        <v>977</v>
+        <v>973</v>
       </c>
       <c r="K1" s="89"/>
     </row>
@@ -4975,7 +4981,7 @@
     </row>
     <row r="3" spans="1:11">
       <c r="A3" s="89" t="s">
-        <v>978</v>
+        <v>974</v>
       </c>
       <c r="B3" s="89"/>
       <c r="C3" s="89"/>
@@ -4984,10 +4990,10 @@
       <c r="F3" s="89"/>
       <c r="G3" s="89"/>
       <c r="H3" s="89" t="s">
-        <v>979</v>
+        <v>975</v>
       </c>
       <c r="I3" s="89" t="s">
-        <v>979</v>
+        <v>975</v>
       </c>
       <c r="J3" s="89" t="b">
         <v>0</v>
@@ -4996,7 +5002,7 @@
     </row>
     <row r="4" spans="1:11">
       <c r="A4" s="89" t="s">
-        <v>980</v>
+        <v>976</v>
       </c>
       <c r="B4" s="89"/>
       <c r="C4" s="89"/>
@@ -5013,7 +5019,7 @@
     </row>
     <row r="5" spans="1:11">
       <c r="A5" s="89" t="s">
-        <v>981</v>
+        <v>977</v>
       </c>
       <c r="B5" s="89"/>
       <c r="C5" s="89"/>
@@ -5030,7 +5036,7 @@
     </row>
     <row r="6" spans="1:11">
       <c r="A6" s="89" t="s">
-        <v>982</v>
+        <v>978</v>
       </c>
       <c r="B6" s="89"/>
       <c r="C6" s="89"/>
@@ -5047,7 +5053,7 @@
     </row>
     <row r="7" spans="1:11">
       <c r="A7" s="89" t="s">
-        <v>983</v>
+        <v>979</v>
       </c>
       <c r="B7" s="89"/>
       <c r="C7" s="89"/>
@@ -5064,7 +5070,7 @@
     </row>
     <row r="8" spans="1:11">
       <c r="A8" s="89" t="s">
-        <v>984</v>
+        <v>980</v>
       </c>
       <c r="B8" s="89"/>
       <c r="C8" s="89"/>
@@ -5081,7 +5087,7 @@
     </row>
     <row r="9" spans="1:11">
       <c r="A9" s="89" t="s">
-        <v>985</v>
+        <v>981</v>
       </c>
       <c r="B9" s="89"/>
       <c r="C9" s="89"/>
@@ -5098,7 +5104,7 @@
     </row>
     <row r="10" spans="1:11">
       <c r="A10" s="89" t="s">
-        <v>986</v>
+        <v>982</v>
       </c>
       <c r="B10" s="89"/>
       <c r="C10" s="89"/>
@@ -5115,7 +5121,7 @@
     </row>
     <row r="11" spans="1:11">
       <c r="A11" s="89" t="s">
-        <v>987</v>
+        <v>983</v>
       </c>
       <c r="B11" s="89"/>
       <c r="C11" s="89"/>
@@ -5132,7 +5138,7 @@
     </row>
     <row r="12" spans="1:11">
       <c r="A12" s="89" t="s">
-        <v>988</v>
+        <v>984</v>
       </c>
       <c r="B12" s="89"/>
       <c r="C12" s="89"/>
@@ -5149,7 +5155,7 @@
     </row>
     <row r="13" spans="1:11">
       <c r="A13" s="89" t="s">
-        <v>989</v>
+        <v>985</v>
       </c>
       <c r="B13" s="89"/>
       <c r="C13" s="89"/>
@@ -5187,7 +5193,7 @@
         <v>87</v>
       </c>
       <c r="C1" s="65" t="s">
-        <v>990</v>
+        <v>986</v>
       </c>
     </row>
     <row r="2" spans="1:3" ht="16">
@@ -5271,7 +5277,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0F00-000000000000}">
   <dimension ref="A1:C16"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="C16" sqref="C16"/>
     </sheetView>
   </sheetViews>
@@ -5285,24 +5291,24 @@
   <sheetData>
     <row r="1" spans="1:3" ht="17">
       <c r="A1" s="8" t="s">
-        <v>991</v>
+        <v>987</v>
       </c>
       <c r="B1" s="8" t="s">
-        <v>992</v>
+        <v>988</v>
       </c>
       <c r="C1" s="8" t="s">
-        <v>993</v>
+        <v>989</v>
       </c>
     </row>
     <row r="2" spans="1:3" ht="17">
       <c r="A2" s="8" t="s">
-        <v>994</v>
+        <v>990</v>
       </c>
       <c r="B2" s="8" t="s">
-        <v>995</v>
+        <v>991</v>
       </c>
       <c r="C2" s="8" t="s">
-        <v>996</v>
+        <v>992</v>
       </c>
     </row>
     <row r="3" spans="1:3" ht="51">
@@ -5310,40 +5316,40 @@
         <v>104</v>
       </c>
       <c r="B3" s="8" t="s">
-        <v>997</v>
+        <v>993</v>
       </c>
       <c r="C3" s="8" t="s">
-        <v>998</v>
+        <v>994</v>
       </c>
     </row>
     <row r="4" spans="1:3" ht="17">
       <c r="A4" s="8" t="s">
-        <v>999</v>
+        <v>995</v>
       </c>
       <c r="B4" s="8" t="s">
-        <v>1000</v>
+        <v>996</v>
       </c>
       <c r="C4" s="8" t="s">
-        <v>1001</v>
+        <v>997</v>
       </c>
     </row>
     <row r="5" spans="1:3" ht="17">
       <c r="A5" s="8" t="s">
-        <v>1002</v>
+        <v>998</v>
       </c>
       <c r="B5" s="8" t="s">
-        <v>1003</v>
+        <v>999</v>
       </c>
       <c r="C5" s="8" t="s">
-        <v>1004</v>
+        <v>1000</v>
       </c>
     </row>
     <row r="6" spans="1:3" ht="34">
       <c r="A6" s="8" t="s">
-        <v>1005</v>
+        <v>1001</v>
       </c>
       <c r="B6" s="8" t="s">
-        <v>1006</v>
+        <v>1002</v>
       </c>
       <c r="C6" s="93"/>
     </row>
@@ -5352,102 +5358,102 @@
         <v>103</v>
       </c>
       <c r="B7" s="8" t="s">
-        <v>1007</v>
+        <v>1003</v>
       </c>
       <c r="C7" s="8" t="s">
-        <v>1008</v>
+        <v>1004</v>
       </c>
     </row>
     <row r="8" spans="1:3" ht="17">
       <c r="A8" s="8" t="s">
-        <v>1009</v>
+        <v>1005</v>
       </c>
       <c r="B8" s="8" t="s">
-        <v>1010</v>
+        <v>1006</v>
       </c>
       <c r="C8" s="8" t="s">
-        <v>1011</v>
+        <v>1007</v>
       </c>
     </row>
     <row r="9" spans="1:3" ht="34">
       <c r="A9" s="8" t="s">
-        <v>1012</v>
+        <v>1008</v>
       </c>
       <c r="B9" s="8" t="s">
-        <v>1013</v>
+        <v>1009</v>
       </c>
       <c r="C9" s="8" t="s">
-        <v>1014</v>
+        <v>1010</v>
       </c>
     </row>
     <row r="10" spans="1:3" ht="34">
       <c r="A10" s="8" t="s">
-        <v>1015</v>
+        <v>1011</v>
       </c>
       <c r="B10" s="8" t="s">
-        <v>1016</v>
+        <v>1012</v>
       </c>
       <c r="C10" s="8" t="s">
-        <v>1017</v>
+        <v>1013</v>
       </c>
     </row>
     <row r="11" spans="1:3" ht="17">
       <c r="A11" s="8" t="s">
-        <v>1018</v>
+        <v>1014</v>
       </c>
       <c r="B11" s="8" t="s">
-        <v>1019</v>
+        <v>1015</v>
       </c>
       <c r="C11" s="8" t="s">
-        <v>1020</v>
+        <v>1016</v>
       </c>
     </row>
     <row r="12" spans="1:3" ht="17">
       <c r="A12" s="8" t="s">
-        <v>1021</v>
+        <v>1017</v>
       </c>
       <c r="B12" s="8" t="s">
-        <v>1022</v>
+        <v>1018</v>
       </c>
       <c r="C12" s="8" t="s">
-        <v>1023</v>
+        <v>1019</v>
       </c>
     </row>
     <row r="13" spans="1:3" ht="17">
       <c r="A13" s="8" t="s">
-        <v>1024</v>
+        <v>1020</v>
       </c>
       <c r="B13" s="8" t="s">
-        <v>1025</v>
+        <v>1021</v>
       </c>
       <c r="C13" s="93"/>
     </row>
     <row r="14" spans="1:3" ht="34">
       <c r="A14" s="8" t="s">
-        <v>1026</v>
+        <v>1022</v>
       </c>
       <c r="B14" s="8" t="s">
-        <v>1027</v>
+        <v>1023</v>
       </c>
       <c r="C14" s="93"/>
     </row>
     <row r="15" spans="1:3" ht="17">
       <c r="A15" s="8" t="s">
-        <v>1028</v>
+        <v>1024</v>
       </c>
       <c r="B15" s="8" t="s">
-        <v>1029</v>
+        <v>1025</v>
       </c>
       <c r="C15" s="8" t="s">
-        <v>1030</v>
+        <v>1026</v>
       </c>
     </row>
     <row r="16" spans="1:3" ht="51">
       <c r="A16" s="100" t="s">
-        <v>1064</v>
+        <v>1060</v>
       </c>
       <c r="B16" s="100" t="s">
-        <v>1065</v>
+        <v>1061</v>
       </c>
       <c r="C16" s="101"/>
     </row>
@@ -5723,8 +5729,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="A1:M22"/>
   <sheetViews>
-    <sheetView topLeftCell="A10" workbookViewId="0">
-      <selection activeCell="E24" sqref="E24"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B11" sqref="B11:G11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15"/>
@@ -5735,7 +5741,7 @@
     <col min="4" max="4" width="20.5" bestFit="1" customWidth="1" collapsed="1"/>
     <col min="5" max="5" width="24.5" bestFit="1" customWidth="1" collapsed="1"/>
     <col min="6" max="6" width="25.5" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="7" max="7" width="11.33203125" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="7" max="7" width="38.83203125" customWidth="1" collapsed="1"/>
     <col min="8" max="8" width="14.1640625" customWidth="1" collapsed="1"/>
     <col min="9" max="9" width="18.33203125" bestFit="1" customWidth="1" collapsed="1"/>
     <col min="10" max="10" width="15.6640625" customWidth="1"/>
@@ -5771,16 +5777,16 @@
         <v>852</v>
       </c>
       <c r="J1" s="83" t="s">
-        <v>936</v>
+        <v>932</v>
       </c>
       <c r="K1" s="83" t="s">
-        <v>937</v>
+        <v>933</v>
       </c>
       <c r="L1" s="15" t="s">
-        <v>949</v>
+        <v>945</v>
       </c>
       <c r="M1" s="15" t="s">
-        <v>950</v>
+        <v>946</v>
       </c>
     </row>
     <row r="2" spans="1:13" ht="16">
@@ -5788,7 +5794,7 @@
         <v>151</v>
       </c>
       <c r="B2" s="84" t="s">
-        <v>951</v>
+        <v>947</v>
       </c>
       <c r="C2" s="15" t="s">
         <v>853</v>
@@ -5827,7 +5833,7 @@
         <v>860</v>
       </c>
       <c r="F3" s="15" t="s">
-        <v>930</v>
+        <v>926</v>
       </c>
       <c r="G3" s="15"/>
       <c r="H3" s="15"/>
@@ -5851,7 +5857,7 @@
         <v>862</v>
       </c>
       <c r="E4" s="84" t="s">
-        <v>952</v>
+        <v>948</v>
       </c>
       <c r="F4" s="15" t="s">
         <v>856</v>
@@ -6009,7 +6015,7 @@
         <v>900</v>
       </c>
       <c r="C10" s="15" t="s">
-        <v>938</v>
+        <v>934</v>
       </c>
       <c r="D10" s="15" t="s">
         <v>901</v>
@@ -6032,22 +6038,24 @@
       <c r="A11" s="83" t="s">
         <v>904</v>
       </c>
-      <c r="B11" s="15" t="s">
+      <c r="B11" s="102" t="s">
+        <v>1062</v>
+      </c>
+      <c r="C11" s="103" t="s">
+        <v>1063</v>
+      </c>
+      <c r="D11" s="104" t="s">
+        <v>1064</v>
+      </c>
+      <c r="E11" s="102" t="s">
         <v>905</v>
       </c>
-      <c r="C11" s="15" t="s">
-        <v>906</v>
-      </c>
-      <c r="D11" s="15" t="s">
-        <v>907</v>
-      </c>
-      <c r="E11" s="15" t="s">
-        <v>908</v>
-      </c>
-      <c r="F11" s="15" t="s">
-        <v>909</v>
-      </c>
-      <c r="G11" s="15"/>
+      <c r="F11" s="103" t="s">
+        <v>1065</v>
+      </c>
+      <c r="G11" s="15" t="s">
+        <v>1066</v>
+      </c>
       <c r="H11" s="15"/>
       <c r="I11" s="15"/>
       <c r="J11" s="15"/>
@@ -6057,28 +6065,28 @@
     </row>
     <row r="12" spans="1:13">
       <c r="A12" s="83" t="s">
+        <v>906</v>
+      </c>
+      <c r="B12" s="15" t="s">
+        <v>907</v>
+      </c>
+      <c r="C12" s="15" t="s">
+        <v>908</v>
+      </c>
+      <c r="D12" s="15" t="s">
+        <v>909</v>
+      </c>
+      <c r="E12" s="15" t="s">
         <v>910</v>
       </c>
-      <c r="B12" s="15" t="s">
+      <c r="F12" s="15" t="s">
         <v>911</v>
       </c>
-      <c r="C12" s="15" t="s">
+      <c r="G12" s="15" t="s">
         <v>912</v>
       </c>
-      <c r="D12" s="15" t="s">
+      <c r="H12" s="15" t="s">
         <v>913</v>
-      </c>
-      <c r="E12" s="15" t="s">
-        <v>914</v>
-      </c>
-      <c r="F12" s="15" t="s">
-        <v>915</v>
-      </c>
-      <c r="G12" s="15" t="s">
-        <v>916</v>
-      </c>
-      <c r="H12" s="15" t="s">
-        <v>917</v>
       </c>
       <c r="I12" s="15"/>
       <c r="J12" s="15"/>
@@ -6088,19 +6096,19 @@
     </row>
     <row r="13" spans="1:13">
       <c r="A13" s="15" t="s">
+        <v>914</v>
+      </c>
+      <c r="B13" s="15" t="s">
+        <v>915</v>
+      </c>
+      <c r="C13" s="15" t="s">
+        <v>916</v>
+      </c>
+      <c r="D13" s="15" t="s">
+        <v>917</v>
+      </c>
+      <c r="E13" s="15" t="s">
         <v>918</v>
-      </c>
-      <c r="B13" s="15" t="s">
-        <v>919</v>
-      </c>
-      <c r="C13" s="15" t="s">
-        <v>920</v>
-      </c>
-      <c r="D13" s="15" t="s">
-        <v>921</v>
-      </c>
-      <c r="E13" s="15" t="s">
-        <v>922</v>
       </c>
       <c r="F13" s="15"/>
       <c r="G13" s="15"/>
@@ -6113,7 +6121,7 @@
     </row>
     <row r="14" spans="1:13" ht="16">
       <c r="A14" s="83" t="s">
-        <v>923</v>
+        <v>919</v>
       </c>
       <c r="B14" s="15" t="s">
         <v>890</v>
@@ -6125,22 +6133,22 @@
         <v>862</v>
       </c>
       <c r="E14" s="84" t="s">
-        <v>924</v>
+        <v>920</v>
       </c>
       <c r="F14" s="83" t="s">
         <v>856</v>
       </c>
       <c r="G14" s="83" t="s">
-        <v>925</v>
+        <v>921</v>
       </c>
       <c r="H14" s="83" t="s">
-        <v>926</v>
+        <v>922</v>
       </c>
       <c r="I14" s="83" t="s">
         <v>881</v>
       </c>
       <c r="J14" s="83" t="s">
-        <v>927</v>
+        <v>923</v>
       </c>
       <c r="K14" s="83" t="s">
         <v>868</v>
@@ -6150,7 +6158,7 @@
     </row>
     <row r="15" spans="1:13">
       <c r="A15" s="83" t="s">
-        <v>928</v>
+        <v>924</v>
       </c>
       <c r="B15" s="15" t="s">
         <v>124</v>
@@ -6162,13 +6170,13 @@
         <v>860</v>
       </c>
       <c r="E15" s="83" t="s">
-        <v>929</v>
+        <v>925</v>
       </c>
       <c r="F15" s="15" t="s">
-        <v>930</v>
+        <v>926</v>
       </c>
       <c r="G15" s="15" t="s">
-        <v>931</v>
+        <v>927</v>
       </c>
       <c r="H15" s="15" t="s">
         <v>862</v>
@@ -6181,16 +6189,16 @@
     </row>
     <row r="16" spans="1:13">
       <c r="A16" s="83" t="s">
-        <v>932</v>
+        <v>928</v>
       </c>
       <c r="B16" s="15" t="s">
-        <v>933</v>
+        <v>929</v>
       </c>
       <c r="C16" s="15" t="s">
-        <v>934</v>
+        <v>930</v>
       </c>
       <c r="D16" s="15" t="s">
-        <v>935</v>
+        <v>931</v>
       </c>
       <c r="E16" s="15" t="s">
         <v>105</v>
@@ -6206,19 +6214,19 @@
     </row>
     <row r="17" spans="1:13" s="10" customFormat="1">
       <c r="A17" s="83" t="s">
+        <v>935</v>
+      </c>
+      <c r="B17" s="83" t="s">
+        <v>936</v>
+      </c>
+      <c r="C17" s="83" t="s">
+        <v>937</v>
+      </c>
+      <c r="D17" s="83" t="s">
+        <v>938</v>
+      </c>
+      <c r="E17" s="83" t="s">
         <v>939</v>
-      </c>
-      <c r="B17" s="83" t="s">
-        <v>940</v>
-      </c>
-      <c r="C17" s="83" t="s">
-        <v>941</v>
-      </c>
-      <c r="D17" s="83" t="s">
-        <v>942</v>
-      </c>
-      <c r="E17" s="83" t="s">
-        <v>943</v>
       </c>
       <c r="F17" s="15"/>
       <c r="G17" s="15"/>
@@ -6231,19 +6239,19 @@
     </row>
     <row r="18" spans="1:13">
       <c r="A18" s="83" t="s">
+        <v>949</v>
+      </c>
+      <c r="B18" s="83" t="s">
+        <v>950</v>
+      </c>
+      <c r="C18" s="83" t="s">
+        <v>951</v>
+      </c>
+      <c r="D18" s="83" t="s">
+        <v>952</v>
+      </c>
+      <c r="E18" s="83" t="s">
         <v>953</v>
-      </c>
-      <c r="B18" s="83" t="s">
-        <v>954</v>
-      </c>
-      <c r="C18" s="83" t="s">
-        <v>955</v>
-      </c>
-      <c r="D18" s="83" t="s">
-        <v>956</v>
-      </c>
-      <c r="E18" s="83" t="s">
-        <v>957</v>
       </c>
       <c r="F18" s="15" t="s">
         <v>105</v>
@@ -6258,66 +6266,66 @@
     </row>
     <row r="19" spans="1:13" ht="32">
       <c r="A19" s="83" t="s">
-        <v>958</v>
+        <v>954</v>
       </c>
       <c r="B19" s="84" t="s">
-        <v>959</v>
+        <v>955</v>
       </c>
       <c r="C19" s="83" t="s">
         <v>854</v>
       </c>
       <c r="D19" s="83" t="s">
-        <v>960</v>
+        <v>956</v>
       </c>
       <c r="E19" s="83" t="s">
-        <v>961</v>
+        <v>957</v>
       </c>
       <c r="F19" s="83" t="s">
-        <v>962</v>
+        <v>958</v>
       </c>
       <c r="G19" s="83" t="s">
-        <v>963</v>
+        <v>959</v>
       </c>
       <c r="H19" s="83" t="s">
         <v>855</v>
       </c>
       <c r="I19" s="87" t="s">
-        <v>964</v>
+        <v>960</v>
       </c>
       <c r="J19" s="87" t="s">
-        <v>965</v>
+        <v>961</v>
       </c>
       <c r="K19" s="87" t="s">
-        <v>966</v>
+        <v>962</v>
       </c>
       <c r="L19" s="83" t="s">
         <v>856</v>
       </c>
       <c r="M19" s="83" t="s">
-        <v>967</v>
+        <v>963</v>
       </c>
     </row>
     <row r="20" spans="1:13">
       <c r="A20" s="83" t="s">
-        <v>968</v>
+        <v>964</v>
       </c>
       <c r="B20" s="15" t="s">
-        <v>969</v>
+        <v>965</v>
       </c>
       <c r="C20" s="15" t="s">
         <v>859</v>
       </c>
       <c r="D20" s="83" t="s">
-        <v>970</v>
+        <v>966</v>
       </c>
       <c r="E20" s="83" t="s">
-        <v>971</v>
+        <v>967</v>
       </c>
       <c r="F20" s="83" t="s">
-        <v>972</v>
+        <v>968</v>
       </c>
       <c r="G20" s="83" t="s">
-        <v>973</v>
+        <v>969</v>
       </c>
       <c r="H20" s="15"/>
       <c r="I20" s="15"/>
@@ -6328,34 +6336,34 @@
     </row>
     <row r="21" spans="1:13" s="10" customFormat="1">
       <c r="A21" s="15" t="s">
-        <v>1031</v>
+        <v>1027</v>
       </c>
       <c r="B21" s="15" t="s">
-        <v>1032</v>
+        <v>1028</v>
       </c>
       <c r="C21" s="15" t="s">
-        <v>1033</v>
+        <v>1029</v>
       </c>
       <c r="D21" s="15" t="s">
-        <v>1034</v>
+        <v>1030</v>
       </c>
       <c r="E21" s="15" t="s">
-        <v>942</v>
+        <v>938</v>
       </c>
       <c r="F21" s="15" t="s">
         <v>881</v>
       </c>
       <c r="G21" s="15" t="s">
-        <v>1035</v>
+        <v>1031</v>
       </c>
       <c r="H21" s="15" t="s">
-        <v>1036</v>
+        <v>1032</v>
       </c>
       <c r="I21" s="15" t="s">
-        <v>1037</v>
+        <v>1033</v>
       </c>
       <c r="J21" s="15" t="s">
-        <v>1038</v>
+        <v>1034</v>
       </c>
       <c r="K21" s="15"/>
       <c r="L21" s="15"/>
@@ -6363,22 +6371,22 @@
     </row>
     <row r="22" spans="1:13" s="10" customFormat="1">
       <c r="A22" s="15" t="s">
-        <v>1039</v>
+        <v>1035</v>
       </c>
       <c r="B22" s="15" t="s">
-        <v>1040</v>
+        <v>1036</v>
       </c>
       <c r="C22" s="15" t="s">
-        <v>1041</v>
+        <v>1037</v>
       </c>
       <c r="D22" s="15" t="s">
-        <v>942</v>
+        <v>938</v>
       </c>
       <c r="E22" s="15" t="s">
         <v>881</v>
       </c>
       <c r="F22" s="15" t="s">
-        <v>1042</v>
+        <v>1038</v>
       </c>
       <c r="G22" s="15" t="s">
         <v>105</v>
@@ -6392,6 +6400,7 @@
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="0" verticalDpi="0"/>
   <drawing r:id="rId1"/>
 </worksheet>
 </file>
@@ -15974,7 +15983,7 @@
         <v>55</v>
       </c>
       <c r="E1" s="88" t="s">
-        <v>974</v>
+        <v>970</v>
       </c>
     </row>
     <row r="2" spans="1:5" ht="16">
@@ -15991,7 +16000,7 @@
         <v>754894607</v>
       </c>
       <c r="E2" s="86" t="s">
-        <v>947</v>
+        <v>943</v>
       </c>
     </row>
     <row r="3" spans="1:5" ht="16">
@@ -16008,7 +16017,7 @@
         <v>754894607</v>
       </c>
       <c r="E3" s="86" t="s">
-        <v>947</v>
+        <v>943</v>
       </c>
     </row>
     <row r="4" spans="1:5" ht="16">
@@ -16025,7 +16034,7 @@
         <v>754894607</v>
       </c>
       <c r="E4" s="86" t="s">
-        <v>947</v>
+        <v>943</v>
       </c>
     </row>
   </sheetData>

--- a/resources/excels/UG.xlsx
+++ b/resources/excels/UG.xlsx
@@ -1,51 +1,261 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="11012"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="10410"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/a13401405/IdeaProjects/cs-portal-automation_selenium/resources/excels/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/a13221514/IdeaProjects/cs-portal-automation_selenium/resources/excels/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7E94305D-79C3-8247-B5D4-6C32495D29FD}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A4321A77-085D-074B-96C4-F47BD88D6FE2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="500" windowWidth="30720" windowHeight="17520" firstSheet="1" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="2640" yWindow="1120" windowWidth="30720" windowHeight="17520" firstSheet="3" activeTab="4" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="LoginCredentials" sheetId="1" r:id="rId1"/>
     <sheet name="Priority" sheetId="2" r:id="rId2"/>
     <sheet name="Headers" sheetId="3" r:id="rId3"/>
     <sheet name="NFTRTickets-San" sheetId="4" r:id="rId4"/>
-    <sheet name="FTRTickets-San" sheetId="5" r:id="rId5"/>
-    <sheet name="NFTRTickets-Reg" sheetId="6" r:id="rId6"/>
-    <sheet name="FTRTickets-Reg" sheetId="7" r:id="rId7"/>
-    <sheet name="UserManagement" sheetId="8" r:id="rId8"/>
-    <sheet name="PinnedTags" sheetId="9" r:id="rId9"/>
-    <sheet name="Ticket State" sheetId="10" r:id="rId10"/>
-    <sheet name="TemplateManagement" sheetId="11" r:id="rId11"/>
-    <sheet name="Ticket Transfer Rules" sheetId="12" r:id="rId12"/>
-    <sheet name="Authentication Policy" sheetId="13" r:id="rId13"/>
-    <sheet name="OpenAPILoginSheet" sheetId="18" r:id="rId14"/>
-    <sheet name="OpenAPIClientConfig" sheetId="19" r:id="rId15"/>
-    <sheet name="ClientConfig" sheetId="20" r:id="rId16"/>
-    <sheet name="AgentDetails" sheetId="21" r:id="rId17"/>
-    <sheet name="Action Tagging" sheetId="14" r:id="rId18"/>
-    <sheet name="Transfer To Queue" sheetId="16" r:id="rId19"/>
-    <sheet name="QuestionAnswerKey" sheetId="17" r:id="rId20"/>
-    <sheet name="State Queue Mapping" sheetId="15" r:id="rId21"/>
+    <sheet name="Assignment Rule" sheetId="22" r:id="rId5"/>
+    <sheet name="SLA Configuration" sheetId="23" r:id="rId6"/>
+    <sheet name="FTRTickets-San" sheetId="5" r:id="rId7"/>
+    <sheet name="NFTRTickets-Reg" sheetId="6" r:id="rId8"/>
+    <sheet name="FTRTickets-Reg" sheetId="7" r:id="rId9"/>
+    <sheet name="UserManagement" sheetId="8" r:id="rId10"/>
+    <sheet name="PinnedTags" sheetId="9" r:id="rId11"/>
+    <sheet name="Ticket State" sheetId="10" r:id="rId12"/>
+    <sheet name="TemplateManagement" sheetId="11" r:id="rId13"/>
+    <sheet name="Ticket Transfer Rules" sheetId="12" r:id="rId14"/>
+    <sheet name="Authentication Policy" sheetId="13" r:id="rId15"/>
+    <sheet name="OpenAPILoginSheet" sheetId="18" r:id="rId16"/>
+    <sheet name="OpenAPIClientConfig" sheetId="19" r:id="rId17"/>
+    <sheet name="ClientConfig" sheetId="20" r:id="rId18"/>
+    <sheet name="AgentDetails" sheetId="21" r:id="rId19"/>
+    <sheet name="Action Tagging" sheetId="14" r:id="rId20"/>
+    <sheet name="Transfer To Queue" sheetId="16" r:id="rId21"/>
+    <sheet name="QuestionAnswerKey" sheetId="17" r:id="rId22"/>
+    <sheet name="State Queue Mapping" sheetId="15" r:id="rId23"/>
   </sheets>
-  <calcPr calcId="181029"/>
+  <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
+    </ext>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
+        <xcalcf:feature name="microsoft.com:LET_WF"/>
+        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
+      </xcalcf:calcFeatures>
     </ext>
   </extLst>
 </workbook>
 </file>
 
+<file path=xl/comments1.xml><?xml version="1.0" encoding="utf-8"?>
+<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr">
+  <authors>
+    <author>Rahul Gupta</author>
+  </authors>
+  <commentList>
+    <comment ref="B1" authorId="0" shapeId="0" xr:uid="{8251ADE3-C6DA-354C-ABA1-72191E858E1A}">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color rgb="FF000000"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>Rahul Gupta:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color rgb="FF000000"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">
+</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color rgb="FF000000"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>This column represent the customer VIP or not. For which customer ticket is created that customer VIP status will store.</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="C1" authorId="0" shapeId="0" xr:uid="{DEA80E8E-2916-324C-A694-0C5744F96744}">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>Rahul Gupta:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">
+This column represent the customer Line type(Prepaid/postpaid/hybrid)</t>
+        </r>
+      </text>
+    </comment>
+  </commentList>
+</comments>
+</file>
+
+<file path=xl/comments2.xml><?xml version="1.0" encoding="utf-8"?>
+<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr">
+  <authors>
+    <author>Rahul Gupta</author>
+  </authors>
+  <commentList>
+    <comment ref="B1" authorId="0" shapeId="0" xr:uid="{D09FDD7B-0F93-CC4F-9D54-63B87499D192}">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>Rahul Gupta:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">
+This column represent the customer VIP or not. For which customer ticket is created that customer VIP status will store.</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="C1" authorId="0" shapeId="0" xr:uid="{A65FB1B8-C892-5F4D-B29E-C188AED663AC}">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>Rahul Gupta:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">
+This column represent the customer Line type(Prepaid/postpaid/hybrid)</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="D1" authorId="0" shapeId="0" xr:uid="{1C72CA4E-4C49-0C4D-AF3D-EFFB9509A6D4}">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>Rahul Gupta:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">
+Rahul Gupta:
+This column represent the customer Type</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="E1" authorId="0" shapeId="0" xr:uid="{ABBB9533-8F3C-7240-B4F6-BDB375DAB5D3}">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>Rahul Gupta:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">
+This column represent customer service category</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="F1" authorId="0" shapeId="0" xr:uid="{22D23D98-0395-5541-8719-52EB3080E0A4}">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>Rahul Gupta:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">
+This column represent customer segment</t>
+        </r>
+      </text>
+    </comment>
+  </commentList>
+</comments>
+</file>
+
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2719" uniqueCount="1067">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2748" uniqueCount="1086">
   <si>
     <t>loginAuuid</t>
   </si>
@@ -3250,15 +3460,79 @@
   </si>
   <si>
     <t xml:space="preserve">Remaining Balance </t>
+  </si>
+  <si>
+    <t>CS Automation NFTR</t>
+  </si>
+  <si>
+    <t>Ignore this category code</t>
+  </si>
+  <si>
+    <t>Do not close this ticket</t>
+  </si>
+  <si>
+    <t>Auto01</t>
+  </si>
+  <si>
+    <t>CS Test Automation</t>
+  </si>
+  <si>
+    <t>Code</t>
+  </si>
+  <si>
+    <t>customerVip</t>
+  </si>
+  <si>
+    <t>lineType</t>
+  </si>
+  <si>
+    <t>customerType</t>
+  </si>
+  <si>
+    <t>serviceCategory</t>
+  </si>
+  <si>
+    <t>customerSegment</t>
+  </si>
+  <si>
+    <t>customerSubSegment</t>
+  </si>
+  <si>
+    <t>interactionChannel</t>
+  </si>
+  <si>
+    <t>Default SLA</t>
+  </si>
+  <si>
+    <t>Attribute name</t>
+  </si>
+  <si>
+    <t>Attribute value</t>
+  </si>
+  <si>
+    <t>Workgroup Name</t>
+  </si>
+  <si>
+    <t>State</t>
+  </si>
+  <si>
+    <t>Rule Priority</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="23">
+  <fonts count="29" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="12"/>
       <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
@@ -3405,6 +3679,38 @@
       <sz val="12"/>
       <color theme="1"/>
       <name val="Helvetica Neue"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="14"/>
+      <color rgb="FF333399"/>
+      <name val="Helvetica Neue"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="9"/>
+      <color indexed="81"/>
+      <name val="Tahoma"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="9"/>
+      <color indexed="81"/>
+      <name val="Tahoma"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="9"/>
+      <color rgb="FF000000"/>
+      <name val="Tahoma"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="9"/>
+      <color rgb="FF000000"/>
+      <name val="Tahoma"/>
       <family val="2"/>
     </font>
   </fonts>
@@ -3577,218 +3883,219 @@
   </borders>
   <cellStyleXfs count="6">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyProtection="0">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyProtection="0">
       <alignment vertical="top" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyProtection="0">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
   </cellStyleXfs>
-  <cellXfs count="105">
+  <cellXfs count="108">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="2"/>
-    <xf numFmtId="0" fontId="4" fillId="6" borderId="5" xfId="5" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="1" xfId="5" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="3" fillId="5" borderId="1" xfId="2" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="1" xfId="5" applyFont="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="1" xfId="5" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="2" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="2"/>
+    <xf numFmtId="0" fontId="5" fillId="6" borderId="5" xfId="5" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="1" xfId="5" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="4" fillId="5" borderId="1" xfId="2" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="1" xfId="5" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="1" xfId="5" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="2" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="2" applyBorder="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="2" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="2" applyBorder="1"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="8" xfId="5" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="2" applyBorder="1"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="8" xfId="5" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="5" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="1" xfId="5" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="1" xfId="5" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="1" xfId="5" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="1" fontId="4" fillId="0" borderId="3" xfId="5" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="1" fontId="4" fillId="0" borderId="4" xfId="5" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="3" xfId="5" applyFont="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="4" xfId="5" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="3" xfId="5" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="1" xfId="5" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="1" fontId="5" fillId="0" borderId="3" xfId="5" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="1" fontId="5" fillId="0" borderId="4" xfId="5" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="3" xfId="5" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="4" xfId="5" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="3" xfId="5" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="1" xfId="5" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="2"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="2" applyBorder="1"/>
-    <xf numFmtId="0" fontId="3" fillId="5" borderId="1" xfId="2" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="2" applyBorder="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="2" applyBorder="1"/>
-    <xf numFmtId="0" fontId="16" fillId="4" borderId="1" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="2"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="2" applyBorder="1"/>
+    <xf numFmtId="0" fontId="4" fillId="5" borderId="1" xfId="2" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="2" applyBorder="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="2" applyBorder="1"/>
+    <xf numFmtId="0" fontId="17" fillId="4" borderId="1" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="4" borderId="1" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="1" xfId="2" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="8" xfId="5" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="17" fillId="4" borderId="1" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="1" xfId="2" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="8" xfId="5" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="5" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="1" xfId="5" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="8" xfId="5" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="8" xfId="5" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="5" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="1" xfId="5" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="2" xfId="5" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="2" xfId="5" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="2" xfId="5" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="2" xfId="5" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="7" xfId="5" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="7" xfId="5" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="6" xfId="5" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="6" xfId="5" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="6" xfId="5" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="6" xfId="5" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="2"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="2"/>
-    <xf numFmtId="0" fontId="5" fillId="3" borderId="2" xfId="2" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="5" fillId="3" borderId="2" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="5" fillId="3" borderId="0" xfId="2" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="8" xfId="5" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="2"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="2"/>
+    <xf numFmtId="0" fontId="6" fillId="3" borderId="2" xfId="2" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="6" fillId="3" borderId="2" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="6" fillId="3" borderId="0" xfId="2" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="8" xfId="5" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="5" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="1" xfId="5" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="8" xfId="5" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="8" xfId="5" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="5" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="1" xfId="5" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="2" xfId="5" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="2" xfId="5" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="7" xfId="5" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="6" xfId="5" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="6" xfId="5" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="1" xfId="5" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="15" fillId="0" borderId="1" xfId="5" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="2" xfId="5" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="2" xfId="5" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="7" xfId="5" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="6" xfId="5" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="6" xfId="5" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="1" xfId="5" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="1" xfId="5" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="1" xfId="5" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="1" xfId="5" applyFont="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="1" xfId="5" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="1" xfId="5" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="1" xfId="5" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="1" xfId="5" applyFont="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="1" xfId="5" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="1" xfId="5" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="1" xfId="5" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="1" xfId="5" applyFont="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="6" fillId="7" borderId="1" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="1" xfId="5" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="7" fillId="7" borderId="1" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="7" borderId="2" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="7" fillId="7" borderId="2" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="5" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="2" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="4" applyBorder="1"/>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="1" xfId="5" applyFont="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="7" fillId="4" borderId="1" xfId="5" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="5" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="2" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="4" applyBorder="1"/>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="1" xfId="5" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="8" fillId="4" borderId="1" xfId="5" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="1" xfId="5" applyFont="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="7" fillId="4" borderId="1" xfId="5" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="1" xfId="5" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="8" fillId="4" borderId="1" xfId="5" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="1" xfId="5" applyFont="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="7" fillId="4" borderId="1" xfId="5" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="1" xfId="5" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="8" fillId="4" borderId="1" xfId="5" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="5" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="1" xfId="5" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="1" xfId="5" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="1" xfId="5" applyFont="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="1" xfId="5" applyFont="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="7" fillId="4" borderId="1" xfId="5" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="1" xfId="5" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="1" xfId="5" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="8" fillId="4" borderId="1" xfId="5" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="8" borderId="1" xfId="5" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="2"/>
-    <xf numFmtId="0" fontId="5" fillId="3" borderId="2" xfId="2" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="5" fillId="3" borderId="2" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="5" fillId="3" borderId="0" xfId="2" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="12" fillId="8" borderId="1" xfId="5" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="2"/>
+    <xf numFmtId="0" fontId="6" fillId="3" borderId="2" xfId="2" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="6" fillId="3" borderId="2" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="6" fillId="3" borderId="0" xfId="2" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="6" xfId="2" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="6" xfId="2" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="2" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="2" applyFill="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="1" xfId="2" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="1" xfId="2" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="1" xfId="5" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="1" xfId="5" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="20" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="6" xfId="5" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="6" xfId="5" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="6" fillId="3" borderId="1" xfId="2" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="2" applyFont="1"/>
   </cellXfs>
   <cellStyles count="6">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -4353,12 +4660,12 @@
       <selection activeCell="P11" sqref="P11"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="4" max="4" width="19.1640625" bestFit="1" customWidth="1" collapsed="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:17" ht="16">
+    <row r="1" spans="1:17" ht="16" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -4411,7 +4718,7 @@
         <v>942</v>
       </c>
     </row>
-    <row r="2" spans="1:17" ht="17">
+    <row r="2" spans="1:17" ht="17" x14ac:dyDescent="0.25">
       <c r="A2">
         <v>23103239</v>
       </c>
@@ -4424,14 +4731,14 @@
       <c r="D2" s="14">
         <v>754894607</v>
       </c>
-      <c r="P2" s="85" t="s">
+      <c r="P2" s="84" t="s">
         <v>943</v>
       </c>
-      <c r="Q2" s="86" t="s">
+      <c r="Q2" s="85" t="s">
         <v>944</v>
       </c>
     </row>
-    <row r="3" spans="1:17" ht="17">
+    <row r="3" spans="1:17" ht="17" x14ac:dyDescent="0.25">
       <c r="A3">
         <v>23101480</v>
       </c>
@@ -4444,12 +4751,12 @@
       <c r="D3" s="14">
         <v>754894607</v>
       </c>
-      <c r="P3" s="85" t="s">
+      <c r="P3" s="84" t="s">
         <v>943</v>
       </c>
       <c r="Q3" s="10"/>
     </row>
-    <row r="4" spans="1:17" ht="17">
+    <row r="4" spans="1:17" ht="17" x14ac:dyDescent="0.25">
       <c r="A4">
         <v>2394650</v>
       </c>
@@ -4462,12 +4769,12 @@
       <c r="D4" s="14">
         <v>754894607</v>
       </c>
-      <c r="P4" s="85" t="s">
+      <c r="P4" s="84" t="s">
         <v>943</v>
       </c>
       <c r="Q4" s="10"/>
     </row>
-    <row r="5" spans="1:17" ht="17">
+    <row r="5" spans="1:17" ht="17" x14ac:dyDescent="0.25">
       <c r="A5">
         <v>23103239</v>
       </c>
@@ -4480,7 +4787,7 @@
       <c r="D5" s="14">
         <v>754894607</v>
       </c>
-      <c r="P5" s="85" t="s">
+      <c r="P5" s="84" t="s">
         <v>943</v>
       </c>
       <c r="Q5" s="10"/>
@@ -4491,6 +4798,218 @@
 </file>
 
 <file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0700-000000000000}">
+  <dimension ref="A1:C11"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="G8" sqref="G8"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="1" max="1" width="20.5" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="2" max="2" width="11.6640625" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="3" max="3" width="28" bestFit="1" customWidth="1" collapsed="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:3" ht="16" x14ac:dyDescent="0.2">
+      <c r="A1" s="5" t="s">
+        <v>26</v>
+      </c>
+      <c r="B1" s="5" t="s">
+        <v>27</v>
+      </c>
+      <c r="C1" s="5" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A2" s="7" t="s">
+        <v>29</v>
+      </c>
+      <c r="B2" s="7" t="s">
+        <v>34</v>
+      </c>
+      <c r="C2" s="6" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A3" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="B3" s="7" t="s">
+        <v>41</v>
+      </c>
+      <c r="C3" s="6" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A4" s="7" t="s">
+        <v>31</v>
+      </c>
+      <c r="B4" s="7" t="s">
+        <v>37</v>
+      </c>
+      <c r="C4" s="6" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A5" s="7" t="s">
+        <v>32</v>
+      </c>
+      <c r="B5" s="7" t="s">
+        <v>35</v>
+      </c>
+      <c r="C5" s="6" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A6" s="7" t="s">
+        <v>33</v>
+      </c>
+      <c r="B6" s="7" t="s">
+        <v>40</v>
+      </c>
+      <c r="C6" s="6" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="7" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="B7" s="7" t="s">
+        <v>39</v>
+      </c>
+      <c r="C7" s="6" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="8" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="B8" s="7" t="s">
+        <v>42</v>
+      </c>
+      <c r="C8" s="6" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="9" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="B9" s="7" t="s">
+        <v>36</v>
+      </c>
+      <c r="C9" s="6" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="10" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="B10" s="7" t="s">
+        <v>38</v>
+      </c>
+      <c r="C10" s="6" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="11" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="B11" s="7" t="s">
+        <v>51</v>
+      </c>
+      <c r="C11" s="6" t="s">
+        <v>43</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0800-000000000000}">
+  <dimension ref="A1:E4"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="H9" sqref="H9"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="4" max="4" width="14" bestFit="1" customWidth="1" collapsed="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:5" ht="16" x14ac:dyDescent="0.2">
+      <c r="A1" s="9" t="s">
+        <v>52</v>
+      </c>
+      <c r="B1" s="9" t="s">
+        <v>53</v>
+      </c>
+      <c r="C1" s="9" t="s">
+        <v>54</v>
+      </c>
+      <c r="D1" s="9" t="s">
+        <v>55</v>
+      </c>
+      <c r="E1" s="87" t="s">
+        <v>970</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5" ht="16" x14ac:dyDescent="0.2">
+      <c r="A2" s="14" t="s">
+        <v>56</v>
+      </c>
+      <c r="B2" s="11" t="s">
+        <v>59</v>
+      </c>
+      <c r="C2" s="13" t="s">
+        <v>60</v>
+      </c>
+      <c r="D2" s="14">
+        <v>754894607</v>
+      </c>
+      <c r="E2" s="85" t="s">
+        <v>943</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5" ht="16" x14ac:dyDescent="0.2">
+      <c r="A3" s="14" t="s">
+        <v>57</v>
+      </c>
+      <c r="B3" s="11" t="s">
+        <v>59</v>
+      </c>
+      <c r="C3" s="12" t="s">
+        <v>61</v>
+      </c>
+      <c r="D3" s="14">
+        <v>754894607</v>
+      </c>
+      <c r="E3" s="85" t="s">
+        <v>943</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5" ht="16" x14ac:dyDescent="0.2">
+      <c r="A4" s="14" t="s">
+        <v>58</v>
+      </c>
+      <c r="B4" s="11" t="s">
+        <v>59</v>
+      </c>
+      <c r="C4" s="13" t="s">
+        <v>62</v>
+      </c>
+      <c r="D4" s="14">
+        <v>754894607</v>
+      </c>
+      <c r="E4" s="85" t="s">
+        <v>943</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0900-000000000000}">
   <dimension ref="A1:C6"/>
   <sheetViews>
@@ -4498,9 +5017,9 @@
       <selection activeCell="L9" sqref="L9"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <sheetData>
-    <row r="1" spans="1:3" ht="16">
+    <row r="1" spans="1:3" ht="16" x14ac:dyDescent="0.2">
       <c r="A1" s="23" t="s">
         <v>63</v>
       </c>
@@ -4511,7 +5030,7 @@
         <v>65</v>
       </c>
     </row>
-    <row r="2" spans="1:3" ht="16">
+    <row r="2" spans="1:3" ht="16" x14ac:dyDescent="0.2">
       <c r="A2" s="20" t="s">
         <v>66</v>
       </c>
@@ -4520,7 +5039,7 @@
       </c>
       <c r="C2" s="18"/>
     </row>
-    <row r="3" spans="1:3" ht="16">
+    <row r="3" spans="1:3" ht="16" x14ac:dyDescent="0.2">
       <c r="A3" s="21" t="s">
         <v>67</v>
       </c>
@@ -4529,7 +5048,7 @@
       </c>
       <c r="C3" s="17"/>
     </row>
-    <row r="4" spans="1:3" ht="16">
+    <row r="4" spans="1:3" ht="16" x14ac:dyDescent="0.2">
       <c r="A4" s="21" t="s">
         <v>69</v>
       </c>
@@ -4538,7 +5057,7 @@
       </c>
       <c r="C4" s="17"/>
     </row>
-    <row r="5" spans="1:3" ht="16">
+    <row r="5" spans="1:3" ht="16" x14ac:dyDescent="0.2">
       <c r="A5" s="21" t="s">
         <v>70</v>
       </c>
@@ -4547,7 +5066,7 @@
       </c>
       <c r="C5" s="17"/>
     </row>
-    <row r="6" spans="1:3" ht="16">
+    <row r="6" spans="1:3" ht="16" x14ac:dyDescent="0.2">
       <c r="A6" s="21" t="s">
         <v>71</v>
       </c>
@@ -4563,7 +5082,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet13.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0A00-000000000000}">
   <dimension ref="A1:B7"/>
   <sheetViews>
@@ -4571,13 +5090,13 @@
       <selection activeCell="E5" sqref="E5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="36.5" bestFit="1" customWidth="1" collapsed="1"/>
     <col min="2" max="2" width="10.5" customWidth="1" collapsed="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" ht="16">
+    <row r="1" spans="1:2" ht="16" x14ac:dyDescent="0.2">
       <c r="A1" s="25" t="s">
         <v>72</v>
       </c>
@@ -4585,7 +5104,7 @@
         <v>73</v>
       </c>
     </row>
-    <row r="2" spans="1:2" ht="16">
+    <row r="2" spans="1:2" ht="16" x14ac:dyDescent="0.2">
       <c r="A2" s="24" t="s">
         <v>74</v>
       </c>
@@ -4593,7 +5112,7 @@
         <v>75</v>
       </c>
     </row>
-    <row r="3" spans="1:2" ht="16">
+    <row r="3" spans="1:2" ht="16" x14ac:dyDescent="0.2">
       <c r="A3" s="24" t="s">
         <v>76</v>
       </c>
@@ -4601,7 +5120,7 @@
         <v>77</v>
       </c>
     </row>
-    <row r="4" spans="1:2" ht="16">
+    <row r="4" spans="1:2" ht="16" x14ac:dyDescent="0.2">
       <c r="A4" s="24" t="s">
         <v>78</v>
       </c>
@@ -4609,19 +5128,19 @@
         <v>79</v>
       </c>
     </row>
-    <row r="5" spans="1:2" ht="16">
+    <row r="5" spans="1:2" ht="16" x14ac:dyDescent="0.2">
       <c r="A5" s="24" t="s">
         <v>80</v>
       </c>
       <c r="B5" s="24"/>
     </row>
-    <row r="6" spans="1:2" ht="16">
+    <row r="6" spans="1:2" ht="16" x14ac:dyDescent="0.2">
       <c r="A6" s="24" t="s">
         <v>81</v>
       </c>
       <c r="B6" s="24"/>
     </row>
-    <row r="7" spans="1:2" ht="16">
+    <row r="7" spans="1:2" ht="16" x14ac:dyDescent="0.2">
       <c r="A7" s="24" t="s">
         <v>82</v>
       </c>
@@ -4632,7 +5151,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet14.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0B00-000000000000}">
   <dimension ref="A1:E1"/>
   <sheetViews>
@@ -4640,9 +5159,9 @@
       <selection sqref="A1:E1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <sheetData>
-    <row r="1" spans="1:5" ht="16">
+    <row r="1" spans="1:5" ht="16" x14ac:dyDescent="0.2">
       <c r="A1" s="26" t="s">
         <v>83</v>
       </c>
@@ -4664,7 +5183,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet13.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet15.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0C00-000000000000}">
   <dimension ref="A1:M2"/>
   <sheetViews>
@@ -4672,9 +5191,9 @@
       <selection activeCell="J2" sqref="J2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <sheetData>
-    <row r="1" spans="1:13" ht="34">
+    <row r="1" spans="1:13" ht="34" x14ac:dyDescent="0.2">
       <c r="A1" s="27" t="s">
         <v>88</v>
       </c>
@@ -4715,39 +5234,39 @@
         <v>100</v>
       </c>
     </row>
-    <row r="2" spans="1:13" ht="128">
+    <row r="2" spans="1:13" ht="128" x14ac:dyDescent="0.2">
       <c r="A2" s="22" t="s">
         <v>1039</v>
       </c>
       <c r="B2" s="16" t="s">
         <v>1040</v>
       </c>
-      <c r="C2" s="92">
+      <c r="C2" s="91">
         <v>3</v>
       </c>
-      <c r="D2" s="94" t="s">
+      <c r="D2" s="93" t="s">
         <v>101</v>
       </c>
-      <c r="E2" s="94" t="s">
+      <c r="E2" s="93" t="s">
         <v>102</v>
       </c>
-      <c r="F2" s="95" t="s">
+      <c r="F2" s="94" t="s">
         <v>1041</v>
       </c>
-      <c r="G2" s="94" t="s">
+      <c r="G2" s="93" t="s">
         <v>1043</v>
       </c>
-      <c r="H2" s="94" t="s">
+      <c r="H2" s="93" t="s">
         <v>104</v>
       </c>
-      <c r="I2" s="94" t="s">
+      <c r="I2" s="93" t="s">
         <v>1042</v>
       </c>
-      <c r="J2" s="99" t="s">
+      <c r="J2" s="98" t="s">
         <v>1059</v>
       </c>
-      <c r="K2" s="84"/>
-      <c r="L2" s="84"/>
+      <c r="K2" s="83"/>
+      <c r="L2" s="83"/>
       <c r="M2" s="15"/>
     </row>
   </sheetData>
@@ -4755,7 +5274,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet14.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet16.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{29143E3D-41F6-804D-9324-49B7F522E738}">
   <dimension ref="A1:B4"/>
   <sheetViews>
@@ -4763,39 +5282,39 @@
       <selection sqref="A1:B4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="57.6640625" customWidth="1"/>
     <col min="2" max="2" width="27.33203125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" ht="17">
-      <c r="A1" s="96" t="s">
+    <row r="1" spans="1:2" ht="17" x14ac:dyDescent="0.2">
+      <c r="A1" s="95" t="s">
         <v>1044</v>
       </c>
-      <c r="B1" s="96" t="s">
+      <c r="B1" s="95" t="s">
         <v>1045</v>
       </c>
     </row>
-    <row r="2" spans="1:2" ht="17">
-      <c r="A2" s="96"/>
-      <c r="B2" s="96" t="s">
+    <row r="2" spans="1:2" ht="17" x14ac:dyDescent="0.2">
+      <c r="A2" s="95"/>
+      <c r="B2" s="95" t="s">
         <v>1046</v>
       </c>
     </row>
-    <row r="3" spans="1:2" ht="153">
-      <c r="A3" s="96" t="s">
+    <row r="3" spans="1:2" ht="153" x14ac:dyDescent="0.2">
+      <c r="A3" s="95" t="s">
         <v>1047</v>
       </c>
-      <c r="B3" s="96" t="s">
+      <c r="B3" s="95" t="s">
         <v>1048</v>
       </c>
     </row>
-    <row r="4" spans="1:2" ht="153">
-      <c r="A4" s="96" t="s">
+    <row r="4" spans="1:2" ht="153" x14ac:dyDescent="0.2">
+      <c r="A4" s="95" t="s">
         <v>1049</v>
       </c>
-      <c r="B4" s="96" t="s">
+      <c r="B4" s="95" t="s">
         <v>1050</v>
       </c>
     </row>
@@ -4804,7 +5323,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet15.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet17.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{AC1E60ED-D2EF-B546-B48B-FB35544D51BB}">
   <dimension ref="A1:B3"/>
   <sheetViews>
@@ -4812,12 +5331,12 @@
       <selection sqref="A1:B3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="2" max="2" width="17.1640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2">
+    <row r="1" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
         <v>937</v>
       </c>
@@ -4825,7 +5344,7 @@
         <v>1051</v>
       </c>
     </row>
-    <row r="3" spans="1:2">
+    <row r="3" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A3">
         <v>767240995</v>
       </c>
@@ -4838,7 +5357,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet16.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet18.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{53D2134C-A59B-B54F-AA2F-D96ED37F031C}">
   <dimension ref="A1:C2"/>
   <sheetViews>
@@ -4846,32 +5365,32 @@
       <selection sqref="A1:C2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="17.83203125" customWidth="1"/>
     <col min="2" max="2" width="18.1640625" customWidth="1"/>
     <col min="3" max="3" width="16.83203125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" ht="16">
-      <c r="A1" s="97" t="s">
+    <row r="1" spans="1:3" ht="16" x14ac:dyDescent="0.2">
+      <c r="A1" s="96" t="s">
         <v>1053</v>
       </c>
-      <c r="B1" s="97" t="s">
+      <c r="B1" s="96" t="s">
         <v>1054</v>
       </c>
-      <c r="C1" s="97" t="s">
+      <c r="C1" s="96" t="s">
         <v>1051</v>
       </c>
     </row>
-    <row r="2" spans="1:3" ht="16">
-      <c r="A2" s="97">
+    <row r="2" spans="1:3" ht="16" x14ac:dyDescent="0.2">
+      <c r="A2" s="96">
         <v>1</v>
       </c>
-      <c r="B2" s="97">
+      <c r="B2" s="96">
         <v>5</v>
       </c>
-      <c r="C2" s="97" t="s">
+      <c r="C2" s="96" t="s">
         <v>129</v>
       </c>
     </row>
@@ -4880,7 +5399,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet17.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet19.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B319BF67-B9F6-1D4E-BEFA-47B168E0151B}">
   <dimension ref="A1:C2"/>
   <sheetViews>
@@ -4888,334 +5407,26 @@
       <selection activeCell="T31" sqref="T31"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <sheetData>
-    <row r="1" spans="1:3" ht="16">
-      <c r="A1" s="98" t="s">
+    <row r="1" spans="1:3" ht="16" x14ac:dyDescent="0.2">
+      <c r="A1" s="97" t="s">
         <v>1055</v>
       </c>
-      <c r="B1" s="98" t="s">
+      <c r="B1" s="97" t="s">
         <v>1056</v>
       </c>
-      <c r="C1" s="98" t="s">
+      <c r="C1" s="97" t="s">
         <v>1057</v>
       </c>
     </row>
-    <row r="2" spans="1:3" ht="16">
-      <c r="A2" s="98"/>
-      <c r="B2" s="98">
+    <row r="2" spans="1:3" ht="16" x14ac:dyDescent="0.2">
+      <c r="A2" s="97"/>
+      <c r="B2" s="97">
         <v>13221514</v>
       </c>
-      <c r="C2" s="98" t="s">
+      <c r="C2" s="97" t="s">
         <v>1058</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet18.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0D00-000000000000}">
-  <dimension ref="A1:K13"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="M32" sqref="M32"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15"/>
-  <sheetData>
-    <row r="1" spans="1:11" ht="16">
-      <c r="A1" s="89" t="s">
-        <v>105</v>
-      </c>
-      <c r="B1" s="89" t="s">
-        <v>106</v>
-      </c>
-      <c r="C1" s="89" t="s">
-        <v>107</v>
-      </c>
-      <c r="D1" s="89" t="s">
-        <v>108</v>
-      </c>
-      <c r="E1" s="89" t="s">
-        <v>109</v>
-      </c>
-      <c r="F1" s="89" t="s">
-        <v>110</v>
-      </c>
-      <c r="G1" s="89" t="s">
-        <v>111</v>
-      </c>
-      <c r="H1" s="90" t="s">
-        <v>971</v>
-      </c>
-      <c r="I1" s="90" t="s">
-        <v>972</v>
-      </c>
-      <c r="J1" s="91" t="s">
-        <v>973</v>
-      </c>
-      <c r="K1" s="89"/>
-    </row>
-    <row r="2" spans="1:11" ht="16">
-      <c r="A2" s="65" t="s">
-        <v>882</v>
-      </c>
-      <c r="B2" s="65" t="s">
-        <v>883</v>
-      </c>
-      <c r="C2" s="65" t="s">
-        <v>884</v>
-      </c>
-      <c r="D2" s="15"/>
-      <c r="E2" s="15"/>
-      <c r="F2" s="15"/>
-      <c r="G2" s="15"/>
-      <c r="H2" s="15"/>
-      <c r="I2" s="15"/>
-      <c r="J2" s="89" t="b">
-        <v>1</v>
-      </c>
-      <c r="K2" s="15"/>
-    </row>
-    <row r="3" spans="1:11">
-      <c r="A3" s="89" t="s">
-        <v>974</v>
-      </c>
-      <c r="B3" s="89"/>
-      <c r="C3" s="89"/>
-      <c r="D3" s="89"/>
-      <c r="E3" s="89"/>
-      <c r="F3" s="89"/>
-      <c r="G3" s="89"/>
-      <c r="H3" s="89" t="s">
-        <v>975</v>
-      </c>
-      <c r="I3" s="89" t="s">
-        <v>975</v>
-      </c>
-      <c r="J3" s="89" t="b">
-        <v>0</v>
-      </c>
-      <c r="K3" s="15"/>
-    </row>
-    <row r="4" spans="1:11">
-      <c r="A4" s="89" t="s">
-        <v>976</v>
-      </c>
-      <c r="B4" s="89"/>
-      <c r="C4" s="89"/>
-      <c r="D4" s="89"/>
-      <c r="E4" s="89"/>
-      <c r="F4" s="89"/>
-      <c r="G4" s="89"/>
-      <c r="H4" s="89"/>
-      <c r="I4" s="89"/>
-      <c r="J4" s="89" t="b">
-        <v>0</v>
-      </c>
-      <c r="K4" s="15"/>
-    </row>
-    <row r="5" spans="1:11">
-      <c r="A5" s="89" t="s">
-        <v>977</v>
-      </c>
-      <c r="B5" s="89"/>
-      <c r="C5" s="89"/>
-      <c r="D5" s="89"/>
-      <c r="E5" s="89"/>
-      <c r="F5" s="89"/>
-      <c r="G5" s="89"/>
-      <c r="H5" s="89"/>
-      <c r="I5" s="89"/>
-      <c r="J5" s="89" t="b">
-        <v>0</v>
-      </c>
-      <c r="K5" s="15"/>
-    </row>
-    <row r="6" spans="1:11">
-      <c r="A6" s="89" t="s">
-        <v>978</v>
-      </c>
-      <c r="B6" s="89"/>
-      <c r="C6" s="89"/>
-      <c r="D6" s="89"/>
-      <c r="E6" s="89"/>
-      <c r="F6" s="89"/>
-      <c r="G6" s="89"/>
-      <c r="H6" s="89"/>
-      <c r="I6" s="89"/>
-      <c r="J6" s="89" t="b">
-        <v>0</v>
-      </c>
-      <c r="K6" s="15"/>
-    </row>
-    <row r="7" spans="1:11">
-      <c r="A7" s="89" t="s">
-        <v>979</v>
-      </c>
-      <c r="B7" s="89"/>
-      <c r="C7" s="89"/>
-      <c r="D7" s="89"/>
-      <c r="E7" s="89"/>
-      <c r="F7" s="89"/>
-      <c r="G7" s="89"/>
-      <c r="H7" s="89"/>
-      <c r="I7" s="89"/>
-      <c r="J7" s="89" t="b">
-        <v>0</v>
-      </c>
-      <c r="K7" s="15"/>
-    </row>
-    <row r="8" spans="1:11">
-      <c r="A8" s="89" t="s">
-        <v>980</v>
-      </c>
-      <c r="B8" s="89"/>
-      <c r="C8" s="89"/>
-      <c r="D8" s="89"/>
-      <c r="E8" s="89"/>
-      <c r="F8" s="89"/>
-      <c r="G8" s="89"/>
-      <c r="H8" s="89"/>
-      <c r="I8" s="89"/>
-      <c r="J8" s="89" t="b">
-        <v>0</v>
-      </c>
-      <c r="K8" s="15"/>
-    </row>
-    <row r="9" spans="1:11">
-      <c r="A9" s="89" t="s">
-        <v>981</v>
-      </c>
-      <c r="B9" s="89"/>
-      <c r="C9" s="89"/>
-      <c r="D9" s="89"/>
-      <c r="E9" s="89"/>
-      <c r="F9" s="89"/>
-      <c r="G9" s="89"/>
-      <c r="H9" s="89"/>
-      <c r="I9" s="89"/>
-      <c r="J9" s="89" t="b">
-        <v>0</v>
-      </c>
-      <c r="K9" s="15"/>
-    </row>
-    <row r="10" spans="1:11">
-      <c r="A10" s="89" t="s">
-        <v>982</v>
-      </c>
-      <c r="B10" s="89"/>
-      <c r="C10" s="89"/>
-      <c r="D10" s="89"/>
-      <c r="E10" s="89"/>
-      <c r="F10" s="89"/>
-      <c r="G10" s="89"/>
-      <c r="H10" s="89"/>
-      <c r="I10" s="89"/>
-      <c r="J10" s="89" t="b">
-        <v>0</v>
-      </c>
-      <c r="K10" s="15"/>
-    </row>
-    <row r="11" spans="1:11">
-      <c r="A11" s="89" t="s">
-        <v>983</v>
-      </c>
-      <c r="B11" s="89"/>
-      <c r="C11" s="89"/>
-      <c r="D11" s="89"/>
-      <c r="E11" s="89"/>
-      <c r="F11" s="89"/>
-      <c r="G11" s="89"/>
-      <c r="H11" s="89"/>
-      <c r="I11" s="89"/>
-      <c r="J11" s="89" t="b">
-        <v>1</v>
-      </c>
-      <c r="K11" s="15"/>
-    </row>
-    <row r="12" spans="1:11">
-      <c r="A12" s="89" t="s">
-        <v>984</v>
-      </c>
-      <c r="B12" s="89"/>
-      <c r="C12" s="89"/>
-      <c r="D12" s="89"/>
-      <c r="E12" s="89"/>
-      <c r="F12" s="89"/>
-      <c r="G12" s="89"/>
-      <c r="H12" s="89"/>
-      <c r="I12" s="89"/>
-      <c r="J12" s="89" t="b">
-        <v>0</v>
-      </c>
-      <c r="K12" s="15"/>
-    </row>
-    <row r="13" spans="1:11">
-      <c r="A13" s="89" t="s">
-        <v>985</v>
-      </c>
-      <c r="B13" s="89"/>
-      <c r="C13" s="89"/>
-      <c r="D13" s="89"/>
-      <c r="E13" s="89"/>
-      <c r="F13" s="89"/>
-      <c r="G13" s="89"/>
-      <c r="H13" s="89"/>
-      <c r="I13" s="89"/>
-      <c r="J13" s="89" t="b">
-        <v>0</v>
-      </c>
-      <c r="K13" s="15"/>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet19.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0E00-000000000000}">
-  <dimension ref="A1:C3"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B5" sqref="B5"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="11.5" defaultRowHeight="15"/>
-  <sheetData>
-    <row r="1" spans="1:3" ht="16">
-      <c r="A1" s="65" t="s">
-        <v>86</v>
-      </c>
-      <c r="B1" s="65" t="s">
-        <v>87</v>
-      </c>
-      <c r="C1" s="65" t="s">
-        <v>986</v>
-      </c>
-    </row>
-    <row r="2" spans="1:3" ht="16">
-      <c r="A2" s="6" t="s">
-        <v>44</v>
-      </c>
-      <c r="B2" s="6" t="s">
-        <v>48</v>
-      </c>
-      <c r="C2" s="65" t="b">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="3" spans="1:3" ht="16">
-      <c r="A3" s="6" t="s">
-        <v>45</v>
-      </c>
-      <c r="B3" s="6" t="s">
-        <v>39</v>
-      </c>
-      <c r="C3" s="65" t="b">
-        <v>1</v>
       </c>
     </row>
   </sheetData>
@@ -5231,39 +5442,39 @@
       <selection activeCell="F7" sqref="F7"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <sheetData>
-    <row r="1" spans="1:1" ht="16">
+    <row r="1" spans="1:1" ht="16" x14ac:dyDescent="0.2">
       <c r="A1" s="3" t="s">
         <v>19</v>
       </c>
     </row>
-    <row r="2" spans="1:1" ht="16">
+    <row r="2" spans="1:1" ht="16" x14ac:dyDescent="0.2">
       <c r="A2" s="4" t="s">
         <v>20</v>
       </c>
     </row>
-    <row r="3" spans="1:1" ht="16">
+    <row r="3" spans="1:1" ht="16" x14ac:dyDescent="0.2">
       <c r="A3" s="4" t="s">
         <v>21</v>
       </c>
     </row>
-    <row r="4" spans="1:1" ht="16">
+    <row r="4" spans="1:1" ht="16" x14ac:dyDescent="0.2">
       <c r="A4" s="4" t="s">
         <v>22</v>
       </c>
     </row>
-    <row r="5" spans="1:1" ht="16">
+    <row r="5" spans="1:1" ht="16" x14ac:dyDescent="0.2">
       <c r="A5" s="4" t="s">
         <v>23</v>
       </c>
     </row>
-    <row r="6" spans="1:1" ht="16">
+    <row r="6" spans="1:1" ht="16" x14ac:dyDescent="0.2">
       <c r="A6" s="4" t="s">
         <v>24</v>
       </c>
     </row>
-    <row r="7" spans="1:1" ht="16">
+    <row r="7" spans="1:1" ht="16" x14ac:dyDescent="0.2">
       <c r="A7" s="4" t="s">
         <v>25</v>
       </c>
@@ -5274,6 +5485,314 @@
 </file>
 
 <file path=xl/worksheets/sheet20.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0D00-000000000000}">
+  <dimension ref="A1:K13"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="M32" sqref="M32"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <sheetData>
+    <row r="1" spans="1:11" ht="16" x14ac:dyDescent="0.2">
+      <c r="A1" s="88" t="s">
+        <v>105</v>
+      </c>
+      <c r="B1" s="88" t="s">
+        <v>106</v>
+      </c>
+      <c r="C1" s="88" t="s">
+        <v>107</v>
+      </c>
+      <c r="D1" s="88" t="s">
+        <v>108</v>
+      </c>
+      <c r="E1" s="88" t="s">
+        <v>109</v>
+      </c>
+      <c r="F1" s="88" t="s">
+        <v>110</v>
+      </c>
+      <c r="G1" s="88" t="s">
+        <v>111</v>
+      </c>
+      <c r="H1" s="89" t="s">
+        <v>971</v>
+      </c>
+      <c r="I1" s="89" t="s">
+        <v>972</v>
+      </c>
+      <c r="J1" s="90" t="s">
+        <v>973</v>
+      </c>
+      <c r="K1" s="88"/>
+    </row>
+    <row r="2" spans="1:11" ht="16" x14ac:dyDescent="0.2">
+      <c r="A2" s="65" t="s">
+        <v>882</v>
+      </c>
+      <c r="B2" s="65" t="s">
+        <v>883</v>
+      </c>
+      <c r="C2" s="65" t="s">
+        <v>884</v>
+      </c>
+      <c r="D2" s="15"/>
+      <c r="E2" s="15"/>
+      <c r="F2" s="15"/>
+      <c r="G2" s="15"/>
+      <c r="H2" s="15"/>
+      <c r="I2" s="15"/>
+      <c r="J2" s="88" t="b">
+        <v>1</v>
+      </c>
+      <c r="K2" s="15"/>
+    </row>
+    <row r="3" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A3" s="88" t="s">
+        <v>974</v>
+      </c>
+      <c r="B3" s="88"/>
+      <c r="C3" s="88"/>
+      <c r="D3" s="88"/>
+      <c r="E3" s="88"/>
+      <c r="F3" s="88"/>
+      <c r="G3" s="88"/>
+      <c r="H3" s="88" t="s">
+        <v>975</v>
+      </c>
+      <c r="I3" s="88" t="s">
+        <v>975</v>
+      </c>
+      <c r="J3" s="88" t="b">
+        <v>0</v>
+      </c>
+      <c r="K3" s="15"/>
+    </row>
+    <row r="4" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A4" s="88" t="s">
+        <v>976</v>
+      </c>
+      <c r="B4" s="88"/>
+      <c r="C4" s="88"/>
+      <c r="D4" s="88"/>
+      <c r="E4" s="88"/>
+      <c r="F4" s="88"/>
+      <c r="G4" s="88"/>
+      <c r="H4" s="88"/>
+      <c r="I4" s="88"/>
+      <c r="J4" s="88" t="b">
+        <v>0</v>
+      </c>
+      <c r="K4" s="15"/>
+    </row>
+    <row r="5" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A5" s="88" t="s">
+        <v>977</v>
+      </c>
+      <c r="B5" s="88"/>
+      <c r="C5" s="88"/>
+      <c r="D5" s="88"/>
+      <c r="E5" s="88"/>
+      <c r="F5" s="88"/>
+      <c r="G5" s="88"/>
+      <c r="H5" s="88"/>
+      <c r="I5" s="88"/>
+      <c r="J5" s="88" t="b">
+        <v>0</v>
+      </c>
+      <c r="K5" s="15"/>
+    </row>
+    <row r="6" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A6" s="88" t="s">
+        <v>978</v>
+      </c>
+      <c r="B6" s="88"/>
+      <c r="C6" s="88"/>
+      <c r="D6" s="88"/>
+      <c r="E6" s="88"/>
+      <c r="F6" s="88"/>
+      <c r="G6" s="88"/>
+      <c r="H6" s="88"/>
+      <c r="I6" s="88"/>
+      <c r="J6" s="88" t="b">
+        <v>0</v>
+      </c>
+      <c r="K6" s="15"/>
+    </row>
+    <row r="7" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A7" s="88" t="s">
+        <v>979</v>
+      </c>
+      <c r="B7" s="88"/>
+      <c r="C7" s="88"/>
+      <c r="D7" s="88"/>
+      <c r="E7" s="88"/>
+      <c r="F7" s="88"/>
+      <c r="G7" s="88"/>
+      <c r="H7" s="88"/>
+      <c r="I7" s="88"/>
+      <c r="J7" s="88" t="b">
+        <v>0</v>
+      </c>
+      <c r="K7" s="15"/>
+    </row>
+    <row r="8" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A8" s="88" t="s">
+        <v>980</v>
+      </c>
+      <c r="B8" s="88"/>
+      <c r="C8" s="88"/>
+      <c r="D8" s="88"/>
+      <c r="E8" s="88"/>
+      <c r="F8" s="88"/>
+      <c r="G8" s="88"/>
+      <c r="H8" s="88"/>
+      <c r="I8" s="88"/>
+      <c r="J8" s="88" t="b">
+        <v>0</v>
+      </c>
+      <c r="K8" s="15"/>
+    </row>
+    <row r="9" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A9" s="88" t="s">
+        <v>981</v>
+      </c>
+      <c r="B9" s="88"/>
+      <c r="C9" s="88"/>
+      <c r="D9" s="88"/>
+      <c r="E9" s="88"/>
+      <c r="F9" s="88"/>
+      <c r="G9" s="88"/>
+      <c r="H9" s="88"/>
+      <c r="I9" s="88"/>
+      <c r="J9" s="88" t="b">
+        <v>0</v>
+      </c>
+      <c r="K9" s="15"/>
+    </row>
+    <row r="10" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A10" s="88" t="s">
+        <v>982</v>
+      </c>
+      <c r="B10" s="88"/>
+      <c r="C10" s="88"/>
+      <c r="D10" s="88"/>
+      <c r="E10" s="88"/>
+      <c r="F10" s="88"/>
+      <c r="G10" s="88"/>
+      <c r="H10" s="88"/>
+      <c r="I10" s="88"/>
+      <c r="J10" s="88" t="b">
+        <v>0</v>
+      </c>
+      <c r="K10" s="15"/>
+    </row>
+    <row r="11" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A11" s="88" t="s">
+        <v>983</v>
+      </c>
+      <c r="B11" s="88"/>
+      <c r="C11" s="88"/>
+      <c r="D11" s="88"/>
+      <c r="E11" s="88"/>
+      <c r="F11" s="88"/>
+      <c r="G11" s="88"/>
+      <c r="H11" s="88"/>
+      <c r="I11" s="88"/>
+      <c r="J11" s="88" t="b">
+        <v>1</v>
+      </c>
+      <c r="K11" s="15"/>
+    </row>
+    <row r="12" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A12" s="88" t="s">
+        <v>984</v>
+      </c>
+      <c r="B12" s="88"/>
+      <c r="C12" s="88"/>
+      <c r="D12" s="88"/>
+      <c r="E12" s="88"/>
+      <c r="F12" s="88"/>
+      <c r="G12" s="88"/>
+      <c r="H12" s="88"/>
+      <c r="I12" s="88"/>
+      <c r="J12" s="88" t="b">
+        <v>0</v>
+      </c>
+      <c r="K12" s="15"/>
+    </row>
+    <row r="13" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A13" s="88" t="s">
+        <v>985</v>
+      </c>
+      <c r="B13" s="88"/>
+      <c r="C13" s="88"/>
+      <c r="D13" s="88"/>
+      <c r="E13" s="88"/>
+      <c r="F13" s="88"/>
+      <c r="G13" s="88"/>
+      <c r="H13" s="88"/>
+      <c r="I13" s="88"/>
+      <c r="J13" s="88" t="b">
+        <v>0</v>
+      </c>
+      <c r="K13" s="15"/>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet21.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0E00-000000000000}">
+  <dimension ref="A1:C3"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B5" sqref="B5"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="11.5" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <sheetData>
+    <row r="1" spans="1:3" ht="16" x14ac:dyDescent="0.2">
+      <c r="A1" s="65" t="s">
+        <v>86</v>
+      </c>
+      <c r="B1" s="65" t="s">
+        <v>87</v>
+      </c>
+      <c r="C1" s="65" t="s">
+        <v>986</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3" ht="16" x14ac:dyDescent="0.2">
+      <c r="A2" s="6" t="s">
+        <v>44</v>
+      </c>
+      <c r="B2" s="6" t="s">
+        <v>48</v>
+      </c>
+      <c r="C2" s="65" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3" ht="16" x14ac:dyDescent="0.2">
+      <c r="A3" s="6" t="s">
+        <v>45</v>
+      </c>
+      <c r="B3" s="6" t="s">
+        <v>39</v>
+      </c>
+      <c r="C3" s="65" t="b">
+        <v>1</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet22.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0F00-000000000000}">
   <dimension ref="A1:C16"/>
   <sheetViews>
@@ -5281,15 +5800,15 @@
       <selection activeCell="C16" sqref="C16"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="10.83203125" defaultRowHeight="15"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="10.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="21.1640625" style="92" customWidth="1"/>
-    <col min="2" max="2" width="35.5" style="92" customWidth="1"/>
-    <col min="3" max="3" width="51.1640625" style="92" customWidth="1"/>
-    <col min="4" max="16384" width="10.83203125" style="92"/>
+    <col min="1" max="1" width="21.1640625" style="91" customWidth="1"/>
+    <col min="2" max="2" width="35.5" style="91" customWidth="1"/>
+    <col min="3" max="3" width="51.1640625" style="91" customWidth="1"/>
+    <col min="4" max="16384" width="10.83203125" style="91"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" ht="17">
+    <row r="1" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A1" s="8" t="s">
         <v>987</v>
       </c>
@@ -5300,7 +5819,7 @@
         <v>989</v>
       </c>
     </row>
-    <row r="2" spans="1:3" ht="17">
+    <row r="2" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A2" s="8" t="s">
         <v>990</v>
       </c>
@@ -5311,7 +5830,7 @@
         <v>992</v>
       </c>
     </row>
-    <row r="3" spans="1:3" ht="51">
+    <row r="3" spans="1:3" ht="51" x14ac:dyDescent="0.2">
       <c r="A3" s="8" t="s">
         <v>104</v>
       </c>
@@ -5322,7 +5841,7 @@
         <v>994</v>
       </c>
     </row>
-    <row r="4" spans="1:3" ht="17">
+    <row r="4" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A4" s="8" t="s">
         <v>995</v>
       </c>
@@ -5333,7 +5852,7 @@
         <v>997</v>
       </c>
     </row>
-    <row r="5" spans="1:3" ht="17">
+    <row r="5" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A5" s="8" t="s">
         <v>998</v>
       </c>
@@ -5344,16 +5863,16 @@
         <v>1000</v>
       </c>
     </row>
-    <row r="6" spans="1:3" ht="34">
+    <row r="6" spans="1:3" ht="34" x14ac:dyDescent="0.2">
       <c r="A6" s="8" t="s">
         <v>1001</v>
       </c>
       <c r="B6" s="8" t="s">
         <v>1002</v>
       </c>
-      <c r="C6" s="93"/>
-    </row>
-    <row r="7" spans="1:3" ht="17">
+      <c r="C6" s="92"/>
+    </row>
+    <row r="7" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A7" s="8" t="s">
         <v>103</v>
       </c>
@@ -5364,7 +5883,7 @@
         <v>1004</v>
       </c>
     </row>
-    <row r="8" spans="1:3" ht="17">
+    <row r="8" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A8" s="8" t="s">
         <v>1005</v>
       </c>
@@ -5375,7 +5894,7 @@
         <v>1007</v>
       </c>
     </row>
-    <row r="9" spans="1:3" ht="34">
+    <row r="9" spans="1:3" ht="34" x14ac:dyDescent="0.2">
       <c r="A9" s="8" t="s">
         <v>1008</v>
       </c>
@@ -5386,7 +5905,7 @@
         <v>1010</v>
       </c>
     </row>
-    <row r="10" spans="1:3" ht="34">
+    <row r="10" spans="1:3" ht="34" x14ac:dyDescent="0.2">
       <c r="A10" s="8" t="s">
         <v>1011</v>
       </c>
@@ -5397,7 +5916,7 @@
         <v>1013</v>
       </c>
     </row>
-    <row r="11" spans="1:3" ht="17">
+    <row r="11" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A11" s="8" t="s">
         <v>1014</v>
       </c>
@@ -5408,7 +5927,7 @@
         <v>1016</v>
       </c>
     </row>
-    <row r="12" spans="1:3" ht="17">
+    <row r="12" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A12" s="8" t="s">
         <v>1017</v>
       </c>
@@ -5419,25 +5938,25 @@
         <v>1019</v>
       </c>
     </row>
-    <row r="13" spans="1:3" ht="17">
+    <row r="13" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A13" s="8" t="s">
         <v>1020</v>
       </c>
       <c r="B13" s="8" t="s">
         <v>1021</v>
       </c>
-      <c r="C13" s="93"/>
-    </row>
-    <row r="14" spans="1:3" ht="34">
+      <c r="C13" s="92"/>
+    </row>
+    <row r="14" spans="1:3" ht="34" x14ac:dyDescent="0.2">
       <c r="A14" s="8" t="s">
         <v>1022</v>
       </c>
       <c r="B14" s="8" t="s">
         <v>1023</v>
       </c>
-      <c r="C14" s="93"/>
-    </row>
-    <row r="15" spans="1:3" ht="17">
+      <c r="C14" s="92"/>
+    </row>
+    <row r="15" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A15" s="8" t="s">
         <v>1024</v>
       </c>
@@ -5448,21 +5967,21 @@
         <v>1026</v>
       </c>
     </row>
-    <row r="16" spans="1:3" ht="51">
-      <c r="A16" s="100" t="s">
+    <row r="16" spans="1:3" ht="51" x14ac:dyDescent="0.2">
+      <c r="A16" s="99" t="s">
         <v>1060</v>
       </c>
-      <c r="B16" s="100" t="s">
+      <c r="B16" s="99" t="s">
         <v>1061</v>
       </c>
-      <c r="C16" s="101"/>
+      <c r="C16" s="100"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet21.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet23.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-1000-000000000000}">
   <dimension ref="A1:K11"/>
   <sheetViews>
@@ -5470,12 +5989,12 @@
       <selection activeCell="I18" sqref="I18"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="32.5" bestFit="1" customWidth="1" collapsed="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:11">
+    <row r="1" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A1" s="66" t="s">
         <v>112</v>
       </c>
@@ -5510,7 +6029,7 @@
         <v>122</v>
       </c>
     </row>
-    <row r="2" spans="1:11" ht="16">
+    <row r="2" spans="1:11" ht="16" x14ac:dyDescent="0.2">
       <c r="A2" s="15" t="s">
         <v>44</v>
       </c>
@@ -5531,7 +6050,7 @@
       <c r="J2" s="15"/>
       <c r="K2" s="15"/>
     </row>
-    <row r="3" spans="1:11" ht="16">
+    <row r="3" spans="1:11" ht="16" x14ac:dyDescent="0.2">
       <c r="A3" s="15" t="s">
         <v>45</v>
       </c>
@@ -5552,7 +6071,7 @@
       <c r="J3" s="15"/>
       <c r="K3" s="15"/>
     </row>
-    <row r="4" spans="1:11" ht="16">
+    <row r="4" spans="1:11" ht="16" x14ac:dyDescent="0.2">
       <c r="A4" s="15" t="s">
         <v>885</v>
       </c>
@@ -5573,7 +6092,7 @@
       <c r="J4" s="15"/>
       <c r="K4" s="15"/>
     </row>
-    <row r="5" spans="1:11" ht="16">
+    <row r="5" spans="1:11" ht="16" x14ac:dyDescent="0.2">
       <c r="A5" s="15" t="s">
         <v>47</v>
       </c>
@@ -5594,7 +6113,7 @@
       <c r="J5" s="15"/>
       <c r="K5" s="15"/>
     </row>
-    <row r="6" spans="1:11" ht="16">
+    <row r="6" spans="1:11" ht="16" x14ac:dyDescent="0.2">
       <c r="A6" s="15" t="s">
         <v>48</v>
       </c>
@@ -5615,7 +6134,7 @@
       <c r="J6" s="15"/>
       <c r="K6" s="15"/>
     </row>
-    <row r="7" spans="1:11" ht="16">
+    <row r="7" spans="1:11" ht="16" x14ac:dyDescent="0.2">
       <c r="A7" s="15" t="s">
         <v>39</v>
       </c>
@@ -5636,7 +6155,7 @@
       <c r="J7" s="15"/>
       <c r="K7" s="15"/>
     </row>
-    <row r="8" spans="1:11" ht="16">
+    <row r="8" spans="1:11" ht="16" x14ac:dyDescent="0.2">
       <c r="A8" s="15" t="s">
         <v>42</v>
       </c>
@@ -5657,7 +6176,7 @@
       <c r="J8" s="15"/>
       <c r="K8" s="15"/>
     </row>
-    <row r="9" spans="1:11" ht="16">
+    <row r="9" spans="1:11" ht="16" x14ac:dyDescent="0.2">
       <c r="A9" s="15" t="s">
         <v>49</v>
       </c>
@@ -5678,7 +6197,7 @@
       <c r="J9" s="15"/>
       <c r="K9" s="15"/>
     </row>
-    <row r="10" spans="1:11" ht="16">
+    <row r="10" spans="1:11" ht="16" x14ac:dyDescent="0.2">
       <c r="A10" s="15" t="s">
         <v>50</v>
       </c>
@@ -5699,7 +6218,7 @@
       <c r="J10" s="15"/>
       <c r="K10" s="15"/>
     </row>
-    <row r="11" spans="1:11" ht="16">
+    <row r="11" spans="1:11" ht="16" x14ac:dyDescent="0.2">
       <c r="A11" s="15" t="s">
         <v>43</v>
       </c>
@@ -5729,11 +6248,11 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="A1:M22"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="B11" sqref="B11:G11"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="33.1640625" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="14.1640625" bestFit="1" customWidth="1" collapsed="1"/>
@@ -5748,7 +6267,7 @@
     <col min="11" max="11" width="11" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:13">
+    <row r="1" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A1" s="15" t="s">
         <v>844</v>
       </c>
@@ -5776,10 +6295,10 @@
       <c r="I1" s="15" t="s">
         <v>852</v>
       </c>
-      <c r="J1" s="83" t="s">
+      <c r="J1" s="82" t="s">
         <v>932</v>
       </c>
-      <c r="K1" s="83" t="s">
+      <c r="K1" s="82" t="s">
         <v>933</v>
       </c>
       <c r="L1" s="15" t="s">
@@ -5789,11 +6308,11 @@
         <v>946</v>
       </c>
     </row>
-    <row r="2" spans="1:13" ht="16">
+    <row r="2" spans="1:13" ht="16" x14ac:dyDescent="0.2">
       <c r="A2" s="15" t="s">
         <v>151</v>
       </c>
-      <c r="B2" s="84" t="s">
+      <c r="B2" s="83" t="s">
         <v>947</v>
       </c>
       <c r="C2" s="15" t="s">
@@ -5816,7 +6335,7 @@
       <c r="L2" s="15"/>
       <c r="M2" s="15"/>
     </row>
-    <row r="3" spans="1:13">
+    <row r="3" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A3" s="15" t="s">
         <v>857</v>
       </c>
@@ -5843,7 +6362,7 @@
       <c r="L3" s="15"/>
       <c r="M3" s="15"/>
     </row>
-    <row r="4" spans="1:13" ht="16">
+    <row r="4" spans="1:13" ht="16" x14ac:dyDescent="0.2">
       <c r="A4" s="15" t="s">
         <v>861</v>
       </c>
@@ -5856,7 +6375,7 @@
       <c r="D4" s="15" t="s">
         <v>862</v>
       </c>
-      <c r="E4" s="84" t="s">
+      <c r="E4" s="83" t="s">
         <v>948</v>
       </c>
       <c r="F4" s="15" t="s">
@@ -5870,7 +6389,7 @@
       <c r="L4" s="15"/>
       <c r="M4" s="15"/>
     </row>
-    <row r="5" spans="1:13">
+    <row r="5" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A5" s="15" t="s">
         <v>863</v>
       </c>
@@ -5903,7 +6422,7 @@
       <c r="L5" s="15"/>
       <c r="M5" s="15"/>
     </row>
-    <row r="6" spans="1:13">
+    <row r="6" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A6" s="15" t="s">
         <v>869</v>
       </c>
@@ -5928,7 +6447,7 @@
       <c r="L6" s="15"/>
       <c r="M6" s="15"/>
     </row>
-    <row r="7" spans="1:13">
+    <row r="7" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A7" s="15" t="s">
         <v>871</v>
       </c>
@@ -5953,7 +6472,7 @@
       <c r="L7" s="15"/>
       <c r="M7" s="15"/>
     </row>
-    <row r="8" spans="1:13">
+    <row r="8" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A8" s="15" t="s">
         <v>873</v>
       </c>
@@ -5980,7 +6499,7 @@
       <c r="L8" s="15"/>
       <c r="M8" s="15"/>
     </row>
-    <row r="9" spans="1:13">
+    <row r="9" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A9" s="15" t="s">
         <v>876</v>
       </c>
@@ -6007,8 +6526,8 @@
       <c r="L9" s="15"/>
       <c r="M9" s="15"/>
     </row>
-    <row r="10" spans="1:13">
-      <c r="A10" s="83" t="s">
+    <row r="10" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A10" s="82" t="s">
         <v>899</v>
       </c>
       <c r="B10" s="15" t="s">
@@ -6034,23 +6553,23 @@
       <c r="L10" s="15"/>
       <c r="M10" s="15"/>
     </row>
-    <row r="11" spans="1:13">
-      <c r="A11" s="83" t="s">
+    <row r="11" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A11" s="82" t="s">
         <v>904</v>
       </c>
-      <c r="B11" s="102" t="s">
+      <c r="B11" s="101" t="s">
         <v>1062</v>
       </c>
-      <c r="C11" s="103" t="s">
+      <c r="C11" s="102" t="s">
         <v>1063</v>
       </c>
-      <c r="D11" s="104" t="s">
+      <c r="D11" s="103" t="s">
         <v>1064</v>
       </c>
-      <c r="E11" s="102" t="s">
+      <c r="E11" s="101" t="s">
         <v>905</v>
       </c>
-      <c r="F11" s="103" t="s">
+      <c r="F11" s="102" t="s">
         <v>1065</v>
       </c>
       <c r="G11" s="15" t="s">
@@ -6063,8 +6582,8 @@
       <c r="L11" s="15"/>
       <c r="M11" s="15"/>
     </row>
-    <row r="12" spans="1:13">
-      <c r="A12" s="83" t="s">
+    <row r="12" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A12" s="82" t="s">
         <v>906</v>
       </c>
       <c r="B12" s="15" t="s">
@@ -6094,7 +6613,7 @@
       <c r="L12" s="15"/>
       <c r="M12" s="15"/>
     </row>
-    <row r="13" spans="1:13">
+    <row r="13" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A13" s="15" t="s">
         <v>914</v>
       </c>
@@ -6119,8 +6638,8 @@
       <c r="L13" s="15"/>
       <c r="M13" s="15"/>
     </row>
-    <row r="14" spans="1:13" ht="16">
-      <c r="A14" s="83" t="s">
+    <row r="14" spans="1:13" ht="16" x14ac:dyDescent="0.2">
+      <c r="A14" s="82" t="s">
         <v>919</v>
       </c>
       <c r="B14" s="15" t="s">
@@ -6129,35 +6648,35 @@
       <c r="C14" s="15" t="s">
         <v>859</v>
       </c>
-      <c r="D14" s="83" t="s">
+      <c r="D14" s="82" t="s">
         <v>862</v>
       </c>
-      <c r="E14" s="84" t="s">
+      <c r="E14" s="83" t="s">
         <v>920</v>
       </c>
-      <c r="F14" s="83" t="s">
+      <c r="F14" s="82" t="s">
         <v>856</v>
       </c>
-      <c r="G14" s="83" t="s">
+      <c r="G14" s="82" t="s">
         <v>921</v>
       </c>
-      <c r="H14" s="83" t="s">
+      <c r="H14" s="82" t="s">
         <v>922</v>
       </c>
-      <c r="I14" s="83" t="s">
+      <c r="I14" s="82" t="s">
         <v>881</v>
       </c>
-      <c r="J14" s="83" t="s">
+      <c r="J14" s="82" t="s">
         <v>923</v>
       </c>
-      <c r="K14" s="83" t="s">
+      <c r="K14" s="82" t="s">
         <v>868</v>
       </c>
       <c r="L14" s="15"/>
       <c r="M14" s="15"/>
     </row>
-    <row r="15" spans="1:13">
-      <c r="A15" s="83" t="s">
+    <row r="15" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A15" s="82" t="s">
         <v>924</v>
       </c>
       <c r="B15" s="15" t="s">
@@ -6166,10 +6685,10 @@
       <c r="C15" s="15" t="s">
         <v>859</v>
       </c>
-      <c r="D15" s="83" t="s">
+      <c r="D15" s="82" t="s">
         <v>860</v>
       </c>
-      <c r="E15" s="83" t="s">
+      <c r="E15" s="82" t="s">
         <v>925</v>
       </c>
       <c r="F15" s="15" t="s">
@@ -6187,8 +6706,8 @@
       <c r="L15" s="15"/>
       <c r="M15" s="15"/>
     </row>
-    <row r="16" spans="1:13">
-      <c r="A16" s="83" t="s">
+    <row r="16" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A16" s="82" t="s">
         <v>928</v>
       </c>
       <c r="B16" s="15" t="s">
@@ -6212,20 +6731,20 @@
       <c r="L16" s="15"/>
       <c r="M16" s="15"/>
     </row>
-    <row r="17" spans="1:13" s="10" customFormat="1">
-      <c r="A17" s="83" t="s">
+    <row r="17" spans="1:13" s="10" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A17" s="82" t="s">
         <v>935</v>
       </c>
-      <c r="B17" s="83" t="s">
+      <c r="B17" s="82" t="s">
         <v>936</v>
       </c>
-      <c r="C17" s="83" t="s">
+      <c r="C17" s="82" t="s">
         <v>937</v>
       </c>
-      <c r="D17" s="83" t="s">
+      <c r="D17" s="82" t="s">
         <v>938</v>
       </c>
-      <c r="E17" s="83" t="s">
+      <c r="E17" s="82" t="s">
         <v>939</v>
       </c>
       <c r="F17" s="15"/>
@@ -6237,20 +6756,20 @@
       <c r="L17" s="15"/>
       <c r="M17" s="15"/>
     </row>
-    <row r="18" spans="1:13">
-      <c r="A18" s="83" t="s">
+    <row r="18" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A18" s="82" t="s">
         <v>949</v>
       </c>
-      <c r="B18" s="83" t="s">
+      <c r="B18" s="82" t="s">
         <v>950</v>
       </c>
-      <c r="C18" s="83" t="s">
+      <c r="C18" s="82" t="s">
         <v>951</v>
       </c>
-      <c r="D18" s="83" t="s">
+      <c r="D18" s="82" t="s">
         <v>952</v>
       </c>
-      <c r="E18" s="83" t="s">
+      <c r="E18" s="82" t="s">
         <v>953</v>
       </c>
       <c r="F18" s="15" t="s">
@@ -6264,49 +6783,49 @@
       <c r="L18" s="15"/>
       <c r="M18" s="15"/>
     </row>
-    <row r="19" spans="1:13" ht="32">
-      <c r="A19" s="83" t="s">
+    <row r="19" spans="1:13" ht="32" x14ac:dyDescent="0.2">
+      <c r="A19" s="82" t="s">
         <v>954</v>
       </c>
-      <c r="B19" s="84" t="s">
+      <c r="B19" s="83" t="s">
         <v>955</v>
       </c>
-      <c r="C19" s="83" t="s">
+      <c r="C19" s="82" t="s">
         <v>854</v>
       </c>
-      <c r="D19" s="83" t="s">
+      <c r="D19" s="82" t="s">
         <v>956</v>
       </c>
-      <c r="E19" s="83" t="s">
+      <c r="E19" s="82" t="s">
         <v>957</v>
       </c>
-      <c r="F19" s="83" t="s">
+      <c r="F19" s="82" t="s">
         <v>958</v>
       </c>
-      <c r="G19" s="83" t="s">
+      <c r="G19" s="82" t="s">
         <v>959</v>
       </c>
-      <c r="H19" s="83" t="s">
+      <c r="H19" s="82" t="s">
         <v>855</v>
       </c>
-      <c r="I19" s="87" t="s">
+      <c r="I19" s="86" t="s">
         <v>960</v>
       </c>
-      <c r="J19" s="87" t="s">
+      <c r="J19" s="86" t="s">
         <v>961</v>
       </c>
-      <c r="K19" s="87" t="s">
+      <c r="K19" s="86" t="s">
         <v>962</v>
       </c>
-      <c r="L19" s="83" t="s">
+      <c r="L19" s="82" t="s">
         <v>856</v>
       </c>
-      <c r="M19" s="83" t="s">
+      <c r="M19" s="82" t="s">
         <v>963</v>
       </c>
     </row>
-    <row r="20" spans="1:13">
-      <c r="A20" s="83" t="s">
+    <row r="20" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A20" s="82" t="s">
         <v>964</v>
       </c>
       <c r="B20" s="15" t="s">
@@ -6315,16 +6834,16 @@
       <c r="C20" s="15" t="s">
         <v>859</v>
       </c>
-      <c r="D20" s="83" t="s">
+      <c r="D20" s="82" t="s">
         <v>966</v>
       </c>
-      <c r="E20" s="83" t="s">
+      <c r="E20" s="82" t="s">
         <v>967</v>
       </c>
-      <c r="F20" s="83" t="s">
+      <c r="F20" s="82" t="s">
         <v>968</v>
       </c>
-      <c r="G20" s="83" t="s">
+      <c r="G20" s="82" t="s">
         <v>969</v>
       </c>
       <c r="H20" s="15"/>
@@ -6334,7 +6853,7 @@
       <c r="L20" s="15"/>
       <c r="M20" s="15"/>
     </row>
-    <row r="21" spans="1:13" s="10" customFormat="1">
+    <row r="21" spans="1:13" s="10" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A21" s="15" t="s">
         <v>1027</v>
       </c>
@@ -6369,7 +6888,7 @@
       <c r="L21" s="15"/>
       <c r="M21" s="15"/>
     </row>
-    <row r="22" spans="1:13" s="10" customFormat="1">
+    <row r="22" spans="1:13" s="10" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A22" s="15" t="s">
         <v>1035</v>
       </c>
@@ -6409,183 +6928,173 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
   <dimension ref="A1:AL2"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="D11" sqref="D11"/>
+    <sheetView topLeftCell="V1" workbookViewId="0">
+      <selection activeCell="AL11" sqref="AL11"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <sheetData>
-    <row r="1" spans="1:38" ht="16">
-      <c r="A1" s="81" t="s">
+    <row r="1" spans="1:38" ht="16" x14ac:dyDescent="0.2">
+      <c r="A1" s="80" t="s">
         <v>123</v>
       </c>
-      <c r="B1" s="81" t="s">
+      <c r="B1" s="80" t="s">
         <v>124</v>
       </c>
-      <c r="C1" s="81" t="s">
+      <c r="C1" s="80" t="s">
         <v>125</v>
       </c>
-      <c r="D1" s="81" t="s">
+      <c r="D1" s="80" t="s">
         <v>126</v>
       </c>
-      <c r="E1" s="81" t="s">
+      <c r="E1" s="80" t="s">
         <v>127</v>
       </c>
-      <c r="F1" s="81" t="s">
+      <c r="F1" s="80" t="s">
         <v>600</v>
       </c>
-      <c r="G1" s="81" t="s">
+      <c r="G1" s="80" t="s">
         <v>601</v>
       </c>
-      <c r="H1" s="81" t="s">
+      <c r="H1" s="80" t="s">
         <v>602</v>
       </c>
-      <c r="I1" s="81" t="s">
+      <c r="I1" s="80" t="s">
         <v>603</v>
       </c>
-      <c r="J1" s="81" t="s">
+      <c r="J1" s="80" t="s">
         <v>604</v>
       </c>
-      <c r="K1" s="81" t="s">
+      <c r="K1" s="80" t="s">
         <v>602</v>
       </c>
-      <c r="L1" s="81" t="s">
+      <c r="L1" s="80" t="s">
         <v>605</v>
       </c>
-      <c r="M1" s="81" t="s">
+      <c r="M1" s="80" t="s">
         <v>606</v>
       </c>
-      <c r="N1" s="81" t="s">
+      <c r="N1" s="80" t="s">
         <v>602</v>
       </c>
-      <c r="O1" s="81" t="s">
+      <c r="O1" s="80" t="s">
         <v>607</v>
       </c>
-      <c r="P1" s="81" t="s">
+      <c r="P1" s="80" t="s">
         <v>608</v>
       </c>
-      <c r="Q1" s="81" t="s">
+      <c r="Q1" s="80" t="s">
         <v>602</v>
       </c>
-      <c r="R1" s="81" t="s">
+      <c r="R1" s="80" t="s">
         <v>609</v>
       </c>
-      <c r="S1" s="81" t="s">
+      <c r="S1" s="80" t="s">
         <v>610</v>
       </c>
-      <c r="T1" s="81" t="s">
+      <c r="T1" s="80" t="s">
         <v>602</v>
       </c>
-      <c r="U1" s="81" t="s">
+      <c r="U1" s="80" t="s">
         <v>611</v>
       </c>
-      <c r="V1" s="81" t="s">
+      <c r="V1" s="80" t="s">
         <v>612</v>
       </c>
-      <c r="W1" s="81" t="s">
+      <c r="W1" s="80" t="s">
         <v>602</v>
       </c>
-      <c r="X1" s="79" t="s">
+      <c r="X1" s="78" t="s">
         <v>613</v>
       </c>
-      <c r="Y1" s="79" t="s">
+      <c r="Y1" s="78" t="s">
         <v>614</v>
       </c>
-      <c r="Z1" s="79" t="s">
+      <c r="Z1" s="78" t="s">
         <v>602</v>
       </c>
-      <c r="AA1" s="79" t="s">
+      <c r="AA1" s="78" t="s">
         <v>615</v>
       </c>
-      <c r="AB1" s="79" t="s">
+      <c r="AB1" s="78" t="s">
         <v>616</v>
       </c>
-      <c r="AC1" s="80" t="s">
+      <c r="AC1" s="79" t="s">
         <v>617</v>
       </c>
-      <c r="AD1" s="80" t="s">
+      <c r="AD1" s="79" t="s">
         <v>618</v>
       </c>
-      <c r="AE1" s="80" t="s">
+      <c r="AE1" s="79" t="s">
         <v>619</v>
       </c>
-      <c r="AF1" s="80" t="s">
+      <c r="AF1" s="79" t="s">
         <v>620</v>
       </c>
-      <c r="AG1" s="80" t="s">
+      <c r="AG1" s="79" t="s">
         <v>621</v>
       </c>
-      <c r="AH1" s="80" t="s">
+      <c r="AH1" s="79" t="s">
         <v>622</v>
       </c>
-      <c r="AI1" s="82" t="s">
+      <c r="AI1" s="81" t="s">
         <v>623</v>
       </c>
-      <c r="AJ1" s="79" t="s">
+      <c r="AJ1" s="78" t="s">
         <v>624</v>
       </c>
-      <c r="AK1" s="79" t="s">
+      <c r="AK1" s="78" t="s">
         <v>625</v>
       </c>
-      <c r="AL1" s="79" t="s">
+      <c r="AL1" s="78" t="s">
         <v>626</v>
       </c>
     </row>
-    <row r="2" spans="1:38" s="10" customFormat="1" ht="31">
-      <c r="A2" s="73" t="s">
-        <v>133</v>
-      </c>
-      <c r="B2" s="73" t="s">
-        <v>137</v>
-      </c>
-      <c r="C2" s="73" t="s">
-        <v>130</v>
-      </c>
-      <c r="D2" s="73" t="s">
-        <v>627</v>
-      </c>
-      <c r="E2" s="73" t="s">
-        <v>628</v>
-      </c>
-      <c r="F2" s="74" t="s">
-        <v>830</v>
-      </c>
-      <c r="G2" s="74" t="s">
-        <v>831</v>
-      </c>
-      <c r="H2" s="74" t="s">
-        <v>59</v>
-      </c>
-      <c r="I2" s="75"/>
-      <c r="J2" s="75"/>
-      <c r="K2" s="75"/>
-      <c r="L2" s="75"/>
-      <c r="M2" s="75"/>
-      <c r="N2" s="75"/>
-      <c r="O2" s="75"/>
-      <c r="P2" s="75"/>
-      <c r="Q2" s="75"/>
+    <row r="2" spans="1:38" s="10" customFormat="1" ht="18" x14ac:dyDescent="0.2">
+      <c r="A2" s="104" t="s">
+        <v>651</v>
+      </c>
+      <c r="B2" s="104" t="s">
+        <v>1067</v>
+      </c>
+      <c r="C2" s="104" t="s">
+        <v>1068</v>
+      </c>
+      <c r="D2" s="104" t="s">
+        <v>1069</v>
+      </c>
+      <c r="E2" s="105" t="s">
+        <v>1070</v>
+      </c>
+      <c r="F2" s="73"/>
+      <c r="G2" s="73"/>
+      <c r="H2" s="73"/>
+      <c r="I2" s="74"/>
+      <c r="J2" s="74"/>
+      <c r="K2" s="74"/>
+      <c r="L2" s="74"/>
+      <c r="M2" s="74"/>
+      <c r="N2" s="74"/>
+      <c r="O2" s="74"/>
+      <c r="P2" s="74"/>
+      <c r="Q2" s="74"/>
       <c r="AA2" s="28" t="s">
-        <v>49</v>
+        <v>1071</v>
       </c>
       <c r="AB2" s="29">
-        <v>24</v>
-      </c>
-      <c r="AC2" s="28" t="s">
-        <v>40</v>
-      </c>
-      <c r="AD2" s="29">
-        <v>24</v>
-      </c>
+        <v>0.6</v>
+      </c>
+      <c r="AC2" s="28"/>
+      <c r="AD2" s="29"/>
       <c r="AI2" s="10">
         <f>SUM(AB2,AD2,AF2,AH2)</f>
-        <v>48</v>
-      </c>
-      <c r="AJ2" s="77" t="s">
-        <v>49</v>
-      </c>
-      <c r="AK2" s="76" t="s">
-        <v>886</v>
+        <v>0.6</v>
+      </c>
+      <c r="AJ2" s="76" t="s">
+        <v>1071</v>
+      </c>
+      <c r="AK2" s="75" t="s">
+        <v>22</v>
       </c>
     </row>
   </sheetData>
@@ -6594,6 +7103,172 @@
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7042729C-14BD-D341-B0A6-F6591292F392}">
+  <dimension ref="A1:H2"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="H2" sqref="H2"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <sheetData>
+    <row r="1" spans="1:8" ht="16" x14ac:dyDescent="0.2">
+      <c r="A1" s="65" t="s">
+        <v>1072</v>
+      </c>
+      <c r="B1" s="65" t="s">
+        <v>1081</v>
+      </c>
+      <c r="C1" s="65" t="s">
+        <v>1082</v>
+      </c>
+      <c r="D1" s="65" t="s">
+        <v>1083</v>
+      </c>
+      <c r="E1" s="65" t="s">
+        <v>624</v>
+      </c>
+      <c r="F1" s="65" t="s">
+        <v>625</v>
+      </c>
+      <c r="G1" s="65" t="s">
+        <v>1084</v>
+      </c>
+      <c r="H1" s="65" t="s">
+        <v>1085</v>
+      </c>
+    </row>
+    <row r="2" spans="1:8" ht="16" x14ac:dyDescent="0.2">
+      <c r="A2" s="107" t="s">
+        <v>1070</v>
+      </c>
+      <c r="B2" s="78"/>
+      <c r="C2" s="78"/>
+      <c r="D2" s="107" t="s">
+        <v>1071</v>
+      </c>
+      <c r="E2" s="107" t="s">
+        <v>1071</v>
+      </c>
+      <c r="F2" s="107" t="s">
+        <v>22</v>
+      </c>
+      <c r="G2" s="107" t="s">
+        <v>66</v>
+      </c>
+      <c r="H2" s="65">
+        <v>-1</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <legacyDrawing r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3DB89A64-3350-9640-A37A-9D8F68EE3EB7}">
+  <dimension ref="A1:R2"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection sqref="A1:R2"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <sheetData>
+    <row r="1" spans="1:18" ht="16" x14ac:dyDescent="0.2">
+      <c r="A1" s="65" t="s">
+        <v>1072</v>
+      </c>
+      <c r="B1" s="65" t="s">
+        <v>1073</v>
+      </c>
+      <c r="C1" s="65" t="s">
+        <v>1074</v>
+      </c>
+      <c r="D1" s="15" t="s">
+        <v>1075</v>
+      </c>
+      <c r="E1" s="15" t="s">
+        <v>1076</v>
+      </c>
+      <c r="F1" s="15" t="s">
+        <v>1077</v>
+      </c>
+      <c r="G1" s="15" t="s">
+        <v>1078</v>
+      </c>
+      <c r="H1" s="15" t="s">
+        <v>1079</v>
+      </c>
+      <c r="I1" s="65" t="s">
+        <v>615</v>
+      </c>
+      <c r="J1" s="65" t="s">
+        <v>616</v>
+      </c>
+      <c r="K1" s="65" t="s">
+        <v>617</v>
+      </c>
+      <c r="L1" s="65" t="s">
+        <v>618</v>
+      </c>
+      <c r="M1" s="65" t="s">
+        <v>619</v>
+      </c>
+      <c r="N1" s="65" t="s">
+        <v>620</v>
+      </c>
+      <c r="O1" s="65" t="s">
+        <v>621</v>
+      </c>
+      <c r="P1" s="65" t="s">
+        <v>622</v>
+      </c>
+      <c r="Q1" s="106" t="s">
+        <v>623</v>
+      </c>
+      <c r="R1" s="65" t="s">
+        <v>1080</v>
+      </c>
+    </row>
+    <row r="2" spans="1:18" ht="16" x14ac:dyDescent="0.2">
+      <c r="A2" s="107" t="s">
+        <v>1070</v>
+      </c>
+      <c r="B2" s="78"/>
+      <c r="C2" s="78"/>
+      <c r="D2" s="78"/>
+      <c r="E2" s="78"/>
+      <c r="F2" s="78"/>
+      <c r="G2" s="78"/>
+      <c r="H2" s="78"/>
+      <c r="I2" s="107" t="s">
+        <v>1071</v>
+      </c>
+      <c r="J2" s="78">
+        <v>0.6</v>
+      </c>
+      <c r="K2" s="78"/>
+      <c r="L2" s="78"/>
+      <c r="M2" s="78"/>
+      <c r="N2" s="78"/>
+      <c r="O2" s="78"/>
+      <c r="P2" s="78"/>
+      <c r="Q2" s="78">
+        <v>0.6</v>
+      </c>
+      <c r="R2" s="78" t="b">
+        <v>1</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <legacyDrawing r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0400-000000000000}">
   <dimension ref="A1:F2"/>
   <sheetViews>
@@ -6601,9 +7276,9 @@
       <selection activeCell="D10" sqref="D10"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <sheetData>
-    <row r="1" spans="1:6" ht="16">
+    <row r="1" spans="1:6" ht="16" x14ac:dyDescent="0.2">
       <c r="A1" s="40" t="s">
         <v>123</v>
       </c>
@@ -6623,7 +7298,7 @@
         <v>128</v>
       </c>
     </row>
-    <row r="2" spans="1:6">
+    <row r="2" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A2" s="31" t="s">
         <v>129</v>
       </c>
@@ -6646,7 +7321,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0500-000000000000}">
   <dimension ref="A1:AL96"/>
   <sheetViews>
@@ -6654,9 +7329,9 @@
       <selection activeCell="A2" sqref="A2:XFD3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <sheetData>
-    <row r="1" spans="1:38" ht="16">
+    <row r="1" spans="1:38" ht="16" x14ac:dyDescent="0.2">
       <c r="A1" s="43" t="s">
         <v>123</v>
       </c>
@@ -6772,7 +7447,7 @@
         <v>626</v>
       </c>
     </row>
-    <row r="2" spans="1:38" ht="31">
+    <row r="2" spans="1:38" ht="31" x14ac:dyDescent="0.2">
       <c r="A2" s="46" t="s">
         <v>133</v>
       </c>
@@ -6832,7 +7507,7 @@
         <v>892</v>
       </c>
     </row>
-    <row r="3" spans="1:38" ht="31">
+    <row r="3" spans="1:38" ht="31" x14ac:dyDescent="0.2">
       <c r="A3" s="46" t="s">
         <v>129</v>
       </c>
@@ -6892,7 +7567,7 @@
         <v>893</v>
       </c>
     </row>
-    <row r="4" spans="1:38" ht="31">
+    <row r="4" spans="1:38" ht="31" x14ac:dyDescent="0.2">
       <c r="A4" s="46" t="s">
         <v>129</v>
       </c>
@@ -6952,7 +7627,7 @@
         <v>894</v>
       </c>
     </row>
-    <row r="5" spans="1:38" ht="31">
+    <row r="5" spans="1:38" ht="31" x14ac:dyDescent="0.2">
       <c r="A5" s="46" t="s">
         <v>129</v>
       </c>
@@ -7012,7 +7687,7 @@
         <v>895</v>
       </c>
     </row>
-    <row r="6" spans="1:38" ht="31">
+    <row r="6" spans="1:38" ht="31" x14ac:dyDescent="0.2">
       <c r="A6" s="46" t="s">
         <v>129</v>
       </c>
@@ -7072,7 +7747,7 @@
         <v>896</v>
       </c>
     </row>
-    <row r="7" spans="1:38" ht="31">
+    <row r="7" spans="1:38" ht="31" x14ac:dyDescent="0.2">
       <c r="A7" s="46" t="s">
         <v>129</v>
       </c>
@@ -7132,7 +7807,7 @@
         <v>897</v>
       </c>
     </row>
-    <row r="8" spans="1:38" ht="31">
+    <row r="8" spans="1:38" ht="31" x14ac:dyDescent="0.2">
       <c r="A8" s="46" t="s">
         <v>129</v>
       </c>
@@ -7192,7 +7867,7 @@
         <v>898</v>
       </c>
     </row>
-    <row r="9" spans="1:38" ht="31">
+    <row r="9" spans="1:38" ht="31" x14ac:dyDescent="0.2">
       <c r="A9" s="46" t="s">
         <v>129</v>
       </c>
@@ -7249,7 +7924,7 @@
         <v>886</v>
       </c>
     </row>
-    <row r="10" spans="1:38" ht="31">
+    <row r="10" spans="1:38" ht="31" x14ac:dyDescent="0.2">
       <c r="A10" s="46" t="s">
         <v>133</v>
       </c>
@@ -7306,7 +7981,7 @@
         <v>886</v>
       </c>
     </row>
-    <row r="11" spans="1:38" ht="31">
+    <row r="11" spans="1:38" ht="31" x14ac:dyDescent="0.2">
       <c r="A11" s="46" t="s">
         <v>133</v>
       </c>
@@ -7363,7 +8038,7 @@
         <v>886</v>
       </c>
     </row>
-    <row r="12" spans="1:38" ht="31">
+    <row r="12" spans="1:38" ht="31" x14ac:dyDescent="0.2">
       <c r="A12" s="46" t="s">
         <v>207</v>
       </c>
@@ -7403,7 +8078,7 @@
       <c r="AD12" s="62"/>
       <c r="AI12" s="10"/>
     </row>
-    <row r="13" spans="1:38" ht="31">
+    <row r="13" spans="1:38" ht="31" x14ac:dyDescent="0.2">
       <c r="A13" s="46" t="s">
         <v>129</v>
       </c>
@@ -7460,7 +8135,7 @@
         <v>886</v>
       </c>
     </row>
-    <row r="14" spans="1:38" ht="31">
+    <row r="14" spans="1:38" ht="31" x14ac:dyDescent="0.2">
       <c r="A14" s="48" t="s">
         <v>651</v>
       </c>
@@ -7517,7 +8192,7 @@
         <v>886</v>
       </c>
     </row>
-    <row r="15" spans="1:38" ht="31">
+    <row r="15" spans="1:38" ht="31" x14ac:dyDescent="0.2">
       <c r="A15" s="48" t="s">
         <v>651</v>
       </c>
@@ -7574,7 +8249,7 @@
         <v>886</v>
       </c>
     </row>
-    <row r="16" spans="1:38" ht="31">
+    <row r="16" spans="1:38" ht="31" x14ac:dyDescent="0.2">
       <c r="A16" s="48" t="s">
         <v>651</v>
       </c>
@@ -7631,7 +8306,7 @@
         <v>886</v>
       </c>
     </row>
-    <row r="17" spans="1:37" ht="31">
+    <row r="17" spans="1:37" ht="31" x14ac:dyDescent="0.2">
       <c r="A17" s="48" t="s">
         <v>651</v>
       </c>
@@ -7688,7 +8363,7 @@
         <v>886</v>
       </c>
     </row>
-    <row r="18" spans="1:37" ht="31">
+    <row r="18" spans="1:37" ht="31" x14ac:dyDescent="0.2">
       <c r="A18" s="48" t="s">
         <v>651</v>
       </c>
@@ -7745,7 +8420,7 @@
         <v>886</v>
       </c>
     </row>
-    <row r="19" spans="1:37" ht="31">
+    <row r="19" spans="1:37" ht="31" x14ac:dyDescent="0.2">
       <c r="A19" s="48" t="s">
         <v>651</v>
       </c>
@@ -7802,7 +8477,7 @@
         <v>886</v>
       </c>
     </row>
-    <row r="20" spans="1:37" ht="31">
+    <row r="20" spans="1:37" ht="31" x14ac:dyDescent="0.2">
       <c r="A20" s="48" t="s">
         <v>651</v>
       </c>
@@ -7859,7 +8534,7 @@
         <v>886</v>
       </c>
     </row>
-    <row r="21" spans="1:37" ht="31">
+    <row r="21" spans="1:37" ht="31" x14ac:dyDescent="0.2">
       <c r="A21" s="48" t="s">
         <v>651</v>
       </c>
@@ -7916,7 +8591,7 @@
         <v>886</v>
       </c>
     </row>
-    <row r="22" spans="1:37" ht="31">
+    <row r="22" spans="1:37" ht="31" x14ac:dyDescent="0.2">
       <c r="A22" s="46" t="s">
         <v>133</v>
       </c>
@@ -7973,7 +8648,7 @@
         <v>886</v>
       </c>
     </row>
-    <row r="23" spans="1:37" ht="31">
+    <row r="23" spans="1:37" ht="31" x14ac:dyDescent="0.2">
       <c r="A23" s="50" t="s">
         <v>129</v>
       </c>
@@ -8013,7 +8688,7 @@
       <c r="AD23" s="63"/>
       <c r="AI23" s="10"/>
     </row>
-    <row r="24" spans="1:37" ht="31">
+    <row r="24" spans="1:37" ht="31" x14ac:dyDescent="0.2">
       <c r="A24" s="46" t="s">
         <v>129</v>
       </c>
@@ -8063,14 +8738,14 @@
         <f t="shared" si="0"/>
         <v>30</v>
       </c>
-      <c r="AJ24" s="77" t="s">
+      <c r="AJ24" s="76" t="s">
         <v>50</v>
       </c>
-      <c r="AK24" s="76" t="s">
+      <c r="AK24" s="75" t="s">
         <v>886</v>
       </c>
     </row>
-    <row r="25" spans="1:37" ht="31">
+    <row r="25" spans="1:37" ht="31" x14ac:dyDescent="0.2">
       <c r="A25" s="46" t="s">
         <v>129</v>
       </c>
@@ -8120,14 +8795,14 @@
         <f t="shared" si="0"/>
         <v>30</v>
       </c>
-      <c r="AJ25" s="77" t="s">
+      <c r="AJ25" s="76" t="s">
         <v>50</v>
       </c>
-      <c r="AK25" s="76" t="s">
+      <c r="AK25" s="75" t="s">
         <v>886</v>
       </c>
     </row>
-    <row r="26" spans="1:37" ht="31">
+    <row r="26" spans="1:37" ht="31" x14ac:dyDescent="0.2">
       <c r="A26" s="46" t="s">
         <v>129</v>
       </c>
@@ -8177,14 +8852,14 @@
         <f t="shared" si="0"/>
         <v>30</v>
       </c>
-      <c r="AJ26" s="77" t="s">
+      <c r="AJ26" s="76" t="s">
         <v>50</v>
       </c>
-      <c r="AK26" s="76" t="s">
+      <c r="AK26" s="75" t="s">
         <v>886</v>
       </c>
     </row>
-    <row r="27" spans="1:37" ht="31">
+    <row r="27" spans="1:37" ht="31" x14ac:dyDescent="0.2">
       <c r="A27" s="45" t="s">
         <v>129</v>
       </c>
@@ -8234,14 +8909,14 @@
         <f t="shared" si="0"/>
         <v>30</v>
       </c>
-      <c r="AJ27" s="77" t="s">
+      <c r="AJ27" s="76" t="s">
         <v>887</v>
       </c>
-      <c r="AK27" s="76" t="s">
+      <c r="AK27" s="75" t="s">
         <v>886</v>
       </c>
     </row>
-    <row r="28" spans="1:37" ht="31">
+    <row r="28" spans="1:37" ht="31" x14ac:dyDescent="0.2">
       <c r="A28" s="46" t="s">
         <v>133</v>
       </c>
@@ -8291,14 +8966,14 @@
         <f t="shared" si="0"/>
         <v>30</v>
       </c>
-      <c r="AJ28" s="77" t="s">
+      <c r="AJ28" s="76" t="s">
         <v>887</v>
       </c>
-      <c r="AK28" s="76" t="s">
+      <c r="AK28" s="75" t="s">
         <v>886</v>
       </c>
     </row>
-    <row r="29" spans="1:37" ht="31">
+    <row r="29" spans="1:37" ht="31" x14ac:dyDescent="0.2">
       <c r="A29" s="46" t="s">
         <v>129</v>
       </c>
@@ -8348,14 +9023,14 @@
         <f t="shared" si="0"/>
         <v>30</v>
       </c>
-      <c r="AJ29" s="77" t="s">
+      <c r="AJ29" s="76" t="s">
         <v>50</v>
       </c>
-      <c r="AK29" s="76" t="s">
+      <c r="AK29" s="75" t="s">
         <v>886</v>
       </c>
     </row>
-    <row r="30" spans="1:37" ht="31">
+    <row r="30" spans="1:37" ht="31" x14ac:dyDescent="0.2">
       <c r="A30" s="46" t="s">
         <v>129</v>
       </c>
@@ -8405,14 +9080,14 @@
         <f t="shared" si="0"/>
         <v>72</v>
       </c>
-      <c r="AJ30" s="77" t="s">
+      <c r="AJ30" s="76" t="s">
         <v>50</v>
       </c>
-      <c r="AK30" s="76" t="s">
+      <c r="AK30" s="75" t="s">
         <v>886</v>
       </c>
     </row>
-    <row r="31" spans="1:37" ht="46">
+    <row r="31" spans="1:37" ht="46" x14ac:dyDescent="0.2">
       <c r="A31" s="50" t="s">
         <v>129</v>
       </c>
@@ -8480,14 +9155,14 @@
         <f t="shared" si="0"/>
         <v>48</v>
       </c>
-      <c r="AJ31" s="78" t="s">
+      <c r="AJ31" s="77" t="s">
         <v>41</v>
       </c>
-      <c r="AK31" s="76" t="s">
+      <c r="AK31" s="75" t="s">
         <v>886</v>
       </c>
     </row>
-    <row r="32" spans="1:37" ht="46">
+    <row r="32" spans="1:37" ht="46" x14ac:dyDescent="0.2">
       <c r="A32" s="46" t="s">
         <v>129</v>
       </c>
@@ -8555,14 +9230,14 @@
         <f t="shared" si="0"/>
         <v>72</v>
       </c>
-      <c r="AJ32" s="77" t="s">
+      <c r="AJ32" s="76" t="s">
         <v>49</v>
       </c>
-      <c r="AK32" s="76" t="s">
+      <c r="AK32" s="75" t="s">
         <v>886</v>
       </c>
     </row>
-    <row r="33" spans="1:37" ht="46">
+    <row r="33" spans="1:37" ht="46" x14ac:dyDescent="0.2">
       <c r="A33" s="45" t="s">
         <v>129</v>
       </c>
@@ -8630,14 +9305,14 @@
         <f t="shared" si="0"/>
         <v>72</v>
       </c>
-      <c r="AJ33" s="77" t="s">
+      <c r="AJ33" s="76" t="s">
         <v>49</v>
       </c>
-      <c r="AK33" s="76" t="s">
+      <c r="AK33" s="75" t="s">
         <v>886</v>
       </c>
     </row>
-    <row r="34" spans="1:37" ht="46">
+    <row r="34" spans="1:37" ht="46" x14ac:dyDescent="0.2">
       <c r="A34" s="46" t="s">
         <v>129</v>
       </c>
@@ -8705,14 +9380,14 @@
         <f t="shared" si="0"/>
         <v>30</v>
       </c>
-      <c r="AJ34" s="77" t="s">
+      <c r="AJ34" s="76" t="s">
         <v>49</v>
       </c>
-      <c r="AK34" s="76" t="s">
+      <c r="AK34" s="75" t="s">
         <v>886</v>
       </c>
     </row>
-    <row r="35" spans="1:37" ht="46">
+    <row r="35" spans="1:37" ht="46" x14ac:dyDescent="0.2">
       <c r="A35" s="46" t="s">
         <v>129</v>
       </c>
@@ -8780,14 +9455,14 @@
         <f t="shared" si="0"/>
         <v>48</v>
       </c>
-      <c r="AJ35" s="77" t="s">
+      <c r="AJ35" s="76" t="s">
         <v>49</v>
       </c>
-      <c r="AK35" s="76" t="s">
+      <c r="AK35" s="75" t="s">
         <v>886</v>
       </c>
     </row>
-    <row r="36" spans="1:37" ht="46">
+    <row r="36" spans="1:37" ht="46" x14ac:dyDescent="0.2">
       <c r="A36" s="46" t="s">
         <v>129</v>
       </c>
@@ -8855,14 +9530,14 @@
         <f t="shared" si="0"/>
         <v>72</v>
       </c>
-      <c r="AJ36" s="77" t="s">
+      <c r="AJ36" s="76" t="s">
         <v>49</v>
       </c>
-      <c r="AK36" s="76" t="s">
+      <c r="AK36" s="75" t="s">
         <v>886</v>
       </c>
     </row>
-    <row r="37" spans="1:37" ht="46">
+    <row r="37" spans="1:37" ht="46" x14ac:dyDescent="0.2">
       <c r="A37" s="50" t="s">
         <v>129</v>
       </c>
@@ -8930,14 +9605,14 @@
         <f t="shared" si="0"/>
         <v>48</v>
       </c>
-      <c r="AJ37" s="77" t="s">
+      <c r="AJ37" s="76" t="s">
         <v>49</v>
       </c>
-      <c r="AK37" s="76" t="s">
+      <c r="AK37" s="75" t="s">
         <v>886</v>
       </c>
     </row>
-    <row r="38" spans="1:37" ht="46">
+    <row r="38" spans="1:37" ht="46" x14ac:dyDescent="0.2">
       <c r="A38" s="45" t="s">
         <v>129</v>
       </c>
@@ -9005,14 +9680,14 @@
         <f t="shared" si="0"/>
         <v>48</v>
       </c>
-      <c r="AJ38" s="77" t="s">
+      <c r="AJ38" s="76" t="s">
         <v>41</v>
       </c>
-      <c r="AK38" s="76" t="s">
+      <c r="AK38" s="75" t="s">
         <v>886</v>
       </c>
     </row>
-    <row r="39" spans="1:37" ht="31">
+    <row r="39" spans="1:37" ht="31" x14ac:dyDescent="0.2">
       <c r="A39" s="46" t="s">
         <v>133</v>
       </c>
@@ -9062,14 +9737,14 @@
         <f t="shared" si="0"/>
         <v>48</v>
       </c>
-      <c r="AJ39" s="77" t="s">
+      <c r="AJ39" s="76" t="s">
         <v>40</v>
       </c>
-      <c r="AK39" s="76" t="s">
+      <c r="AK39" s="75" t="s">
         <v>886</v>
       </c>
     </row>
-    <row r="40" spans="1:37" ht="31">
+    <row r="40" spans="1:37" ht="31" x14ac:dyDescent="0.2">
       <c r="A40" s="46" t="s">
         <v>129</v>
       </c>
@@ -9119,14 +9794,14 @@
         <f t="shared" si="0"/>
         <v>72</v>
       </c>
-      <c r="AJ40" s="77" t="s">
+      <c r="AJ40" s="76" t="s">
         <v>841</v>
       </c>
-      <c r="AK40" s="76" t="s">
+      <c r="AK40" s="75" t="s">
         <v>886</v>
       </c>
     </row>
-    <row r="41" spans="1:37" ht="31">
+    <row r="41" spans="1:37" ht="31" x14ac:dyDescent="0.2">
       <c r="A41" s="46" t="s">
         <v>129</v>
       </c>
@@ -9176,14 +9851,14 @@
         <f t="shared" si="0"/>
         <v>72</v>
       </c>
-      <c r="AJ41" s="77" t="s">
+      <c r="AJ41" s="76" t="s">
         <v>841</v>
       </c>
-      <c r="AK41" s="76" t="s">
+      <c r="AK41" s="75" t="s">
         <v>886</v>
       </c>
     </row>
-    <row r="42" spans="1:37" ht="31">
+    <row r="42" spans="1:37" ht="31" x14ac:dyDescent="0.2">
       <c r="A42" s="46" t="s">
         <v>133</v>
       </c>
@@ -9233,14 +9908,14 @@
         <f t="shared" si="0"/>
         <v>72</v>
       </c>
-      <c r="AJ42" s="77" t="s">
+      <c r="AJ42" s="76" t="s">
         <v>841</v>
       </c>
-      <c r="AK42" s="76" t="s">
+      <c r="AK42" s="75" t="s">
         <v>886</v>
       </c>
     </row>
-    <row r="43" spans="1:37" ht="31">
+    <row r="43" spans="1:37" ht="31" x14ac:dyDescent="0.2">
       <c r="A43" s="50" t="s">
         <v>133</v>
       </c>
@@ -9290,14 +9965,14 @@
         <f t="shared" si="0"/>
         <v>48</v>
       </c>
-      <c r="AJ43" s="78" t="s">
+      <c r="AJ43" s="77" t="s">
         <v>34</v>
       </c>
-      <c r="AK43" s="76" t="s">
+      <c r="AK43" s="75" t="s">
         <v>886</v>
       </c>
     </row>
-    <row r="44" spans="1:37" ht="31">
+    <row r="44" spans="1:37" ht="31" x14ac:dyDescent="0.2">
       <c r="A44" s="46" t="s">
         <v>129</v>
       </c>
@@ -9347,14 +10022,14 @@
         <f t="shared" si="0"/>
         <v>48</v>
       </c>
-      <c r="AJ44" s="78" t="s">
+      <c r="AJ44" s="77" t="s">
         <v>34</v>
       </c>
-      <c r="AK44" s="76" t="s">
+      <c r="AK44" s="75" t="s">
         <v>886</v>
       </c>
     </row>
-    <row r="45" spans="1:37" ht="31">
+    <row r="45" spans="1:37" ht="31" x14ac:dyDescent="0.2">
       <c r="A45" s="46" t="s">
         <v>133</v>
       </c>
@@ -9404,14 +10079,14 @@
         <f t="shared" si="0"/>
         <v>72</v>
       </c>
-      <c r="AJ45" s="78" t="s">
+      <c r="AJ45" s="77" t="s">
         <v>34</v>
       </c>
-      <c r="AK45" s="76" t="s">
+      <c r="AK45" s="75" t="s">
         <v>886</v>
       </c>
     </row>
-    <row r="46" spans="1:37" ht="31">
+    <row r="46" spans="1:37" ht="31" x14ac:dyDescent="0.2">
       <c r="A46" s="46" t="s">
         <v>129</v>
       </c>
@@ -9461,14 +10136,14 @@
         <f t="shared" si="0"/>
         <v>72</v>
       </c>
-      <c r="AJ46" s="77" t="s">
+      <c r="AJ46" s="76" t="s">
         <v>841</v>
       </c>
-      <c r="AK46" s="76" t="s">
+      <c r="AK46" s="75" t="s">
         <v>886</v>
       </c>
     </row>
-    <row r="47" spans="1:37" ht="31">
+    <row r="47" spans="1:37" ht="31" x14ac:dyDescent="0.2">
       <c r="A47" s="46" t="s">
         <v>129</v>
       </c>
@@ -9518,14 +10193,14 @@
         <f t="shared" si="0"/>
         <v>72</v>
       </c>
-      <c r="AJ47" s="78" t="s">
+      <c r="AJ47" s="77" t="s">
         <v>34</v>
       </c>
-      <c r="AK47" s="76" t="s">
+      <c r="AK47" s="75" t="s">
         <v>20</v>
       </c>
     </row>
-    <row r="48" spans="1:37" ht="31">
+    <row r="48" spans="1:37" ht="31" x14ac:dyDescent="0.2">
       <c r="A48" s="46" t="s">
         <v>133</v>
       </c>
@@ -9575,14 +10250,14 @@
         <f t="shared" si="0"/>
         <v>30</v>
       </c>
-      <c r="AJ48" s="78" t="s">
+      <c r="AJ48" s="77" t="s">
         <v>34</v>
       </c>
-      <c r="AK48" s="76" t="s">
+      <c r="AK48" s="75" t="s">
         <v>886</v>
       </c>
     </row>
-    <row r="49" spans="1:37" ht="31">
+    <row r="49" spans="1:37" ht="31" x14ac:dyDescent="0.2">
       <c r="A49" s="46" t="s">
         <v>129</v>
       </c>
@@ -9632,14 +10307,14 @@
         <f t="shared" si="0"/>
         <v>48</v>
       </c>
-      <c r="AJ49" s="78" t="s">
+      <c r="AJ49" s="77" t="s">
         <v>34</v>
       </c>
-      <c r="AK49" s="76" t="s">
+      <c r="AK49" s="75" t="s">
         <v>20</v>
       </c>
     </row>
-    <row r="50" spans="1:37" ht="31">
+    <row r="50" spans="1:37" ht="31" x14ac:dyDescent="0.2">
       <c r="A50" s="46" t="s">
         <v>129</v>
       </c>
@@ -9689,14 +10364,14 @@
         <f t="shared" si="0"/>
         <v>27</v>
       </c>
-      <c r="AJ50" s="78" t="s">
+      <c r="AJ50" s="77" t="s">
         <v>34</v>
       </c>
-      <c r="AK50" s="76" t="s">
+      <c r="AK50" s="75" t="s">
         <v>20</v>
       </c>
     </row>
-    <row r="51" spans="1:37" ht="31">
+    <row r="51" spans="1:37" ht="31" x14ac:dyDescent="0.2">
       <c r="A51" s="46" t="s">
         <v>129</v>
       </c>
@@ -9746,14 +10421,14 @@
         <f t="shared" si="0"/>
         <v>27</v>
       </c>
-      <c r="AJ51" s="78" t="s">
+      <c r="AJ51" s="77" t="s">
         <v>34</v>
       </c>
-      <c r="AK51" s="76" t="s">
+      <c r="AK51" s="75" t="s">
         <v>886</v>
       </c>
     </row>
-    <row r="52" spans="1:37" ht="31">
+    <row r="52" spans="1:37" ht="31" x14ac:dyDescent="0.2">
       <c r="A52" s="46" t="s">
         <v>129</v>
       </c>
@@ -9803,14 +10478,14 @@
         <f t="shared" si="0"/>
         <v>30</v>
       </c>
-      <c r="AJ52" s="78" t="s">
+      <c r="AJ52" s="77" t="s">
         <v>34</v>
       </c>
-      <c r="AK52" s="76" t="s">
+      <c r="AK52" s="75" t="s">
         <v>20</v>
       </c>
     </row>
-    <row r="53" spans="1:37" ht="31">
+    <row r="53" spans="1:37" ht="31" x14ac:dyDescent="0.2">
       <c r="A53" s="46" t="s">
         <v>129</v>
       </c>
@@ -9860,14 +10535,14 @@
         <f t="shared" si="0"/>
         <v>48</v>
       </c>
-      <c r="AJ53" s="78" t="s">
+      <c r="AJ53" s="77" t="s">
         <v>34</v>
       </c>
-      <c r="AK53" s="76" t="s">
+      <c r="AK53" s="75" t="s">
         <v>886</v>
       </c>
     </row>
-    <row r="54" spans="1:37" ht="31">
+    <row r="54" spans="1:37" ht="31" x14ac:dyDescent="0.2">
       <c r="A54" s="46" t="s">
         <v>133</v>
       </c>
@@ -9917,14 +10592,14 @@
         <f t="shared" si="0"/>
         <v>48</v>
       </c>
-      <c r="AJ54" s="77" t="s">
+      <c r="AJ54" s="76" t="s">
         <v>49</v>
       </c>
-      <c r="AK54" s="76" t="s">
+      <c r="AK54" s="75" t="s">
         <v>886</v>
       </c>
     </row>
-    <row r="55" spans="1:37" ht="31">
+    <row r="55" spans="1:37" ht="31" x14ac:dyDescent="0.2">
       <c r="A55" s="46" t="s">
         <v>133</v>
       </c>
@@ -9974,14 +10649,14 @@
         <f t="shared" si="0"/>
         <v>72</v>
       </c>
-      <c r="AJ55" s="77" t="s">
+      <c r="AJ55" s="76" t="s">
         <v>40</v>
       </c>
-      <c r="AK55" s="76" t="s">
+      <c r="AK55" s="75" t="s">
         <v>886</v>
       </c>
     </row>
-    <row r="56" spans="1:37" ht="31">
+    <row r="56" spans="1:37" ht="31" x14ac:dyDescent="0.2">
       <c r="A56" s="46" t="s">
         <v>133</v>
       </c>
@@ -10031,14 +10706,14 @@
         <f t="shared" si="0"/>
         <v>72</v>
       </c>
-      <c r="AJ56" s="76" t="s">
+      <c r="AJ56" s="75" t="s">
         <v>35</v>
       </c>
-      <c r="AK56" s="76" t="s">
+      <c r="AK56" s="75" t="s">
         <v>886</v>
       </c>
     </row>
-    <row r="57" spans="1:37" ht="31">
+    <row r="57" spans="1:37" ht="31" x14ac:dyDescent="0.2">
       <c r="A57" s="46" t="s">
         <v>133</v>
       </c>
@@ -10088,14 +10763,14 @@
         <f t="shared" si="0"/>
         <v>72</v>
       </c>
-      <c r="AJ57" s="77" t="s">
+      <c r="AJ57" s="76" t="s">
         <v>40</v>
       </c>
-      <c r="AK57" s="76" t="s">
+      <c r="AK57" s="75" t="s">
         <v>886</v>
       </c>
     </row>
-    <row r="58" spans="1:37" ht="31">
+    <row r="58" spans="1:37" ht="31" x14ac:dyDescent="0.2">
       <c r="A58" s="46" t="s">
         <v>133</v>
       </c>
@@ -10145,14 +10820,14 @@
         <f t="shared" si="0"/>
         <v>72</v>
       </c>
-      <c r="AJ58" s="77" t="s">
+      <c r="AJ58" s="76" t="s">
         <v>40</v>
       </c>
-      <c r="AK58" s="76" t="s">
+      <c r="AK58" s="75" t="s">
         <v>886</v>
       </c>
     </row>
-    <row r="59" spans="1:37" ht="31">
+    <row r="59" spans="1:37" ht="31" x14ac:dyDescent="0.2">
       <c r="A59" s="46" t="s">
         <v>133</v>
       </c>
@@ -10202,14 +10877,14 @@
         <f t="shared" si="0"/>
         <v>72</v>
       </c>
-      <c r="AJ59" s="77" t="s">
+      <c r="AJ59" s="76" t="s">
         <v>40</v>
       </c>
-      <c r="AK59" s="76" t="s">
+      <c r="AK59" s="75" t="s">
         <v>886</v>
       </c>
     </row>
-    <row r="60" spans="1:37" ht="31">
+    <row r="60" spans="1:37" ht="31" x14ac:dyDescent="0.2">
       <c r="A60" s="46" t="s">
         <v>133</v>
       </c>
@@ -10259,14 +10934,14 @@
         <f t="shared" si="0"/>
         <v>72</v>
       </c>
-      <c r="AJ60" s="77" t="s">
+      <c r="AJ60" s="76" t="s">
         <v>40</v>
       </c>
-      <c r="AK60" s="76" t="s">
+      <c r="AK60" s="75" t="s">
         <v>886</v>
       </c>
     </row>
-    <row r="61" spans="1:37" ht="31">
+    <row r="61" spans="1:37" ht="31" x14ac:dyDescent="0.2">
       <c r="A61" s="46" t="s">
         <v>133</v>
       </c>
@@ -10316,14 +10991,14 @@
         <f t="shared" si="0"/>
         <v>72</v>
       </c>
-      <c r="AJ61" s="77" t="s">
+      <c r="AJ61" s="76" t="s">
         <v>40</v>
       </c>
-      <c r="AK61" s="76" t="s">
+      <c r="AK61" s="75" t="s">
         <v>886</v>
       </c>
     </row>
-    <row r="62" spans="1:37" ht="31">
+    <row r="62" spans="1:37" ht="31" x14ac:dyDescent="0.2">
       <c r="A62" s="46" t="s">
         <v>133</v>
       </c>
@@ -10373,14 +11048,14 @@
         <f t="shared" si="0"/>
         <v>48</v>
       </c>
-      <c r="AJ62" s="76" t="s">
+      <c r="AJ62" s="75" t="s">
         <v>35</v>
       </c>
-      <c r="AK62" s="76" t="s">
+      <c r="AK62" s="75" t="s">
         <v>886</v>
       </c>
     </row>
-    <row r="63" spans="1:37" ht="31">
+    <row r="63" spans="1:37" ht="31" x14ac:dyDescent="0.2">
       <c r="A63" s="46" t="s">
         <v>133</v>
       </c>
@@ -10430,14 +11105,14 @@
         <f t="shared" si="0"/>
         <v>72</v>
       </c>
-      <c r="AJ63" s="76" t="s">
+      <c r="AJ63" s="75" t="s">
         <v>35</v>
       </c>
-      <c r="AK63" s="76" t="s">
+      <c r="AK63" s="75" t="s">
         <v>886</v>
       </c>
     </row>
-    <row r="64" spans="1:37" ht="31">
+    <row r="64" spans="1:37" ht="31" x14ac:dyDescent="0.2">
       <c r="A64" s="46" t="s">
         <v>133</v>
       </c>
@@ -10487,14 +11162,14 @@
         <f t="shared" si="0"/>
         <v>30</v>
       </c>
-      <c r="AJ64" s="77" t="s">
+      <c r="AJ64" s="76" t="s">
         <v>40</v>
       </c>
-      <c r="AK64" s="76" t="s">
+      <c r="AK64" s="75" t="s">
         <v>886</v>
       </c>
     </row>
-    <row r="65" spans="1:37" ht="31">
+    <row r="65" spans="1:37" ht="31" x14ac:dyDescent="0.2">
       <c r="A65" s="46" t="s">
         <v>133</v>
       </c>
@@ -10544,14 +11219,14 @@
         <f t="shared" si="0"/>
         <v>30</v>
       </c>
-      <c r="AJ65" s="76" t="s">
+      <c r="AJ65" s="75" t="s">
         <v>35</v>
       </c>
-      <c r="AK65" s="76" t="s">
+      <c r="AK65" s="75" t="s">
         <v>886</v>
       </c>
     </row>
-    <row r="66" spans="1:37" ht="31">
+    <row r="66" spans="1:37" ht="31" x14ac:dyDescent="0.2">
       <c r="A66" s="46" t="s">
         <v>133</v>
       </c>
@@ -10601,14 +11276,14 @@
         <f t="shared" si="0"/>
         <v>30</v>
       </c>
-      <c r="AJ66" s="77" t="s">
+      <c r="AJ66" s="76" t="s">
         <v>49</v>
       </c>
-      <c r="AK66" s="76" t="s">
+      <c r="AK66" s="75" t="s">
         <v>886</v>
       </c>
     </row>
-    <row r="67" spans="1:37" ht="31">
+    <row r="67" spans="1:37" ht="31" x14ac:dyDescent="0.2">
       <c r="A67" s="46" t="s">
         <v>133</v>
       </c>
@@ -10658,14 +11333,14 @@
         <f t="shared" ref="AI67:AI96" si="1">SUM(AB67,AD67,AF67,AH67)</f>
         <v>72</v>
       </c>
-      <c r="AJ67" s="77" t="s">
+      <c r="AJ67" s="76" t="s">
         <v>49</v>
       </c>
-      <c r="AK67" s="76" t="s">
+      <c r="AK67" s="75" t="s">
         <v>886</v>
       </c>
     </row>
-    <row r="68" spans="1:37" ht="31">
+    <row r="68" spans="1:37" ht="31" x14ac:dyDescent="0.2">
       <c r="A68" s="46" t="s">
         <v>133</v>
       </c>
@@ -10715,14 +11390,14 @@
         <f t="shared" si="1"/>
         <v>30</v>
       </c>
-      <c r="AJ68" s="77" t="s">
+      <c r="AJ68" s="76" t="s">
         <v>40</v>
       </c>
-      <c r="AK68" s="76" t="s">
+      <c r="AK68" s="75" t="s">
         <v>886</v>
       </c>
     </row>
-    <row r="69" spans="1:37" ht="31">
+    <row r="69" spans="1:37" ht="31" x14ac:dyDescent="0.2">
       <c r="A69" s="46" t="s">
         <v>133</v>
       </c>
@@ -10772,14 +11447,14 @@
         <f t="shared" si="1"/>
         <v>72</v>
       </c>
-      <c r="AJ69" s="77" t="s">
+      <c r="AJ69" s="76" t="s">
         <v>43</v>
       </c>
-      <c r="AK69" s="76" t="s">
+      <c r="AK69" s="75" t="s">
         <v>886</v>
       </c>
     </row>
-    <row r="70" spans="1:37" ht="31">
+    <row r="70" spans="1:37" ht="31" x14ac:dyDescent="0.2">
       <c r="A70" s="46" t="s">
         <v>133</v>
       </c>
@@ -10829,14 +11504,14 @@
         <f t="shared" si="1"/>
         <v>48</v>
       </c>
-      <c r="AJ70" s="77" t="s">
+      <c r="AJ70" s="76" t="s">
         <v>40</v>
       </c>
-      <c r="AK70" s="76" t="s">
+      <c r="AK70" s="75" t="s">
         <v>886</v>
       </c>
     </row>
-    <row r="71" spans="1:37" ht="31">
+    <row r="71" spans="1:37" ht="31" x14ac:dyDescent="0.2">
       <c r="A71" s="46" t="s">
         <v>133</v>
       </c>
@@ -10886,14 +11561,14 @@
         <f t="shared" si="1"/>
         <v>72</v>
       </c>
-      <c r="AJ71" s="76" t="s">
+      <c r="AJ71" s="75" t="s">
         <v>35</v>
       </c>
-      <c r="AK71" s="76" t="s">
+      <c r="AK71" s="75" t="s">
         <v>886</v>
       </c>
     </row>
-    <row r="72" spans="1:37" ht="31">
+    <row r="72" spans="1:37" ht="31" x14ac:dyDescent="0.2">
       <c r="A72" s="46" t="s">
         <v>133</v>
       </c>
@@ -10943,14 +11618,14 @@
         <f t="shared" si="1"/>
         <v>30</v>
       </c>
-      <c r="AJ72" s="77" t="s">
+      <c r="AJ72" s="76" t="s">
         <v>49</v>
       </c>
-      <c r="AK72" s="76" t="s">
+      <c r="AK72" s="75" t="s">
         <v>886</v>
       </c>
     </row>
-    <row r="73" spans="1:37" ht="31">
+    <row r="73" spans="1:37" ht="31" x14ac:dyDescent="0.2">
       <c r="A73" s="46" t="s">
         <v>133</v>
       </c>
@@ -11000,14 +11675,14 @@
         <f t="shared" si="1"/>
         <v>72</v>
       </c>
-      <c r="AJ73" s="77" t="s">
+      <c r="AJ73" s="76" t="s">
         <v>841</v>
       </c>
-      <c r="AK73" s="76" t="s">
+      <c r="AK73" s="75" t="s">
         <v>886</v>
       </c>
     </row>
-    <row r="74" spans="1:37" ht="31">
+    <row r="74" spans="1:37" ht="31" x14ac:dyDescent="0.2">
       <c r="A74" s="46" t="s">
         <v>133</v>
       </c>
@@ -11057,14 +11732,14 @@
         <f t="shared" si="1"/>
         <v>48</v>
       </c>
-      <c r="AJ74" s="78" t="s">
+      <c r="AJ74" s="77" t="s">
         <v>34</v>
       </c>
-      <c r="AK74" s="76" t="s">
+      <c r="AK74" s="75" t="s">
         <v>886</v>
       </c>
     </row>
-    <row r="75" spans="1:37" ht="31">
+    <row r="75" spans="1:37" ht="31" x14ac:dyDescent="0.2">
       <c r="A75" s="45" t="s">
         <v>133</v>
       </c>
@@ -11114,14 +11789,14 @@
         <f t="shared" si="1"/>
         <v>48</v>
       </c>
-      <c r="AJ75" s="78" t="s">
+      <c r="AJ75" s="77" t="s">
         <v>34</v>
       </c>
-      <c r="AK75" s="76" t="s">
+      <c r="AK75" s="75" t="s">
         <v>886</v>
       </c>
     </row>
-    <row r="76" spans="1:37" ht="31">
+    <row r="76" spans="1:37" ht="31" x14ac:dyDescent="0.2">
       <c r="A76" s="46" t="s">
         <v>129</v>
       </c>
@@ -11171,14 +11846,14 @@
         <f t="shared" si="1"/>
         <v>72</v>
       </c>
-      <c r="AJ76" s="77" t="s">
+      <c r="AJ76" s="76" t="s">
         <v>43</v>
       </c>
-      <c r="AK76" s="76" t="s">
+      <c r="AK76" s="75" t="s">
         <v>886</v>
       </c>
     </row>
-    <row r="77" spans="1:37" ht="31">
+    <row r="77" spans="1:37" ht="31" x14ac:dyDescent="0.2">
       <c r="A77" s="46" t="s">
         <v>133</v>
       </c>
@@ -11228,14 +11903,14 @@
         <f t="shared" si="1"/>
         <v>48</v>
       </c>
-      <c r="AJ77" s="78" t="s">
+      <c r="AJ77" s="77" t="s">
         <v>34</v>
       </c>
-      <c r="AK77" s="76" t="s">
+      <c r="AK77" s="75" t="s">
         <v>886</v>
       </c>
     </row>
-    <row r="78" spans="1:37" ht="31">
+    <row r="78" spans="1:37" ht="31" x14ac:dyDescent="0.2">
       <c r="A78" s="50" t="s">
         <v>133</v>
       </c>
@@ -11285,14 +11960,14 @@
         <f t="shared" si="1"/>
         <v>48</v>
       </c>
-      <c r="AJ78" s="78" t="s">
+      <c r="AJ78" s="77" t="s">
         <v>34</v>
       </c>
-      <c r="AK78" s="76" t="s">
+      <c r="AK78" s="75" t="s">
         <v>886</v>
       </c>
     </row>
-    <row r="79" spans="1:37" ht="31">
+    <row r="79" spans="1:37" ht="31" x14ac:dyDescent="0.2">
       <c r="A79" s="46" t="s">
         <v>133</v>
       </c>
@@ -11342,14 +12017,14 @@
         <f t="shared" si="1"/>
         <v>72</v>
       </c>
-      <c r="AJ79" s="78" t="s">
+      <c r="AJ79" s="77" t="s">
         <v>34</v>
       </c>
-      <c r="AK79" s="76" t="s">
+      <c r="AK79" s="75" t="s">
         <v>886</v>
       </c>
     </row>
-    <row r="80" spans="1:37" ht="31">
+    <row r="80" spans="1:37" ht="31" x14ac:dyDescent="0.2">
       <c r="A80" s="46" t="s">
         <v>133</v>
       </c>
@@ -11399,14 +12074,14 @@
         <f t="shared" si="1"/>
         <v>72</v>
       </c>
-      <c r="AJ80" s="76" t="s">
+      <c r="AJ80" s="75" t="s">
         <v>35</v>
       </c>
-      <c r="AK80" s="76" t="s">
+      <c r="AK80" s="75" t="s">
         <v>886</v>
       </c>
     </row>
-    <row r="81" spans="1:37" ht="31">
+    <row r="81" spans="1:37" ht="31" x14ac:dyDescent="0.2">
       <c r="A81" s="53" t="s">
         <v>133</v>
       </c>
@@ -11456,14 +12131,14 @@
         <f t="shared" si="1"/>
         <v>72</v>
       </c>
-      <c r="AJ81" s="77" t="s">
+      <c r="AJ81" s="76" t="s">
         <v>40</v>
       </c>
-      <c r="AK81" s="76" t="s">
+      <c r="AK81" s="75" t="s">
         <v>886</v>
       </c>
     </row>
-    <row r="82" spans="1:37" ht="31">
+    <row r="82" spans="1:37" ht="31" x14ac:dyDescent="0.2">
       <c r="A82" s="46" t="s">
         <v>133</v>
       </c>
@@ -11513,14 +12188,14 @@
         <f t="shared" si="1"/>
         <v>72</v>
       </c>
-      <c r="AJ82" s="76" t="s">
+      <c r="AJ82" s="75" t="s">
         <v>35</v>
       </c>
-      <c r="AK82" s="76" t="s">
+      <c r="AK82" s="75" t="s">
         <v>886</v>
       </c>
     </row>
-    <row r="83" spans="1:37" ht="31">
+    <row r="83" spans="1:37" ht="31" x14ac:dyDescent="0.2">
       <c r="A83" s="46" t="s">
         <v>133</v>
       </c>
@@ -11570,14 +12245,14 @@
         <f t="shared" si="1"/>
         <v>48</v>
       </c>
-      <c r="AJ83" s="77" t="s">
+      <c r="AJ83" s="76" t="s">
         <v>841</v>
       </c>
-      <c r="AK83" s="76" t="s">
+      <c r="AK83" s="75" t="s">
         <v>886</v>
       </c>
     </row>
-    <row r="84" spans="1:37" ht="31">
+    <row r="84" spans="1:37" ht="31" x14ac:dyDescent="0.2">
       <c r="A84" s="46" t="s">
         <v>133</v>
       </c>
@@ -11627,14 +12302,14 @@
         <f t="shared" si="1"/>
         <v>48</v>
       </c>
-      <c r="AJ84" s="77" t="s">
+      <c r="AJ84" s="76" t="s">
         <v>842</v>
       </c>
-      <c r="AK84" s="76" t="s">
+      <c r="AK84" s="75" t="s">
         <v>886</v>
       </c>
     </row>
-    <row r="85" spans="1:37" ht="31">
+    <row r="85" spans="1:37" ht="31" x14ac:dyDescent="0.2">
       <c r="A85" s="45" t="s">
         <v>129</v>
       </c>
@@ -11684,14 +12359,14 @@
         <f t="shared" si="1"/>
         <v>30</v>
       </c>
-      <c r="AJ85" s="77" t="s">
+      <c r="AJ85" s="76" t="s">
         <v>49</v>
       </c>
-      <c r="AK85" s="76" t="s">
+      <c r="AK85" s="75" t="s">
         <v>886</v>
       </c>
     </row>
-    <row r="86" spans="1:37" ht="31">
+    <row r="86" spans="1:37" ht="31" x14ac:dyDescent="0.2">
       <c r="A86" s="46" t="s">
         <v>129</v>
       </c>
@@ -11741,14 +12416,14 @@
         <f t="shared" si="1"/>
         <v>27</v>
       </c>
-      <c r="AJ86" s="77" t="s">
+      <c r="AJ86" s="76" t="s">
         <v>49</v>
       </c>
-      <c r="AK86" s="76" t="s">
+      <c r="AK86" s="75" t="s">
         <v>886</v>
       </c>
     </row>
-    <row r="87" spans="1:37" ht="31">
+    <row r="87" spans="1:37" ht="31" x14ac:dyDescent="0.2">
       <c r="A87" s="46" t="s">
         <v>133</v>
       </c>
@@ -11798,14 +12473,14 @@
         <f t="shared" si="1"/>
         <v>30</v>
       </c>
-      <c r="AJ87" s="77" t="s">
+      <c r="AJ87" s="76" t="s">
         <v>49</v>
       </c>
-      <c r="AK87" s="76" t="s">
+      <c r="AK87" s="75" t="s">
         <v>886</v>
       </c>
     </row>
-    <row r="88" spans="1:37" ht="31">
+    <row r="88" spans="1:37" ht="31" x14ac:dyDescent="0.2">
       <c r="A88" s="46" t="s">
         <v>133</v>
       </c>
@@ -11855,14 +12530,14 @@
         <f t="shared" si="1"/>
         <v>48</v>
       </c>
-      <c r="AJ88" s="77" t="s">
+      <c r="AJ88" s="76" t="s">
         <v>49</v>
       </c>
-      <c r="AK88" s="76" t="s">
+      <c r="AK88" s="75" t="s">
         <v>886</v>
       </c>
     </row>
-    <row r="89" spans="1:37" ht="31">
+    <row r="89" spans="1:37" ht="31" x14ac:dyDescent="0.2">
       <c r="A89" s="46" t="s">
         <v>129</v>
       </c>
@@ -11912,14 +12587,14 @@
         <f t="shared" si="1"/>
         <v>30</v>
       </c>
-      <c r="AJ89" s="77" t="s">
+      <c r="AJ89" s="76" t="s">
         <v>40</v>
       </c>
-      <c r="AK89" s="76" t="s">
+      <c r="AK89" s="75" t="s">
         <v>886</v>
       </c>
     </row>
-    <row r="90" spans="1:37" ht="31">
+    <row r="90" spans="1:37" ht="31" x14ac:dyDescent="0.2">
       <c r="A90" s="46" t="s">
         <v>129</v>
       </c>
@@ -11969,14 +12644,14 @@
         <f t="shared" si="1"/>
         <v>30</v>
       </c>
-      <c r="AJ90" s="77" t="s">
+      <c r="AJ90" s="76" t="s">
         <v>40</v>
       </c>
-      <c r="AK90" s="76" t="s">
+      <c r="AK90" s="75" t="s">
         <v>886</v>
       </c>
     </row>
-    <row r="91" spans="1:37" ht="31">
+    <row r="91" spans="1:37" ht="31" x14ac:dyDescent="0.2">
       <c r="A91" s="50" t="s">
         <v>133</v>
       </c>
@@ -12026,14 +12701,14 @@
         <f t="shared" si="1"/>
         <v>30</v>
       </c>
-      <c r="AJ91" s="77" t="s">
+      <c r="AJ91" s="76" t="s">
         <v>40</v>
       </c>
-      <c r="AK91" s="76" t="s">
+      <c r="AK91" s="75" t="s">
         <v>886</v>
       </c>
     </row>
-    <row r="92" spans="1:37" ht="31">
+    <row r="92" spans="1:37" ht="31" x14ac:dyDescent="0.2">
       <c r="A92" s="46" t="s">
         <v>129</v>
       </c>
@@ -12083,14 +12758,14 @@
         <f t="shared" si="1"/>
         <v>30</v>
       </c>
-      <c r="AJ92" s="77" t="s">
+      <c r="AJ92" s="76" t="s">
         <v>49</v>
       </c>
-      <c r="AK92" s="76" t="s">
+      <c r="AK92" s="75" t="s">
         <v>886</v>
       </c>
     </row>
-    <row r="93" spans="1:37" ht="31">
+    <row r="93" spans="1:37" ht="31" x14ac:dyDescent="0.2">
       <c r="A93" s="46" t="s">
         <v>129</v>
       </c>
@@ -12140,14 +12815,14 @@
         <f t="shared" si="1"/>
         <v>48</v>
       </c>
-      <c r="AJ93" s="77" t="s">
+      <c r="AJ93" s="76" t="s">
         <v>40</v>
       </c>
-      <c r="AK93" s="76" t="s">
+      <c r="AK93" s="75" t="s">
         <v>886</v>
       </c>
     </row>
-    <row r="94" spans="1:37" ht="31">
+    <row r="94" spans="1:37" ht="31" x14ac:dyDescent="0.2">
       <c r="A94" s="46" t="s">
         <v>129</v>
       </c>
@@ -12197,14 +12872,14 @@
         <f t="shared" si="1"/>
         <v>48</v>
       </c>
-      <c r="AJ94" s="77" t="s">
+      <c r="AJ94" s="76" t="s">
         <v>49</v>
       </c>
-      <c r="AK94" s="77" t="s">
+      <c r="AK94" s="76" t="s">
         <v>886</v>
       </c>
     </row>
-    <row r="95" spans="1:37" ht="31">
+    <row r="95" spans="1:37" ht="31" x14ac:dyDescent="0.2">
       <c r="A95" s="46" t="s">
         <v>133</v>
       </c>
@@ -12254,14 +12929,14 @@
         <f t="shared" si="1"/>
         <v>30</v>
       </c>
-      <c r="AJ95" s="77" t="s">
+      <c r="AJ95" s="76" t="s">
         <v>49</v>
       </c>
-      <c r="AK95" s="76" t="s">
+      <c r="AK95" s="75" t="s">
         <v>886</v>
       </c>
     </row>
-    <row r="96" spans="1:37" ht="31">
+    <row r="96" spans="1:37" ht="31" x14ac:dyDescent="0.2">
       <c r="A96" s="46" t="s">
         <v>129</v>
       </c>
@@ -12311,10 +12986,10 @@
         <f t="shared" si="1"/>
         <v>30</v>
       </c>
-      <c r="AJ96" s="77" t="s">
+      <c r="AJ96" s="76" t="s">
         <v>49</v>
       </c>
-      <c r="AK96" s="77" t="s">
+      <c r="AK96" s="76" t="s">
         <v>886</v>
       </c>
     </row>
@@ -12323,7 +12998,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0600-000000000000}">
   <dimension ref="A1:F194"/>
   <sheetViews>
@@ -12331,9 +13006,9 @@
       <selection activeCell="A2" sqref="A2:F3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <sheetData>
-    <row r="1" spans="1:6" ht="16">
+    <row r="1" spans="1:6" ht="16" x14ac:dyDescent="0.2">
       <c r="A1" s="30" t="s">
         <v>123</v>
       </c>
@@ -12353,7 +13028,7 @@
         <v>128</v>
       </c>
     </row>
-    <row r="2" spans="1:6">
+    <row r="2" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A2" s="31" t="s">
         <v>129</v>
       </c>
@@ -12371,7 +13046,7 @@
       </c>
       <c r="F2" s="15"/>
     </row>
-    <row r="3" spans="1:6">
+    <row r="3" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A3" s="32" t="s">
         <v>133</v>
       </c>
@@ -12389,7 +13064,7 @@
       </c>
       <c r="F3" s="15"/>
     </row>
-    <row r="4" spans="1:6">
+    <row r="4" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A4" s="32" t="s">
         <v>136</v>
       </c>
@@ -12407,7 +13082,7 @@
       </c>
       <c r="F4" s="15"/>
     </row>
-    <row r="5" spans="1:6">
+    <row r="5" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A5" s="32" t="s">
         <v>136</v>
       </c>
@@ -12425,7 +13100,7 @@
       </c>
       <c r="F5" s="15"/>
     </row>
-    <row r="6" spans="1:6">
+    <row r="6" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A6" s="32" t="s">
         <v>142</v>
       </c>
@@ -12443,7 +13118,7 @@
       </c>
       <c r="F6" s="15"/>
     </row>
-    <row r="7" spans="1:6">
+    <row r="7" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A7" s="32" t="s">
         <v>136</v>
       </c>
@@ -12461,7 +13136,7 @@
       </c>
       <c r="F7" s="15"/>
     </row>
-    <row r="8" spans="1:6">
+    <row r="8" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A8" s="32" t="s">
         <v>136</v>
       </c>
@@ -12479,7 +13154,7 @@
       </c>
       <c r="F8" s="15"/>
     </row>
-    <row r="9" spans="1:6">
+    <row r="9" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A9" s="32" t="s">
         <v>136</v>
       </c>
@@ -12497,7 +13172,7 @@
       </c>
       <c r="F9" s="15"/>
     </row>
-    <row r="10" spans="1:6">
+    <row r="10" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A10" s="32" t="s">
         <v>129</v>
       </c>
@@ -12515,7 +13190,7 @@
       </c>
       <c r="F10" s="15"/>
     </row>
-    <row r="11" spans="1:6">
+    <row r="11" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A11" s="32" t="s">
         <v>129</v>
       </c>
@@ -12533,7 +13208,7 @@
       </c>
       <c r="F11" s="15"/>
     </row>
-    <row r="12" spans="1:6">
+    <row r="12" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A12" s="32" t="s">
         <v>129</v>
       </c>
@@ -12551,7 +13226,7 @@
       </c>
       <c r="F12" s="15"/>
     </row>
-    <row r="13" spans="1:6">
+    <row r="13" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A13" s="32" t="s">
         <v>133</v>
       </c>
@@ -12569,7 +13244,7 @@
       </c>
       <c r="F13" s="15"/>
     </row>
-    <row r="14" spans="1:6">
+    <row r="14" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A14" s="32" t="s">
         <v>133</v>
       </c>
@@ -12587,7 +13262,7 @@
       </c>
       <c r="F14" s="15"/>
     </row>
-    <row r="15" spans="1:6">
+    <row r="15" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A15" s="32" t="s">
         <v>142</v>
       </c>
@@ -12605,7 +13280,7 @@
       </c>
       <c r="F15" s="15"/>
     </row>
-    <row r="16" spans="1:6">
+    <row r="16" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A16" s="32" t="s">
         <v>136</v>
       </c>
@@ -12623,7 +13298,7 @@
       </c>
       <c r="F16" s="15"/>
     </row>
-    <row r="17" spans="1:6">
+    <row r="17" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A17" s="32" t="s">
         <v>136</v>
       </c>
@@ -12641,7 +13316,7 @@
       </c>
       <c r="F17" s="15"/>
     </row>
-    <row r="18" spans="1:6">
+    <row r="18" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A18" s="32" t="s">
         <v>172</v>
       </c>
@@ -12659,7 +13334,7 @@
       </c>
       <c r="F18" s="15"/>
     </row>
-    <row r="19" spans="1:6">
+    <row r="19" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A19" s="32" t="s">
         <v>142</v>
       </c>
@@ -12677,7 +13352,7 @@
       </c>
       <c r="F19" s="15"/>
     </row>
-    <row r="20" spans="1:6">
+    <row r="20" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A20" s="32" t="s">
         <v>129</v>
       </c>
@@ -12695,7 +13370,7 @@
       </c>
       <c r="F20" s="15"/>
     </row>
-    <row r="21" spans="1:6">
+    <row r="21" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A21" s="32" t="s">
         <v>136</v>
       </c>
@@ -12713,7 +13388,7 @@
       </c>
       <c r="F21" s="15"/>
     </row>
-    <row r="22" spans="1:6">
+    <row r="22" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A22" s="32" t="s">
         <v>129</v>
       </c>
@@ -12731,7 +13406,7 @@
       </c>
       <c r="F22" s="15"/>
     </row>
-    <row r="23" spans="1:6">
+    <row r="23" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A23" s="32" t="s">
         <v>172</v>
       </c>
@@ -12749,7 +13424,7 @@
       </c>
       <c r="F23" s="15"/>
     </row>
-    <row r="24" spans="1:6">
+    <row r="24" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A24" s="32" t="s">
         <v>136</v>
       </c>
@@ -12767,7 +13442,7 @@
       </c>
       <c r="F24" s="15"/>
     </row>
-    <row r="25" spans="1:6">
+    <row r="25" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A25" s="32" t="s">
         <v>142</v>
       </c>
@@ -12785,7 +13460,7 @@
       </c>
       <c r="F25" s="15"/>
     </row>
-    <row r="26" spans="1:6">
+    <row r="26" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A26" s="32" t="s">
         <v>136</v>
       </c>
@@ -12803,7 +13478,7 @@
       </c>
       <c r="F26" s="15"/>
     </row>
-    <row r="27" spans="1:6">
+    <row r="27" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A27" s="32" t="s">
         <v>142</v>
       </c>
@@ -12821,7 +13496,7 @@
       </c>
       <c r="F27" s="15"/>
     </row>
-    <row r="28" spans="1:6">
+    <row r="28" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A28" s="31" t="s">
         <v>142</v>
       </c>
@@ -12839,7 +13514,7 @@
       </c>
       <c r="F28" s="15"/>
     </row>
-    <row r="29" spans="1:6">
+    <row r="29" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A29" s="32" t="s">
         <v>142</v>
       </c>
@@ -12857,7 +13532,7 @@
       </c>
       <c r="F29" s="15"/>
     </row>
-    <row r="30" spans="1:6">
+    <row r="30" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A30" s="32" t="s">
         <v>136</v>
       </c>
@@ -12875,7 +13550,7 @@
       </c>
       <c r="F30" s="15"/>
     </row>
-    <row r="31" spans="1:6">
+    <row r="31" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A31" s="32" t="s">
         <v>207</v>
       </c>
@@ -12893,7 +13568,7 @@
       </c>
       <c r="F31" s="15"/>
     </row>
-    <row r="32" spans="1:6">
+    <row r="32" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A32" s="32" t="s">
         <v>142</v>
       </c>
@@ -12911,7 +13586,7 @@
       </c>
       <c r="F32" s="15"/>
     </row>
-    <row r="33" spans="1:6">
+    <row r="33" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A33" s="32" t="s">
         <v>207</v>
       </c>
@@ -12929,7 +13604,7 @@
       </c>
       <c r="F33" s="15"/>
     </row>
-    <row r="34" spans="1:6">
+    <row r="34" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A34" s="32" t="s">
         <v>136</v>
       </c>
@@ -12947,7 +13622,7 @@
       </c>
       <c r="F34" s="15"/>
     </row>
-    <row r="35" spans="1:6">
+    <row r="35" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A35" s="32" t="s">
         <v>136</v>
       </c>
@@ -12965,7 +13640,7 @@
       </c>
       <c r="F35" s="15"/>
     </row>
-    <row r="36" spans="1:6">
+    <row r="36" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A36" s="32" t="s">
         <v>142</v>
       </c>
@@ -12983,7 +13658,7 @@
       </c>
       <c r="F36" s="15"/>
     </row>
-    <row r="37" spans="1:6">
+    <row r="37" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A37" s="32" t="s">
         <v>207</v>
       </c>
@@ -13001,7 +13676,7 @@
       </c>
       <c r="F37" s="15"/>
     </row>
-    <row r="38" spans="1:6">
+    <row r="38" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A38" s="32" t="s">
         <v>136</v>
       </c>
@@ -13019,7 +13694,7 @@
       </c>
       <c r="F38" s="15"/>
     </row>
-    <row r="39" spans="1:6">
+    <row r="39" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A39" s="35" t="s">
         <v>136</v>
       </c>
@@ -13037,7 +13712,7 @@
       </c>
       <c r="F39" s="15"/>
     </row>
-    <row r="40" spans="1:6">
+    <row r="40" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A40" s="32" t="s">
         <v>136</v>
       </c>
@@ -13055,7 +13730,7 @@
       </c>
       <c r="F40" s="15"/>
     </row>
-    <row r="41" spans="1:6">
+    <row r="41" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A41" s="32" t="s">
         <v>136</v>
       </c>
@@ -13073,7 +13748,7 @@
       </c>
       <c r="F41" s="15"/>
     </row>
-    <row r="42" spans="1:6">
+    <row r="42" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A42" s="38" t="s">
         <v>129</v>
       </c>
@@ -13091,7 +13766,7 @@
       </c>
       <c r="F42" s="15"/>
     </row>
-    <row r="43" spans="1:6">
+    <row r="43" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A43" s="32" t="s">
         <v>136</v>
       </c>
@@ -13109,7 +13784,7 @@
       </c>
       <c r="F43" s="15"/>
     </row>
-    <row r="44" spans="1:6">
+    <row r="44" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A44" s="32" t="s">
         <v>136</v>
       </c>
@@ -13127,7 +13802,7 @@
       </c>
       <c r="F44" s="15"/>
     </row>
-    <row r="45" spans="1:6">
+    <row r="45" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A45" s="32" t="s">
         <v>136</v>
       </c>
@@ -13145,7 +13820,7 @@
       </c>
       <c r="F45" s="15"/>
     </row>
-    <row r="46" spans="1:6">
+    <row r="46" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A46" s="35" t="s">
         <v>136</v>
       </c>
@@ -13163,7 +13838,7 @@
       </c>
       <c r="F46" s="15"/>
     </row>
-    <row r="47" spans="1:6">
+    <row r="47" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A47" s="31" t="s">
         <v>142</v>
       </c>
@@ -13181,7 +13856,7 @@
       </c>
       <c r="F47" s="15"/>
     </row>
-    <row r="48" spans="1:6">
+    <row r="48" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A48" s="32" t="s">
         <v>142</v>
       </c>
@@ -13199,7 +13874,7 @@
       </c>
       <c r="F48" s="15"/>
     </row>
-    <row r="49" spans="1:6">
+    <row r="49" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A49" s="32" t="s">
         <v>136</v>
       </c>
@@ -13217,7 +13892,7 @@
       </c>
       <c r="F49" s="15"/>
     </row>
-    <row r="50" spans="1:6">
+    <row r="50" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A50" s="32" t="s">
         <v>142</v>
       </c>
@@ -13235,7 +13910,7 @@
       </c>
       <c r="F50" s="15"/>
     </row>
-    <row r="51" spans="1:6">
+    <row r="51" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A51" s="35" t="s">
         <v>136</v>
       </c>
@@ -13253,7 +13928,7 @@
       </c>
       <c r="F51" s="15"/>
     </row>
-    <row r="52" spans="1:6">
+    <row r="52" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A52" s="32" t="s">
         <v>142</v>
       </c>
@@ -13271,7 +13946,7 @@
       </c>
       <c r="F52" s="15"/>
     </row>
-    <row r="53" spans="1:6">
+    <row r="53" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A53" s="32" t="s">
         <v>142</v>
       </c>
@@ -13289,7 +13964,7 @@
       </c>
       <c r="F53" s="15"/>
     </row>
-    <row r="54" spans="1:6">
+    <row r="54" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A54" s="32" t="s">
         <v>136</v>
       </c>
@@ -13307,7 +13982,7 @@
       </c>
       <c r="F54" s="15"/>
     </row>
-    <row r="55" spans="1:6">
+    <row r="55" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A55" s="32" t="s">
         <v>136</v>
       </c>
@@ -13325,7 +14000,7 @@
       </c>
       <c r="F55" s="15"/>
     </row>
-    <row r="56" spans="1:6">
+    <row r="56" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A56" s="38" t="s">
         <v>136</v>
       </c>
@@ -13343,7 +14018,7 @@
       </c>
       <c r="F56" s="15"/>
     </row>
-    <row r="57" spans="1:6">
+    <row r="57" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A57" s="32" t="s">
         <v>136</v>
       </c>
@@ -13361,7 +14036,7 @@
       </c>
       <c r="F57" s="15"/>
     </row>
-    <row r="58" spans="1:6">
+    <row r="58" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A58" s="32" t="s">
         <v>136</v>
       </c>
@@ -13379,7 +14054,7 @@
       </c>
       <c r="F58" s="15"/>
     </row>
-    <row r="59" spans="1:6">
+    <row r="59" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A59" s="32" t="s">
         <v>129</v>
       </c>
@@ -13397,7 +14072,7 @@
       </c>
       <c r="F59" s="15"/>
     </row>
-    <row r="60" spans="1:6">
+    <row r="60" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A60" s="32" t="s">
         <v>136</v>
       </c>
@@ -13415,7 +14090,7 @@
       </c>
       <c r="F60" s="15"/>
     </row>
-    <row r="61" spans="1:6">
+    <row r="61" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A61" s="32" t="s">
         <v>142</v>
       </c>
@@ -13433,7 +14108,7 @@
       </c>
       <c r="F61" s="15"/>
     </row>
-    <row r="62" spans="1:6">
+    <row r="62" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A62" s="38" t="s">
         <v>136</v>
       </c>
@@ -13451,7 +14126,7 @@
       </c>
       <c r="F62" s="15"/>
     </row>
-    <row r="63" spans="1:6">
+    <row r="63" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A63" s="32" t="s">
         <v>142</v>
       </c>
@@ -13469,7 +14144,7 @@
       </c>
       <c r="F63" s="15"/>
     </row>
-    <row r="64" spans="1:6">
+    <row r="64" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A64" s="38" t="s">
         <v>142</v>
       </c>
@@ -13487,7 +14162,7 @@
       </c>
       <c r="F64" s="15"/>
     </row>
-    <row r="65" spans="1:6">
+    <row r="65" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A65" s="32" t="s">
         <v>207</v>
       </c>
@@ -13505,7 +14180,7 @@
       </c>
       <c r="F65" s="15"/>
     </row>
-    <row r="66" spans="1:6">
+    <row r="66" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A66" s="32" t="s">
         <v>136</v>
       </c>
@@ -13523,7 +14198,7 @@
       </c>
       <c r="F66" s="15"/>
     </row>
-    <row r="67" spans="1:6">
+    <row r="67" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A67" s="31" t="s">
         <v>136</v>
       </c>
@@ -13541,7 +14216,7 @@
       </c>
       <c r="F67" s="15"/>
     </row>
-    <row r="68" spans="1:6">
+    <row r="68" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A68" s="32" t="s">
         <v>142</v>
       </c>
@@ -13559,7 +14234,7 @@
       </c>
       <c r="F68" s="15"/>
     </row>
-    <row r="69" spans="1:6">
+    <row r="69" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A69" s="32" t="s">
         <v>136</v>
       </c>
@@ -13577,7 +14252,7 @@
       </c>
       <c r="F69" s="15"/>
     </row>
-    <row r="70" spans="1:6">
+    <row r="70" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A70" s="32" t="s">
         <v>136</v>
       </c>
@@ -13595,7 +14270,7 @@
       </c>
       <c r="F70" s="15"/>
     </row>
-    <row r="71" spans="1:6">
+    <row r="71" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A71" s="32" t="s">
         <v>207</v>
       </c>
@@ -13613,7 +14288,7 @@
       </c>
       <c r="F71" s="15"/>
     </row>
-    <row r="72" spans="1:6">
+    <row r="72" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A72" s="35" t="s">
         <v>129</v>
       </c>
@@ -13631,7 +14306,7 @@
       </c>
       <c r="F72" s="15"/>
     </row>
-    <row r="73" spans="1:6">
+    <row r="73" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A73" s="32" t="s">
         <v>136</v>
       </c>
@@ -13649,7 +14324,7 @@
       </c>
       <c r="F73" s="15"/>
     </row>
-    <row r="74" spans="1:6">
+    <row r="74" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A74" s="31" t="s">
         <v>136</v>
       </c>
@@ -13667,7 +14342,7 @@
       </c>
       <c r="F74" s="15"/>
     </row>
-    <row r="75" spans="1:6">
+    <row r="75" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A75" s="32" t="s">
         <v>207</v>
       </c>
@@ -13685,7 +14360,7 @@
       </c>
       <c r="F75" s="15"/>
     </row>
-    <row r="76" spans="1:6">
+    <row r="76" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A76" s="32" t="s">
         <v>129</v>
       </c>
@@ -13703,7 +14378,7 @@
       </c>
       <c r="F76" s="15"/>
     </row>
-    <row r="77" spans="1:6">
+    <row r="77" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A77" s="32" t="s">
         <v>142</v>
       </c>
@@ -13721,7 +14396,7 @@
       </c>
       <c r="F77" s="15"/>
     </row>
-    <row r="78" spans="1:6">
+    <row r="78" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A78" s="35" t="s">
         <v>129</v>
       </c>
@@ -13739,7 +14414,7 @@
       </c>
       <c r="F78" s="15"/>
     </row>
-    <row r="79" spans="1:6">
+    <row r="79" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A79" s="32" t="s">
         <v>136</v>
       </c>
@@ -13757,7 +14432,7 @@
       </c>
       <c r="F79" s="15"/>
     </row>
-    <row r="80" spans="1:6">
+    <row r="80" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A80" s="32" t="s">
         <v>136</v>
       </c>
@@ -13775,7 +14450,7 @@
       </c>
       <c r="F80" s="15"/>
     </row>
-    <row r="81" spans="1:6">
+    <row r="81" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A81" s="31" t="s">
         <v>142</v>
       </c>
@@ -13793,7 +14468,7 @@
       </c>
       <c r="F81" s="15"/>
     </row>
-    <row r="82" spans="1:6">
+    <row r="82" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A82" s="32" t="s">
         <v>136</v>
       </c>
@@ -13811,7 +14486,7 @@
       </c>
       <c r="F82" s="15"/>
     </row>
-    <row r="83" spans="1:6">
+    <row r="83" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A83" s="32" t="s">
         <v>136</v>
       </c>
@@ -13829,7 +14504,7 @@
       </c>
       <c r="F83" s="15"/>
     </row>
-    <row r="84" spans="1:6">
+    <row r="84" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A84" s="35" t="s">
         <v>136</v>
       </c>
@@ -13847,7 +14522,7 @@
       </c>
       <c r="F84" s="15"/>
     </row>
-    <row r="85" spans="1:6">
+    <row r="85" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A85" s="32" t="s">
         <v>136</v>
       </c>
@@ -13863,7 +14538,7 @@
       </c>
       <c r="F85" s="15"/>
     </row>
-    <row r="86" spans="1:6">
+    <row r="86" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A86" s="31" t="s">
         <v>136</v>
       </c>
@@ -13881,7 +14556,7 @@
       </c>
       <c r="F86" s="15"/>
     </row>
-    <row r="87" spans="1:6">
+    <row r="87" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A87" s="32" t="s">
         <v>129</v>
       </c>
@@ -13899,7 +14574,7 @@
       </c>
       <c r="F87" s="15"/>
     </row>
-    <row r="88" spans="1:6">
+    <row r="88" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A88" s="32" t="s">
         <v>136</v>
       </c>
@@ -13917,7 +14592,7 @@
       </c>
       <c r="F88" s="15"/>
     </row>
-    <row r="89" spans="1:6">
+    <row r="89" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A89" s="32" t="s">
         <v>136</v>
       </c>
@@ -13935,7 +14610,7 @@
       </c>
       <c r="F89" s="15"/>
     </row>
-    <row r="90" spans="1:6">
+    <row r="90" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A90" s="32" t="s">
         <v>136</v>
       </c>
@@ -13953,7 +14628,7 @@
       </c>
       <c r="F90" s="15"/>
     </row>
-    <row r="91" spans="1:6">
+    <row r="91" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A91" s="32" t="s">
         <v>129</v>
       </c>
@@ -13971,7 +14646,7 @@
       </c>
       <c r="F91" s="15"/>
     </row>
-    <row r="92" spans="1:6">
+    <row r="92" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A92" s="32" t="s">
         <v>136</v>
       </c>
@@ -13989,7 +14664,7 @@
       </c>
       <c r="F92" s="15"/>
     </row>
-    <row r="93" spans="1:6">
+    <row r="93" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A93" s="32" t="s">
         <v>136</v>
       </c>
@@ -14007,7 +14682,7 @@
       </c>
       <c r="F93" s="15"/>
     </row>
-    <row r="94" spans="1:6">
+    <row r="94" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A94" s="32" t="s">
         <v>136</v>
       </c>
@@ -14025,7 +14700,7 @@
       </c>
       <c r="F94" s="15"/>
     </row>
-    <row r="95" spans="1:6">
+    <row r="95" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A95" s="31" t="s">
         <v>136</v>
       </c>
@@ -14043,7 +14718,7 @@
       </c>
       <c r="F95" s="15"/>
     </row>
-    <row r="96" spans="1:6">
+    <row r="96" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A96" s="32" t="s">
         <v>207</v>
       </c>
@@ -14061,7 +14736,7 @@
       </c>
       <c r="F96" s="15"/>
     </row>
-    <row r="97" spans="1:6">
+    <row r="97" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A97" s="32" t="s">
         <v>207</v>
       </c>
@@ -14079,7 +14754,7 @@
       </c>
       <c r="F97" s="15"/>
     </row>
-    <row r="98" spans="1:6">
+    <row r="98" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A98" s="32" t="s">
         <v>207</v>
       </c>
@@ -14097,7 +14772,7 @@
       </c>
       <c r="F98" s="15"/>
     </row>
-    <row r="99" spans="1:6">
+    <row r="99" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A99" s="32" t="s">
         <v>133</v>
       </c>
@@ -14115,7 +14790,7 @@
       </c>
       <c r="F99" s="15"/>
     </row>
-    <row r="100" spans="1:6">
+    <row r="100" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A100" s="32" t="s">
         <v>142</v>
       </c>
@@ -14133,7 +14808,7 @@
       </c>
       <c r="F100" s="15"/>
     </row>
-    <row r="101" spans="1:6">
+    <row r="101" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A101" s="35" t="s">
         <v>136</v>
       </c>
@@ -14151,7 +14826,7 @@
       </c>
       <c r="F101" s="15"/>
     </row>
-    <row r="102" spans="1:6">
+    <row r="102" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A102" s="32" t="s">
         <v>136</v>
       </c>
@@ -14169,7 +14844,7 @@
       </c>
       <c r="F102" s="15"/>
     </row>
-    <row r="103" spans="1:6">
+    <row r="103" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A103" s="32" t="s">
         <v>129</v>
       </c>
@@ -14187,7 +14862,7 @@
       </c>
       <c r="F103" s="15"/>
     </row>
-    <row r="104" spans="1:6">
+    <row r="104" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A104" s="31" t="s">
         <v>136</v>
       </c>
@@ -14205,7 +14880,7 @@
       </c>
       <c r="F104" s="15"/>
     </row>
-    <row r="105" spans="1:6">
+    <row r="105" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A105" s="35" t="s">
         <v>142</v>
       </c>
@@ -14223,7 +14898,7 @@
       </c>
       <c r="F105" s="15"/>
     </row>
-    <row r="106" spans="1:6">
+    <row r="106" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A106" s="32" t="s">
         <v>136</v>
       </c>
@@ -14241,7 +14916,7 @@
       </c>
       <c r="F106" s="15"/>
     </row>
-    <row r="107" spans="1:6">
+    <row r="107" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A107" s="32" t="s">
         <v>129</v>
       </c>
@@ -14259,7 +14934,7 @@
       </c>
       <c r="F107" s="15"/>
     </row>
-    <row r="108" spans="1:6">
+    <row r="108" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A108" s="32" t="s">
         <v>136</v>
       </c>
@@ -14277,7 +14952,7 @@
       </c>
       <c r="F108" s="15"/>
     </row>
-    <row r="109" spans="1:6">
+    <row r="109" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A109" s="32" t="s">
         <v>129</v>
       </c>
@@ -14295,7 +14970,7 @@
       </c>
       <c r="F109" s="15"/>
     </row>
-    <row r="110" spans="1:6">
+    <row r="110" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A110" s="32" t="s">
         <v>136</v>
       </c>
@@ -14313,7 +14988,7 @@
       </c>
       <c r="F110" s="15"/>
     </row>
-    <row r="111" spans="1:6">
+    <row r="111" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A111" s="31" t="s">
         <v>129</v>
       </c>
@@ -14331,7 +15006,7 @@
       </c>
       <c r="F111" s="15"/>
     </row>
-    <row r="112" spans="1:6">
+    <row r="112" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A112" s="35" t="s">
         <v>136</v>
       </c>
@@ -14349,7 +15024,7 @@
       </c>
       <c r="F112" s="15"/>
     </row>
-    <row r="113" spans="1:6">
+    <row r="113" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A113" s="32" t="s">
         <v>133</v>
       </c>
@@ -14367,7 +15042,7 @@
       </c>
       <c r="F113" s="15"/>
     </row>
-    <row r="114" spans="1:6">
+    <row r="114" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A114" s="32" t="s">
         <v>136</v>
       </c>
@@ -14385,7 +15060,7 @@
       </c>
       <c r="F114" s="15"/>
     </row>
-    <row r="115" spans="1:6">
+    <row r="115" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A115" s="31" t="s">
         <v>136</v>
       </c>
@@ -14403,7 +15078,7 @@
       </c>
       <c r="F115" s="15"/>
     </row>
-    <row r="116" spans="1:6">
+    <row r="116" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A116" s="35" t="s">
         <v>142</v>
       </c>
@@ -14421,7 +15096,7 @@
       </c>
       <c r="F116" s="15"/>
     </row>
-    <row r="117" spans="1:6">
+    <row r="117" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A117" s="32" t="s">
         <v>142</v>
       </c>
@@ -14439,7 +15114,7 @@
       </c>
       <c r="F117" s="15"/>
     </row>
-    <row r="118" spans="1:6">
+    <row r="118" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A118" s="31" t="s">
         <v>142</v>
       </c>
@@ -14457,7 +15132,7 @@
       </c>
       <c r="F118" s="15"/>
     </row>
-    <row r="119" spans="1:6">
+    <row r="119" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A119" s="32" t="s">
         <v>136</v>
       </c>
@@ -14475,7 +15150,7 @@
       </c>
       <c r="F119" s="15"/>
     </row>
-    <row r="120" spans="1:6">
+    <row r="120" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A120" s="32" t="s">
         <v>142</v>
       </c>
@@ -14493,7 +15168,7 @@
       </c>
       <c r="F120" s="15"/>
     </row>
-    <row r="121" spans="1:6">
+    <row r="121" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A121" s="32" t="s">
         <v>142</v>
       </c>
@@ -14511,7 +15186,7 @@
       </c>
       <c r="F121" s="15"/>
     </row>
-    <row r="122" spans="1:6">
+    <row r="122" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A122" s="32" t="s">
         <v>142</v>
       </c>
@@ -14529,7 +15204,7 @@
       </c>
       <c r="F122" s="15"/>
     </row>
-    <row r="123" spans="1:6">
+    <row r="123" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A123" s="32" t="s">
         <v>136</v>
       </c>
@@ -14547,7 +15222,7 @@
       </c>
       <c r="F123" s="15"/>
     </row>
-    <row r="124" spans="1:6">
+    <row r="124" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A124" s="35" t="s">
         <v>129</v>
       </c>
@@ -14565,7 +15240,7 @@
       </c>
       <c r="F124" s="15"/>
     </row>
-    <row r="125" spans="1:6">
+    <row r="125" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A125" s="32" t="s">
         <v>136</v>
       </c>
@@ -14583,7 +15258,7 @@
       </c>
       <c r="F125" s="15"/>
     </row>
-    <row r="126" spans="1:6">
+    <row r="126" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A126" s="32" t="s">
         <v>136</v>
       </c>
@@ -14601,7 +15276,7 @@
       </c>
       <c r="F126" s="15"/>
     </row>
-    <row r="127" spans="1:6">
+    <row r="127" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A127" s="32" t="s">
         <v>136</v>
       </c>
@@ -14619,7 +15294,7 @@
       </c>
       <c r="F127" s="15"/>
     </row>
-    <row r="128" spans="1:6">
+    <row r="128" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A128" s="32" t="s">
         <v>129</v>
       </c>
@@ -14637,7 +15312,7 @@
       </c>
       <c r="F128" s="15"/>
     </row>
-    <row r="129" spans="1:6">
+    <row r="129" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A129" s="31" t="s">
         <v>136</v>
       </c>
@@ -14655,7 +15330,7 @@
       </c>
       <c r="F129" s="15"/>
     </row>
-    <row r="130" spans="1:6">
+    <row r="130" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A130" s="32" t="s">
         <v>142</v>
       </c>
@@ -14673,7 +15348,7 @@
       </c>
       <c r="F130" s="15"/>
     </row>
-    <row r="131" spans="1:6">
+    <row r="131" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A131" s="32" t="s">
         <v>142</v>
       </c>
@@ -14691,7 +15366,7 @@
       </c>
       <c r="F131" s="15"/>
     </row>
-    <row r="132" spans="1:6">
+    <row r="132" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A132" s="32" t="s">
         <v>142</v>
       </c>
@@ -14709,7 +15384,7 @@
       </c>
       <c r="F132" s="15"/>
     </row>
-    <row r="133" spans="1:6">
+    <row r="133" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A133" s="32" t="s">
         <v>142</v>
       </c>
@@ -14727,7 +15402,7 @@
       </c>
       <c r="F133" s="15"/>
     </row>
-    <row r="134" spans="1:6">
+    <row r="134" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A134" s="32" t="s">
         <v>142</v>
       </c>
@@ -14745,7 +15420,7 @@
       </c>
       <c r="F134" s="15"/>
     </row>
-    <row r="135" spans="1:6">
+    <row r="135" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A135" s="32" t="s">
         <v>142</v>
       </c>
@@ -14763,7 +15438,7 @@
       </c>
       <c r="F135" s="15"/>
     </row>
-    <row r="136" spans="1:6">
+    <row r="136" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A136" s="32" t="s">
         <v>142</v>
       </c>
@@ -14781,7 +15456,7 @@
       </c>
       <c r="F136" s="15"/>
     </row>
-    <row r="137" spans="1:6">
+    <row r="137" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A137" s="32" t="s">
         <v>142</v>
       </c>
@@ -14799,7 +15474,7 @@
       </c>
       <c r="F137" s="15"/>
     </row>
-    <row r="138" spans="1:6">
+    <row r="138" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A138" s="32" t="s">
         <v>142</v>
       </c>
@@ -14817,7 +15492,7 @@
       </c>
       <c r="F138" s="15"/>
     </row>
-    <row r="139" spans="1:6">
+    <row r="139" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A139" s="32" t="s">
         <v>142</v>
       </c>
@@ -14835,7 +15510,7 @@
       </c>
       <c r="F139" s="15"/>
     </row>
-    <row r="140" spans="1:6">
+    <row r="140" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A140" s="32" t="s">
         <v>142</v>
       </c>
@@ -14853,7 +15528,7 @@
       </c>
       <c r="F140" s="15"/>
     </row>
-    <row r="141" spans="1:6">
+    <row r="141" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A141" s="32" t="s">
         <v>142</v>
       </c>
@@ -14871,7 +15546,7 @@
       </c>
       <c r="F141" s="15"/>
     </row>
-    <row r="142" spans="1:6">
+    <row r="142" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A142" s="32" t="s">
         <v>142</v>
       </c>
@@ -14889,7 +15564,7 @@
       </c>
       <c r="F142" s="15"/>
     </row>
-    <row r="143" spans="1:6">
+    <row r="143" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A143" s="32" t="s">
         <v>142</v>
       </c>
@@ -14907,7 +15582,7 @@
       </c>
       <c r="F143" s="15"/>
     </row>
-    <row r="144" spans="1:6">
+    <row r="144" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A144" s="32" t="s">
         <v>142</v>
       </c>
@@ -14925,7 +15600,7 @@
       </c>
       <c r="F144" s="15"/>
     </row>
-    <row r="145" spans="1:6">
+    <row r="145" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A145" s="32" t="s">
         <v>142</v>
       </c>
@@ -14943,7 +15618,7 @@
       </c>
       <c r="F145" s="15"/>
     </row>
-    <row r="146" spans="1:6">
+    <row r="146" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A146" s="32" t="s">
         <v>142</v>
       </c>
@@ -14961,7 +15636,7 @@
       </c>
       <c r="F146" s="15"/>
     </row>
-    <row r="147" spans="1:6">
+    <row r="147" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A147" s="32" t="s">
         <v>142</v>
       </c>
@@ -14979,7 +15654,7 @@
       </c>
       <c r="F147" s="15"/>
     </row>
-    <row r="148" spans="1:6">
+    <row r="148" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A148" s="32" t="s">
         <v>142</v>
       </c>
@@ -14997,7 +15672,7 @@
       </c>
       <c r="F148" s="15"/>
     </row>
-    <row r="149" spans="1:6">
+    <row r="149" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A149" s="32" t="s">
         <v>142</v>
       </c>
@@ -15015,7 +15690,7 @@
       </c>
       <c r="F149" s="15"/>
     </row>
-    <row r="150" spans="1:6">
+    <row r="150" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A150" s="32" t="s">
         <v>142</v>
       </c>
@@ -15033,7 +15708,7 @@
       </c>
       <c r="F150" s="15"/>
     </row>
-    <row r="151" spans="1:6">
+    <row r="151" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A151" s="32" t="s">
         <v>129</v>
       </c>
@@ -15051,7 +15726,7 @@
       </c>
       <c r="F151" s="15"/>
     </row>
-    <row r="152" spans="1:6">
+    <row r="152" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A152" s="32" t="s">
         <v>136</v>
       </c>
@@ -15069,7 +15744,7 @@
       </c>
       <c r="F152" s="15"/>
     </row>
-    <row r="153" spans="1:6">
+    <row r="153" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A153" s="32" t="s">
         <v>142</v>
       </c>
@@ -15087,7 +15762,7 @@
       </c>
       <c r="F153" s="15"/>
     </row>
-    <row r="154" spans="1:6">
+    <row r="154" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A154" s="32" t="s">
         <v>136</v>
       </c>
@@ -15105,7 +15780,7 @@
       </c>
       <c r="F154" s="15"/>
     </row>
-    <row r="155" spans="1:6">
+    <row r="155" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A155" s="32" t="s">
         <v>142</v>
       </c>
@@ -15123,7 +15798,7 @@
       </c>
       <c r="F155" s="15"/>
     </row>
-    <row r="156" spans="1:6">
+    <row r="156" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A156" s="32" t="s">
         <v>136</v>
       </c>
@@ -15141,7 +15816,7 @@
       </c>
       <c r="F156" s="15"/>
     </row>
-    <row r="157" spans="1:6">
+    <row r="157" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A157" s="32" t="s">
         <v>136</v>
       </c>
@@ -15159,7 +15834,7 @@
       </c>
       <c r="F157" s="15"/>
     </row>
-    <row r="158" spans="1:6">
+    <row r="158" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A158" s="32" t="s">
         <v>129</v>
       </c>
@@ -15177,7 +15852,7 @@
       </c>
       <c r="F158" s="15"/>
     </row>
-    <row r="159" spans="1:6">
+    <row r="159" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A159" s="32" t="s">
         <v>207</v>
       </c>
@@ -15195,7 +15870,7 @@
       </c>
       <c r="F159" s="15"/>
     </row>
-    <row r="160" spans="1:6">
+    <row r="160" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A160" s="32" t="s">
         <v>136</v>
       </c>
@@ -15213,7 +15888,7 @@
       </c>
       <c r="F160" s="15"/>
     </row>
-    <row r="161" spans="1:6">
+    <row r="161" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A161" s="32" t="s">
         <v>207</v>
       </c>
@@ -15231,7 +15906,7 @@
       </c>
       <c r="F161" s="15"/>
     </row>
-    <row r="162" spans="1:6">
+    <row r="162" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A162" s="32" t="s">
         <v>142</v>
       </c>
@@ -15249,7 +15924,7 @@
       </c>
       <c r="F162" s="15"/>
     </row>
-    <row r="163" spans="1:6">
+    <row r="163" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A163" s="32" t="s">
         <v>136</v>
       </c>
@@ -15267,7 +15942,7 @@
       </c>
       <c r="F163" s="15"/>
     </row>
-    <row r="164" spans="1:6">
+    <row r="164" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A164" s="32" t="s">
         <v>136</v>
       </c>
@@ -15285,7 +15960,7 @@
       </c>
       <c r="F164" s="15"/>
     </row>
-    <row r="165" spans="1:6">
+    <row r="165" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A165" s="32" t="s">
         <v>142</v>
       </c>
@@ -15303,7 +15978,7 @@
       </c>
       <c r="F165" s="15"/>
     </row>
-    <row r="166" spans="1:6">
+    <row r="166" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A166" s="32" t="s">
         <v>136</v>
       </c>
@@ -15321,7 +15996,7 @@
       </c>
       <c r="F166" s="15"/>
     </row>
-    <row r="167" spans="1:6">
+    <row r="167" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A167" s="32" t="s">
         <v>136</v>
       </c>
@@ -15339,7 +16014,7 @@
       </c>
       <c r="F167" s="15"/>
     </row>
-    <row r="168" spans="1:6">
+    <row r="168" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A168" s="35" t="s">
         <v>136</v>
       </c>
@@ -15357,7 +16032,7 @@
       </c>
       <c r="F168" s="15"/>
     </row>
-    <row r="169" spans="1:6">
+    <row r="169" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A169" s="32" t="s">
         <v>129</v>
       </c>
@@ -15375,7 +16050,7 @@
       </c>
       <c r="F169" s="15"/>
     </row>
-    <row r="170" spans="1:6">
+    <row r="170" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A170" s="31" t="s">
         <v>136</v>
       </c>
@@ -15393,7 +16068,7 @@
       </c>
       <c r="F170" s="15"/>
     </row>
-    <row r="171" spans="1:6">
+    <row r="171" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A171" s="35" t="s">
         <v>136</v>
       </c>
@@ -15411,7 +16086,7 @@
       </c>
       <c r="F171" s="15"/>
     </row>
-    <row r="172" spans="1:6">
+    <row r="172" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A172" s="32" t="s">
         <v>136</v>
       </c>
@@ -15429,7 +16104,7 @@
       </c>
       <c r="F172" s="15"/>
     </row>
-    <row r="173" spans="1:6">
+    <row r="173" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A173" s="31" t="s">
         <v>136</v>
       </c>
@@ -15447,7 +16122,7 @@
       </c>
       <c r="F173" s="15"/>
     </row>
-    <row r="174" spans="1:6">
+    <row r="174" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A174" s="32" t="s">
         <v>142</v>
       </c>
@@ -15465,7 +16140,7 @@
       </c>
       <c r="F174" s="15"/>
     </row>
-    <row r="175" spans="1:6">
+    <row r="175" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A175" s="32" t="s">
         <v>136</v>
       </c>
@@ -15483,7 +16158,7 @@
       </c>
       <c r="F175" s="15"/>
     </row>
-    <row r="176" spans="1:6">
+    <row r="176" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A176" s="32" t="s">
         <v>136</v>
       </c>
@@ -15501,7 +16176,7 @@
       </c>
       <c r="F176" s="15"/>
     </row>
-    <row r="177" spans="1:6">
+    <row r="177" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A177" s="32" t="s">
         <v>142</v>
       </c>
@@ -15519,7 +16194,7 @@
       </c>
       <c r="F177" s="15"/>
     </row>
-    <row r="178" spans="1:6">
+    <row r="178" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A178" s="32" t="s">
         <v>136</v>
       </c>
@@ -15537,7 +16212,7 @@
       </c>
       <c r="F178" s="15"/>
     </row>
-    <row r="179" spans="1:6">
+    <row r="179" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A179" s="32" t="s">
         <v>207</v>
       </c>
@@ -15555,7 +16230,7 @@
       </c>
       <c r="F179" s="15"/>
     </row>
-    <row r="180" spans="1:6">
+    <row r="180" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A180" s="32" t="s">
         <v>207</v>
       </c>
@@ -15573,7 +16248,7 @@
       </c>
       <c r="F180" s="15"/>
     </row>
-    <row r="181" spans="1:6">
+    <row r="181" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A181" s="35" t="s">
         <v>207</v>
       </c>
@@ -15591,7 +16266,7 @@
       </c>
       <c r="F181" s="15"/>
     </row>
-    <row r="182" spans="1:6">
+    <row r="182" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A182" s="32" t="s">
         <v>136</v>
       </c>
@@ -15609,7 +16284,7 @@
       </c>
       <c r="F182" s="15"/>
     </row>
-    <row r="183" spans="1:6">
+    <row r="183" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A183" s="31" t="s">
         <v>136</v>
       </c>
@@ -15627,7 +16302,7 @@
       </c>
       <c r="F183" s="15"/>
     </row>
-    <row r="184" spans="1:6">
+    <row r="184" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A184" s="32" t="s">
         <v>136</v>
       </c>
@@ -15645,7 +16320,7 @@
       </c>
       <c r="F184" s="15"/>
     </row>
-    <row r="185" spans="1:6">
+    <row r="185" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A185" s="32" t="s">
         <v>136</v>
       </c>
@@ -15663,7 +16338,7 @@
       </c>
       <c r="F185" s="15"/>
     </row>
-    <row r="186" spans="1:6">
+    <row r="186" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A186" s="35" t="s">
         <v>136</v>
       </c>
@@ -15681,7 +16356,7 @@
       </c>
       <c r="F186" s="15"/>
     </row>
-    <row r="187" spans="1:6">
+    <row r="187" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A187" s="32" t="s">
         <v>136</v>
       </c>
@@ -15699,7 +16374,7 @@
       </c>
       <c r="F187" s="15"/>
     </row>
-    <row r="188" spans="1:6">
+    <row r="188" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A188" s="32" t="s">
         <v>142</v>
       </c>
@@ -15717,7 +16392,7 @@
       </c>
       <c r="F188" s="15"/>
     </row>
-    <row r="189" spans="1:6">
+    <row r="189" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A189" s="32" t="s">
         <v>136</v>
       </c>
@@ -15735,7 +16410,7 @@
       </c>
       <c r="F189" s="15"/>
     </row>
-    <row r="190" spans="1:6">
+    <row r="190" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A190" s="32" t="s">
         <v>136</v>
       </c>
@@ -15753,7 +16428,7 @@
       </c>
       <c r="F190" s="15"/>
     </row>
-    <row r="191" spans="1:6">
+    <row r="191" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A191" s="32" t="s">
         <v>136</v>
       </c>
@@ -15771,7 +16446,7 @@
       </c>
       <c r="F191" s="15"/>
     </row>
-    <row r="192" spans="1:6">
+    <row r="192" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A192" s="32" t="s">
         <v>136</v>
       </c>
@@ -15789,7 +16464,7 @@
       </c>
       <c r="F192" s="15"/>
     </row>
-    <row r="193" spans="1:6">
+    <row r="193" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A193" s="32" t="s">
         <v>136</v>
       </c>
@@ -15807,7 +16482,7 @@
       </c>
       <c r="F193" s="15"/>
     </row>
-    <row r="194" spans="1:6">
+    <row r="194" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A194" s="32" t="s">
         <v>136</v>
       </c>
@@ -15824,218 +16499,6 @@
         <v>599</v>
       </c>
       <c r="F194" s="15"/>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0700-000000000000}">
-  <dimension ref="A1:C11"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="G8" sqref="G8"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15"/>
-  <cols>
-    <col min="1" max="1" width="20.5" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="2" max="2" width="11.6640625" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="3" max="3" width="28" bestFit="1" customWidth="1" collapsed="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:3" ht="16">
-      <c r="A1" s="5" t="s">
-        <v>26</v>
-      </c>
-      <c r="B1" s="5" t="s">
-        <v>27</v>
-      </c>
-      <c r="C1" s="5" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="2" spans="1:3">
-      <c r="A2" s="7" t="s">
-        <v>29</v>
-      </c>
-      <c r="B2" s="7" t="s">
-        <v>34</v>
-      </c>
-      <c r="C2" s="6" t="s">
-        <v>44</v>
-      </c>
-    </row>
-    <row r="3" spans="1:3">
-      <c r="A3" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="B3" s="7" t="s">
-        <v>41</v>
-      </c>
-      <c r="C3" s="6" t="s">
-        <v>45</v>
-      </c>
-    </row>
-    <row r="4" spans="1:3">
-      <c r="A4" s="7" t="s">
-        <v>31</v>
-      </c>
-      <c r="B4" s="7" t="s">
-        <v>37</v>
-      </c>
-      <c r="C4" s="6" t="s">
-        <v>46</v>
-      </c>
-    </row>
-    <row r="5" spans="1:3">
-      <c r="A5" s="7" t="s">
-        <v>32</v>
-      </c>
-      <c r="B5" s="7" t="s">
-        <v>35</v>
-      </c>
-      <c r="C5" s="6" t="s">
-        <v>47</v>
-      </c>
-    </row>
-    <row r="6" spans="1:3">
-      <c r="A6" s="7" t="s">
-        <v>33</v>
-      </c>
-      <c r="B6" s="7" t="s">
-        <v>40</v>
-      </c>
-      <c r="C6" s="6" t="s">
-        <v>48</v>
-      </c>
-    </row>
-    <row r="7" spans="1:3">
-      <c r="B7" s="7" t="s">
-        <v>39</v>
-      </c>
-      <c r="C7" s="6" t="s">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="8" spans="1:3">
-      <c r="B8" s="7" t="s">
-        <v>42</v>
-      </c>
-      <c r="C8" s="6" t="s">
-        <v>42</v>
-      </c>
-    </row>
-    <row r="9" spans="1:3">
-      <c r="B9" s="7" t="s">
-        <v>36</v>
-      </c>
-      <c r="C9" s="6" t="s">
-        <v>49</v>
-      </c>
-    </row>
-    <row r="10" spans="1:3">
-      <c r="B10" s="7" t="s">
-        <v>38</v>
-      </c>
-      <c r="C10" s="6" t="s">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="11" spans="1:3">
-      <c r="B11" s="7" t="s">
-        <v>51</v>
-      </c>
-      <c r="C11" s="6" t="s">
-        <v>43</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0800-000000000000}">
-  <dimension ref="A1:E4"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="H9" sqref="H9"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15"/>
-  <cols>
-    <col min="4" max="4" width="14" bestFit="1" customWidth="1" collapsed="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:5" ht="16">
-      <c r="A1" s="9" t="s">
-        <v>52</v>
-      </c>
-      <c r="B1" s="9" t="s">
-        <v>53</v>
-      </c>
-      <c r="C1" s="9" t="s">
-        <v>54</v>
-      </c>
-      <c r="D1" s="9" t="s">
-        <v>55</v>
-      </c>
-      <c r="E1" s="88" t="s">
-        <v>970</v>
-      </c>
-    </row>
-    <row r="2" spans="1:5" ht="16">
-      <c r="A2" s="14" t="s">
-        <v>56</v>
-      </c>
-      <c r="B2" s="11" t="s">
-        <v>59</v>
-      </c>
-      <c r="C2" s="13" t="s">
-        <v>60</v>
-      </c>
-      <c r="D2" s="14">
-        <v>754894607</v>
-      </c>
-      <c r="E2" s="86" t="s">
-        <v>943</v>
-      </c>
-    </row>
-    <row r="3" spans="1:5" ht="16">
-      <c r="A3" s="14" t="s">
-        <v>57</v>
-      </c>
-      <c r="B3" s="11" t="s">
-        <v>59</v>
-      </c>
-      <c r="C3" s="12" t="s">
-        <v>61</v>
-      </c>
-      <c r="D3" s="14">
-        <v>754894607</v>
-      </c>
-      <c r="E3" s="86" t="s">
-        <v>943</v>
-      </c>
-    </row>
-    <row r="4" spans="1:5" ht="16">
-      <c r="A4" s="14" t="s">
-        <v>58</v>
-      </c>
-      <c r="B4" s="11" t="s">
-        <v>59</v>
-      </c>
-      <c r="C4" s="13" t="s">
-        <v>62</v>
-      </c>
-      <c r="D4" s="14">
-        <v>754894607</v>
-      </c>
-      <c r="E4" s="86" t="s">
-        <v>943</v>
-      </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/resources/excels/UG.xlsx
+++ b/resources/excels/UG.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="10410"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="10520"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/a13221514/IdeaProjects/cs-portal-automation_selenium/resources/excels/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/a13401405/IdeaProjects/cs-portal-automation_selenium/resources/excels/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A4321A77-085D-074B-96C4-F47BD88D6FE2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0F5FEBBE-C89A-5D48-8D11-6965703B285E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2640" yWindow="1120" windowWidth="30720" windowHeight="17520" firstSheet="3" activeTab="4" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="2640" yWindow="1120" windowWidth="30720" windowHeight="17520" firstSheet="12" activeTab="21" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="LoginCredentials" sheetId="1" r:id="rId1"/>
@@ -255,7 +255,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2748" uniqueCount="1086">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2746" uniqueCount="1084">
   <si>
     <t>loginAuuid</t>
   </si>
@@ -3438,15 +3438,6 @@
     <t>Ashwani Rao</t>
   </si>
   <si>
-    <t>Last Data Bundle Recharge Amount in 2 months (Mandatory)</t>
-  </si>
-  <si>
-    <t>Last Data Bundle Recharge Amount in 2 months</t>
-  </si>
-  <si>
-    <t>LAST_DATA_BUNDLE_RECHARGE_AMOUNT</t>
-  </si>
-  <si>
     <t>Loan ID</t>
   </si>
   <si>
@@ -3517,13 +3508,16 @@
   </si>
   <si>
     <t>Rule Priority</t>
+  </si>
+  <si>
+    <t>S</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="29" x14ac:knownFonts="1">
+  <fonts count="28" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -3674,12 +3668,6 @@
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="12"/>
-      <color theme="1"/>
-      <name val="Helvetica Neue"/>
-      <family val="2"/>
     </font>
     <font>
       <sz val="14"/>
@@ -3893,7 +3881,7 @@
       <alignment vertical="top" wrapText="1"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="108">
+  <cellXfs count="106">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="1"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="2"/>
@@ -4083,17 +4071,11 @@
     <xf numFmtId="0" fontId="22" fillId="0" borderId="6" xfId="5" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="22" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="22" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="22" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="6" fillId="3" borderId="1" xfId="2" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="2" applyFont="1"/>
   </cellXfs>
@@ -5188,7 +5170,7 @@
   <dimension ref="A1:M2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="J2" sqref="J2"/>
+      <selection activeCell="L2" sqref="L2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -5234,7 +5216,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="2" spans="1:13" ht="128" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:13" ht="120" x14ac:dyDescent="0.2">
       <c r="A2" s="22" t="s">
         <v>1039</v>
       </c>
@@ -5262,9 +5244,7 @@
       <c r="I2" s="93" t="s">
         <v>1042</v>
       </c>
-      <c r="J2" s="98" t="s">
-        <v>1059</v>
-      </c>
+      <c r="J2" s="98"/>
       <c r="K2" s="83"/>
       <c r="L2" s="83"/>
       <c r="M2" s="15"/>
@@ -5796,8 +5776,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0F00-000000000000}">
   <dimension ref="A1:C16"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="C16" sqref="C16"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A16" sqref="A16:C17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="10.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -5967,14 +5947,10 @@
         <v>1026</v>
       </c>
     </row>
-    <row r="16" spans="1:3" ht="51" x14ac:dyDescent="0.2">
-      <c r="A16" s="99" t="s">
-        <v>1060</v>
-      </c>
-      <c r="B16" s="99" t="s">
-        <v>1061</v>
-      </c>
-      <c r="C16" s="100"/>
+    <row r="16" spans="1:3" ht="16" x14ac:dyDescent="0.2">
+      <c r="A16" s="91" t="s">
+        <v>1083</v>
+      </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -6557,23 +6533,23 @@
       <c r="A11" s="82" t="s">
         <v>904</v>
       </c>
-      <c r="B11" s="101" t="s">
+      <c r="B11" s="99" t="s">
+        <v>1059</v>
+      </c>
+      <c r="C11" s="100" t="s">
+        <v>1060</v>
+      </c>
+      <c r="D11" s="101" t="s">
+        <v>1061</v>
+      </c>
+      <c r="E11" s="99" t="s">
+        <v>905</v>
+      </c>
+      <c r="F11" s="100" t="s">
         <v>1062</v>
       </c>
-      <c r="C11" s="102" t="s">
+      <c r="G11" s="15" t="s">
         <v>1063</v>
-      </c>
-      <c r="D11" s="103" t="s">
-        <v>1064</v>
-      </c>
-      <c r="E11" s="101" t="s">
-        <v>905</v>
-      </c>
-      <c r="F11" s="102" t="s">
-        <v>1065</v>
-      </c>
-      <c r="G11" s="15" t="s">
-        <v>1066</v>
       </c>
       <c r="H11" s="15"/>
       <c r="I11" s="15"/>
@@ -7051,20 +7027,20 @@
       </c>
     </row>
     <row r="2" spans="1:38" s="10" customFormat="1" ht="18" x14ac:dyDescent="0.2">
-      <c r="A2" s="104" t="s">
+      <c r="A2" s="102" t="s">
         <v>651</v>
       </c>
-      <c r="B2" s="104" t="s">
+      <c r="B2" s="102" t="s">
+        <v>1064</v>
+      </c>
+      <c r="C2" s="102" t="s">
+        <v>1065</v>
+      </c>
+      <c r="D2" s="102" t="s">
+        <v>1066</v>
+      </c>
+      <c r="E2" s="103" t="s">
         <v>1067</v>
-      </c>
-      <c r="C2" s="104" t="s">
-        <v>1068</v>
-      </c>
-      <c r="D2" s="104" t="s">
-        <v>1069</v>
-      </c>
-      <c r="E2" s="105" t="s">
-        <v>1070</v>
       </c>
       <c r="F2" s="73"/>
       <c r="G2" s="73"/>
@@ -7079,7 +7055,7 @@
       <c r="P2" s="74"/>
       <c r="Q2" s="74"/>
       <c r="AA2" s="28" t="s">
-        <v>1071</v>
+        <v>1068</v>
       </c>
       <c r="AB2" s="29">
         <v>0.6</v>
@@ -7091,7 +7067,7 @@
         <v>0.6</v>
       </c>
       <c r="AJ2" s="76" t="s">
-        <v>1071</v>
+        <v>1068</v>
       </c>
       <c r="AK2" s="75" t="s">
         <v>22</v>
@@ -7106,7 +7082,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7042729C-14BD-D341-B0A6-F6591292F392}">
   <dimension ref="A1:H2"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="H2" sqref="H2"/>
     </sheetView>
   </sheetViews>
@@ -7114,16 +7090,16 @@
   <sheetData>
     <row r="1" spans="1:8" ht="16" x14ac:dyDescent="0.2">
       <c r="A1" s="65" t="s">
-        <v>1072</v>
+        <v>1069</v>
       </c>
       <c r="B1" s="65" t="s">
-        <v>1081</v>
+        <v>1078</v>
       </c>
       <c r="C1" s="65" t="s">
-        <v>1082</v>
+        <v>1079</v>
       </c>
       <c r="D1" s="65" t="s">
-        <v>1083</v>
+        <v>1080</v>
       </c>
       <c r="E1" s="65" t="s">
         <v>624</v>
@@ -7132,28 +7108,28 @@
         <v>625</v>
       </c>
       <c r="G1" s="65" t="s">
-        <v>1084</v>
+        <v>1081</v>
       </c>
       <c r="H1" s="65" t="s">
-        <v>1085</v>
+        <v>1082</v>
       </c>
     </row>
     <row r="2" spans="1:8" ht="16" x14ac:dyDescent="0.2">
-      <c r="A2" s="107" t="s">
-        <v>1070</v>
+      <c r="A2" s="105" t="s">
+        <v>1067</v>
       </c>
       <c r="B2" s="78"/>
       <c r="C2" s="78"/>
-      <c r="D2" s="107" t="s">
-        <v>1071</v>
-      </c>
-      <c r="E2" s="107" t="s">
-        <v>1071</v>
-      </c>
-      <c r="F2" s="107" t="s">
+      <c r="D2" s="105" t="s">
+        <v>1068</v>
+      </c>
+      <c r="E2" s="105" t="s">
+        <v>1068</v>
+      </c>
+      <c r="F2" s="105" t="s">
         <v>22</v>
       </c>
-      <c r="G2" s="107" t="s">
+      <c r="G2" s="105" t="s">
         <v>66</v>
       </c>
       <c r="H2" s="65">
@@ -7178,28 +7154,28 @@
   <sheetData>
     <row r="1" spans="1:18" ht="16" x14ac:dyDescent="0.2">
       <c r="A1" s="65" t="s">
+        <v>1069</v>
+      </c>
+      <c r="B1" s="65" t="s">
+        <v>1070</v>
+      </c>
+      <c r="C1" s="65" t="s">
+        <v>1071</v>
+      </c>
+      <c r="D1" s="15" t="s">
         <v>1072</v>
       </c>
-      <c r="B1" s="65" t="s">
+      <c r="E1" s="15" t="s">
         <v>1073</v>
       </c>
-      <c r="C1" s="65" t="s">
+      <c r="F1" s="15" t="s">
         <v>1074</v>
       </c>
-      <c r="D1" s="15" t="s">
+      <c r="G1" s="15" t="s">
         <v>1075</v>
       </c>
-      <c r="E1" s="15" t="s">
+      <c r="H1" s="15" t="s">
         <v>1076</v>
-      </c>
-      <c r="F1" s="15" t="s">
-        <v>1077</v>
-      </c>
-      <c r="G1" s="15" t="s">
-        <v>1078</v>
-      </c>
-      <c r="H1" s="15" t="s">
-        <v>1079</v>
       </c>
       <c r="I1" s="65" t="s">
         <v>615</v>
@@ -7225,16 +7201,16 @@
       <c r="P1" s="65" t="s">
         <v>622</v>
       </c>
-      <c r="Q1" s="106" t="s">
+      <c r="Q1" s="104" t="s">
         <v>623</v>
       </c>
       <c r="R1" s="65" t="s">
-        <v>1080</v>
+        <v>1077</v>
       </c>
     </row>
     <row r="2" spans="1:18" ht="16" x14ac:dyDescent="0.2">
-      <c r="A2" s="107" t="s">
-        <v>1070</v>
+      <c r="A2" s="105" t="s">
+        <v>1067</v>
       </c>
       <c r="B2" s="78"/>
       <c r="C2" s="78"/>
@@ -7243,8 +7219,8 @@
       <c r="F2" s="78"/>
       <c r="G2" s="78"/>
       <c r="H2" s="78"/>
-      <c r="I2" s="107" t="s">
-        <v>1071</v>
+      <c r="I2" s="105" t="s">
+        <v>1068</v>
       </c>
       <c r="J2" s="78">
         <v>0.6</v>
